--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25207"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC0F714B-5986-49E0-9DCD-CC654C6DC384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69F1EBF7-5A5C-4D53-99A4-F1B780CD5039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="279">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -310,9 +310,6 @@
     <t>Layout Should be same form first to last</t>
   </si>
   <si>
-    <t>Change list to grid</t>
-  </si>
-  <si>
     <t>Implement - back to same page</t>
   </si>
   <si>
@@ -344,6 +341,27 @@
   </si>
   <si>
     <t>Get reporting person in dropbox (as list)</t>
+  </si>
+  <si>
+    <t>Add last approved date</t>
+  </si>
+  <si>
+    <t>Add save and next</t>
+  </si>
+  <si>
+    <t>Add box for profile image</t>
+  </si>
+  <si>
+    <t>Add delete and edit for all drop down added details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design social media </t>
+  </si>
+  <si>
+    <t>Add text based filter for project</t>
+  </si>
+  <si>
+    <t>Entity Model Normalization</t>
   </si>
   <si>
     <t>Team Genesis - Profile Management Project</t>
@@ -475,6 +493,9 @@
     <t>So other can see the user profile</t>
   </si>
   <si>
+    <t>Reporting person should able to accept or reject the user profile</t>
+  </si>
+  <si>
     <t xml:space="preserve">I should be able to logout(reused) to </t>
   </si>
   <si>
@@ -496,7 +517,7 @@
     <t>So I can maintain the data upto date</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin should have the privilege to add or change the master data()			</t>
+    <t xml:space="preserve">Admin should have the privilege to add or change the master data(Designation,College,Experience,Technology)			</t>
   </si>
   <si>
     <t xml:space="preserve">I should be able to add HR Partner </t>
@@ -517,9 +538,6 @@
     <t>I should be able to logout(reused)</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>HR Partner</t>
   </si>
   <si>
@@ -537,6 +555,9 @@
   </si>
   <si>
     <t xml:space="preserve">So They can approves user profile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I should able to assign reporting person  </t>
   </si>
   <si>
     <t>Entity  model</t>
@@ -1251,20 +1272,20 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC57BCE-A5E6-2D20-710D-0D77E261F4D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A326E9F-6AAC-452D-09EB-D248E335FEEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1280,8 +1301,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4010025" y="657225"/>
-          <a:ext cx="5857875" cy="6353175"/>
+          <a:off x="4010025" y="695325"/>
+          <a:ext cx="11811000" cy="10915650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -34340,9 +34361,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -34630,44 +34651,77 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="3:3" ht="15.75" customHeight="1">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="C49" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="3:3" ht="15.75" customHeight="1">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="C50" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="3:3" ht="15.75" customHeight="1">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="C51" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="3:3" ht="15.75" customHeight="1">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="C52" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="3:3" ht="15.75" customHeight="1">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="C53" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="3:3" ht="15.75" customHeight="1">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="C54" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:3" ht="15.75" customHeight="1">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="C55" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C56" s="7" t="s">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A58" s="9">
+        <v>44660</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C59" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C60" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C61" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C62" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C63" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C64" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -34679,8 +34733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99455432-5260-4250-8176-F630DA6BD87E}">
   <dimension ref="A5:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -34690,12 +34744,12 @@
     <col min="4" max="4" width="14" style="15" customWidth="1"/>
     <col min="5" max="5" width="93.5703125" customWidth="1"/>
     <col min="6" max="6" width="58.85546875" customWidth="1"/>
-    <col min="7" max="7" width="80.28515625" customWidth="1"/>
+    <col min="7" max="7" width="98" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
       <c r="E5" s="15" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -34703,27 +34757,27 @@
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="15" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -34731,31 +34785,31 @@
         <v>1</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="2:7" ht="38.25">
+    <row r="20" spans="2:7" ht="36">
       <c r="D20" s="15">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="39.75" customHeight="1">
@@ -34763,13 +34817,13 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="12.75" customHeight="1">
@@ -34777,13 +34831,13 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -34791,13 +34845,13 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -34805,10 +34859,10 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G24" s="12"/>
     </row>
@@ -34824,16 +34878,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D27" s="15">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G27" s="12"/>
     </row>
@@ -34842,10 +34896,10 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G28" s="12"/>
     </row>
@@ -34854,13 +34908,13 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -34868,13 +34922,13 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -34882,13 +34936,13 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -34896,13 +34950,13 @@
         <v>6</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G32" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -34910,13 +34964,13 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -34924,22 +34978,24 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="35" spans="2:7">
       <c r="D35" s="15">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G35" s="12"/>
     </row>
@@ -34954,16 +35010,16 @@
         <v>3</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D37" s="15">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G37" s="12"/>
     </row>
@@ -34973,10 +35029,10 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G38" s="12"/>
     </row>
@@ -34985,13 +35041,13 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -34999,13 +35055,13 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F40" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -35013,10 +35069,10 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F41" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G41" s="12"/>
     </row>
@@ -35025,18 +35081,15 @@
         <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F42" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G42" s="12"/>
     </row>
     <row r="43" spans="2:7" ht="15">
       <c r="E43" s="4"/>
-      <c r="F43" t="s">
-        <v>159</v>
-      </c>
       <c r="G43" s="12"/>
     </row>
     <row r="44" spans="2:7">
@@ -35044,16 +35097,16 @@
         <v>4</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D44" s="15">
         <v>1</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G44" s="12"/>
     </row>
@@ -35062,13 +35115,13 @@
         <v>2</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="2:7">
@@ -35076,22 +35129,24 @@
         <v>3</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F46" t="s">
-        <v>165</v>
-      </c>
-      <c r="G46" s="12"/>
+        <v>171</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="47" spans="2:7">
       <c r="D47" s="15">
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G47" s="12"/>
     </row>
@@ -35112,13 +35167,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB4FBD0-7C1E-4BC2-A19C-4CB4A94AE885}">
   <dimension ref="L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA45" sqref="AA45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" spans="12:12">
       <c r="L2" s="13" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -35131,7 +35188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79905DE3-DAB3-4C6E-84FE-24BF5F973564}">
   <dimension ref="C1:K603"/>
   <sheetViews>
-    <sheetView topLeftCell="S107" workbookViewId="0">
+    <sheetView topLeftCell="S137" workbookViewId="0">
       <selection activeCell="AE151" sqref="AE151"/>
     </sheetView>
   </sheetViews>
@@ -35139,28 +35196,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="23.25">
       <c r="J1" s="20" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.25">
       <c r="C4" s="19" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="6" spans="3:10" ht="20.25">
       <c r="D6" s="18" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="20.25">
       <c r="D21" s="18" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="20.25">
       <c r="D33" s="21" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -35168,34 +35225,34 @@
     </row>
     <row r="46" spans="4:8" ht="20.25">
       <c r="D46" s="18" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="20.25">
       <c r="C59" s="19" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D59" s="18"/>
     </row>
     <row r="61" spans="3:4" ht="20.25">
       <c r="D61" s="18" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="20.25">
       <c r="D74" s="18" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E74" s="18"/>
     </row>
     <row r="85" spans="4:4" ht="20.25">
       <c r="D85" s="18" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="296" spans="3:5" ht="18">
       <c r="C296" s="16" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D296" s="16"/>
       <c r="E296" s="16"/>
@@ -35215,8 +35272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF61F9D4-CE67-4B1A-BDEF-73A765CC6053}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -35227,7 +35284,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="37" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -35235,170 +35292,170 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="B6" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="37" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="37" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="13" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="B33" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="13" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="B39" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="B40" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I40" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="I41" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -35406,153 +35463,153 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="13" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="B49" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15">
       <c r="A51" s="37" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B54" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15">
       <c r="A64" s="37" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="13" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="B69" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="13" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="B77" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="13" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15">
       <c r="A85" s="37" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B86" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -35564,8 +35621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCE65D9-B3F5-4A6F-B0B3-3A621DFF1ACB}">
   <dimension ref="A3:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -35575,7 +35632,7 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="B3" s="13" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -35583,7 +35640,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -35591,7 +35648,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -35599,7 +35656,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -35607,7 +35664,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="13" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -35615,7 +35672,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -35623,7 +35680,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -35631,7 +35688,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -35639,7 +35696,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -35647,7 +35704,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -35655,7 +35712,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -35663,7 +35720,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -35671,7 +35728,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -35679,7 +35736,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -35687,7 +35744,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -35700,7 +35757,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -35716,10 +35773,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="25"/>
       <c r="B1" s="26" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -35729,47 +35786,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="23" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="23"/>
       <c r="B4" s="24" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="23"/>
       <c r="B5" s="24" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="23"/>
       <c r="B6" s="24" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="23" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -35824,10 +35881,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="23" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>4</v>
@@ -35836,31 +35893,31 @@
     <row r="19" spans="1:4">
       <c r="A19" s="23"/>
       <c r="B19" s="24" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="23"/>
       <c r="B20" s="24" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="23"/>
       <c r="B21" s="24" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -35894,128 +35951,128 @@
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
       <c r="L3" s="18" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="O9" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="O17" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="O25" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="33" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="33" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="33" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18725D05-C701-48A0-961D-6205A251FC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{200845FE-2817-4C9C-9075-7BCC41666A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
     <sheet name="MOM" sheetId="3" r:id="rId2"/>
     <sheet name="User_Story" sheetId="5" r:id="rId3"/>
-    <sheet name="Entity" sheetId="13" r:id="rId4"/>
-    <sheet name="Datamodels" sheetId="14" r:id="rId5"/>
-    <sheet name="Updated_Entity" sheetId="15" r:id="rId6"/>
-    <sheet name="Work_flow" sheetId="8" r:id="rId7"/>
-    <sheet name="Acceptance criteria" sheetId="11" r:id="rId8"/>
-    <sheet name="Assumptions and Constraints" sheetId="12" r:id="rId9"/>
-    <sheet name="User_Requirements" sheetId="9" r:id="rId10"/>
-    <sheet name="Hierarchy" sheetId="10" r:id="rId11"/>
+    <sheet name="Datamodels" sheetId="14" r:id="rId4"/>
+    <sheet name="Updated_Entity" sheetId="15" r:id="rId5"/>
+    <sheet name="Work_flow" sheetId="8" r:id="rId6"/>
+    <sheet name="Acceptance criteria" sheetId="11" r:id="rId7"/>
+    <sheet name="User_Requirements" sheetId="9" r:id="rId8"/>
+    <sheet name="Hierarchy" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="474">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -417,6 +415,21 @@
     <t>Dont break conventionality thoughout the system</t>
   </si>
   <si>
+    <t>No drop down in getting degree in educational details</t>
+  </si>
+  <si>
+    <t>Add profile status in filters</t>
+  </si>
+  <si>
+    <t>Add cards only where it is needed while getting profile detals</t>
+  </si>
+  <si>
+    <t>Add dropdown while getting awards and certificates</t>
+  </si>
+  <si>
+    <t>In data model refer user_id as foreign key in all tables</t>
+  </si>
+  <si>
     <t>Team Genesis - Profile Management Project</t>
   </si>
   <si>
@@ -450,10 +463,10 @@
     <t>Profile Creator</t>
   </si>
   <si>
-    <t>As a profile creator, I should be able to login(reused)</t>
-  </si>
-  <si>
-    <t>So I can enter the home page</t>
+    <t>As a profile creator, I should be able to login the system(reused)</t>
+  </si>
+  <si>
+    <t>So I can enter the system</t>
   </si>
   <si>
     <t>System login needs user credentials
@@ -463,38 +476,62 @@
   </si>
   <si>
     <t>Login page has two users credentials(Username, Password)
-If he/she enters wrong credentials,they can't enter the system
 Landing page is common for all users</t>
   </si>
   <si>
-    <t>As a profile creator, I should be able to create my profile</t>
-  </si>
-  <si>
-    <t>So I and other users can view my profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User has to fill all the mandatory fields(Personal details,Education details,Project Details,Skills,Awards and Certificates)		</t>
-  </si>
-  <si>
-    <t>It is not mandatory to create profile
+    <t>If he/she enters wrong credentials,they can't enter the system</t>
+  </si>
+  <si>
+    <t>As a profile creator, I should be able to view my dashboard</t>
+  </si>
+  <si>
+    <t>So I can have the full control to my dashboard</t>
+  </si>
+  <si>
+    <t>It should navigate me to see my profile
+It should navigate me to see my profile history
+It should navigate me to change my password</t>
+  </si>
+  <si>
+    <t>My profile shows no profile created when user login first
+Profile history shows lastly approved 3 profile historys</t>
+  </si>
+  <si>
+    <t>To see my profile, he/she should have created the profile first
+To see profile history, history of changes should be stored in database</t>
+  </si>
+  <si>
+    <t>As a profile creator, I should be able to create my own profile</t>
+  </si>
+  <si>
+    <t>So I can create and view my own profile</t>
+  </si>
+  <si>
+    <t>It should show my personal, educational, project, achievements details</t>
+  </si>
+  <si>
+    <t>Master table to have a specific data for profile filters  such as Project,Role,Domain
 The user gives the experience between the ranges.
-Experience range in filter is  fixed as 5years range
-The Date of Joining and Break Duration to calculate the experience of user.</t>
-  </si>
-  <si>
-    <t>User should have the access to view the profile
-Master table to have a specific  data for profile filters  such as Project,Role,Domain
-The user want to get the approval to add additional data in master table.</t>
+The Date of Joining and Break Duration to calculate the experience of user.
+The user want to request admin to add additional data in master table.
+After creating profile, creator should wait for reporting persons approval for his/her profile</t>
+  </si>
+  <si>
+    <t>User should have the access to create and view the profile
+To create profile user has to fill all the mandatory fields(Personal,Educational,Project,Skilss,Awards&amp; Certifications)</t>
   </si>
   <si>
     <t>As a profile creator, I should be able to update my profile</t>
   </si>
   <si>
-    <t>So I and others can see the updated profile</t>
-  </si>
-  <si>
-    <t>Status of approval should be shown by the user
-Others can request to update profile</t>
+    <t>So I can see my updated profile</t>
+  </si>
+  <si>
+    <t>I should be able to see the updated changes in my profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+After updating profile creator should wait for reporting persons approval for his/her profile</t>
   </si>
   <si>
     <t xml:space="preserve">User should have the access to update the profile
@@ -505,10 +542,13 @@
     <t>As a profile creator, I should be able to export my profile</t>
   </si>
   <si>
-    <t xml:space="preserve">So I and others can export my profile </t>
-  </si>
-  <si>
-    <t>I should able to download and view the profile in organisation's template</t>
+    <t xml:space="preserve">So I can export my profile </t>
+  </si>
+  <si>
+    <t>I should be able to download and view the profile in organisation's template</t>
+  </si>
+  <si>
+    <t>Exported profile should be stored in the local system</t>
   </si>
   <si>
     <t>Exported profile should be in organization's template</t>
@@ -517,55 +557,120 @@
     <t>As a profile creator, I should be able to share my profile</t>
   </si>
   <si>
-    <t>So i can share my profile to anyone</t>
-  </si>
-  <si>
-    <t>I can share my profile to anyone through e-mail  only when share feature is given</t>
+    <t>So I can share my profile to anyone</t>
+  </si>
+  <si>
+    <t>I should be able to share profile to anyone when I hit the share button</t>
+  </si>
+  <si>
+    <t>Share button should know whom to send from whom
+Share profile even when the profile is decilned or waiting for approval</t>
   </si>
   <si>
     <t>User should have the access to export the profile</t>
   </si>
   <si>
-    <t>As a profile creator, I should be able to logout</t>
+    <t xml:space="preserve">As a profile creatorr, I should be able to view my profile update versions </t>
+  </si>
+  <si>
+    <t>So I can see the versioning of profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I should be able to see lastly updated versions of my profiles </t>
+  </si>
+  <si>
+    <t>As a profile creator, I should be able to change my password</t>
+  </si>
+  <si>
+    <t>So others can't easily able to access my system</t>
+  </si>
+  <si>
+    <t>I can enter the system with the password that is recently changed by me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passwords can be changed numerous times and changed password should be stored </t>
+  </si>
+  <si>
+    <t>Creator should have the access to change password</t>
+  </si>
+  <si>
+    <t>As a profile creator, I should be able to get support from HR when I face any issues while logging in</t>
+  </si>
+  <si>
+    <t>So I can avoid login issues</t>
+  </si>
+  <si>
+    <t>I should be able to get the updated credentials to login to the system provided by the HR</t>
+  </si>
+  <si>
+    <t>Once HR changes the details,creator should login with the new credentials given by the HR</t>
+  </si>
+  <si>
+    <t>As a profile creator, I should be able to logout the system(reused)</t>
   </si>
   <si>
     <t>So I can exit from the system</t>
   </si>
   <si>
-    <t>As a profile creator, I should be able to request Admin to Update Master data required to fill details</t>
+    <t>I should be logged out from the system</t>
   </si>
   <si>
     <t>Profile Searcher</t>
   </si>
   <si>
-    <t>As a profile searcher, I should be able to login(reused)</t>
-  </si>
-  <si>
-    <t>As a profile searcher, I should be able to search and view profiles of employees under me</t>
+    <t>As a profile searcher, I should be able to login the system(reused)</t>
+  </si>
+  <si>
+    <t>As a profile searcher, I should be able to view my dashboard</t>
+  </si>
+  <si>
+    <t>So I can have  the full control to my dashboard</t>
+  </si>
+  <si>
+    <t>It should navigate me to see my profile
+It should navigate me to see my profile history
+It should navigate me to change my password
+It should navigate me to see the profiles reporting under me(reporting person)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My profile will show no profile, when I login first
+Profile history shows lastly approved 3 profile history
+Searcher can see the profiles reporting under him/her(reporting person)
+</t>
+  </si>
+  <si>
+    <t>As a profile searcher, I should be able to search and view profiles</t>
   </si>
   <si>
     <t>So I can view the particular profiles based on the filters applied</t>
   </si>
   <si>
-    <t>The admin assign the mapping of roles with respective lower hierarchy. 
-Filter to show the limited profile.</t>
-  </si>
-  <si>
-    <t>Heirarchy mapping to show the result of lower profile</t>
-  </si>
-  <si>
-    <t>As a profile seracher, I should be able to request for updation of profile when it isn't updated for 3months</t>
+    <t>I can view the particular profile using diffreent filters(filter by role, by domain working, by technology know, by experiance, by profile status and by college studied</t>
+  </si>
+  <si>
+    <t>Searched profiles should show profile status(approved,declined,waiting for approval)
+Profiles should be shared and downloaded
+Profiles will be shown to the user based on hierarchy
+Higher hierarchy profiles wont be shown to the lower hierarchy</t>
+  </si>
+  <si>
+    <t>Searcher can search profiles by typing profilers name and also by applying filters</t>
+  </si>
+  <si>
+    <t>As a profile seracher, I should be able to request for updation of profile</t>
   </si>
   <si>
     <t>So I can get an updated profile</t>
   </si>
   <si>
-    <t>I should be able to see the request update button if it exceeds 3 months</t>
-  </si>
-  <si>
-    <t>The user request to update the profile of lower employees.
-In Profile,the last updated date is mandatory to check the due date of updation.
-Request to Update button will be enabled only when profile update duration exceeds 3months</t>
+    <t>I should be able to request update to profiles only to the hierarchy lower than me</t>
+  </si>
+  <si>
+    <t>In Profile,the last updated date should be visible to check the due date of updation.</t>
+  </si>
+  <si>
+    <t>Request to update button will be enabled only when profile's last updated date exceeds 3 months
+Higher hierarchy can give request to update to lower hierarchy vice versa is not possible</t>
   </si>
   <si>
     <t>As a profile seracher, I should be able to export the profile of person I've searched</t>
@@ -577,28 +682,16 @@
     <t>I should able to export and view the profile in organisation's template</t>
   </si>
   <si>
-    <t>As a profile seracher, I should be able to apply different filters  while searching(Experience,College,Role,Domain,Technology)</t>
-  </si>
-  <si>
-    <t>So it makes the search easier</t>
-  </si>
-  <si>
-    <t>I can view the particular profile</t>
-  </si>
-  <si>
-    <t>As a profile seracher, I should be able to view previously updated profile</t>
-  </si>
-  <si>
-    <t>So I can see the versioning of profile</t>
-  </si>
-  <si>
-    <t>History of updated profiles should be available in the system.</t>
+    <t>Searcher should have access to export profiles</t>
   </si>
   <si>
     <t>As a profile seracher, I should be able to share my profile</t>
   </si>
   <si>
-    <t>So i can send my profile to anyone</t>
+    <t>So I can send my profile to anyone</t>
+  </si>
+  <si>
+    <t>Searcher should have the access to export the profiles</t>
   </si>
   <si>
     <t>As a profile seracher, I should be able to approve user's profile(reporting user)</t>
@@ -607,13 +700,31 @@
     <t>So others can see the approved profiles</t>
   </si>
   <si>
+    <t>I should be able to approves any profiles under me and also the profiles who are not under me</t>
+  </si>
+  <si>
+    <t>Approve button will be seen to all searchers based on hierarchy</t>
+  </si>
+  <si>
+    <t>Searcher should have the access to approve profiles</t>
+  </si>
+  <si>
     <t>As a profile seracher, I should be able to reject user's profile(reporting user)</t>
   </si>
   <si>
-    <t>So the user rectify the corrections in his/her profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a profile seracher, I should be able to logout(reused) to </t>
+    <t>So the user can rectify the corrections in his/her profile</t>
+  </si>
+  <si>
+    <t>I should be able to reject any profiles with errors under me and also the profiles who are not under me</t>
+  </si>
+  <si>
+    <t>Decline button will be seen to all searchers based on hierarchy</t>
+  </si>
+  <si>
+    <t>Searcher should have the access to decline profiles</t>
+  </si>
+  <si>
+    <t>As a profile seracher, I should be able to logout the system(reused)</t>
   </si>
   <si>
     <t>So I can exit form the system</t>
@@ -622,7 +733,12 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>As a admin, I should be able to login(reused)</t>
+    <t>As a admin, I should be able to login the sysytem(reused)</t>
+  </si>
+  <si>
+    <t>System login needs user credentials
+Credentials must be correct
+It sholud navigate to home page</t>
   </si>
   <si>
     <t>As a admin, I should be able to permit/deny access to user to see others profile</t>
@@ -631,529 +747,551 @@
     <t>So I can maintain the hierarchy based profile access</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin should have the privilege to add or change the master data(Designation,College,Experience,Technology)			</t>
-  </si>
-  <si>
-    <t>The admin has to verify the values of users.</t>
+    <t>I should be able to volunteerly permit or deny particular profiles to see other profiles</t>
+  </si>
+  <si>
+    <t>Admin should have access to permit/deny users to other profiles</t>
   </si>
   <si>
     <t>As a admin, I should be able to view/update master data</t>
   </si>
   <si>
+    <t>So I can maintain the data updated</t>
+  </si>
+  <si>
+    <t>I should be able to add, delete and update changes to the master data</t>
+  </si>
+  <si>
+    <t>Admin can make changes in master datas of fileters(role, college, domain, tehcnology)</t>
+  </si>
+  <si>
+    <t>Admin should have the access to make changes in the  master datas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a admin, I should be able to add HR Partner </t>
+  </si>
+  <si>
+    <t>So they can register new user</t>
+  </si>
+  <si>
+    <t>I should be able to add HR's to add new users and to assign reporitng person to users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin should know the list of HR's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin should havve the access to add HR </t>
+  </si>
+  <si>
+    <t>As a admin, I should be able to view/delete user</t>
+  </si>
+  <si>
+    <t>So I can maintain user list</t>
+  </si>
+  <si>
+    <t>I should be able to remove users from the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin should havve the access to remove users </t>
+  </si>
+  <si>
+    <t>As a admin, I should be able to logout the system(reused)</t>
+  </si>
+  <si>
+    <t>HR Partner</t>
+  </si>
+  <si>
+    <t>As a HR partner, I should be able to login the system(reused)</t>
+  </si>
+  <si>
+    <t>As a HR partner, I should be able to register new user</t>
+  </si>
+  <si>
+    <t>So user can enter the system</t>
+  </si>
+  <si>
+    <t>I should be able to register new users for them to use the system</t>
+  </si>
+  <si>
+    <t>HR should know the user details to register in the system
+Only HR partnet can register new user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR should have the access to register new user
+Only users who are allowed by HR can enter the system </t>
+  </si>
+  <si>
+    <t>As a HR partner, I should be able to assign reporting person to user</t>
+  </si>
+  <si>
+    <t>So they can maintain the organisations under them</t>
+  </si>
+  <si>
+    <t>I should be able to assign reporting person to users to maintain organizations</t>
+  </si>
+  <si>
+    <t>HR should know the list of reporting persons to assign them to particular user</t>
+  </si>
+  <si>
+    <t>HR should have the access to assign reporting person to user</t>
+  </si>
+  <si>
+    <t>As a HR partner, I should be able to edit user details when requested by user</t>
+  </si>
+  <si>
+    <t>So I can make changes in user details based on issues raised</t>
+  </si>
+  <si>
+    <t>I should be able to change user details and help them in issues raised while logging in the system</t>
+  </si>
+  <si>
+    <t>User details should be stored somwhere to update changes when requested by user</t>
+  </si>
+  <si>
+    <t>HR should have the access to edit user details</t>
+  </si>
+  <si>
+    <t>As a HR partner, I should be able to logout the system(reused)</t>
+  </si>
+  <si>
+    <t>User_Creation  (HR)</t>
+  </si>
+  <si>
+    <t>User_id</t>
+  </si>
+  <si>
+    <t>Organisation_id</t>
+  </si>
+  <si>
+    <t>Role_id</t>
+  </si>
+  <si>
+    <t>User_Name</t>
+  </si>
+  <si>
+    <t>Mobile_Number</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Geetha</t>
+  </si>
+  <si>
+    <t>Geetha.Kumaran</t>
+  </si>
+  <si>
+    <t>*********</t>
+  </si>
+  <si>
+    <t>geetha.kumaran@gmail.com</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Ram.murugan</t>
+  </si>
+  <si>
+    <t>ram.muruga@gmail.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Reporting_person</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>RP_id</t>
+  </si>
+  <si>
+    <t>HR_id</t>
+  </si>
+  <si>
+    <t>HR_Name</t>
+  </si>
+  <si>
+    <t>Organization_Name</t>
+  </si>
+  <si>
+    <t>Role_Name</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Sankar</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>User_Personal_Details</t>
+  </si>
+  <si>
+    <t>Personal_id</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>DOJ</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>User_Language</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>User_Languade_id</t>
+  </si>
+  <si>
+    <t>Language_id</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Speak</t>
+  </si>
+  <si>
+    <t>Language_Name</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Breakdown</t>
+  </si>
+  <si>
+    <t>User_Breakdown_id</t>
+  </si>
+  <si>
+    <t>Breakdown_id</t>
+  </si>
+  <si>
+    <t>Starting_month</t>
+  </si>
+  <si>
+    <t>Ending_month</t>
+  </si>
+  <si>
+    <t>Starting_year</t>
+  </si>
+  <si>
+    <t>Ending_year</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>Social_Media</t>
+  </si>
+  <si>
+    <t>Social_Media_id</t>
+  </si>
+  <si>
+    <t>Social_Media_Name</t>
+  </si>
+  <si>
+    <t>Social_Media_Link</t>
+  </si>
+  <si>
+    <t>User_Social_Media</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>User_Social_Media_id</t>
+  </si>
+  <si>
+    <t>Social_media_id</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>User_Educationals</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Education_Duration</t>
+  </si>
+  <si>
+    <t>Education_id</t>
+  </si>
+  <si>
+    <t>Course_id</t>
+  </si>
+  <si>
+    <t>Duration_id</t>
+  </si>
+  <si>
+    <t>College_id</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Course_Name</t>
+  </si>
+  <si>
+    <t>Degree_id</t>
+  </si>
+  <si>
+    <t>Degree_name</t>
+  </si>
+  <si>
+    <t>College_Name</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Btech</t>
+  </si>
+  <si>
+    <t>SKCT</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>Bsc</t>
+  </si>
+  <si>
+    <t>PSNA</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>User_Projects</t>
+  </si>
+  <si>
+    <t>Project_Duration</t>
+  </si>
+  <si>
+    <t>Project_details_id</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Project_Duration_id</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Feburary</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>User_Projects_tools</t>
+  </si>
+  <si>
+    <t>Tool_id</t>
+  </si>
+  <si>
+    <t>Tool_Name</t>
+  </si>
+  <si>
+    <t>User_Projects_tools_id</t>
+  </si>
+  <si>
+    <t>Tools_id</t>
+  </si>
+  <si>
+    <t>VisualStudio</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Project_id</t>
+  </si>
+  <si>
+    <t>Project_Name</t>
+  </si>
+  <si>
+    <t>Profile_Management</t>
+  </si>
+  <si>
+    <t>Blind_Assistance</t>
+  </si>
+  <si>
+    <t>User_Skills</t>
+  </si>
+  <si>
+    <t>Skill_id</t>
+  </si>
+  <si>
+    <t>Technology_id</t>
+  </si>
+  <si>
+    <t>Domain_id</t>
+  </si>
+  <si>
+    <t>Domain_Name</t>
+  </si>
+  <si>
+    <t>Technology_Name</t>
+  </si>
+  <si>
+    <t>DOT NET</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>Automobile</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>User_Achievements</t>
+  </si>
+  <si>
+    <t>Achievement_id</t>
+  </si>
+  <si>
+    <t>User_Certifications</t>
+  </si>
+  <si>
+    <t>Certification_id</t>
+  </si>
+  <si>
+    <t>User_Profile_History</t>
+  </si>
+  <si>
+    <t>Profile_history_id</t>
+  </si>
+  <si>
+    <t>File_location</t>
+  </si>
+  <si>
+    <t>Work Flow</t>
+  </si>
+  <si>
+    <t>Profile create</t>
+  </si>
+  <si>
+    <t>Profile view</t>
+  </si>
+  <si>
+    <t>Profile Update</t>
+  </si>
+  <si>
+    <t>Profile Download</t>
+  </si>
+  <si>
+    <t>Request to update profile</t>
+  </si>
+  <si>
+    <t>Profile Search based on Filters</t>
+  </si>
+  <si>
+    <t>User story</t>
+  </si>
+  <si>
+    <t>As a admin,I should be able to view/update master data</t>
+  </si>
+  <si>
     <t>So I can maintain the data upto date</t>
   </si>
   <si>
-    <t>I should able to assign HR for user registeration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a admin, I should be able to add HR Partner </t>
-  </si>
-  <si>
-    <t>So they will register new user</t>
-  </si>
-  <si>
-    <t>As a admin, I should be able to view/delete user</t>
-  </si>
-  <si>
-    <t>So I can maintain user list</t>
-  </si>
-  <si>
-    <t>As a admin, I should be able to logout(reused)</t>
-  </si>
-  <si>
-    <t>HR Partner</t>
-  </si>
-  <si>
-    <t>As a HR partner, I should be able to login(reused)</t>
-  </si>
-  <si>
-    <t>I should fill all the mandatory fields while registering new user
-(Name,E-mail id,Phonenumber,Department,Designation,Password)</t>
-  </si>
-  <si>
-    <t>As a HR partner, I should be able to register new user</t>
-  </si>
-  <si>
-    <t>So user can enter the system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I should able to assign reporting person  </t>
-  </si>
-  <si>
-    <t>As a HR partner, I should be able to assign reporting person to user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So I can see the genuine profiles approved by reporting person </t>
-  </si>
-  <si>
-    <t>As a HR partner, I should be able to edit user details when requested by user</t>
-  </si>
-  <si>
-    <t>So I can make changes in user details based on user needs</t>
-  </si>
-  <si>
-    <t>As a HR partner, I should be able to logout(reused)</t>
-  </si>
-  <si>
-    <t>Entity  model</t>
-  </si>
-  <si>
-    <t>User_Creation  (HR)</t>
-  </si>
-  <si>
-    <t>User_id</t>
-  </si>
-  <si>
-    <t>RP_id</t>
-  </si>
-  <si>
-    <t>HR_id</t>
-  </si>
-  <si>
-    <t>Organisation_id</t>
-  </si>
-  <si>
-    <t>Role_id</t>
-  </si>
-  <si>
-    <t>User_Name</t>
-  </si>
-  <si>
-    <t>Mobile_Number</t>
-  </si>
-  <si>
-    <t>E-mail</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Geetha</t>
-  </si>
-  <si>
-    <t>Geetha.Kumaran</t>
-  </si>
-  <si>
-    <t>*********</t>
-  </si>
-  <si>
-    <t>geetha.kumaran@gmail.com</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>Ram.murugan</t>
-  </si>
-  <si>
-    <t>ram.muruga@gmail.com</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Reporting_person</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Organisation</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Reporting_Person_Name</t>
-  </si>
-  <si>
-    <t>HR_Name</t>
-  </si>
-  <si>
-    <t>Organization_Name</t>
-  </si>
-  <si>
-    <t>Role_Name</t>
-  </si>
-  <si>
-    <t>SitaVennugopal</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Kanirasan</t>
-  </si>
-  <si>
-    <t>Sankar</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>User_Personal_Details</t>
-  </si>
-  <si>
-    <t>Personal_id</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>DOJ</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>User_Language</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>User_Languade_id</t>
-  </si>
-  <si>
-    <t>Language_id</t>
-  </si>
-  <si>
-    <t>Read</t>
-  </si>
-  <si>
-    <t>Write</t>
-  </si>
-  <si>
-    <t>Speak</t>
-  </si>
-  <si>
-    <t>Language_Name</t>
-  </si>
-  <si>
-    <t>Tamil</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Hindi</t>
-  </si>
-  <si>
-    <t>User_Breakdown</t>
-  </si>
-  <si>
-    <t>Breakdown</t>
-  </si>
-  <si>
-    <t>User_Breakdown_id</t>
-  </si>
-  <si>
-    <t>Breakdown_id</t>
-  </si>
-  <si>
-    <t>Starting_month</t>
-  </si>
-  <si>
-    <t>Ending_month</t>
-  </si>
-  <si>
-    <t>Starting_year</t>
-  </si>
-  <si>
-    <t>Ending_year</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>Social_Media</t>
-  </si>
-  <si>
-    <t>Social_Media_id</t>
-  </si>
-  <si>
-    <t>Social_Media_Name</t>
-  </si>
-  <si>
-    <t>Social_Media_Link</t>
-  </si>
-  <si>
-    <t>User_Social_Media</t>
-  </si>
-  <si>
-    <t>Linkedin</t>
-  </si>
-  <si>
-    <t>User_Social_Media_id</t>
-  </si>
-  <si>
-    <t>Social_media_id</t>
-  </si>
-  <si>
-    <t>Twitter</t>
-  </si>
-  <si>
-    <t>Telegram</t>
-  </si>
-  <si>
-    <t>User_Educationals</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Education_Duration</t>
-  </si>
-  <si>
-    <t>Education_id</t>
-  </si>
-  <si>
-    <t>Degree_id</t>
-  </si>
-  <si>
-    <t>Course_id</t>
-  </si>
-  <si>
-    <t>Duration_id</t>
-  </si>
-  <si>
-    <t>College_id</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>Course_Name</t>
-  </si>
-  <si>
-    <t>Degree_name</t>
-  </si>
-  <si>
-    <t>College_Name</t>
-  </si>
-  <si>
-    <t>CSE</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>BIT</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Btech</t>
-  </si>
-  <si>
-    <t>SKCT</t>
-  </si>
-  <si>
-    <t>ECE</t>
-  </si>
-  <si>
-    <t>Bsc</t>
-  </si>
-  <si>
-    <t>PSNA</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>User_Projects</t>
-  </si>
-  <si>
-    <t>Project_Duration</t>
-  </si>
-  <si>
-    <t>Project_details_id</t>
-  </si>
-  <si>
-    <t>Project_id</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Project_Duration_id</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Feburary</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Tools</t>
-  </si>
-  <si>
-    <t>User_Projects_tools</t>
-  </si>
-  <si>
-    <t>Tool_id</t>
-  </si>
-  <si>
-    <t>Tool_Name</t>
-  </si>
-  <si>
-    <t>User_Projects_tools_id</t>
-  </si>
-  <si>
-    <t>Tools_id</t>
-  </si>
-  <si>
-    <t>VisualStudio</t>
-  </si>
-  <si>
-    <t>Eclipse</t>
-  </si>
-  <si>
-    <t>Oracle</t>
-  </si>
-  <si>
-    <t>Projects</t>
-  </si>
-  <si>
-    <t>Project_Name</t>
-  </si>
-  <si>
-    <t>Profile_Management</t>
-  </si>
-  <si>
-    <t>Blind_Assistance</t>
-  </si>
-  <si>
-    <t>User_Skills</t>
-  </si>
-  <si>
-    <t>Skill_id</t>
-  </si>
-  <si>
-    <t>Domain_id</t>
-  </si>
-  <si>
-    <t>Technology_id</t>
-  </si>
-  <si>
-    <t>Domain_Name</t>
-  </si>
-  <si>
-    <t>Technology_Name</t>
-  </si>
-  <si>
-    <t>DOT NET</t>
-  </si>
-  <si>
-    <t>Banking</t>
-  </si>
-  <si>
-    <t>JAVA</t>
-  </si>
-  <si>
-    <t>Automobile</t>
-  </si>
-  <si>
-    <t>BFS</t>
-  </si>
-  <si>
-    <t>User_Achievements</t>
-  </si>
-  <si>
-    <t>Achievement_id</t>
-  </si>
-  <si>
-    <t>Achievement_picture</t>
-  </si>
-  <si>
-    <t>User_Certifications</t>
-  </si>
-  <si>
-    <t>Certification_id</t>
-  </si>
-  <si>
-    <t>Certification_picture</t>
-  </si>
-  <si>
-    <t>User_Profile_History</t>
-  </si>
-  <si>
-    <t>Profile_history_id</t>
-  </si>
-  <si>
-    <t>Approved_date</t>
-  </si>
-  <si>
-    <t>File_location</t>
-  </si>
-  <si>
-    <t>Work Flow</t>
-  </si>
-  <si>
-    <t>Profile create</t>
-  </si>
-  <si>
-    <t>Profile view</t>
-  </si>
-  <si>
-    <t>Profile Update</t>
-  </si>
-  <si>
-    <t>Profile Download</t>
-  </si>
-  <si>
-    <t>Request to update profile</t>
-  </si>
-  <si>
-    <t>Profile Search based on Filters</t>
-  </si>
-  <si>
-    <t>User story</t>
-  </si>
-  <si>
-    <t>As a admin,I should be able to view/update master data</t>
-  </si>
-  <si>
     <t xml:space="preserve">Acceptance criteria </t>
   </si>
   <si>
@@ -1193,100 +1331,64 @@
     <t>Reporting person should view the user profile and approve it.</t>
   </si>
   <si>
-    <t>Creator</t>
+    <t>Searcher</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>As a user, I should be able to apply different filters  while searching(Experience,College,Role,Domain,Technology,Project) So it makes the search easier</t>
+  </si>
+  <si>
+    <t>View the profile</t>
+  </si>
+  <si>
+    <t>Update the profile</t>
+  </si>
+  <si>
+    <t>Request Update</t>
+  </si>
+  <si>
+    <t>As a user, I should be able to request for updation of profile when it isn't updated for 3months So I can get an updated profile</t>
+  </si>
+  <si>
+    <t>Last updated date must exceed 3 months</t>
+  </si>
+  <si>
+    <t>An  e-mail is sent to the user after giving the request update</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>As a user,I should be able to export my profile So I can have a copy of my profile</t>
+  </si>
+  <si>
+    <t>Profile should view in organization's template.</t>
+  </si>
+  <si>
+    <t>Profile template has to store in local system.</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>As a user I should be able to share my profile So I can send my profile to anyone</t>
+  </si>
+  <si>
+    <t>An  e-mail is sent to the user after giving the share feature</t>
+  </si>
+  <si>
+    <t>Functional</t>
   </si>
   <si>
     <t>Create</t>
   </si>
   <si>
-    <t>As a user, I should be able to create my profile So I can view my profile</t>
-  </si>
-  <si>
-    <t>A user has to fill all the mandatory fields.</t>
-  </si>
-  <si>
-    <t>Status of approval should be viewed by the user</t>
+    <t>View</t>
   </si>
   <si>
     <t>Update</t>
-  </si>
-  <si>
-    <t>As a user, I should be able to update my profile So I can see the updated information</t>
-  </si>
-  <si>
-    <t>Existing profile should be view</t>
-  </si>
-  <si>
-    <t>Updated profile must be viewed in organisation's template</t>
-  </si>
-  <si>
-    <t>Status of approval should be shown by the user</t>
-  </si>
-  <si>
-    <t>Lastly updated date should be shown.</t>
-  </si>
-  <si>
-    <t>Download</t>
-  </si>
-  <si>
-    <t>As a user,I should be able to export my profile So I can have a copy of my profile</t>
-  </si>
-  <si>
-    <t>Profile should be viewed in organization's template.</t>
-  </si>
-  <si>
-    <t>Profile template has to stored in local system.</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>As a user I should be able to share my profile So I can send my profile to anyone</t>
-  </si>
-  <si>
-    <t>An  e-mail is sent to the user after giving the share feature</t>
-  </si>
-  <si>
-    <t>Searcher</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>As a user, I should be able to apply different filters  while searching(Experience,College,Role,Domain,Technology,Project) So it makes the search easier</t>
-  </si>
-  <si>
-    <t>View the profile</t>
-  </si>
-  <si>
-    <t>Update the profile</t>
-  </si>
-  <si>
-    <t>Request Update</t>
-  </si>
-  <si>
-    <t>As a user, I should be able to request for updation of profile when it isn't updated for 3months So I can get an updated profile</t>
-  </si>
-  <si>
-    <t>Last updated date must exceed 3 months</t>
-  </si>
-  <si>
-    <t>An  e-mail is sent to the user after giving the request update</t>
-  </si>
-  <si>
-    <t>Profile should view in organization's template.</t>
-  </si>
-  <si>
-    <t>Profile template has to store in local system.</t>
-  </si>
-  <si>
-    <t>Request to Update button will be enabled only when profile update duration exceeds 3months</t>
-  </si>
-  <si>
-    <t>Functional</t>
-  </si>
-  <si>
-    <t>View</t>
   </si>
   <si>
     <t>Request for update</t>
@@ -1522,7 +1624,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1559,22 +1661,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1603,15 +1702,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1839,17 +1929,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1874,16 +1953,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1899,91 +2005,126 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1991,34 +2132,31 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2026,7 +2164,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2034,13 +2172,37 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
+        <right/>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
@@ -2054,70 +2216,6 @@
           <color rgb="FF000000"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FF000000"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2143,12 +2241,88 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+      <border>
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2219,23 +2393,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="14" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A326E9F-6AAC-452D-09EB-D248E335FEEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CA5775-F552-27DF-4C3F-441CF1239D95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,8 +2425,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4010025" y="695325"/>
-          <a:ext cx="11811000" cy="10915650"/>
+          <a:off x="1219200" y="161925"/>
+          <a:ext cx="10144125" cy="17830800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2265,55 +2439,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286A6CA9-8034-15BC-C226-D26474AF294C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2771775" y="0"/>
-          <a:ext cx="19116675" cy="14611350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -33334,7 +33459,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -34933,13 +35058,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F9EBF00-BE17-4C34-AA4D-9166C47D56D7}" name="Table1" displayName="Table1" ref="B18:F50" totalsRowShown="0">
-  <autoFilter ref="B18:F50" xr:uid="{7F9EBF00-BE17-4C34-AA4D-9166C47D56D7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F9EBF00-BE17-4C34-AA4D-9166C47D56D7}" name="Table1" displayName="Table1" ref="B18:F52" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="B18:F52" xr:uid="{7F9EBF00-BE17-4C34-AA4D-9166C47D56D7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D2DFA3B5-6F50-47FD-8D56-8B04C1D80F59}" name="User story id" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{C0D19A5C-094C-4068-B258-746B30446059}" name="User" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D67FF8ED-DFD4-44F6-9F65-70DCF79E975E}" name="S.no" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{DA5AB2AC-335D-48F8-A0DB-04A7F95E28D2}" name="Action"/>
+    <tableColumn id="1" xr3:uid="{D2DFA3B5-6F50-47FD-8D56-8B04C1D80F59}" name="User story id" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C0D19A5C-094C-4068-B258-746B30446059}" name="User" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{D67FF8ED-DFD4-44F6-9F65-70DCF79E975E}" name="S.no" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{DA5AB2AC-335D-48F8-A0DB-04A7F95E28D2}" name="Action" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{FC4815FF-89C8-455F-8A70-39007E16BC4E}" name="Benefits" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -34947,8 +35072,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1938D588-891F-4B4D-870C-B444968768B6}" name="Table2" displayName="Table2" ref="G18:I50" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="G18:I50" xr:uid="{1938D588-891F-4B4D-870C-B444968768B6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1938D588-891F-4B4D-870C-B444968768B6}" name="Table2" displayName="Table2" ref="G18:I52" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="G18:I52" xr:uid="{1938D588-891F-4B4D-870C-B444968768B6}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DC7B051-A560-4D46-966C-B157E51318D0}" name="Acceptance criteria" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{41C99027-3CC0-4992-9738-EAC153AEA309}" name="Assumptions" dataDxfId="1"/>
@@ -35179,16 +35304,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="1"/>
@@ -35317,7 +35442,7 @@
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -35357,11 +35482,3038 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="101.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="35.25" customHeight="1">
+      <c r="A1" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="28" customFormat="1" ht="12.75">
+      <c r="A2" s="26">
+        <v>44653</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="28" customFormat="1" ht="12.75">
+      <c r="A3" s="4"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" s="28" customFormat="1" ht="12.75">
+      <c r="A4" s="4"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="12.75">
+      <c r="A5" s="23">
+        <v>44655</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75">
+      <c r="A6" s="25"/>
+      <c r="B6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="26">
+        <v>44656</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="26">
+        <v>44657</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="26">
+        <v>44658</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A45" s="26">
+        <v>44659</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A60" s="26">
+        <v>44660</v>
+      </c>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A68" s="26">
+        <v>44662</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A80" s="26">
+        <v>44663</v>
+      </c>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A86" s="26">
+        <v>44664</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99455432-5260-4250-8176-F630DA6BD87E}">
+  <dimension ref="A5:I55"/>
+  <sheetViews>
+    <sheetView topLeftCell="H40" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14" style="8" customWidth="1"/>
+    <col min="5" max="5" width="73.140625" customWidth="1"/>
+    <col min="6" max="6" width="58.85546875" customWidth="1"/>
+    <col min="7" max="7" width="83.7109375" customWidth="1"/>
+    <col min="8" max="8" width="77.7109375" customWidth="1"/>
+    <col min="9" max="9" width="87.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:5">
+      <c r="E5" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="51">
+      <c r="B19" s="59">
+        <v>1</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="59">
+        <v>1</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="38.25">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="62.25" customHeight="1">
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59">
+        <v>3</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="37.5" customHeight="1">
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59">
+        <v>4</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="I22" s="63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="38.25" customHeight="1">
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59">
+        <v>5</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="I23" s="65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="25.5">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59">
+        <v>6</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="I24" s="62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="32.25" customHeight="1">
+      <c r="B25" s="72"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59">
+        <v>7</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+    </row>
+    <row r="26" spans="2:9" ht="37.5" customHeight="1">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59">
+        <v>8</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26" s="56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="42" customHeight="1">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59">
+        <v>9</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="38.25" customHeight="1">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59">
+        <v>10</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+    </row>
+    <row r="30" spans="2:9" ht="51">
+      <c r="B30" s="59">
+        <v>2</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="59">
+        <v>1</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" s="62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="51">
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59">
+        <v>2</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" s="56"/>
+    </row>
+    <row r="32" spans="2:9" ht="51">
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59">
+        <v>3</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32" s="55" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="31.5" customHeight="1">
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59">
+        <v>4</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="34.5" customHeight="1">
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59">
+        <v>5</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="48" customHeight="1">
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59">
+        <v>7</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G35" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="H35" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35" s="65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="39" customHeight="1">
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59">
+        <v>8</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G36" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="H36" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="37.5" customHeight="1">
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59">
+        <v>9</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="I37" s="56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="36.75" customHeight="1">
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59">
+        <v>10</v>
+      </c>
+      <c r="E38" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+    </row>
+    <row r="39" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+    </row>
+    <row r="40" spans="2:9" ht="38.25">
+      <c r="B40" s="59">
+        <v>3</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" s="59">
+        <v>1</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="H40" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="I40" s="71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="27" customHeight="1">
+      <c r="B41" s="67"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59">
+        <v>2</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="H41" s="55"/>
+      <c r="I41" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="30" customHeight="1">
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59">
+        <v>3</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="G42" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="H42" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="I42" s="56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="30.75" customHeight="1">
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59">
+        <v>4</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G43" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H43" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="I43" s="56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="36.75" customHeight="1">
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59">
+        <v>5</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G44" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="39.75" customHeight="1">
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59">
+        <v>6</v>
+      </c>
+      <c r="E45" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="F45" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="H45" s="60"/>
+      <c r="I45" s="56"/>
+    </row>
+    <row r="46" spans="2:9" ht="15">
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+    </row>
+    <row r="47" spans="2:9" ht="38.25">
+      <c r="B47" s="59">
+        <v>4</v>
+      </c>
+      <c r="C47" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" s="59">
+        <v>1</v>
+      </c>
+      <c r="E47" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="F47" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="H47" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" s="62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="30.75" customHeight="1">
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59">
+        <v>2</v>
+      </c>
+      <c r="E48" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="F48" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="G48" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="H48" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="I48" s="55" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="29.25" customHeight="1">
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59">
+        <v>3</v>
+      </c>
+      <c r="E49" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G49" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="H49" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="I49" s="56" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="28.5" customHeight="1">
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59">
+        <v>4</v>
+      </c>
+      <c r="E50" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="G50" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="H50" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="I50" s="56" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="32.25" customHeight="1">
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59">
+        <v>5</v>
+      </c>
+      <c r="E51" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="F51" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="G51" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="H54" s="57"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="H55" s="57"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26143E4E-D99B-424D-B64E-1AC6E8022E09}">
+  <dimension ref="A2:V120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="B3" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5"/>
+      <c r="B5" s="30">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5">
+        <v>9876781234</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5"/>
+      <c r="B6" s="30">
+        <v>101</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6">
+        <v>9129867850</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="B11" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="77"/>
+      <c r="F11" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="G11" s="81"/>
+      <c r="I11" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="J11" s="81"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="B13" s="30">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="41">
+        <v>1</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="I13" s="41">
+        <v>3</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="30">
+        <v>2</v>
+      </c>
+      <c r="C14" s="30">
+        <v>2</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="41">
+        <v>2</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="I14" s="41">
+        <v>4</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="35"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="I15" s="43">
+        <v>5</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="F19" s="36"/>
+    </row>
+    <row r="21" spans="2:9" ht="15">
+      <c r="B21" s="36"/>
+    </row>
+    <row r="22" spans="2:9" ht="15">
+      <c r="B22" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="41">
+        <v>1</v>
+      </c>
+      <c r="C24" s="46">
+        <v>36962</v>
+      </c>
+      <c r="D24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" s="47">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15">
+      <c r="B25" s="41">
+        <v>2</v>
+      </c>
+      <c r="C25" s="46">
+        <v>36770</v>
+      </c>
+      <c r="D25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E25" s="47">
+        <v>43580</v>
+      </c>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="43"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="44"/>
+    </row>
+    <row r="28" spans="2:9" ht="15">
+      <c r="B28" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="38"/>
+      <c r="H28" s="85" t="s">
+        <v>302</v>
+      </c>
+      <c r="I28" s="90"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="31">
+        <v>1</v>
+      </c>
+      <c r="H30" s="41">
+        <v>1</v>
+      </c>
+      <c r="I30" s="42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="30">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="41">
+        <v>2</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="33">
+        <v>3</v>
+      </c>
+      <c r="C32" s="34">
+        <v>2</v>
+      </c>
+      <c r="D32" s="34">
+        <v>1</v>
+      </c>
+      <c r="E32" s="34">
+        <v>0</v>
+      </c>
+      <c r="F32" s="35">
+        <v>0</v>
+      </c>
+      <c r="H32" s="43">
+        <v>3</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="15">
+      <c r="B35" s="37"/>
+      <c r="C35" s="76"/>
+      <c r="F35" s="77" t="s">
+        <v>312</v>
+      </c>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="78"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="G36" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="I36" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" s="40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="30">
+        <v>1</v>
+      </c>
+      <c r="C37" s="31">
+        <v>1</v>
+      </c>
+      <c r="F37" s="41">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>319</v>
+      </c>
+      <c r="H37" t="s">
+        <v>319</v>
+      </c>
+      <c r="I37">
+        <v>2019</v>
+      </c>
+      <c r="J37" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="30">
+        <v>2</v>
+      </c>
+      <c r="C38" s="31">
+        <v>2</v>
+      </c>
+      <c r="F38" s="41">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>320</v>
+      </c>
+      <c r="H38" t="s">
+        <v>321</v>
+      </c>
+      <c r="I38">
+        <v>2020</v>
+      </c>
+      <c r="J38" s="42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="30">
+        <v>3</v>
+      </c>
+      <c r="C39" s="31">
+        <v>2</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="44"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="33"/>
+      <c r="C40" s="35"/>
+    </row>
+    <row r="41" spans="2:10" ht="15">
+      <c r="F41" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="G41" s="83"/>
+      <c r="H41" s="78"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="F42" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="G42" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="15">
+      <c r="B43" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="C43" s="80"/>
+      <c r="F43" s="41">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>327</v>
+      </c>
+      <c r="H43" s="42"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="F44" s="41">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>330</v>
+      </c>
+      <c r="H44" s="42"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="30">
+        <v>1</v>
+      </c>
+      <c r="C45" s="31">
+        <v>1</v>
+      </c>
+      <c r="F45" s="43">
+        <v>3</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="H45" s="44"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="30">
+        <v>2</v>
+      </c>
+      <c r="C46" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="33">
+        <v>3</v>
+      </c>
+      <c r="C47" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" ht="15">
+      <c r="B50" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="40"/>
+      <c r="H50" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="I50" s="78"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="83" t="s">
+        <v>334</v>
+      </c>
+      <c r="M50" s="78"/>
+      <c r="O50" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" s="78"/>
+      <c r="R50" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="S50" s="84"/>
+      <c r="T50" s="80"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
+    </row>
+    <row r="51" spans="2:22">
+      <c r="B51" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="I51" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="K51" s="41"/>
+      <c r="L51" t="s">
+        <v>342</v>
+      </c>
+      <c r="M51" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="O51" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="P51" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="R51" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="S51" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="T51" s="38" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22">
+      <c r="B52" s="41">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>500</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>200</v>
+      </c>
+      <c r="F52" s="50">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="H52" s="41">
+        <v>500</v>
+      </c>
+      <c r="I52" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="K52" s="41"/>
+      <c r="L52">
+        <v>600</v>
+      </c>
+      <c r="M52" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="O52" s="41">
+        <v>200</v>
+      </c>
+      <c r="P52" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="R52" s="30">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>2018</v>
+      </c>
+      <c r="T52" s="31">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22">
+      <c r="B53" s="41">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>500</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>201</v>
+      </c>
+      <c r="F53" s="50">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H53" s="41">
+        <v>501</v>
+      </c>
+      <c r="I53" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="K53" s="41"/>
+      <c r="L53">
+        <v>601</v>
+      </c>
+      <c r="M53" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="O53" s="41">
+        <v>201</v>
+      </c>
+      <c r="P53" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="R53" s="30">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>2017</v>
+      </c>
+      <c r="T53" s="31">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22">
+      <c r="B54" s="41">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>501</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>202</v>
+      </c>
+      <c r="F54" s="50">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="H54" s="41">
+        <v>502</v>
+      </c>
+      <c r="I54" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="K54" s="41"/>
+      <c r="L54">
+        <v>602</v>
+      </c>
+      <c r="M54" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="O54" s="41">
+        <v>202</v>
+      </c>
+      <c r="P54" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="R54" s="30"/>
+      <c r="T54" s="31"/>
+    </row>
+    <row r="55" spans="2:22">
+      <c r="B55" s="43"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="44"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="44"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="48">
+        <v>603</v>
+      </c>
+      <c r="M55" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="O55" s="43">
+        <v>203</v>
+      </c>
+      <c r="P55" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="R55" s="33"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="35"/>
+    </row>
+    <row r="62" spans="2:22" ht="15">
+      <c r="B62" s="85" t="s">
+        <v>356</v>
+      </c>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="51"/>
+      <c r="H62" s="79" t="s">
+        <v>357</v>
+      </c>
+      <c r="I62" s="84"/>
+      <c r="J62" s="84"/>
+      <c r="K62" s="84"/>
+      <c r="L62" s="80"/>
+    </row>
+    <row r="63" spans="2:22">
+      <c r="B63" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="C63" t="s">
+        <v>359</v>
+      </c>
+      <c r="D63" t="s">
+        <v>360</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="H63" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="I63" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="J63" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="K63" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="L63" s="38" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22">
+      <c r="B64" s="30">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>361</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="31">
+        <v>302</v>
+      </c>
+      <c r="H64" s="30">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>319</v>
+      </c>
+      <c r="J64" t="s">
+        <v>362</v>
+      </c>
+      <c r="K64">
+        <v>2019</v>
+      </c>
+      <c r="L64" s="31">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="30">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>363</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" s="31">
+        <v>303</v>
+      </c>
+      <c r="H65" s="30">
+        <v>2</v>
+      </c>
+      <c r="I65" t="s">
+        <v>364</v>
+      </c>
+      <c r="J65" t="s">
+        <v>365</v>
+      </c>
+      <c r="K65">
+        <v>2020</v>
+      </c>
+      <c r="L65" s="31">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="33">
+        <v>3</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D66" s="34">
+        <v>1</v>
+      </c>
+      <c r="E66" s="35">
+        <v>301</v>
+      </c>
+      <c r="H66" s="33"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="35"/>
+    </row>
+    <row r="68" spans="2:12" ht="15">
+      <c r="F68" s="77" t="s">
+        <v>366</v>
+      </c>
+      <c r="G68" s="78"/>
+    </row>
+    <row r="69" spans="2:12" ht="15">
+      <c r="B69" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="C69" s="80"/>
+      <c r="F69" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="F70" s="41">
+        <v>278</v>
+      </c>
+      <c r="G70" s="42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71" s="30">
+        <v>1</v>
+      </c>
+      <c r="C71" s="31">
+        <v>278</v>
+      </c>
+      <c r="F71" s="41">
+        <v>279</v>
+      </c>
+      <c r="G71" s="42" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="30">
+        <v>2</v>
+      </c>
+      <c r="C72" s="31">
+        <v>280</v>
+      </c>
+      <c r="F72" s="41">
+        <v>280</v>
+      </c>
+      <c r="G72" s="42" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="33">
+        <v>3</v>
+      </c>
+      <c r="C73" s="35">
+        <v>279</v>
+      </c>
+      <c r="F73" s="43"/>
+      <c r="G73" s="44"/>
+    </row>
+    <row r="76" spans="2:12" ht="15">
+      <c r="B76" s="73"/>
+      <c r="F76" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="G76" s="80"/>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="F77" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="G77" s="38" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="F78" s="30">
+        <v>1</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="F79" s="30">
+        <v>2</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="F80" s="30"/>
+      <c r="G80" s="31"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="F81" s="33"/>
+      <c r="G81" s="35"/>
+    </row>
+    <row r="87" spans="2:9" ht="15">
+      <c r="B87" s="77" t="s">
+        <v>380</v>
+      </c>
+      <c r="C87" s="78"/>
+      <c r="E87" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="82"/>
+      <c r="H87" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" s="78"/>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="C88" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="E88" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="F88" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="H88" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="I88" s="40" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="41">
+        <v>1</v>
+      </c>
+      <c r="C89" s="42">
+        <v>10</v>
+      </c>
+      <c r="E89" s="41">
+        <v>1</v>
+      </c>
+      <c r="F89" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="H89" s="41">
+        <v>10</v>
+      </c>
+      <c r="I89" s="42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="41">
+        <v>2</v>
+      </c>
+      <c r="C90" s="42">
+        <v>11</v>
+      </c>
+      <c r="E90" s="41">
+        <v>2</v>
+      </c>
+      <c r="F90" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="H90" s="41">
+        <v>11</v>
+      </c>
+      <c r="I90" s="42" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="41">
+        <v>3</v>
+      </c>
+      <c r="C91" s="42">
+        <v>12</v>
+      </c>
+      <c r="E91" s="41">
+        <v>3</v>
+      </c>
+      <c r="F91" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="H91" s="41">
+        <v>12</v>
+      </c>
+      <c r="I91" s="42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="43"/>
+      <c r="C92" s="44"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="44"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="44"/>
+    </row>
+    <row r="96" spans="2:9" ht="15">
+      <c r="B96" s="75" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="39" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="43"/>
+    </row>
+    <row r="105" spans="2:2" ht="15">
+      <c r="B105" s="74" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="30" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="33"/>
+    </row>
+    <row r="115" spans="2:3" ht="15">
+      <c r="B115" s="77" t="s">
+        <v>395</v>
+      </c>
+      <c r="C115" s="78"/>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="C116" s="38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" s="30">
+        <v>1</v>
+      </c>
+      <c r="C117" s="31"/>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="30">
+        <v>2</v>
+      </c>
+      <c r="C118" s="31"/>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="30">
+        <v>3</v>
+      </c>
+      <c r="C119" s="31"/>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="33"/>
+      <c r="C120" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="H50:I50"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{F610AA21-35AB-47F9-A7AB-2E2649DB49A2}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{3CF8C471-0C36-4514-AE42-52CBE6D894A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3CFBF-880F-481E-9D27-6F5C85AAC27F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AF18" sqref="AF18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79905DE3-DAB3-4C6E-84FE-24BF5F973564}">
+  <dimension ref="C1:K603"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="AD188" sqref="AD188"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="3:10" ht="23.25">
+      <c r="J1" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="20.25">
+      <c r="C4" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="6" spans="3:10" ht="20.25">
+      <c r="D6" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" ht="20.25">
+      <c r="D21" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" ht="20.25">
+      <c r="D33" s="13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="46" spans="4:8" ht="20.25">
+      <c r="D46" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" ht="20.25">
+      <c r="C59" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="61" spans="3:4" ht="20.25">
+      <c r="D61" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" ht="20.25">
+      <c r="D74" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="E74" s="10"/>
+    </row>
+    <row r="85" spans="4:4" ht="20.25">
+      <c r="D85" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="296" spans="3:5" ht="18">
+      <c r="C296" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D296" s="9"/>
+      <c r="E296" s="9"/>
+    </row>
+    <row r="594" spans="11:11">
+      <c r="K594" s="7"/>
+    </row>
+    <row r="602" spans="11:11" ht="0.75" customHeight="1"/>
+    <row r="603" spans="11:11" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF61F9D4-CE67-4B1A-BDEF-73A765CC6053}">
+  <dimension ref="A1:Q88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="B6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>408</v>
+      </c>
+      <c r="B24" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="22"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="51" spans="1:1" ht="15">
+      <c r="A51" s="22"/>
+    </row>
+    <row r="64" spans="1:1" ht="15">
+      <c r="A64" s="22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>405</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>408</v>
+      </c>
+      <c r="B68" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>405</v>
+      </c>
+      <c r="B74" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>408</v>
+      </c>
+      <c r="B76" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>405</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>408</v>
+      </c>
+      <c r="B82" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15">
+      <c r="A85" s="22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>405</v>
+      </c>
+      <c r="B86" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>408</v>
+      </c>
+      <c r="B88" t="s">
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410A1412-495E-48DA-B036-98866AE3DBED}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -35376,175 +38528,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>161</v>
+      <c r="A1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>398</v>
+      <c r="A3" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>410</v>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>390</v>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>411</v>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17" t="s">
-        <v>412</v>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="15" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="15"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="C18" s="17" t="s">
+      <c r="A18" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>414</v>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>415</v>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>445</v>
       </c>
       <c r="D20" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>417</v>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC21BEB0-7817-4402-83E4-96DD5F41634F}">
   <dimension ref="A3:O79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -35555,3472 +38707,133 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
-      <c r="L3" s="12" t="s">
-        <v>418</v>
+      <c r="L3" s="10" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="O9" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="B17" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="O17" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="B19" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="B21" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="B23" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="B25" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="O25" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="15:15">
-      <c r="O39" s="22" t="s">
-        <v>438</v>
+      <c r="O39" s="20" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="15:15">
-      <c r="O47" s="22" t="s">
-        <v>439</v>
+      <c r="O47" s="20" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="15:15">
-      <c r="O55" s="22" t="s">
-        <v>440</v>
+      <c r="O55" s="20" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C84"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="101.5703125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A1" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="33" customFormat="1" ht="12.75">
-      <c r="A2" s="31">
-        <v>44653</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="33" customFormat="1" ht="12.75">
-      <c r="A3" s="5"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" s="33" customFormat="1" ht="12.75">
-      <c r="A4" s="5"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" ht="12.75">
-      <c r="A5" s="28">
-        <v>44655</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75">
-      <c r="A6" s="30"/>
-      <c r="B6" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="31">
-        <v>44656</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="31">
-        <v>44657</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="31">
-        <v>44658</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="31">
-        <v>44659</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A60" s="31">
-        <v>44660</v>
-      </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A68" s="31">
-        <v>44662</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A77" s="30"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A80" s="31">
-        <v>44663</v>
-      </c>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99455432-5260-4250-8176-F630DA6BD87E}">
-  <dimension ref="A5:I50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="16.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14" style="9" customWidth="1"/>
-    <col min="5" max="5" width="87.85546875" customWidth="1"/>
-    <col min="6" max="6" width="58.85546875" customWidth="1"/>
-    <col min="7" max="7" width="83.7109375" customWidth="1"/>
-    <col min="8" max="8" width="52" customWidth="1"/>
-    <col min="9" max="9" width="69.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:5">
-      <c r="E5" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="E10" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="51">
-      <c r="B19" s="24">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" s="63"/>
-    </row>
-    <row r="20" spans="2:9" ht="63.75">
-      <c r="D20" s="9">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="I20" s="64" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="39.75" customHeight="1">
-      <c r="D21" s="9">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="64" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="12.75" customHeight="1">
-      <c r="D22" s="9">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="I22" s="63"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="D23" s="9">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="D24" s="9">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="63"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="D25" s="9">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="63"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="E26" s="6"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="63"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="9">
-        <v>2</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="63"/>
-    </row>
-    <row r="28" spans="2:9" ht="38.25">
-      <c r="D28" s="9">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" s="60"/>
-      <c r="H28" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="51">
-      <c r="D29" s="9">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>167</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="H29" s="60"/>
-      <c r="I29" s="65" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="D30" s="9">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="H30" s="60"/>
-      <c r="I30" s="63"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="D31" s="9">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>174</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="G31" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" s="60"/>
-      <c r="I31" s="63"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="D32" s="9">
-        <v>6</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="63"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="D33" s="9">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>180</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G33" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="H33" s="60"/>
-      <c r="I33" s="63"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="D34" s="9">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>182</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="63"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="D35" s="9">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>184</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="63"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="D36" s="9">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="63"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="F37" s="18"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="63"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="9">
-        <v>3</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38" s="9">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>189</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="63"/>
-    </row>
-    <row r="39" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B39" s="25"/>
-      <c r="D39" s="9">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>190</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="G39" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="H39" s="60"/>
-      <c r="I39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="D40" s="9">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
-        <v>194</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="G40" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="H40" s="60"/>
-      <c r="I40" s="63"/>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="D41" s="9">
-        <v>4</v>
-      </c>
-      <c r="E41" t="s">
-        <v>197</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="63"/>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="D42" s="9">
-        <v>5</v>
-      </c>
-      <c r="E42" t="s">
-        <v>199</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="63"/>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="D43" s="9">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>201</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="63"/>
-    </row>
-    <row r="44" spans="2:9" ht="15">
-      <c r="E44" s="3"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="63"/>
-    </row>
-    <row r="45" spans="2:9" ht="24">
-      <c r="B45" s="9">
-        <v>4</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D45" s="9">
-        <v>1</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="F45" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="G45" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="H45" s="60"/>
-      <c r="I45" s="63"/>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="D46" s="9">
-        <v>2</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="F46" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="G46" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="H46" s="60"/>
-      <c r="I46" s="63"/>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="D47" s="9">
-        <v>3</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="63"/>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="D48" s="9">
-        <v>4</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="63"/>
-    </row>
-    <row r="49" spans="4:9">
-      <c r="D49" s="9">
-        <v>5</v>
-      </c>
-      <c r="E49" t="s">
-        <v>212</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="63"/>
-    </row>
-    <row r="50" spans="4:9">
-      <c r="F50" s="18"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="63"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB4FBD0-7C1E-4BC2-A19C-4CB4A94AE885}">
-  <dimension ref="L2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="2" spans="12:12">
-      <c r="L2" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26143E4E-D99B-424D-B64E-1AC6E8022E09}">
-  <dimension ref="A2:X120"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE31" sqref="AE31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5703125" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" customWidth="1"/>
-    <col min="22" max="22" width="22.7109375" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="15">
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:12" ht="15">
-      <c r="B3" s="80" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>220</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>221</v>
-      </c>
-      <c r="K4" t="s">
-        <v>222</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="6"/>
-      <c r="B5" s="35">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J5">
-        <v>9876781234</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="6"/>
-      <c r="B6" s="35">
-        <v>101</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>229</v>
-      </c>
-      <c r="H6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" t="s">
-        <v>226</v>
-      </c>
-      <c r="J6">
-        <v>9129867850</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
-    </row>
-    <row r="9" spans="1:12" ht="15">
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="H9" s="41"/>
-    </row>
-    <row r="11" spans="1:12" ht="15">
-      <c r="B11" s="72" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="72"/>
-      <c r="E11" s="69" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="69"/>
-      <c r="H11" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="I11" s="76"/>
-      <c r="K11" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="L11" s="76"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="K12" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15">
-      <c r="B13" s="35">
-        <v>1</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="35">
-        <v>1</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="46">
-        <v>1</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="K13" s="46">
-        <v>3</v>
-      </c>
-      <c r="L13" s="47" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="35">
-        <v>2</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="E14" s="35">
-        <v>2</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="H14" s="46">
-        <v>2</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="K14" s="46">
-        <v>4</v>
-      </c>
-      <c r="L14" s="47" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="38"/>
-      <c r="C15" s="40"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="40"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="K15" s="48">
-        <v>5</v>
-      </c>
-      <c r="L15" s="49" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="15">
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="H19" s="41"/>
-    </row>
-    <row r="21" spans="2:11" ht="15">
-      <c r="B21" s="41"/>
-    </row>
-    <row r="22" spans="2:11" ht="15">
-      <c r="B22" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="46">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>255</v>
-      </c>
-      <c r="E24" s="51">
-        <v>36962</v>
-      </c>
-      <c r="F24" t="s">
-        <v>256</v>
-      </c>
-      <c r="G24" s="52">
-        <v>44177</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="15">
-      <c r="B25" s="46">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>101</v>
-      </c>
-      <c r="D25" t="s">
-        <v>257</v>
-      </c>
-      <c r="E25" s="51">
-        <v>36770</v>
-      </c>
-      <c r="F25" t="s">
-        <v>256</v>
-      </c>
-      <c r="G25" s="52">
-        <v>43580</v>
-      </c>
-      <c r="H25" s="41"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="48"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="49"/>
-    </row>
-    <row r="28" spans="2:11" ht="15">
-      <c r="B28" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="43"/>
-      <c r="J28" s="69" t="s">
-        <v>259</v>
-      </c>
-      <c r="K28" s="69"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="F29" s="54" t="s">
-        <v>262</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>263</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="J29" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="K29" s="45" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="35">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" s="36">
-        <v>1</v>
-      </c>
-      <c r="J30" s="46">
-        <v>1</v>
-      </c>
-      <c r="K30" s="47" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="35">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" s="36">
-        <v>1</v>
-      </c>
-      <c r="J31" s="46">
-        <v>2</v>
-      </c>
-      <c r="K31" s="47" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="38">
-        <v>3</v>
-      </c>
-      <c r="C32" s="39">
-        <v>101</v>
-      </c>
-      <c r="D32" s="39">
-        <v>2</v>
-      </c>
-      <c r="E32" s="39">
-        <v>2</v>
-      </c>
-      <c r="F32" s="39">
-        <v>1</v>
-      </c>
-      <c r="G32" s="39">
-        <v>0</v>
-      </c>
-      <c r="H32" s="40">
-        <v>0</v>
-      </c>
-      <c r="J32" s="48">
-        <v>3</v>
-      </c>
-      <c r="K32" s="49" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="15">
-      <c r="B35" s="42"/>
-      <c r="C35" s="73" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="74"/>
-      <c r="H35" s="69" t="s">
-        <v>270</v>
-      </c>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="70"/>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="I36" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="J36" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="K36" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="L36" s="45" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="35">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
-      <c r="E37" s="36">
-        <v>1</v>
-      </c>
-      <c r="H37" s="46">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>277</v>
-      </c>
-      <c r="J37" t="s">
-        <v>277</v>
-      </c>
-      <c r="K37">
-        <v>2019</v>
-      </c>
-      <c r="L37" s="47">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="35">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>100</v>
-      </c>
-      <c r="E38" s="36">
-        <v>2</v>
-      </c>
-      <c r="H38" s="46">
-        <v>2</v>
-      </c>
-      <c r="I38" t="s">
-        <v>278</v>
-      </c>
-      <c r="J38" t="s">
-        <v>279</v>
-      </c>
-      <c r="K38">
-        <v>2020</v>
-      </c>
-      <c r="L38" s="47">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="B39" s="35">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>101</v>
-      </c>
-      <c r="E39" s="36">
-        <v>2</v>
-      </c>
-      <c r="H39" s="48"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="49"/>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
-    </row>
-    <row r="41" spans="2:12" ht="15">
-      <c r="H41" s="69" t="s">
-        <v>280</v>
-      </c>
-      <c r="I41" s="71"/>
-      <c r="J41" s="70"/>
-    </row>
-    <row r="42" spans="2:12">
-      <c r="H42" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="I42" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="J42" s="45" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="15">
-      <c r="B43" s="72" t="s">
-        <v>284</v>
-      </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="74"/>
-      <c r="H43" s="46">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>285</v>
-      </c>
-      <c r="J43" s="47"/>
-    </row>
-    <row r="44" spans="2:12">
-      <c r="B44" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="C44" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="D44" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="H44" s="46">
-        <v>2</v>
-      </c>
-      <c r="I44" t="s">
-        <v>288</v>
-      </c>
-      <c r="J44" s="47"/>
-    </row>
-    <row r="45" spans="2:12">
-      <c r="B45" s="35">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>100</v>
-      </c>
-      <c r="E45" s="36">
-        <v>1</v>
-      </c>
-      <c r="H45" s="48">
-        <v>3</v>
-      </c>
-      <c r="I45" s="53" t="s">
-        <v>289</v>
-      </c>
-      <c r="J45" s="49"/>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="B46" s="35">
-        <v>2</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>100</v>
-      </c>
-      <c r="E46" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12">
-      <c r="B47" s="38">
-        <v>3</v>
-      </c>
-      <c r="C47" s="39">
-        <v>1</v>
-      </c>
-      <c r="D47" s="39">
-        <v>101</v>
-      </c>
-      <c r="E47" s="40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" ht="15">
-      <c r="B50" s="69" t="s">
-        <v>290</v>
-      </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="45"/>
-      <c r="J50" s="69" t="s">
-        <v>291</v>
-      </c>
-      <c r="K50" s="70"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="71" t="s">
-        <v>292</v>
-      </c>
-      <c r="O50" s="70"/>
-      <c r="Q50" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="R50" s="70"/>
-      <c r="T50" s="72" t="s">
-        <v>293</v>
-      </c>
-      <c r="U50" s="73"/>
-      <c r="V50" s="74"/>
-      <c r="W50" s="41"/>
-      <c r="X50" s="41"/>
-    </row>
-    <row r="51" spans="2:24">
-      <c r="B51" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="C51" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="D51" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="G51" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="H51" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="J51" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="K51" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="M51" s="46"/>
-      <c r="N51" t="s">
-        <v>295</v>
-      </c>
-      <c r="O51" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q51" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="R51" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="T51" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="U51" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="V51" s="43" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24">
-      <c r="B52" s="46">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>100</v>
-      </c>
-      <c r="D52">
-        <v>600</v>
-      </c>
-      <c r="E52">
-        <v>500</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>200</v>
-      </c>
-      <c r="H52" s="55">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="J52" s="46">
-        <v>500</v>
-      </c>
-      <c r="K52" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="M52" s="46"/>
-      <c r="N52">
-        <v>600</v>
-      </c>
-      <c r="O52" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q52" s="46">
-        <v>200</v>
-      </c>
-      <c r="R52" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="T52" s="35">
-        <v>1</v>
-      </c>
-      <c r="U52">
-        <v>2018</v>
-      </c>
-      <c r="V52" s="36">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24">
-      <c r="B53" s="46">
-        <v>2</v>
-      </c>
-      <c r="C53">
-        <v>100</v>
-      </c>
-      <c r="D53">
-        <v>603</v>
-      </c>
-      <c r="E53">
-        <v>500</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-      <c r="G53">
-        <v>201</v>
-      </c>
-      <c r="H53" s="55">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="J53" s="46">
-        <v>501</v>
-      </c>
-      <c r="K53" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="M53" s="46"/>
-      <c r="N53">
-        <v>601</v>
-      </c>
-      <c r="O53" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q53" s="46">
-        <v>201</v>
-      </c>
-      <c r="R53" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="T53" s="35">
-        <v>2</v>
-      </c>
-      <c r="U53">
-        <v>2017</v>
-      </c>
-      <c r="V53" s="36">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24">
-      <c r="B54" s="46">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <v>101</v>
-      </c>
-      <c r="D54">
-        <v>601</v>
-      </c>
-      <c r="E54">
-        <v>501</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>202</v>
-      </c>
-      <c r="H54" s="55">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="J54" s="46">
-        <v>502</v>
-      </c>
-      <c r="K54" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="M54" s="46"/>
-      <c r="N54">
-        <v>602</v>
-      </c>
-      <c r="O54" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q54" s="46">
-        <v>202</v>
-      </c>
-      <c r="R54" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="T54" s="35"/>
-      <c r="V54" s="36"/>
-    </row>
-    <row r="55" spans="2:24">
-      <c r="B55" s="48"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="49"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="49"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="53">
-        <v>603</v>
-      </c>
-      <c r="O55" s="49" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q55" s="48">
-        <v>203</v>
-      </c>
-      <c r="R55" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="T55" s="38"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="40"/>
-    </row>
-    <row r="62" spans="2:24" ht="15">
-      <c r="B62" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="56"/>
-      <c r="J62" s="72" t="s">
-        <v>315</v>
-      </c>
-      <c r="K62" s="73"/>
-      <c r="L62" s="73"/>
-      <c r="M62" s="73"/>
-      <c r="N62" s="74"/>
-    </row>
-    <row r="63" spans="2:24">
-      <c r="B63" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="C63" t="s">
-        <v>215</v>
-      </c>
-      <c r="D63" t="s">
-        <v>317</v>
-      </c>
-      <c r="E63" t="s">
-        <v>318</v>
-      </c>
-      <c r="F63" t="s">
-        <v>319</v>
-      </c>
-      <c r="G63" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="J63" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="K63" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="L63" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="M63" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="N63" s="43" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24">
-      <c r="B64" s="35">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>100</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>255</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" s="36">
-        <v>302</v>
-      </c>
-      <c r="J64" s="35">
-        <v>1</v>
-      </c>
-      <c r="K64" t="s">
-        <v>277</v>
-      </c>
-      <c r="L64" t="s">
-        <v>320</v>
-      </c>
-      <c r="M64">
-        <v>2019</v>
-      </c>
-      <c r="N64" s="36">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14">
-      <c r="B65" s="35">
-        <v>2</v>
-      </c>
-      <c r="C65">
-        <v>100</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>257</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-      <c r="G65" s="36">
-        <v>303</v>
-      </c>
-      <c r="J65" s="35">
-        <v>2</v>
-      </c>
-      <c r="K65" t="s">
-        <v>321</v>
-      </c>
-      <c r="L65" t="s">
-        <v>322</v>
-      </c>
-      <c r="M65">
-        <v>2020</v>
-      </c>
-      <c r="N65" s="36">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14">
-      <c r="B66" s="38">
-        <v>3</v>
-      </c>
-      <c r="C66" s="39">
-        <v>101</v>
-      </c>
-      <c r="D66" s="39">
-        <v>1</v>
-      </c>
-      <c r="E66" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="F66" s="39">
-        <v>1</v>
-      </c>
-      <c r="G66" s="40">
-        <v>301</v>
-      </c>
-      <c r="J66" s="38"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="40"/>
-    </row>
-    <row r="68" spans="2:14" ht="15">
-      <c r="H68" s="69" t="s">
-        <v>323</v>
-      </c>
-      <c r="I68" s="70"/>
-    </row>
-    <row r="69" spans="2:14" ht="15">
-      <c r="B69" s="72" t="s">
-        <v>324</v>
-      </c>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="74"/>
-      <c r="H69" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="I69" s="45" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14">
-      <c r="B70" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="C70" s="54" t="s">
-        <v>316</v>
-      </c>
-      <c r="D70" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="E70" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="H70" s="46">
-        <v>278</v>
-      </c>
-      <c r="I70" s="47" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14">
-      <c r="B71" s="35">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>100</v>
-      </c>
-      <c r="E71" s="36">
-        <v>278</v>
-      </c>
-      <c r="H71" s="46">
-        <v>279</v>
-      </c>
-      <c r="I71" s="47" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14">
-      <c r="B72" s="35">
-        <v>2</v>
-      </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>100</v>
-      </c>
-      <c r="E72" s="36">
-        <v>280</v>
-      </c>
-      <c r="H72" s="46">
-        <v>280</v>
-      </c>
-      <c r="I72" s="47" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14">
-      <c r="B73" s="38">
-        <v>3</v>
-      </c>
-      <c r="C73" s="39">
-        <v>3</v>
-      </c>
-      <c r="D73" s="39">
-        <v>101</v>
-      </c>
-      <c r="E73" s="40">
-        <v>279</v>
-      </c>
-      <c r="H73" s="48"/>
-      <c r="I73" s="49"/>
-    </row>
-    <row r="76" spans="2:14" ht="15">
-      <c r="B76" s="75"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="75"/>
-      <c r="H76" s="72" t="s">
-        <v>332</v>
-      </c>
-      <c r="I76" s="74"/>
-    </row>
-    <row r="77" spans="2:14">
-      <c r="H77" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="I77" s="43" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14">
-      <c r="H78" s="35">
-        <v>1</v>
-      </c>
-      <c r="I78" s="36" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14">
-      <c r="H79" s="35">
-        <v>2</v>
-      </c>
-      <c r="I79" s="36" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14">
-      <c r="H80" s="35"/>
-      <c r="I80" s="36"/>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="H81" s="38"/>
-      <c r="I81" s="40"/>
-    </row>
-    <row r="87" spans="2:11" ht="15">
-      <c r="B87" s="69" t="s">
-        <v>336</v>
-      </c>
-      <c r="C87" s="71"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="70"/>
-      <c r="G87" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="H87" s="77"/>
-      <c r="J87" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="K87" s="70"/>
-    </row>
-    <row r="88" spans="2:11">
-      <c r="B88" s="44" t="s">
-        <v>337</v>
-      </c>
-      <c r="C88" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="D88" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="E88" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="G88" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="H88" s="45" t="s">
-        <v>340</v>
-      </c>
-      <c r="J88" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="K88" s="45" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11">
-      <c r="B89" s="46">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>100</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89" s="47">
-        <v>10</v>
-      </c>
-      <c r="G89" s="46">
-        <v>1</v>
-      </c>
-      <c r="H89" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="J89" s="46">
-        <v>10</v>
-      </c>
-      <c r="K89" s="47" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11">
-      <c r="B90" s="46">
-        <v>2</v>
-      </c>
-      <c r="C90">
-        <v>100</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90" s="47">
-        <v>11</v>
-      </c>
-      <c r="G90" s="46">
-        <v>2</v>
-      </c>
-      <c r="H90" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="J90" s="46">
-        <v>11</v>
-      </c>
-      <c r="K90" s="47" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11">
-      <c r="B91" s="46">
-        <v>3</v>
-      </c>
-      <c r="C91">
-        <v>101</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91" s="47">
-        <v>12</v>
-      </c>
-      <c r="G91" s="46">
-        <v>3</v>
-      </c>
-      <c r="H91" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="J91" s="46">
-        <v>12</v>
-      </c>
-      <c r="K91" s="47" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11">
-      <c r="B92" s="48"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="49"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="49"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="49"/>
-    </row>
-    <row r="96" spans="2:11" ht="15">
-      <c r="B96" s="69" t="s">
-        <v>347</v>
-      </c>
-      <c r="C96" s="71"/>
-      <c r="D96" s="70"/>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="C97" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="D97" s="45" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="46">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>100</v>
-      </c>
-      <c r="D98" s="47"/>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="46">
-        <v>2</v>
-      </c>
-      <c r="C99">
-        <v>100</v>
-      </c>
-      <c r="D99" s="47"/>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="46">
-        <v>3</v>
-      </c>
-      <c r="C100">
-        <v>101</v>
-      </c>
-      <c r="D100" s="47"/>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" s="48"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="49"/>
-    </row>
-    <row r="105" spans="2:4" ht="15">
-      <c r="B105" s="72" t="s">
-        <v>350</v>
-      </c>
-      <c r="C105" s="73"/>
-      <c r="D105" s="74"/>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="B106" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="C106" t="s">
-        <v>215</v>
-      </c>
-      <c r="D106" s="36" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="35">
-        <v>1</v>
-      </c>
-      <c r="C107">
-        <v>100</v>
-      </c>
-      <c r="D107" s="36"/>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="B108" s="35">
-        <v>2</v>
-      </c>
-      <c r="C108">
-        <v>100</v>
-      </c>
-      <c r="D108" s="36"/>
-    </row>
-    <row r="109" spans="2:4">
-      <c r="B109" s="35">
-        <v>3</v>
-      </c>
-      <c r="C109">
-        <v>101</v>
-      </c>
-      <c r="D109" s="36"/>
-    </row>
-    <row r="110" spans="2:4">
-      <c r="B110" s="38"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="40"/>
-    </row>
-    <row r="115" spans="2:5" ht="15">
-      <c r="B115" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="C115" s="71"/>
-      <c r="D115" s="71"/>
-      <c r="E115" s="70"/>
-    </row>
-    <row r="116" spans="2:5">
-      <c r="B116" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="C116" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="D116" s="54" t="s">
-        <v>355</v>
-      </c>
-      <c r="E116" s="43" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5">
-      <c r="B117" s="35">
-        <v>1</v>
-      </c>
-      <c r="C117">
-        <v>100</v>
-      </c>
-      <c r="D117" s="51">
-        <v>43842</v>
-      </c>
-      <c r="E117" s="36"/>
-    </row>
-    <row r="118" spans="2:5">
-      <c r="B118" s="35">
-        <v>2</v>
-      </c>
-      <c r="C118">
-        <v>100</v>
-      </c>
-      <c r="D118" s="51">
-        <v>43879</v>
-      </c>
-      <c r="E118" s="36"/>
-    </row>
-    <row r="119" spans="2:5">
-      <c r="B119" s="35">
-        <v>3</v>
-      </c>
-      <c r="C119">
-        <v>101</v>
-      </c>
-      <c r="D119" s="51">
-        <v>44386</v>
-      </c>
-      <c r="E119" s="36"/>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="B120" s="38"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="J50:K50"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="K5" r:id="rId1" xr:uid="{F610AA21-35AB-47F9-A7AB-2E2649DB49A2}"/>
-    <hyperlink ref="K6" r:id="rId2" xr:uid="{3CF8C471-0C36-4514-AE42-52CBE6D894A4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3CFBF-880F-481E-9D27-6F5C85AAC27F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79905DE3-DAB3-4C6E-84FE-24BF5F973564}">
-  <dimension ref="C1:K603"/>
-  <sheetViews>
-    <sheetView topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="O165" sqref="O165"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="3:10" ht="23.25">
-      <c r="J1" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" ht="20.25">
-      <c r="C4" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="6" spans="3:10" ht="20.25">
-      <c r="D6" s="12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" ht="20.25">
-      <c r="D21" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" ht="20.25">
-      <c r="D33" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8">
-      <c r="H38" s="7"/>
-    </row>
-    <row r="46" spans="4:8" ht="20.25">
-      <c r="D46" s="12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" ht="20.25">
-      <c r="C59" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D59" s="12"/>
-    </row>
-    <row r="61" spans="3:4" ht="20.25">
-      <c r="D61" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" ht="20.25">
-      <c r="D74" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="E74" s="12"/>
-    </row>
-    <row r="85" spans="4:4" ht="20.25">
-      <c r="D85" s="12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="296" spans="3:5" ht="18">
-      <c r="C296" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D296" s="10"/>
-      <c r="E296" s="10"/>
-    </row>
-    <row r="594" spans="11:11">
-      <c r="K594" s="8"/>
-    </row>
-    <row r="602" spans="11:11" ht="0.75" customHeight="1"/>
-    <row r="603" spans="11:11" ht="14.25" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF61F9D4-CE67-4B1A-BDEF-73A765CC6053}">
-  <dimension ref="A1:Q88"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="B6" t="s">
-        <v>368</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>366</v>
-      </c>
-      <c r="B12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="26" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>364</v>
-      </c>
-      <c r="B17" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>366</v>
-      </c>
-      <c r="B19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>364</v>
-      </c>
-      <c r="B22" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>366</v>
-      </c>
-      <c r="B24" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="26" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>366</v>
-      </c>
-      <c r="B31" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="B33" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" t="s">
-        <v>364</v>
-      </c>
-      <c r="B36" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" t="s">
-        <v>366</v>
-      </c>
-      <c r="B38" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="B39" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="B40" t="s">
-        <v>388</v>
-      </c>
-      <c r="I40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="I41" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="Q42" s="7"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" t="s">
-        <v>364</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" t="s">
-        <v>366</v>
-      </c>
-      <c r="B48" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="B49" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15">
-      <c r="A51" s="26" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>364</v>
-      </c>
-      <c r="B52" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>366</v>
-      </c>
-      <c r="B54" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15">
-      <c r="A64" s="26" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>364</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>366</v>
-      </c>
-      <c r="B68" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="B69" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>364</v>
-      </c>
-      <c r="B74" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>366</v>
-      </c>
-      <c r="B76" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="B77" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>364</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>366</v>
-      </c>
-      <c r="B82" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="B83" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15">
-      <c r="A85" s="26" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>364</v>
-      </c>
-      <c r="B86" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>366</v>
-      </c>
-      <c r="B88" t="s">
-        <v>396</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCE65D9-B3F5-4A6F-B0B3-3A621DFF1ACB}">
-  <dimension ref="A3:B20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="B3" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>408</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{200845FE-2817-4C9C-9075-7BCC41666A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A594B406-9A8B-4971-9144-4D01A038487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="477">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -428,6 +428,15 @@
   </si>
   <si>
     <t>In data model refer user_id as foreign key in all tables</t>
+  </si>
+  <si>
+    <t>Complete DB diagram,Operations, Services, Audit files, HTML layout,System architechture, Non-functional requirements</t>
+  </si>
+  <si>
+    <t>Start working on  Web API and Entity framework</t>
+  </si>
+  <si>
+    <t>Prepare a sample control and showcase within saturday</t>
   </si>
   <si>
     <t>Team Genesis - Profile Management Project</t>
@@ -854,9 +863,6 @@
     <t>As a HR partner, I should be able to logout the system(reused)</t>
   </si>
   <si>
-    <t>User_Creation  (HR)</t>
-  </si>
-  <si>
     <t>User_id</t>
   </si>
   <si>
@@ -1260,6 +1266,9 @@
   </si>
   <si>
     <t>File_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Work Flow</t>
@@ -1624,7 +1633,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1667,8 +1676,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1981,12 +1996,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2018,25 +2153,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
@@ -2114,37 +2240,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2153,10 +2258,73 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2393,20 +2561,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CA5775-F552-27DF-4C3F-441CF1239D95}"/>
@@ -2425,7 +2593,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="161925"/>
+          <a:off x="2133600" y="2828925"/>
           <a:ext cx="10144125" cy="17830800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -35487,623 +35655,646 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="54.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="101.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="123.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="28" customFormat="1" ht="12.75">
-      <c r="A2" s="26">
+    <row r="2" spans="1:3" s="26" customFormat="1" ht="12.75">
+      <c r="A2" s="89">
         <v>44653</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="28" customFormat="1" ht="12.75">
+    <row r="3" spans="1:3" s="26" customFormat="1" ht="12.75">
       <c r="A3" s="4"/>
-      <c r="B3" s="27"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" s="28" customFormat="1" ht="12.75">
+    <row r="4" spans="1:3" s="26" customFormat="1" ht="12.75">
       <c r="A4" s="4"/>
-      <c r="B4" s="27"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="12.75">
-      <c r="A5" s="23">
+      <c r="A5" s="90">
         <v>44655</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="92" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75">
-      <c r="A6" s="25"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="93"/>
+      <c r="B6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="94" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="93"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="95" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="98" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="26">
+      <c r="A10" s="99">
         <v>44656</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="101" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="93"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="95" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25" t="s">
+      <c r="A12" s="93"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="95" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="93"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="95" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25" t="s">
+      <c r="A14" s="93"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="95" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25" t="s">
+      <c r="A15" s="96"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="26">
+      <c r="A17" s="99">
         <v>44657</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="101" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="93"/>
+      <c r="B18" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="95" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25" t="s">
+      <c r="A19" s="93"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25" t="s">
+      <c r="A20" s="93"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="95" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25" t="s">
+      <c r="A21" s="93"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="95" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25" t="s">
+      <c r="A22" s="93"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="95" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25" t="s">
+      <c r="A23" s="93"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="95" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25" t="s">
+      <c r="A24" s="93"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="95" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25" t="s">
+      <c r="A25" s="93"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="95" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25" t="s">
+      <c r="A26" s="93"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="95" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25" t="s">
+      <c r="A27" s="93"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="95" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25" t="s">
+      <c r="A28" s="96"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="98" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="26">
+      <c r="A30" s="99">
         <v>44658</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="101" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="93"/>
+      <c r="B31" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="95" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25" t="s">
+      <c r="A32" s="93"/>
+      <c r="B32" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="95" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25" t="s">
+      <c r="A33" s="93"/>
+      <c r="B33" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="95" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25" t="s">
+      <c r="A34" s="93"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="95" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25" t="s">
+      <c r="A35" s="93"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="95" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25" t="s">
+      <c r="A36" s="93"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="95" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25" t="s">
+      <c r="A37" s="93"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="95" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25" t="s">
+      <c r="A38" s="93"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="95" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25" t="s">
+      <c r="A39" s="93"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="95" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25" t="s">
+      <c r="A40" s="93"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="95" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25" t="s">
+      <c r="A41" s="93"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="95" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25" t="s">
+      <c r="A42" s="93"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="95" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25" t="s">
+      <c r="A43" s="96"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="98" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="26">
+      <c r="A45" s="99">
         <v>44659</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="101" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25" t="s">
+      <c r="A46" s="93"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="95" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25" t="s">
+      <c r="A47" s="93"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="95" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25" t="s">
+      <c r="A48" s="93"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="95" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25" t="s">
+      <c r="A49" s="93"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="95" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25" t="s">
+      <c r="A50" s="93"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="95" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25" t="s">
+      <c r="A51" s="93"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="95" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25" t="s">
+      <c r="A52" s="93"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="95" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25" t="s">
+      <c r="A53" s="93"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="95" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25" t="s">
+      <c r="A54" s="93"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="95" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25" t="s">
+      <c r="A55" s="93"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="95" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25" t="s">
+      <c r="A56" s="93"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="95" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25" t="s">
+      <c r="A57" s="96"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="98" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A60" s="26">
+      <c r="A60" s="99">
         <v>44660</v>
       </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25" t="s">
+      <c r="B60" s="100"/>
+      <c r="C60" s="101" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25" t="s">
+      <c r="A61" s="93"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="95" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25" t="s">
+      <c r="A62" s="93"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="95" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25" t="s">
+      <c r="A63" s="93"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="95" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25" t="s">
+      <c r="A64" s="93"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="95" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25" t="s">
+      <c r="A65" s="93"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="95" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25" t="s">
+      <c r="A66" s="96"/>
+      <c r="B66" s="97"/>
+      <c r="C66" s="98" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A68" s="26">
+      <c r="A68" s="99">
         <v>44662</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="101" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25" t="s">
+      <c r="A69" s="93"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="95" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25" t="s">
+      <c r="A70" s="93"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="95" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25" t="s">
+      <c r="A71" s="93"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="95" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25" t="s">
+      <c r="A72" s="93"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="95" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25" t="s">
+      <c r="A73" s="93"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="95" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25" t="s">
+      <c r="A74" s="93"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="95" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25" t="s">
+      <c r="A75" s="93"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="95" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25" t="s">
+      <c r="A76" s="93"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="95" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25" t="s">
+      <c r="A77" s="93"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="95" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25" t="s">
+      <c r="A78" s="96"/>
+      <c r="B78" s="97"/>
+      <c r="C78" s="98" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A80" s="26">
+      <c r="A80" s="99">
         <v>44663</v>
       </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25" t="s">
+      <c r="B80" s="100"/>
+      <c r="C80" s="101" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25" t="s">
+      <c r="A81" s="93"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="95" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25" t="s">
+      <c r="A82" s="93"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="95" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25" t="s">
+      <c r="A83" s="93"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="95" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25" t="s">
+      <c r="A84" s="96"/>
+      <c r="B84" s="97"/>
+      <c r="C84" s="98" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A86" s="26">
+      <c r="A86" s="99">
         <v>44664</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="101" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25" t="s">
+      <c r="A87" s="93"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="95" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25" t="s">
+      <c r="A88" s="93"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="95" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25" t="s">
+      <c r="A89" s="96"/>
+      <c r="B89" s="97"/>
+      <c r="C89" s="98" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A91" s="99">
+        <v>44671</v>
+      </c>
+      <c r="B91" s="100"/>
+      <c r="C91" s="101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A92" s="93"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A93" s="96"/>
+      <c r="B93" s="97"/>
+      <c r="C93" s="98" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -36115,7 +36306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99455432-5260-4250-8176-F630DA6BD87E}">
   <dimension ref="A5:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="H40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
@@ -36133,7 +36324,7 @@
   <sheetData>
     <row r="5" spans="1:5">
       <c r="E5" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -36141,726 +36332,726 @@
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="59" t="s">
+      <c r="B18" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="C18" s="56" t="s">
         <v>137</v>
       </c>
+      <c r="D18" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>140</v>
+      </c>
       <c r="G18" s="15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="51">
-      <c r="B19" s="59">
+      <c r="B19" s="56">
         <v>1</v>
       </c>
-      <c r="C19" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="59">
+      <c r="C19" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="56">
         <v>1</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="61" t="s">
+      <c r="E19" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="I19" s="62" t="s">
+      <c r="F19" s="57" t="s">
         <v>146</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="38.25">
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56">
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="H20" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="63" t="s">
         <v>151</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="60" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="62.25" customHeight="1">
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59">
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56">
         <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="I21" s="64" t="s">
         <v>156</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="61" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.5" customHeight="1">
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59">
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56">
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="H22" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="I22" s="63" t="s">
         <v>161</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="60" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="38.25" customHeight="1">
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56">
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="I23" s="65" t="s">
         <v>166</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="62" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25.5">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59">
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56">
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="I24" s="62" t="s">
         <v>171</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1">
-      <c r="B25" s="72"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59">
+      <c r="B25" s="69"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56">
         <v>7</v>
       </c>
-      <c r="E25" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
+      <c r="E25" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
     </row>
     <row r="26" spans="2:9" ht="37.5" customHeight="1">
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56">
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="G26" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="H26" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="I26" s="56" t="s">
         <v>179</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="42" customHeight="1">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59">
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56">
         <v>9</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G27" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="38.25" customHeight="1">
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59">
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56">
         <v>10</v>
       </c>
-      <c r="E28" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
+      <c r="E28" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
     </row>
     <row r="30" spans="2:9" ht="51">
-      <c r="B30" s="59">
+      <c r="B30" s="56">
         <v>2</v>
       </c>
-      <c r="C30" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="59">
+      <c r="C30" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="56">
         <v>1</v>
       </c>
-      <c r="E30" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="F30" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="I30" s="62" t="s">
+      <c r="E30" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="57" t="s">
         <v>146</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" s="59" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="51">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59">
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56">
         <v>2</v>
       </c>
-      <c r="E31" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="F31" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="G31" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="H31" s="55" t="s">
+      <c r="E31" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="I31" s="56"/>
+      <c r="F31" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="I31" s="53"/>
     </row>
     <row r="32" spans="2:9" ht="51">
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59">
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56">
         <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G32" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="H32" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="I32" s="55" t="s">
         <v>197</v>
+      </c>
+      <c r="G32" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" s="52" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="31.5" customHeight="1">
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59">
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56">
         <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G33" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="H33" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="I33" s="55" t="s">
         <v>202</v>
+      </c>
+      <c r="G33" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="34.5" customHeight="1">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59">
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56">
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G34" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="48" customHeight="1">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59">
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56">
         <v>7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G35" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="I35" s="65" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+      <c r="G35" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" s="62" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="39" customHeight="1">
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59">
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56">
         <v>8</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="G36" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="H36" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="I36" s="56" t="s">
         <v>214</v>
+      </c>
+      <c r="G36" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="I36" s="53" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="37.5" customHeight="1">
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59">
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56">
         <v>9</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="G37" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="H37" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="I37" s="56" t="s">
         <v>219</v>
+      </c>
+      <c r="G37" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="H37" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="I37" s="53" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36.75" customHeight="1">
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59">
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56">
         <v>10</v>
       </c>
-      <c r="E38" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="F38" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="G38" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
+      <c r="E38" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="F38" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
     </row>
     <row r="39" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
     </row>
     <row r="40" spans="2:9" ht="38.25">
-      <c r="B40" s="59">
+      <c r="B40" s="56">
         <v>3</v>
       </c>
-      <c r="C40" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="D40" s="59">
+      <c r="C40" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="56">
         <v>1</v>
       </c>
-      <c r="E40" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="F40" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="H40" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="I40" s="71" t="s">
+      <c r="E40" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="57" t="s">
         <v>146</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="H40" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" s="68" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="27" customHeight="1">
-      <c r="B41" s="67"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59">
+      <c r="B41" s="64"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56">
         <v>2</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="G41" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="H41" s="55"/>
-      <c r="I41" s="56" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="H41" s="52"/>
+      <c r="I41" s="53" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59">
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56">
         <v>3</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="G42" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="H42" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="I42" s="56" t="s">
         <v>233</v>
+      </c>
+      <c r="G42" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="H42" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="I42" s="53" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59">
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56">
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="G43" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="H43" s="56" t="s">
-        <v>237</v>
-      </c>
-      <c r="I43" s="56" t="s">
         <v>238</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="I43" s="53" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="36.75" customHeight="1">
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59">
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56">
         <v>5</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="G44" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="G44" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="39.75" customHeight="1">
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59">
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56">
         <v>6</v>
       </c>
-      <c r="E45" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="F45" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="G45" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="H45" s="60"/>
-      <c r="I45" s="56"/>
+      <c r="E45" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="F45" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="G45" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45" s="57"/>
+      <c r="I45" s="53"/>
     </row>
     <row r="46" spans="2:9" ht="15">
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="68"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="65"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
     </row>
     <row r="47" spans="2:9" ht="38.25">
-      <c r="B47" s="59">
+      <c r="B47" s="56">
         <v>4</v>
       </c>
-      <c r="C47" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="D47" s="59">
+      <c r="C47" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D47" s="56">
         <v>1</v>
       </c>
-      <c r="E47" s="69" t="s">
-        <v>245</v>
-      </c>
-      <c r="F47" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="G47" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="I47" s="62" t="s">
+      <c r="E47" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F47" s="66" t="s">
         <v>146</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="H47" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="I47" s="59" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59">
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56">
         <v>2</v>
       </c>
-      <c r="E48" s="62" t="s">
-        <v>246</v>
-      </c>
-      <c r="F48" s="62" t="s">
-        <v>247</v>
-      </c>
-      <c r="G48" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="H48" s="70" t="s">
+      <c r="E48" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="I48" s="55" t="s">
+      <c r="F48" s="59" t="s">
         <v>250</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="H48" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="I48" s="52" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59">
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56">
         <v>3</v>
       </c>
-      <c r="E49" s="62" t="s">
-        <v>251</v>
+      <c r="E49" s="59" t="s">
+        <v>254</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="G49" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="H49" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="I49" s="56" t="s">
         <v>255</v>
+      </c>
+      <c r="G49" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="H49" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="I49" s="53" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59">
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56">
         <v>4</v>
       </c>
-      <c r="E50" s="62" t="s">
-        <v>256</v>
+      <c r="E50" s="59" t="s">
+        <v>259</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="G50" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="H50" s="56" t="s">
-        <v>259</v>
-      </c>
-      <c r="I50" s="56" t="s">
         <v>260</v>
+      </c>
+      <c r="G50" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="H50" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="I50" s="53" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="32.25" customHeight="1">
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59">
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56">
         <v>5</v>
       </c>
-      <c r="E51" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="F51" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="G51" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
+      <c r="E51" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="F51" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="G51" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="H54" s="57"/>
+      <c r="H54" s="54"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="H55" s="57"/>
+      <c r="H55" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36876,8 +37067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26143E4E-D99B-424D-B64E-1AC6E8022E09}">
   <dimension ref="A2:V120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E22"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -36907,55 +37098,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15">
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
     </row>
     <row r="3" spans="1:10" ht="15">
-      <c r="B3" s="87" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
+      <c r="B3" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="30" t="s">
-        <v>263</v>
+      <c r="B4" s="27" t="s">
+        <v>265</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I4" t="s">
-        <v>268</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5"/>
-      <c r="B5" s="30">
+      <c r="B5" s="27">
         <v>100</v>
       </c>
       <c r="C5">
@@ -36965,27 +37156,27 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H5">
         <v>9876781234</v>
       </c>
-      <c r="I5" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>274</v>
+      <c r="I5" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5"/>
-      <c r="B6" s="30">
+      <c r="B6" s="27">
         <v>101</v>
       </c>
       <c r="C6">
@@ -36995,243 +37186,243 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H6">
         <v>9129867850</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>278</v>
+      <c r="I6" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="35"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="15">
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="15">
-      <c r="B11" s="74" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="77"/>
-      <c r="F11" s="81" t="s">
+      <c r="B11" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="I11" s="81" t="s">
+      <c r="C11" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="J11" s="81"/>
+      <c r="D11" s="76"/>
+      <c r="F11" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="77"/>
+      <c r="I11" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="38" t="s">
+      <c r="B12" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="F12" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="G12" s="40" t="s">
+      <c r="C12" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="I12" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="J12" s="40" t="s">
+      <c r="D12" s="35" t="s">
         <v>287</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
-      <c r="B13" s="30">
+      <c r="B13" s="27">
         <v>1</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="27">
         <v>1</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="41">
+      <c r="D13" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="38">
         <v>1</v>
       </c>
-      <c r="G13" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="I13" s="41">
+      <c r="G13" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="I13" s="38">
         <v>3</v>
       </c>
-      <c r="J13" s="42" t="s">
-        <v>290</v>
+      <c r="J13" s="39" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="30">
+      <c r="B14" s="27">
         <v>2</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="27">
         <v>2</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="F14" s="41">
+      <c r="D14" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="38">
         <v>2</v>
       </c>
-      <c r="G14" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="I14" s="41">
+      <c r="G14" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="I14" s="38">
         <v>4</v>
       </c>
-      <c r="J14" s="42" t="s">
-        <v>293</v>
+      <c r="J14" s="39" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="35"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="I15" s="43">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="32"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="I15" s="40">
         <v>5</v>
       </c>
-      <c r="J15" s="44" t="s">
-        <v>294</v>
+      <c r="J15" s="41" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="21" spans="2:9" ht="15">
-      <c r="B21" s="36"/>
+      <c r="B21" s="33"/>
     </row>
     <row r="22" spans="2:9" ht="15">
-      <c r="B22" s="87" t="s">
-        <v>295</v>
-      </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
+      <c r="B22" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="41" t="s">
-        <v>296</v>
+      <c r="B23" s="38" t="s">
+        <v>298</v>
       </c>
       <c r="C23" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D23" t="s">
-        <v>298</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="41">
+      <c r="B24" s="38">
         <v>1</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="43">
         <v>36962</v>
       </c>
       <c r="D24" t="s">
-        <v>300</v>
-      </c>
-      <c r="E24" s="47">
+        <v>302</v>
+      </c>
+      <c r="E24" s="44">
         <v>44177</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15">
-      <c r="B25" s="41">
+      <c r="B25" s="38">
         <v>2</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="43">
         <v>36770</v>
       </c>
       <c r="D25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E25" s="47">
+        <v>302</v>
+      </c>
+      <c r="E25" s="44">
         <v>43580</v>
       </c>
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="43"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="44"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="28" spans="2:9" ht="15">
-      <c r="B28" s="79" t="s">
-        <v>301</v>
-      </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="38"/>
-      <c r="H28" s="85" t="s">
-        <v>302</v>
-      </c>
-      <c r="I28" s="90"/>
+      <c r="B28" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="35"/>
+      <c r="H28" s="81" t="s">
+        <v>304</v>
+      </c>
+      <c r="I28" s="82"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>304</v>
-      </c>
-      <c r="D29" s="49" t="s">
+      <c r="B29" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="C29" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="D29" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="H29" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="I29" s="42" t="s">
+      <c r="E29" s="46" t="s">
         <v>308</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="30">
+      <c r="B30" s="27">
         <v>1</v>
       </c>
       <c r="C30">
@@ -37243,18 +37434,18 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="28">
         <v>1</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="38">
         <v>1</v>
       </c>
-      <c r="I30" s="42" t="s">
-        <v>309</v>
+      <c r="I30" s="39" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="30">
+      <c r="B31" s="27">
         <v>2</v>
       </c>
       <c r="C31">
@@ -37266,289 +37457,289 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="28">
         <v>1</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H31" s="38">
         <v>2</v>
       </c>
-      <c r="I31" s="42" t="s">
-        <v>310</v>
+      <c r="I31" s="39" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="33">
+      <c r="B32" s="30">
         <v>3</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="31">
         <v>2</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="31">
         <v>1</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="31">
         <v>0</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="32">
         <v>0</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="40">
         <v>3</v>
       </c>
-      <c r="I32" s="44" t="s">
-        <v>311</v>
+      <c r="I32" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15">
-      <c r="B35" s="37"/>
-      <c r="C35" s="76"/>
-      <c r="F35" s="77" t="s">
-        <v>312</v>
+      <c r="B35" s="34"/>
+      <c r="C35" s="73"/>
+      <c r="F35" s="76" t="s">
+        <v>314</v>
       </c>
       <c r="G35" s="83"/>
       <c r="H35" s="83"/>
       <c r="I35" s="83"/>
-      <c r="J35" s="78"/>
+      <c r="J35" s="84"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="G36" s="45" t="s">
+      <c r="B36" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="45" t="s">
+      <c r="C36" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="F36" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="J36" s="40" t="s">
+      <c r="H36" s="42" t="s">
         <v>318</v>
+      </c>
+      <c r="I36" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="J36" s="37" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="30">
+      <c r="B37" s="27">
         <v>1</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="28">
         <v>1</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="38">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H37" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I37">
         <v>2019</v>
       </c>
-      <c r="J37" s="42">
+      <c r="J37" s="39">
         <v>2020</v>
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="30">
+      <c r="B38" s="27">
         <v>2</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="28">
         <v>2</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="38">
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H38" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I38">
         <v>2020</v>
       </c>
-      <c r="J38" s="42">
+      <c r="J38" s="39">
         <v>2020</v>
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="30">
+      <c r="B39" s="27">
         <v>3</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="28">
         <v>2</v>
       </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="44"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="41"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="33"/>
-      <c r="C40" s="35"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="32"/>
     </row>
     <row r="41" spans="2:10" ht="15">
-      <c r="F41" s="77" t="s">
-        <v>322</v>
+      <c r="F41" s="76" t="s">
+        <v>324</v>
       </c>
       <c r="G41" s="83"/>
-      <c r="H41" s="78"/>
+      <c r="H41" s="84"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="F42" s="39" t="s">
-        <v>323</v>
-      </c>
-      <c r="G42" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="H42" s="40" t="s">
+      <c r="F42" s="36" t="s">
         <v>325</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15">
-      <c r="B43" s="79" t="s">
-        <v>326</v>
-      </c>
-      <c r="C43" s="80"/>
-      <c r="F43" s="41">
+      <c r="B43" s="80" t="s">
+        <v>328</v>
+      </c>
+      <c r="C43" s="86"/>
+      <c r="F43" s="38">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>327</v>
-      </c>
-      <c r="H43" s="42"/>
+        <v>329</v>
+      </c>
+      <c r="H43" s="39"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="F44" s="41">
+      <c r="B44" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="F44" s="38">
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>330</v>
-      </c>
-      <c r="H44" s="42"/>
+        <v>332</v>
+      </c>
+      <c r="H44" s="39"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="30">
+      <c r="B45" s="27">
         <v>1</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="28">
         <v>1</v>
       </c>
-      <c r="F45" s="43">
+      <c r="F45" s="40">
         <v>3</v>
       </c>
-      <c r="G45" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="H45" s="44"/>
+      <c r="G45" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="H45" s="41"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="30">
+      <c r="B46" s="27">
         <v>2</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="33">
+      <c r="B47" s="30">
         <v>3</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:22" ht="15">
-      <c r="B50" s="77" t="s">
-        <v>332</v>
+      <c r="B50" s="76" t="s">
+        <v>334</v>
       </c>
       <c r="C50" s="83"/>
       <c r="D50" s="83"/>
       <c r="E50" s="83"/>
-      <c r="F50" s="40"/>
-      <c r="H50" s="77" t="s">
-        <v>333</v>
-      </c>
-      <c r="I50" s="78"/>
-      <c r="K50" s="39"/>
+      <c r="F50" s="37"/>
+      <c r="H50" s="76" t="s">
+        <v>335</v>
+      </c>
+      <c r="I50" s="84"/>
+      <c r="K50" s="36"/>
       <c r="L50" s="83" t="s">
-        <v>334</v>
-      </c>
-      <c r="M50" s="78"/>
-      <c r="O50" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="M50" s="84"/>
+      <c r="O50" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="P50" s="78"/>
-      <c r="R50" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="S50" s="84"/>
-      <c r="T50" s="80"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
+      <c r="P50" s="84"/>
+      <c r="R50" s="80" t="s">
+        <v>337</v>
+      </c>
+      <c r="S50" s="85"/>
+      <c r="T50" s="86"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="33"/>
     </row>
     <row r="51" spans="2:22">
-      <c r="B51" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="C51" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="D51" s="45" t="s">
+      <c r="B51" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="E51" s="45" t="s">
+      <c r="C51" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="D51" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="H51" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="I51" s="40" t="s">
+      <c r="E51" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="K51" s="41"/>
+      <c r="F51" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="I51" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="K51" s="38"/>
       <c r="L51" t="s">
-        <v>342</v>
-      </c>
-      <c r="M51" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="O51" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="P51" s="42" t="s">
         <v>344</v>
       </c>
-      <c r="R51" s="37" t="s">
-        <v>338</v>
-      </c>
-      <c r="S51" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="T51" s="38" t="s">
-        <v>318</v>
+      <c r="M51" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="O51" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="P51" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="R51" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="S51" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="T51" s="35" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="2:22">
-      <c r="B52" s="41">
+      <c r="B52" s="38">
         <v>1</v>
       </c>
       <c r="C52">
@@ -37560,40 +37751,40 @@
       <c r="E52">
         <v>200</v>
       </c>
-      <c r="F52" s="50">
+      <c r="F52" s="47">
         <v>0.90200000000000002</v>
       </c>
-      <c r="H52" s="41">
+      <c r="H52" s="38">
         <v>500</v>
       </c>
-      <c r="I52" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="K52" s="41"/>
+      <c r="I52" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="K52" s="38"/>
       <c r="L52">
         <v>600</v>
       </c>
-      <c r="M52" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="O52" s="41">
+      <c r="M52" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="O52" s="38">
         <v>200</v>
       </c>
-      <c r="P52" s="42" t="s">
-        <v>347</v>
-      </c>
-      <c r="R52" s="30">
+      <c r="P52" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="R52" s="27">
         <v>1</v>
       </c>
       <c r="S52">
         <v>2018</v>
       </c>
-      <c r="T52" s="31">
+      <c r="T52" s="28">
         <v>2022</v>
       </c>
     </row>
     <row r="53" spans="2:22">
-      <c r="B53" s="41">
+      <c r="B53" s="38">
         <v>2</v>
       </c>
       <c r="C53">
@@ -37605,40 +37796,40 @@
       <c r="E53">
         <v>201</v>
       </c>
-      <c r="F53" s="50">
+      <c r="F53" s="47">
         <v>0.80300000000000005</v>
       </c>
-      <c r="H53" s="41">
+      <c r="H53" s="38">
         <v>501</v>
       </c>
-      <c r="I53" s="42" t="s">
-        <v>348</v>
-      </c>
-      <c r="K53" s="41"/>
+      <c r="I53" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="K53" s="38"/>
       <c r="L53">
         <v>601</v>
       </c>
-      <c r="M53" s="42" t="s">
-        <v>349</v>
-      </c>
-      <c r="O53" s="41">
+      <c r="M53" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="O53" s="38">
         <v>201</v>
       </c>
-      <c r="P53" s="42" t="s">
-        <v>350</v>
-      </c>
-      <c r="R53" s="30">
+      <c r="P53" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="R53" s="27">
         <v>2</v>
       </c>
       <c r="S53">
         <v>2017</v>
       </c>
-      <c r="T53" s="31">
+      <c r="T53" s="28">
         <v>2019</v>
       </c>
     </row>
     <row r="54" spans="2:22">
-      <c r="B54" s="41">
+      <c r="B54" s="38">
         <v>3</v>
       </c>
       <c r="C54">
@@ -37650,497 +37841,482 @@
       <c r="E54">
         <v>202</v>
       </c>
-      <c r="F54" s="50">
+      <c r="F54" s="47">
         <v>0.78700000000000003</v>
       </c>
-      <c r="H54" s="41">
+      <c r="H54" s="38">
         <v>502</v>
       </c>
-      <c r="I54" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="K54" s="41"/>
+      <c r="I54" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="K54" s="38"/>
       <c r="L54">
         <v>602</v>
       </c>
-      <c r="M54" s="42" t="s">
-        <v>352</v>
-      </c>
-      <c r="O54" s="41">
+      <c r="M54" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="O54" s="38">
         <v>202</v>
       </c>
-      <c r="P54" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="R54" s="30"/>
-      <c r="T54" s="31"/>
+      <c r="P54" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="R54" s="27"/>
+      <c r="T54" s="28"/>
     </row>
     <row r="55" spans="2:22">
-      <c r="B55" s="43"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="44"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="44"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="48">
+      <c r="B55" s="40"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="41"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="41"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="45">
         <v>603</v>
       </c>
-      <c r="M55" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="O55" s="43">
+      <c r="M55" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="O55" s="40">
         <v>203</v>
       </c>
-      <c r="P55" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="R55" s="33"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="35"/>
+      <c r="P55" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="R55" s="30"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="32"/>
     </row>
     <row r="62" spans="2:22" ht="15">
-      <c r="B62" s="85" t="s">
-        <v>356</v>
-      </c>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="51"/>
-      <c r="H62" s="79" t="s">
-        <v>357</v>
-      </c>
-      <c r="I62" s="84"/>
-      <c r="J62" s="84"/>
-      <c r="K62" s="84"/>
-      <c r="L62" s="80"/>
+      <c r="B62" s="81" t="s">
+        <v>358</v>
+      </c>
+      <c r="C62" s="87"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="48"/>
+      <c r="H62" s="80" t="s">
+        <v>359</v>
+      </c>
+      <c r="I62" s="85"/>
+      <c r="J62" s="85"/>
+      <c r="K62" s="85"/>
+      <c r="L62" s="86"/>
     </row>
     <row r="63" spans="2:22">
-      <c r="B63" s="30" t="s">
-        <v>358</v>
+      <c r="B63" s="27" t="s">
+        <v>360</v>
       </c>
       <c r="C63" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D63" t="s">
-        <v>360</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="H63" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="I63" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="J63" s="49" t="s">
-        <v>316</v>
-      </c>
-      <c r="K63" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="H63" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="I63" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="L63" s="38" t="s">
+      <c r="J63" s="46" t="s">
         <v>318</v>
+      </c>
+      <c r="K63" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="L63" s="35" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="2:22">
-      <c r="B64" s="30">
+      <c r="B64" s="27">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" s="31">
+      <c r="E64" s="28">
         <v>302</v>
       </c>
-      <c r="H64" s="30">
+      <c r="H64" s="27">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J64" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K64">
         <v>2019</v>
       </c>
-      <c r="L64" s="31">
+      <c r="L64" s="28">
         <v>2019</v>
       </c>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="30">
+      <c r="B65" s="27">
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
-      <c r="E65" s="31">
+      <c r="E65" s="28">
         <v>303</v>
       </c>
-      <c r="H65" s="30">
+      <c r="H65" s="27">
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="J65" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K65">
         <v>2020</v>
       </c>
-      <c r="L65" s="31">
+      <c r="L65" s="28">
         <v>2020</v>
       </c>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="33">
+      <c r="B66" s="30">
         <v>3</v>
       </c>
-      <c r="C66" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="D66" s="34">
+      <c r="C66" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="D66" s="31">
         <v>1</v>
       </c>
-      <c r="E66" s="35">
+      <c r="E66" s="32">
         <v>301</v>
       </c>
-      <c r="H66" s="33"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="35"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="32"/>
     </row>
     <row r="68" spans="2:12" ht="15">
-      <c r="F68" s="77" t="s">
-        <v>366</v>
-      </c>
-      <c r="G68" s="78"/>
+      <c r="F68" s="76" t="s">
+        <v>368</v>
+      </c>
+      <c r="G68" s="84"/>
     </row>
     <row r="69" spans="2:12" ht="15">
-      <c r="B69" s="79" t="s">
-        <v>367</v>
-      </c>
-      <c r="C69" s="80"/>
-      <c r="F69" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="G69" s="40" t="s">
+      <c r="B69" s="80" t="s">
         <v>369</v>
+      </c>
+      <c r="C69" s="86"/>
+      <c r="F69" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="G69" s="37" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="C70" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="F70" s="41">
+      <c r="B70" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="F70" s="38">
         <v>278</v>
       </c>
-      <c r="G70" s="42" t="s">
-        <v>372</v>
+      <c r="G70" s="39" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="30">
+      <c r="B71" s="27">
         <v>1</v>
       </c>
-      <c r="C71" s="31">
+      <c r="C71" s="28">
         <v>278</v>
       </c>
-      <c r="F71" s="41">
+      <c r="F71" s="38">
         <v>279</v>
       </c>
-      <c r="G71" s="42" t="s">
-        <v>373</v>
+      <c r="G71" s="39" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="30">
+      <c r="B72" s="27">
         <v>2</v>
       </c>
-      <c r="C72" s="31">
+      <c r="C72" s="28">
         <v>280</v>
       </c>
-      <c r="F72" s="41">
+      <c r="F72" s="38">
         <v>280</v>
       </c>
-      <c r="G72" s="42" t="s">
-        <v>374</v>
+      <c r="G72" s="39" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="33">
+      <c r="B73" s="30">
         <v>3</v>
       </c>
-      <c r="C73" s="35">
+      <c r="C73" s="32">
         <v>279</v>
       </c>
-      <c r="F73" s="43"/>
-      <c r="G73" s="44"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="41"/>
     </row>
     <row r="76" spans="2:12" ht="15">
-      <c r="B76" s="73"/>
-      <c r="F76" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="G76" s="80"/>
+      <c r="B76" s="70"/>
+      <c r="F76" s="80" t="s">
+        <v>377</v>
+      </c>
+      <c r="G76" s="86"/>
     </row>
     <row r="77" spans="2:12">
-      <c r="F77" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="G77" s="38" t="s">
-        <v>377</v>
+      <c r="F77" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="G77" s="35" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="2:12">
-      <c r="F78" s="30">
+      <c r="F78" s="27">
         <v>1</v>
       </c>
-      <c r="G78" s="31" t="s">
-        <v>378</v>
+      <c r="G78" s="28" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="2:12">
-      <c r="F79" s="30">
+      <c r="F79" s="27">
         <v>2</v>
       </c>
-      <c r="G79" s="31" t="s">
-        <v>379</v>
+      <c r="G79" s="28" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="2:12">
-      <c r="F80" s="30"/>
-      <c r="G80" s="31"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="28"/>
     </row>
     <row r="81" spans="2:9">
-      <c r="F81" s="33"/>
-      <c r="G81" s="35"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="32"/>
     </row>
     <row r="87" spans="2:9" ht="15">
-      <c r="B87" s="77" t="s">
-        <v>380</v>
-      </c>
-      <c r="C87" s="78"/>
-      <c r="E87" s="81" t="s">
+      <c r="B87" s="76" t="s">
+        <v>382</v>
+      </c>
+      <c r="C87" s="84"/>
+      <c r="E87" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="82"/>
-      <c r="H87" s="77" t="s">
+      <c r="F87" s="88"/>
+      <c r="H87" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I87" s="78"/>
+      <c r="I87" s="84"/>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="39" t="s">
-        <v>381</v>
-      </c>
-      <c r="C88" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="E88" s="39" t="s">
+      <c r="B88" s="36" t="s">
         <v>383</v>
       </c>
-      <c r="F88" s="40" t="s">
+      <c r="C88" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="H88" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="I88" s="40" t="s">
+      <c r="E88" s="36" t="s">
         <v>385</v>
+      </c>
+      <c r="F88" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="H88" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="I88" s="37" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="41">
+      <c r="B89" s="38">
         <v>1</v>
       </c>
-      <c r="C89" s="42">
+      <c r="C89" s="39">
         <v>10</v>
       </c>
-      <c r="E89" s="41">
+      <c r="E89" s="38">
         <v>1</v>
       </c>
-      <c r="F89" s="42" t="s">
-        <v>348</v>
-      </c>
-      <c r="H89" s="41">
+      <c r="F89" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="H89" s="38">
         <v>10</v>
       </c>
-      <c r="I89" s="42" t="s">
-        <v>386</v>
+      <c r="I89" s="39" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="90" spans="2:9">
-      <c r="B90" s="41">
+      <c r="B90" s="38">
         <v>2</v>
       </c>
-      <c r="C90" s="42">
+      <c r="C90" s="39">
         <v>11</v>
       </c>
-      <c r="E90" s="41">
+      <c r="E90" s="38">
         <v>2</v>
       </c>
-      <c r="F90" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="H90" s="41">
+      <c r="F90" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="H90" s="38">
         <v>11</v>
       </c>
-      <c r="I90" s="42" t="s">
-        <v>388</v>
+      <c r="I90" s="39" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="2:9">
-      <c r="B91" s="41">
+      <c r="B91" s="38">
         <v>3</v>
       </c>
-      <c r="C91" s="42">
+      <c r="C91" s="39">
         <v>12</v>
       </c>
-      <c r="E91" s="41">
+      <c r="E91" s="38">
         <v>3</v>
       </c>
-      <c r="F91" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="H91" s="41">
+      <c r="F91" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="H91" s="38">
         <v>12</v>
       </c>
-      <c r="I91" s="42" t="s">
-        <v>390</v>
+      <c r="I91" s="39" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="2:9">
-      <c r="B92" s="43"/>
-      <c r="C92" s="44"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="44"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="44"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="41"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="41"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="41"/>
     </row>
     <row r="96" spans="2:9" ht="15">
-      <c r="B96" s="75" t="s">
-        <v>391</v>
+      <c r="B96" s="72" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="39" t="s">
-        <v>392</v>
+      <c r="B97" s="36" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="41">
+      <c r="B98" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="41">
+      <c r="B99" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="41">
+      <c r="B100" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="43"/>
+      <c r="B101" s="40"/>
     </row>
     <row r="105" spans="2:2" ht="15">
-      <c r="B105" s="74" t="s">
-        <v>393</v>
+      <c r="B105" s="71" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="30" t="s">
-        <v>394</v>
+      <c r="B106" s="27" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="30">
+      <c r="B107" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="30">
+      <c r="B108" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="30">
+      <c r="B109" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="33"/>
+      <c r="B110" s="30"/>
     </row>
     <row r="115" spans="2:3" ht="15">
-      <c r="B115" s="77" t="s">
-        <v>395</v>
-      </c>
-      <c r="C115" s="78"/>
+      <c r="B115" s="76" t="s">
+        <v>397</v>
+      </c>
+      <c r="C115" s="84"/>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="C116" s="38" t="s">
-        <v>397</v>
+      <c r="B116" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="30">
+      <c r="B117" s="27">
         <v>1</v>
       </c>
-      <c r="C117" s="31"/>
+      <c r="C117" s="28"/>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="30">
+      <c r="B118" s="27">
         <v>2</v>
       </c>
-      <c r="C118" s="31"/>
+      <c r="C118" s="28"/>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="30">
+      <c r="B119" s="27">
         <v>3</v>
       </c>
-      <c r="C119" s="31"/>
+      <c r="C119" s="28"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="33"/>
-      <c r="C120" s="35"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="H62:L62"/>
     <mergeCell ref="H87:I87"/>
     <mergeCell ref="B115:C115"/>
     <mergeCell ref="B43:C43"/>
@@ -38151,6 +38327,21 @@
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" xr:uid="{F610AA21-35AB-47F9-A7AB-2E2649DB49A2}"/>
@@ -38162,14 +38353,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3CFBF-880F-481E-9D27-6F5C85AAC27F}">
-  <dimension ref="A1"/>
+  <dimension ref="V29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="29" spans="22:22">
+      <c r="V29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -38179,7 +38376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79905DE3-DAB3-4C6E-84FE-24BF5F973564}">
   <dimension ref="C1:K603"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="T116" workbookViewId="0">
       <selection activeCell="AD188" sqref="AD188"/>
     </sheetView>
   </sheetViews>
@@ -38187,28 +38384,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="23.25">
       <c r="J1" s="12" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.25">
       <c r="C4" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="6" spans="3:10" ht="20.25">
       <c r="D6" s="10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="20.25">
       <c r="D21" s="10" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="20.25">
       <c r="D33" s="13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -38216,34 +38413,34 @@
     </row>
     <row r="46" spans="4:8" ht="20.25">
       <c r="D46" s="10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="20.25">
       <c r="C59" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="61" spans="3:4" ht="20.25">
       <c r="D61" s="10" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="20.25">
       <c r="D74" s="10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="85" spans="4:4" ht="20.25">
       <c r="D85" s="10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="296" spans="3:5" ht="18">
       <c r="C296" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -38275,7 +38472,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -38283,100 +38480,100 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="B6" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B10" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B12" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="22" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B17" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B19" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B22" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B24" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
@@ -38402,106 +38599,106 @@
     </row>
     <row r="64" spans="1:1" ht="15">
       <c r="A64" s="22" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B68" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="B69" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B74" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B76" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="B77" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B82" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15">
       <c r="A85" s="22" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B86" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B88" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -38513,7 +38710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410A1412-495E-48DA-B036-98866AE3DBED}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -38530,10 +38727,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -38543,47 +38740,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -38638,10 +38835,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>4</v>
@@ -38650,31 +38847,31 @@
     <row r="19" spans="1:4">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D20" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -38696,7 +38893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC21BEB0-7817-4402-83E4-96DD5F41634F}">
   <dimension ref="A3:O79"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -38708,128 +38905,128 @@
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
       <c r="L3" s="10" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="O9" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B13" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B15" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B17" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="O17" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B21" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B23" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B25" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="O25" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="20" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="20" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="20" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A594B406-9A8B-4971-9144-4D01A038487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C969031E-9D27-42D1-B332-57DAD3C01E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="481">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -437,6 +437,18 @@
   </si>
   <si>
     <t>Prepare a sample control and showcase within saturday</t>
+  </si>
+  <si>
+    <t>Seperate services for user and profile</t>
+  </si>
+  <si>
+    <t>Refer personal details id in all profile related tables</t>
+  </si>
+  <si>
+    <t>Find services and operations from prototype</t>
+  </si>
+  <si>
+    <t>Design layered system architechture</t>
   </si>
   <si>
     <t>Team Genesis - Profile Management Project</t>
@@ -1633,7 +1645,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1666,12 +1678,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1683,7 +1689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1956,19 +1962,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2116,12 +2109,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2185,15 +2262,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2203,8 +2271,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2220,11 +2288,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2240,6 +2308,63 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2252,10 +2377,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2264,7 +2389,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2283,48 +2408,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2561,23 +2644,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CA5775-F552-27DF-4C3F-441CF1239D95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D0FC45-DFA6-061C-3E24-A84984253001}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C9CA5775-F552-27DF-4C3F-441CF1239D95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,8 +2679,55 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2133600" y="2828925"/>
-          <a:ext cx="10144125" cy="17830800"/>
+          <a:off x="3038475" y="342900"/>
+          <a:ext cx="9648825" cy="16202025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E3D19E-8A76-2461-42CE-A237A3244498}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D1D0FC45-DFA6-061C-3E24-A84984253001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="23764875"/>
+          <a:ext cx="10363200" cy="16840200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -35655,10 +35788,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -35669,24 +35802,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="86" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="26" customFormat="1" ht="12.75">
-      <c r="A2" s="89">
+      <c r="A2" s="87">
         <v>44653</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="89" t="s">
         <v>43</v>
       </c>
     </row>
@@ -35701,600 +35834,630 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="12.75">
-      <c r="A5" s="90">
+      <c r="A5" s="71">
         <v>44655</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="73" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75">
-      <c r="A6" s="93"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="75" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="93"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="24"/>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="76" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="99">
+      <c r="A10" s="80">
         <v>44656</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="82" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="93"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="76" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="93"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="76" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="93"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="76" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="93"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="76" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="96"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98" t="s">
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="99">
+      <c r="A17" s="80">
         <v>44657</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="82" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="93"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="95" t="s">
+      <c r="C18" s="76" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="93"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="76" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="93"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="76" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="93"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="76" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="93"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="95" t="s">
+      <c r="C22" s="76" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="93"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="95" t="s">
+      <c r="C23" s="76" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="93"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="95" t="s">
+      <c r="C24" s="76" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="93"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="95" t="s">
+      <c r="C25" s="76" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="93"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="76" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="93"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="76" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="96"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="98" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="79" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="99">
+      <c r="A30" s="80">
         <v>44658</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="82" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="93"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="95" t="s">
+      <c r="C31" s="76" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="93"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="95" t="s">
+      <c r="C32" s="76" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="93"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="95" t="s">
+      <c r="C33" s="76" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="93"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="24"/>
-      <c r="C34" s="95" t="s">
+      <c r="C34" s="76" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="93"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="24"/>
-      <c r="C35" s="95" t="s">
+      <c r="C35" s="76" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="93"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="24"/>
-      <c r="C36" s="95" t="s">
+      <c r="C36" s="76" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="93"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="95" t="s">
+      <c r="C37" s="76" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="93"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="24"/>
-      <c r="C38" s="95" t="s">
+      <c r="C38" s="76" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="93"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="24"/>
-      <c r="C39" s="95" t="s">
+      <c r="C39" s="76" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="93"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="24"/>
-      <c r="C40" s="95" t="s">
+      <c r="C40" s="76" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="93"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="24"/>
-      <c r="C41" s="95" t="s">
+      <c r="C41" s="76" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="93"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="24"/>
-      <c r="C42" s="95" t="s">
+      <c r="C42" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="96"/>
-      <c r="B43" s="97"/>
-      <c r="C43" s="98" t="s">
+      <c r="A43" s="77"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="79" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="99">
+      <c r="A45" s="80">
         <v>44659</v>
       </c>
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="101" t="s">
+      <c r="C45" s="82" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="93"/>
+      <c r="A46" s="74"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="95" t="s">
+      <c r="C46" s="76" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="93"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="95" t="s">
+      <c r="C47" s="76" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="93"/>
+      <c r="A48" s="74"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="95" t="s">
+      <c r="C48" s="76" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="93"/>
+      <c r="A49" s="74"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="95" t="s">
+      <c r="C49" s="76" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="93"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="24"/>
-      <c r="C50" s="95" t="s">
+      <c r="C50" s="76" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="93"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="24"/>
-      <c r="C51" s="95" t="s">
+      <c r="C51" s="76" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A52" s="93"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="24"/>
-      <c r="C52" s="95" t="s">
+      <c r="C52" s="76" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A53" s="93"/>
+      <c r="A53" s="74"/>
       <c r="B53" s="24"/>
-      <c r="C53" s="95" t="s">
+      <c r="C53" s="76" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A54" s="93"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="24"/>
-      <c r="C54" s="95" t="s">
+      <c r="C54" s="76" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A55" s="93"/>
+      <c r="A55" s="74"/>
       <c r="B55" s="24"/>
-      <c r="C55" s="95" t="s">
+      <c r="C55" s="76" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A56" s="93"/>
+      <c r="A56" s="74"/>
       <c r="B56" s="24"/>
-      <c r="C56" s="95" t="s">
+      <c r="C56" s="76" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A57" s="96"/>
-      <c r="B57" s="97"/>
-      <c r="C57" s="98" t="s">
+      <c r="A57" s="77"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="79" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A60" s="99">
+      <c r="A60" s="80">
         <v>44660</v>
       </c>
-      <c r="B60" s="100"/>
-      <c r="C60" s="101" t="s">
+      <c r="B60" s="81"/>
+      <c r="C60" s="82" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A61" s="93"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="24"/>
-      <c r="C61" s="95" t="s">
+      <c r="C61" s="76" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A62" s="93"/>
+      <c r="A62" s="74"/>
       <c r="B62" s="24"/>
-      <c r="C62" s="95" t="s">
+      <c r="C62" s="76" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A63" s="93"/>
+      <c r="A63" s="74"/>
       <c r="B63" s="24"/>
-      <c r="C63" s="95" t="s">
+      <c r="C63" s="76" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A64" s="93"/>
+      <c r="A64" s="74"/>
       <c r="B64" s="24"/>
-      <c r="C64" s="95" t="s">
+      <c r="C64" s="76" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A65" s="93"/>
+      <c r="A65" s="74"/>
       <c r="B65" s="24"/>
-      <c r="C65" s="95" t="s">
+      <c r="C65" s="76" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A66" s="96"/>
-      <c r="B66" s="97"/>
-      <c r="C66" s="98" t="s">
+      <c r="A66" s="77"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="79" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A68" s="99">
+      <c r="A68" s="80">
         <v>44662</v>
       </c>
-      <c r="B68" s="100" t="s">
+      <c r="B68" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="101" t="s">
+      <c r="C68" s="82" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A69" s="93"/>
+      <c r="A69" s="74"/>
       <c r="B69" s="24"/>
-      <c r="C69" s="95" t="s">
+      <c r="C69" s="76" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A70" s="93"/>
+      <c r="A70" s="74"/>
       <c r="B70" s="24"/>
-      <c r="C70" s="95" t="s">
+      <c r="C70" s="76" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A71" s="93"/>
+      <c r="A71" s="74"/>
       <c r="B71" s="24"/>
-      <c r="C71" s="95" t="s">
+      <c r="C71" s="76" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A72" s="93"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="24"/>
-      <c r="C72" s="95" t="s">
+      <c r="C72" s="76" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A73" s="93"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="24"/>
-      <c r="C73" s="95" t="s">
+      <c r="C73" s="76" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A74" s="93"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="24"/>
-      <c r="C74" s="95" t="s">
+      <c r="C74" s="76" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A75" s="93"/>
+      <c r="A75" s="74"/>
       <c r="B75" s="24"/>
-      <c r="C75" s="95" t="s">
+      <c r="C75" s="76" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A76" s="93"/>
+      <c r="A76" s="74"/>
       <c r="B76" s="24"/>
-      <c r="C76" s="95" t="s">
+      <c r="C76" s="76" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A77" s="93"/>
+      <c r="A77" s="74"/>
       <c r="B77" s="24"/>
-      <c r="C77" s="95" t="s">
+      <c r="C77" s="76" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A78" s="96"/>
-      <c r="B78" s="97"/>
-      <c r="C78" s="98" t="s">
+      <c r="A78" s="77"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="79" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A80" s="99">
+      <c r="A80" s="80">
         <v>44663</v>
       </c>
-      <c r="B80" s="100"/>
-      <c r="C80" s="101" t="s">
+      <c r="B80" s="81"/>
+      <c r="C80" s="82" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A81" s="93"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="24"/>
-      <c r="C81" s="95" t="s">
+      <c r="C81" s="76" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A82" s="93"/>
+      <c r="A82" s="74"/>
       <c r="B82" s="24"/>
-      <c r="C82" s="95" t="s">
+      <c r="C82" s="76" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A83" s="93"/>
+      <c r="A83" s="74"/>
       <c r="B83" s="24"/>
-      <c r="C83" s="95" t="s">
+      <c r="C83" s="76" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A84" s="96"/>
-      <c r="B84" s="97"/>
-      <c r="C84" s="98" t="s">
+      <c r="A84" s="77"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="79" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A86" s="99">
+      <c r="A86" s="80">
         <v>44664</v>
       </c>
-      <c r="B86" s="100" t="s">
+      <c r="B86" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="101" t="s">
+      <c r="C86" s="82" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A87" s="93"/>
+      <c r="A87" s="74"/>
       <c r="B87" s="24"/>
-      <c r="C87" s="95" t="s">
+      <c r="C87" s="76" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A88" s="93"/>
+      <c r="A88" s="74"/>
       <c r="B88" s="24"/>
-      <c r="C88" s="95" t="s">
+      <c r="C88" s="76" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A89" s="96"/>
-      <c r="B89" s="97"/>
-      <c r="C89" s="98" t="s">
+      <c r="A89" s="77"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="79" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A91" s="99">
+      <c r="A91" s="80">
         <v>44671</v>
       </c>
-      <c r="B91" s="100"/>
-      <c r="C91" s="101" t="s">
+      <c r="B91" s="81"/>
+      <c r="C91" s="82" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A92" s="93"/>
+      <c r="A92" s="74"/>
       <c r="B92" s="24"/>
-      <c r="C92" s="95" t="s">
+      <c r="C92" s="76" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A93" s="96"/>
-      <c r="B93" s="97"/>
-      <c r="C93" s="98" t="s">
+      <c r="A93" s="77"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="79" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A95" s="80">
+        <v>44672</v>
+      </c>
+      <c r="B95" s="81"/>
+      <c r="C95" s="82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A96" s="74"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A97" s="74"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A98" s="77"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="79" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -36324,7 +36487,7 @@
   <sheetData>
     <row r="5" spans="1:5">
       <c r="E5" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -36332,726 +36495,726 @@
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="56" t="s">
+      <c r="B18" s="53" t="s">
         <v>140</v>
       </c>
+      <c r="C18" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>144</v>
+      </c>
       <c r="G18" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="51">
-      <c r="B19" s="56">
+      <c r="B19" s="53">
         <v>1</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="56">
+      <c r="C19" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="53">
         <v>1</v>
       </c>
-      <c r="E19" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="I19" s="59" t="s">
+      <c r="E19" s="54" t="s">
         <v>149</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" s="56" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="38.25">
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53">
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" s="60" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="62.25" customHeight="1">
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53">
         <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="I21" s="61" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.5" customHeight="1">
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53">
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="I22" s="60" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="57" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="38.25" customHeight="1">
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53">
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="H23" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="I23" s="62" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25.5">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53">
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="H24" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="I24" s="59" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" s="56" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1">
-      <c r="B25" s="69"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56">
+      <c r="B25" s="66"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53">
         <v>7</v>
       </c>
-      <c r="E25" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
+      <c r="E25" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
     </row>
     <row r="26" spans="2:9" ht="37.5" customHeight="1">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53">
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="H26" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="I26" s="53" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="42" customHeight="1">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56">
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53">
         <v>9</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="38.25" customHeight="1">
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56">
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53">
         <v>10</v>
       </c>
-      <c r="E28" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="G28" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
+      <c r="E28" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
     </row>
     <row r="30" spans="2:9" ht="51">
-      <c r="B30" s="56">
+      <c r="B30" s="53">
         <v>2</v>
       </c>
-      <c r="C30" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" s="56">
+      <c r="C30" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="53">
         <v>1</v>
       </c>
-      <c r="E30" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="G30" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="H30" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" s="59" t="s">
-        <v>149</v>
+      <c r="E30" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30" s="56" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="51">
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53">
         <v>2</v>
       </c>
-      <c r="E31" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F31" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="I31" s="53"/>
+      <c r="E31" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="I31" s="50"/>
     </row>
     <row r="32" spans="2:9" ht="51">
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56">
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53">
         <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G32" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="H32" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="I32" s="52" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="31.5" customHeight="1">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56">
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53">
         <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="G33" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="H33" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="I33" s="52" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I33" s="49" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="34.5" customHeight="1">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56">
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53">
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="G34" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="48" customHeight="1">
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56">
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53">
         <v>7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="G35" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="H35" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="I35" s="62" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="I35" s="59" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="39" customHeight="1">
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56">
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53">
         <v>8</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="G36" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="H36" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="I36" s="53" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="37.5" customHeight="1">
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56">
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53">
         <v>9</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="G37" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="H37" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="I37" s="53" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36.75" customHeight="1">
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56">
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53">
         <v>10</v>
       </c>
-      <c r="E38" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="F38" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="G38" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
+      <c r="E38" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="F38" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
     </row>
     <row r="39" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
     </row>
     <row r="40" spans="2:9" ht="38.25">
-      <c r="B40" s="56">
+      <c r="B40" s="53">
         <v>3</v>
       </c>
-      <c r="C40" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="D40" s="56">
+      <c r="C40" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="53">
         <v>1</v>
       </c>
-      <c r="E40" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="F40" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="G40" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="H40" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="I40" s="68" t="s">
-        <v>149</v>
+      <c r="E40" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="H40" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" s="65" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="27" customHeight="1">
-      <c r="B41" s="64"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56">
+      <c r="B41" s="61"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53">
         <v>2</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="G41" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="H41" s="49"/>
+      <c r="I41" s="50" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56">
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53">
         <v>3</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="G42" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="H42" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="I42" s="53" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="I42" s="50" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56">
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53">
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="G43" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="H43" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="I43" s="53" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="G43" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="I43" s="50" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="36.75" customHeight="1">
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56">
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53">
         <v>5</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="G44" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="39.75" customHeight="1">
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56">
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53">
         <v>6</v>
       </c>
-      <c r="E45" s="57" t="s">
-        <v>246</v>
-      </c>
-      <c r="F45" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="G45" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="H45" s="57"/>
-      <c r="I45" s="53"/>
+      <c r="E45" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="G45" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="H45" s="54"/>
+      <c r="I45" s="50"/>
     </row>
     <row r="46" spans="2:9" ht="15">
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="65"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="62"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
     </row>
     <row r="47" spans="2:9" ht="38.25">
-      <c r="B47" s="56">
+      <c r="B47" s="53">
         <v>4</v>
       </c>
-      <c r="C47" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="D47" s="56">
+      <c r="C47" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" s="53">
         <v>1</v>
       </c>
-      <c r="E47" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="F47" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="G47" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="H47" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="I47" s="59" t="s">
-        <v>149</v>
+      <c r="E47" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="H47" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="I47" s="56" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56">
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53">
         <v>2</v>
       </c>
-      <c r="E48" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="F48" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="G48" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="H48" s="67" t="s">
-        <v>252</v>
-      </c>
-      <c r="I48" s="52" t="s">
+      <c r="E48" s="56" t="s">
         <v>253</v>
+      </c>
+      <c r="F48" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="G48" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="H48" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="I48" s="49" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56">
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53">
         <v>3</v>
       </c>
-      <c r="E49" s="59" t="s">
-        <v>254</v>
+      <c r="E49" s="56" t="s">
+        <v>258</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="G49" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="H49" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="I49" s="53" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="H49" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="I49" s="50" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56">
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53">
         <v>4</v>
       </c>
-      <c r="E50" s="59" t="s">
-        <v>259</v>
+      <c r="E50" s="56" t="s">
+        <v>263</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="G50" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="H50" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="I50" s="53" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="G50" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="H50" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="I50" s="50" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="32.25" customHeight="1">
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56">
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53">
         <v>5</v>
       </c>
-      <c r="E51" s="57" t="s">
-        <v>264</v>
-      </c>
-      <c r="F51" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="G51" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
+      <c r="E51" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="F51" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="G51" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="H54" s="54"/>
+      <c r="H54" s="51"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="H55" s="54"/>
+      <c r="H55" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37098,50 +37261,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15">
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
     </row>
     <row r="3" spans="1:10" ht="15">
-      <c r="B3" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
+      <c r="B3" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="27" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -37156,22 +37319,22 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H5">
         <v>9876781234</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -37186,22 +37349,22 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" t="s">
         <v>278</v>
-      </c>
-      <c r="G6" t="s">
-        <v>274</v>
       </c>
       <c r="H6">
         <v>9129867850</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -37221,43 +37384,43 @@
       <c r="F9" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="15">
-      <c r="B11" s="71" t="s">
-        <v>281</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>282</v>
-      </c>
-      <c r="D11" s="76"/>
-      <c r="F11" s="77" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" s="77"/>
-      <c r="I11" s="77" t="s">
-        <v>284</v>
-      </c>
-      <c r="J11" s="77"/>
+      <c r="B11" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="F11" s="93" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="93"/>
+      <c r="I11" s="93" t="s">
+        <v>288</v>
+      </c>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="34" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
@@ -37268,20 +37431,20 @@
         <v>1</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="38">
         <v>1</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I13" s="38">
         <v>3</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -37292,19 +37455,19 @@
         <v>2</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F14" s="38">
         <v>2</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I14" s="38">
         <v>4</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -37317,7 +37480,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
@@ -37329,25 +37492,25 @@
       <c r="B21" s="33"/>
     </row>
     <row r="22" spans="2:9" ht="15">
-      <c r="B22" s="75" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
+      <c r="B22" s="91" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="38" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D23" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -37358,7 +37521,7 @@
         <v>36962</v>
       </c>
       <c r="D24" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E24" s="44">
         <v>44177</v>
@@ -37372,7 +37535,7 @@
         <v>36770</v>
       </c>
       <c r="D25" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E25" s="44">
         <v>43580</v>
@@ -37386,39 +37549,39 @@
       <c r="E26" s="41"/>
     </row>
     <row r="28" spans="2:9" ht="15">
-      <c r="B28" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
+      <c r="B28" s="96" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
       <c r="F28" s="35"/>
-      <c r="H28" s="81" t="s">
-        <v>304</v>
-      </c>
-      <c r="I28" s="82"/>
+      <c r="H28" s="97" t="s">
+        <v>308</v>
+      </c>
+      <c r="I28" s="98"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="34" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -37441,7 +37604,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -37464,7 +37627,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -37487,41 +37650,41 @@
         <v>3</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15">
       <c r="B35" s="34"/>
-      <c r="C35" s="73"/>
-      <c r="F35" s="76" t="s">
-        <v>314</v>
-      </c>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="84"/>
+      <c r="C35" s="70"/>
+      <c r="F35" s="92" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="100"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="34" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I36" s="42" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J36" s="37" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -37535,10 +37698,10 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H37" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -37558,10 +37721,10 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H38" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I38">
         <v>2020</v>
@@ -37588,48 +37751,48 @@
       <c r="C40" s="32"/>
     </row>
     <row r="41" spans="2:10" ht="15">
-      <c r="F41" s="76" t="s">
-        <v>324</v>
-      </c>
-      <c r="G41" s="83"/>
-      <c r="H41" s="84"/>
+      <c r="F41" s="92" t="s">
+        <v>328</v>
+      </c>
+      <c r="G41" s="99"/>
+      <c r="H41" s="100"/>
     </row>
     <row r="42" spans="2:10">
       <c r="F42" s="36" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15">
-      <c r="B43" s="80" t="s">
-        <v>328</v>
-      </c>
-      <c r="C43" s="86"/>
+      <c r="B43" s="96" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" s="102"/>
       <c r="F43" s="38">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H43" s="39"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="34" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F44" s="38">
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H44" s="39"/>
     </row>
@@ -37644,7 +37807,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="45" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H45" s="41"/>
     </row>
@@ -37665,77 +37828,77 @@
       </c>
     </row>
     <row r="50" spans="2:22" ht="15">
-      <c r="B50" s="76" t="s">
-        <v>334</v>
-      </c>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
+      <c r="B50" s="92" t="s">
+        <v>338</v>
+      </c>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
       <c r="F50" s="37"/>
-      <c r="H50" s="76" t="s">
-        <v>335</v>
-      </c>
-      <c r="I50" s="84"/>
+      <c r="H50" s="92" t="s">
+        <v>339</v>
+      </c>
+      <c r="I50" s="100"/>
       <c r="K50" s="36"/>
-      <c r="L50" s="83" t="s">
-        <v>336</v>
-      </c>
-      <c r="M50" s="84"/>
-      <c r="O50" s="76" t="s">
+      <c r="L50" s="99" t="s">
+        <v>340</v>
+      </c>
+      <c r="M50" s="100"/>
+      <c r="O50" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="P50" s="84"/>
-      <c r="R50" s="80" t="s">
-        <v>337</v>
-      </c>
-      <c r="S50" s="85"/>
-      <c r="T50" s="86"/>
+      <c r="P50" s="100"/>
+      <c r="R50" s="96" t="s">
+        <v>341</v>
+      </c>
+      <c r="S50" s="101"/>
+      <c r="T50" s="102"/>
       <c r="U50" s="33"/>
       <c r="V50" s="33"/>
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="36" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="I51" s="37" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K51" s="38"/>
       <c r="L51" t="s">
+        <v>348</v>
+      </c>
+      <c r="M51" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="O51" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="P51" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="R51" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="M51" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="O51" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="P51" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="R51" s="34" t="s">
-        <v>340</v>
-      </c>
       <c r="S51" s="46" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="T51" s="35" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="2:22">
@@ -37758,20 +37921,20 @@
         <v>500</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K52" s="38"/>
       <c r="L52">
         <v>600</v>
       </c>
       <c r="M52" s="39" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O52" s="38">
         <v>200</v>
       </c>
       <c r="P52" s="39" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="R52" s="27">
         <v>1</v>
@@ -37803,20 +37966,20 @@
         <v>501</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K53" s="38"/>
       <c r="L53">
         <v>601</v>
       </c>
       <c r="M53" s="39" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="O53" s="38">
         <v>201</v>
       </c>
       <c r="P53" s="39" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="R53" s="27">
         <v>2</v>
@@ -37848,20 +38011,20 @@
         <v>502</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K54" s="38"/>
       <c r="L54">
         <v>602</v>
       </c>
       <c r="M54" s="39" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="O54" s="38">
         <v>202</v>
       </c>
       <c r="P54" s="39" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="R54" s="27"/>
       <c r="T54" s="28"/>
@@ -37879,60 +38042,60 @@
         <v>603</v>
       </c>
       <c r="M55" s="41" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="O55" s="40">
         <v>203</v>
       </c>
       <c r="P55" s="41" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="R55" s="30"/>
       <c r="S55" s="31"/>
       <c r="T55" s="32"/>
     </row>
     <row r="62" spans="2:22" ht="15">
-      <c r="B62" s="81" t="s">
-        <v>358</v>
-      </c>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
+      <c r="B62" s="97" t="s">
+        <v>362</v>
+      </c>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103"/>
       <c r="E62" s="48"/>
-      <c r="H62" s="80" t="s">
-        <v>359</v>
-      </c>
-      <c r="I62" s="85"/>
-      <c r="J62" s="85"/>
-      <c r="K62" s="85"/>
-      <c r="L62" s="86"/>
+      <c r="H62" s="96" t="s">
+        <v>363</v>
+      </c>
+      <c r="I62" s="101"/>
+      <c r="J62" s="101"/>
+      <c r="K62" s="101"/>
+      <c r="L62" s="102"/>
     </row>
     <row r="63" spans="2:22">
       <c r="B63" s="27" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C63" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D63" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="I63" s="46" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J63" s="46" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K63" s="46" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L63" s="35" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="2:22">
@@ -37940,7 +38103,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -37952,10 +38115,10 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J64" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K64">
         <v>2019</v>
@@ -37969,7 +38132,7 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -37981,10 +38144,10 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="J65" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K65">
         <v>2020</v>
@@ -37998,7 +38161,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D66" s="31">
         <v>1</v>
@@ -38013,35 +38176,35 @@
       <c r="L66" s="32"/>
     </row>
     <row r="68" spans="2:12" ht="15">
-      <c r="F68" s="76" t="s">
-        <v>368</v>
-      </c>
-      <c r="G68" s="84"/>
+      <c r="F68" s="92" t="s">
+        <v>372</v>
+      </c>
+      <c r="G68" s="100"/>
     </row>
     <row r="69" spans="2:12" ht="15">
-      <c r="B69" s="80" t="s">
-        <v>369</v>
-      </c>
-      <c r="C69" s="86"/>
+      <c r="B69" s="96" t="s">
+        <v>373</v>
+      </c>
+      <c r="C69" s="102"/>
       <c r="F69" s="36" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G69" s="37" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="2:12">
       <c r="B70" s="34" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F70" s="38">
         <v>278</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="2:12">
@@ -38055,7 +38218,7 @@
         <v>279</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="2:12">
@@ -38069,7 +38232,7 @@
         <v>280</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="2:12">
@@ -38083,18 +38246,18 @@
       <c r="G73" s="41"/>
     </row>
     <row r="76" spans="2:12" ht="15">
-      <c r="B76" s="70"/>
-      <c r="F76" s="80" t="s">
-        <v>377</v>
-      </c>
-      <c r="G76" s="86"/>
+      <c r="B76" s="67"/>
+      <c r="F76" s="96" t="s">
+        <v>381</v>
+      </c>
+      <c r="G76" s="102"/>
     </row>
     <row r="77" spans="2:12">
       <c r="F77" s="34" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="2:12">
@@ -38102,7 +38265,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="2:12">
@@ -38110,7 +38273,7 @@
         <v>2</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="80" spans="2:12">
@@ -38122,37 +38285,37 @@
       <c r="G81" s="32"/>
     </row>
     <row r="87" spans="2:9" ht="15">
-      <c r="B87" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="C87" s="84"/>
-      <c r="E87" s="77" t="s">
+      <c r="B87" s="92" t="s">
+        <v>386</v>
+      </c>
+      <c r="C87" s="100"/>
+      <c r="E87" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="88"/>
-      <c r="H87" s="76" t="s">
+      <c r="F87" s="104"/>
+      <c r="H87" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="I87" s="84"/>
+      <c r="I87" s="100"/>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="36" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E88" s="36" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F88" s="37" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H88" s="36" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I88" s="37" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -38166,13 +38329,13 @@
         <v>1</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H89" s="38">
         <v>10</v>
       </c>
       <c r="I89" s="39" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -38186,13 +38349,13 @@
         <v>2</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H90" s="38">
         <v>11</v>
       </c>
       <c r="I90" s="39" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="2:9">
@@ -38206,13 +38369,13 @@
         <v>3</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H91" s="38">
         <v>12</v>
       </c>
       <c r="I91" s="39" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="2:9">
@@ -38224,13 +38387,13 @@
       <c r="I92" s="41"/>
     </row>
     <row r="96" spans="2:9" ht="15">
-      <c r="B96" s="72" t="s">
-        <v>393</v>
+      <c r="B96" s="69" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="36" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="98" spans="2:2">
@@ -38252,13 +38415,13 @@
       <c r="B101" s="40"/>
     </row>
     <row r="105" spans="2:2" ht="15">
-      <c r="B105" s="71" t="s">
-        <v>395</v>
+      <c r="B105" s="68" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="27" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="2:2">
@@ -38280,17 +38443,17 @@
       <c r="B110" s="30"/>
     </row>
     <row r="115" spans="2:3" ht="15">
-      <c r="B115" s="76" t="s">
-        <v>397</v>
-      </c>
-      <c r="C115" s="84"/>
+      <c r="B115" s="92" t="s">
+        <v>401</v>
+      </c>
+      <c r="C115" s="100"/>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="34" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="117" spans="2:3">
@@ -38355,15 +38518,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3CFBF-880F-481E-9D27-6F5C85AAC27F}">
   <dimension ref="V29"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+    <sheetView topLeftCell="D216" workbookViewId="0">
+      <selection activeCell="L176" sqref="L176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="29" spans="22:22">
       <c r="V29" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -38384,28 +38547,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="23.25">
       <c r="J1" s="12" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.25">
       <c r="C4" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="6" spans="3:10" ht="20.25">
       <c r="D6" s="10" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="20.25">
       <c r="D21" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="20.25">
       <c r="D33" s="13" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -38413,34 +38576,34 @@
     </row>
     <row r="46" spans="4:8" ht="20.25">
       <c r="D46" s="10" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="20.25">
       <c r="C59" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="61" spans="3:4" ht="20.25">
       <c r="D61" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="20.25">
       <c r="D74" s="10" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="85" spans="4:4" ht="20.25">
       <c r="D85" s="10" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="296" spans="3:5" ht="18">
       <c r="C296" s="9" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -38472,7 +38635,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="22" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -38480,100 +38643,100 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F3" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="B6" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B10" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="22" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B17" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B19" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B22" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B24" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
@@ -38599,106 +38762,106 @@
     </row>
     <row r="64" spans="1:1" ht="15">
       <c r="A64" s="22" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B68" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="B69" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B74" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B76" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="B77" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B82" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15">
       <c r="A85" s="22" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B86" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B88" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -38727,10 +38890,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -38740,47 +38903,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -38835,10 +38998,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>4</v>
@@ -38847,31 +39010,31 @@
     <row r="19" spans="1:4">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D20" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -38893,7 +39056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC21BEB0-7817-4402-83E4-96DD5F41634F}">
   <dimension ref="A3:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -38905,128 +39068,128 @@
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
       <c r="L3" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B9" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O9" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B13" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B15" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B17" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="O17" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B19" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B21" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B23" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B25" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O25" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="20" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="20" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="20" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C969031E-9D27-42D1-B332-57DAD3C01E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE4384A3-96AF-4F5E-B733-7762E5E42441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="User_Story" sheetId="5" r:id="rId3"/>
     <sheet name="Datamodels" sheetId="14" r:id="rId4"/>
     <sheet name="Updated_Entity" sheetId="15" r:id="rId5"/>
-    <sheet name="Work_flow" sheetId="8" r:id="rId6"/>
-    <sheet name="Acceptance criteria" sheetId="11" r:id="rId7"/>
+    <sheet name="Interactions" sheetId="16" r:id="rId6"/>
+    <sheet name="Work_flow" sheetId="8" r:id="rId7"/>
     <sheet name="User_Requirements" sheetId="9" r:id="rId8"/>
     <sheet name="Hierarchy" sheetId="10" r:id="rId9"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="460">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -449,6 +449,33 @@
   </si>
   <si>
     <t>Design layered system architechture</t>
+  </si>
+  <si>
+    <t>Add forget password flow in prototype, in operations, in entity model</t>
+  </si>
+  <si>
+    <t>Get as list for Break durations,social medias</t>
+  </si>
+  <si>
+    <t>Add draft as profile status</t>
+  </si>
+  <si>
+    <t>Follow naming conventions(create-&gt;createeducation)</t>
+  </si>
+  <si>
+    <t>Add view method in profile</t>
+  </si>
+  <si>
+    <t>Follow json format in web API</t>
+  </si>
+  <si>
+    <t>Maintain consistency</t>
+  </si>
+  <si>
+    <t>Change update and delete methods in services</t>
+  </si>
+  <si>
+    <t>Seperate services for user actions and profile actions</t>
   </si>
   <si>
     <t>Team Genesis - Profile Management Project</t>
@@ -1304,109 +1331,19 @@
     <t>Profile Search based on Filters</t>
   </si>
   <si>
-    <t>User story</t>
-  </si>
-  <si>
-    <t>As a admin,I should be able to view/update master data</t>
-  </si>
-  <si>
-    <t>So I can maintain the data upto date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance criteria </t>
-  </si>
-  <si>
-    <t>Admin should have the privilege to add or change the project details to the master data</t>
-  </si>
-  <si>
-    <t>Admin should have the privilege to add or change the role details to the master data</t>
-  </si>
-  <si>
-    <t>Admin should have the privilege to add or change the college details to the master data</t>
-  </si>
-  <si>
-    <t>Admin should have the privilege to add or change the technology details to the master data</t>
-  </si>
-  <si>
-    <t>Admin should have the privilege to add or change the domain details to the master data</t>
-  </si>
-  <si>
-    <t>As a admin,I should be able to add HR Partner So they will register new user</t>
-  </si>
-  <si>
-    <t>Admin will assign the HR partner</t>
-  </si>
-  <si>
-    <t>As a HR, I should be able to register a new user So I can create a new user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR has to fill all the fields </t>
-  </si>
-  <si>
-    <t>An e-mail is sent to the user after registration</t>
-  </si>
-  <si>
-    <t>As a HR, I should be able to assign the reporting person to user So they approves the user profile</t>
-  </si>
-  <si>
-    <t>Reporting person should view the user profile and approve it.</t>
-  </si>
-  <si>
-    <t>Searcher</t>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Create</t>
   </si>
   <si>
     <t>Search</t>
   </si>
   <si>
-    <t>As a user, I should be able to apply different filters  while searching(Experience,College,Role,Domain,Technology,Project) So it makes the search easier</t>
-  </si>
-  <si>
-    <t>View the profile</t>
-  </si>
-  <si>
-    <t>Update the profile</t>
-  </si>
-  <si>
-    <t>Request Update</t>
-  </si>
-  <si>
-    <t>As a user, I should be able to request for updation of profile when it isn't updated for 3months So I can get an updated profile</t>
-  </si>
-  <si>
-    <t>Last updated date must exceed 3 months</t>
-  </si>
-  <si>
-    <t>An  e-mail is sent to the user after giving the request update</t>
+    <t>View</t>
   </si>
   <si>
     <t>Download</t>
-  </si>
-  <si>
-    <t>As a user,I should be able to export my profile So I can have a copy of my profile</t>
-  </si>
-  <si>
-    <t>Profile should view in organization's template.</t>
-  </si>
-  <si>
-    <t>Profile template has to store in local system.</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>As a user I should be able to share my profile So I can send my profile to anyone</t>
-  </si>
-  <si>
-    <t>An  e-mail is sent to the user after giving the share feature</t>
-  </si>
-  <si>
-    <t>Functional</t>
-  </si>
-  <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>View</t>
   </si>
   <si>
     <t>Update</t>
@@ -1518,7 +1455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1610,13 +1547,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2196,9 +2126,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2229,7 +2159,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2242,11 +2171,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -2296,16 +2225,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2347,13 +2276,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2365,49 +2294,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2644,26 +2573,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D0FC45-DFA6-061C-3E24-A84984253001}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C9CA5775-F552-27DF-4C3F-441CF1239D95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E2BEAF-FF55-426C-298E-AEBA7ABEE930}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2679,55 +2605,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3038475" y="342900"/>
-          <a:ext cx="9648825" cy="16202025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E3D19E-8A76-2461-42CE-A237A3244498}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D1D0FC45-DFA6-061C-3E24-A84984253001}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2409825" y="23764875"/>
-          <a:ext cx="10363200" cy="16840200"/>
+          <a:off x="5486400" y="1457325"/>
+          <a:ext cx="8286750" cy="12744450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2740,6 +2619,55 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C508D85A-FA62-8454-66D6-89B6E9D53F61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762375" y="1657350"/>
+          <a:ext cx="9486900" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -33760,7 +33688,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -35788,10 +35716,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -35802,662 +35730,727 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="85" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="26" customFormat="1" ht="12.75">
-      <c r="A2" s="87">
+    <row r="2" spans="1:3" s="25" customFormat="1" ht="12.75">
+      <c r="A2" s="86">
         <v>44653</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="88" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="26" customFormat="1" ht="12.75">
+    <row r="3" spans="1:3" s="25" customFormat="1" ht="12.75">
       <c r="A3" s="4"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" s="26" customFormat="1" ht="12.75">
+    <row r="4" spans="1:3" s="25" customFormat="1" ht="12.75">
       <c r="A4" s="4"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="12.75">
-      <c r="A5" s="71">
+      <c r="A5" s="70">
         <v>44655</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="72" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75">
-      <c r="A6" s="74"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="74" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="76" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="75" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79" t="s">
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="78" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="80">
+      <c r="A10" s="79">
         <v>44656</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="81" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="76" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="75" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="76" t="s">
+      <c r="A12" s="73"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="75" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="74"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="76" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="75" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="76" t="s">
+      <c r="A14" s="73"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="75" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="79" t="s">
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="80">
+      <c r="A17" s="79">
         <v>44657</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="81" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="74"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="73"/>
+      <c r="B18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="75" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="74"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="76" t="s">
+      <c r="A19" s="73"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="76" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="74"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="76" t="s">
+      <c r="A21" s="73"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="75" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="74"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="76" t="s">
+      <c r="A22" s="73"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="74"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="76" t="s">
+      <c r="A23" s="73"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="75" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="74"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="76" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="75" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="74"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="76" t="s">
+      <c r="A25" s="73"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="75" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="74"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="76" t="s">
+      <c r="A26" s="73"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="75" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="74"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="76" t="s">
+      <c r="A27" s="73"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="75" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="79" t="s">
+      <c r="A28" s="76"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="80">
+      <c r="A30" s="79">
         <v>44658</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="81" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="74"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="73"/>
+      <c r="B31" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="75" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="74"/>
-      <c r="B32" s="24" t="s">
+      <c r="A32" s="73"/>
+      <c r="B32" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="75" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="74"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="73"/>
+      <c r="B33" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="75" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="74"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="76" t="s">
+      <c r="A34" s="73"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="75" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="74"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="76" t="s">
+      <c r="A35" s="73"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="75" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="74"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="76" t="s">
+      <c r="A36" s="73"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="75" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="74"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="76" t="s">
+      <c r="A37" s="73"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="75" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="74"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="76" t="s">
+      <c r="A38" s="73"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="75" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="74"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="76" t="s">
+      <c r="A39" s="73"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="75" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="74"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="76" t="s">
+      <c r="A40" s="73"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="75" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="74"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="76" t="s">
+      <c r="A41" s="73"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="75" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="74"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="76" t="s">
+      <c r="A42" s="73"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="75" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="77"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="79" t="s">
+      <c r="A43" s="76"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="80">
+      <c r="A45" s="79">
         <v>44659</v>
       </c>
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="82" t="s">
+      <c r="C45" s="81" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="74"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="76" t="s">
+      <c r="A46" s="73"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="74"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="76" t="s">
+      <c r="A47" s="73"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="75" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="74"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="76" t="s">
+      <c r="A48" s="73"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="75" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="74"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="76" t="s">
+      <c r="A49" s="73"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="75" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="74"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="76" t="s">
+      <c r="A50" s="73"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="75" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="74"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="76" t="s">
+      <c r="A51" s="73"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="75" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A52" s="74"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="76" t="s">
+      <c r="A52" s="73"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="75" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A53" s="74"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="76" t="s">
+      <c r="A53" s="73"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="75" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A54" s="74"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="76" t="s">
+      <c r="A54" s="73"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="75" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A55" s="74"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="76" t="s">
+      <c r="A55" s="73"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="75" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A56" s="74"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="76" t="s">
+      <c r="A56" s="73"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="75" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A57" s="77"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="79" t="s">
+      <c r="A57" s="76"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="78" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A60" s="80">
+      <c r="A60" s="79">
         <v>44660</v>
       </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="82" t="s">
+      <c r="B60" s="80"/>
+      <c r="C60" s="81" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A61" s="74"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="76" t="s">
+      <c r="A61" s="73"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="75" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A62" s="74"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="76" t="s">
+      <c r="A62" s="73"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="75" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A63" s="74"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="76" t="s">
+      <c r="A63" s="73"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="75" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A64" s="74"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="76" t="s">
+      <c r="A64" s="73"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="75" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A65" s="74"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="76" t="s">
+      <c r="A65" s="73"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="75" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A66" s="77"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="79" t="s">
+      <c r="A66" s="76"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="78" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A68" s="80">
+      <c r="A68" s="79">
         <v>44662</v>
       </c>
-      <c r="B68" s="81" t="s">
+      <c r="B68" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="82" t="s">
+      <c r="C68" s="81" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A69" s="74"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="76" t="s">
+      <c r="A69" s="73"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="75" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A70" s="74"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="76" t="s">
+      <c r="A70" s="73"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="75" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A71" s="74"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="76" t="s">
+      <c r="A71" s="73"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="75" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A72" s="74"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="76" t="s">
+      <c r="A72" s="73"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="75" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A73" s="74"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="76" t="s">
+      <c r="A73" s="73"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="75" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A74" s="74"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="76" t="s">
+      <c r="A74" s="73"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="75" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A75" s="74"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="76" t="s">
+      <c r="A75" s="73"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="75" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A76" s="74"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="76" t="s">
+      <c r="A76" s="73"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="75" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A77" s="74"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="76" t="s">
+      <c r="A77" s="73"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="75" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A78" s="77"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="79" t="s">
+      <c r="A78" s="76"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="78" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A80" s="80">
+      <c r="A80" s="79">
         <v>44663</v>
       </c>
-      <c r="B80" s="81"/>
-      <c r="C80" s="82" t="s">
+      <c r="B80" s="80"/>
+      <c r="C80" s="81" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A81" s="74"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="76" t="s">
+      <c r="A81" s="73"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="75" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A82" s="74"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="76" t="s">
+      <c r="A82" s="73"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="75" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A83" s="74"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="76" t="s">
+      <c r="A83" s="73"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="75" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A84" s="77"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="79" t="s">
+      <c r="A84" s="76"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="78" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A86" s="80">
+      <c r="A86" s="79">
         <v>44664</v>
       </c>
-      <c r="B86" s="81" t="s">
+      <c r="B86" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="82" t="s">
+      <c r="C86" s="81" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A87" s="74"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="76" t="s">
+      <c r="A87" s="73"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="75" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A88" s="74"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="76" t="s">
+      <c r="A88" s="73"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="75" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A89" s="77"/>
-      <c r="B89" s="78"/>
-      <c r="C89" s="79" t="s">
+      <c r="A89" s="76"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="78" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A91" s="80">
+      <c r="A91" s="79">
         <v>44671</v>
       </c>
-      <c r="B91" s="81"/>
-      <c r="C91" s="82" t="s">
+      <c r="B91" s="80"/>
+      <c r="C91" s="81" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A92" s="74"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="76" t="s">
+      <c r="A92" s="73"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="75" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A93" s="77"/>
-      <c r="B93" s="78"/>
-      <c r="C93" s="79" t="s">
+      <c r="A93" s="76"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="78" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A95" s="80">
+      <c r="A95" s="79">
         <v>44672</v>
       </c>
-      <c r="B95" s="81"/>
-      <c r="C95" s="82" t="s">
+      <c r="B95" s="80"/>
+      <c r="C95" s="81" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A96" s="74"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="76" t="s">
+      <c r="A96" s="73"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="75" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A97" s="74"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="76" t="s">
+      <c r="A97" s="73"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="75" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A98" s="77"/>
-      <c r="B98" s="78"/>
-      <c r="C98" s="79" t="s">
+      <c r="A98" s="76"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="78" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A100" s="79">
+        <v>44673</v>
+      </c>
+      <c r="B100" s="80"/>
+      <c r="C100" s="81" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A101" s="73"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A102" s="73"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A103" s="73"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A104" s="73"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A105" s="73"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A106" s="73"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A107" s="73"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A108" s="76"/>
+      <c r="B108" s="77"/>
+      <c r="C108" s="78" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -36469,7 +36462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99455432-5260-4250-8176-F630DA6BD87E}">
   <dimension ref="A5:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
@@ -36487,7 +36480,7 @@
   <sheetData>
     <row r="5" spans="1:5">
       <c r="E5" s="8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -36495,726 +36488,726 @@
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>144</v>
+      <c r="B18" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>153</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="51">
-      <c r="B19" s="53">
+      <c r="B19" s="52">
         <v>1</v>
       </c>
-      <c r="C19" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="53">
+      <c r="C19" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="52">
         <v>1</v>
       </c>
-      <c r="E19" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="I19" s="56" t="s">
-        <v>153</v>
+      <c r="E19" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="38.25">
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52">
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="I20" s="57" t="s">
-        <v>158</v>
+        <v>164</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="I20" s="56" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="62.25" customHeight="1">
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53">
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52">
         <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>163</v>
+        <v>169</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.5" customHeight="1">
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52">
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G22" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="I22" s="57" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="56" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="38.25" customHeight="1">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53">
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52">
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="I23" s="59" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="58" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25.5">
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53">
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52">
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="I24" s="56" t="s">
-        <v>178</v>
+        <v>184</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1">
-      <c r="B25" s="66"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53">
+      <c r="B25" s="65"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52">
         <v>7</v>
       </c>
-      <c r="E25" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
+      <c r="E25" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="2:9" ht="37.5" customHeight="1">
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53">
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52">
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>186</v>
+        <v>192</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="42" customHeight="1">
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53">
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52">
         <v>9</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50" t="s">
-        <v>190</v>
+        <v>197</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="38.25" customHeight="1">
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52">
         <v>10</v>
       </c>
-      <c r="E28" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="F28" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="G28" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
+      <c r="E28" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
     </row>
     <row r="30" spans="2:9" ht="51">
-      <c r="B30" s="53">
+      <c r="B30" s="52">
         <v>2</v>
       </c>
-      <c r="C30" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="53">
+      <c r="C30" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="52">
         <v>1</v>
       </c>
-      <c r="E30" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="H30" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="I30" s="56" t="s">
-        <v>153</v>
+      <c r="E30" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="51">
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53">
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52">
         <v>2</v>
       </c>
-      <c r="E31" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="H31" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="I31" s="50"/>
+      <c r="E31" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="I31" s="49"/>
     </row>
     <row r="32" spans="2:9" ht="51">
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53">
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52">
         <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="G32" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="I32" s="49" t="s">
-        <v>204</v>
+        <v>210</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="31.5" customHeight="1">
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53">
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52">
         <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="G33" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="H33" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="I33" s="49" t="s">
-        <v>209</v>
+        <v>215</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="I33" s="48" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="34.5" customHeight="1">
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53">
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52">
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="48" customHeight="1">
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53">
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52">
         <v>7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="G35" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="H35" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="I35" s="59" t="s">
-        <v>216</v>
+        <v>224</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="I35" s="58" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="39" customHeight="1">
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52">
         <v>8</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="H36" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="I36" s="50" t="s">
-        <v>221</v>
+        <v>227</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="I36" s="49" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="37.5" customHeight="1">
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53">
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52">
         <v>9</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G37" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="H37" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="I37" s="50" t="s">
-        <v>226</v>
+        <v>232</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="I37" s="49" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36.75" customHeight="1">
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53">
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52">
         <v>10</v>
       </c>
-      <c r="E38" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="G38" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
+      <c r="E38" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
     </row>
     <row r="39" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
     </row>
     <row r="40" spans="2:9" ht="38.25">
-      <c r="B40" s="53">
+      <c r="B40" s="52">
         <v>3</v>
       </c>
-      <c r="C40" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="D40" s="53">
+      <c r="C40" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="52">
         <v>1</v>
       </c>
-      <c r="E40" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="F40" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="H40" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="I40" s="65" t="s">
-        <v>153</v>
+      <c r="E40" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="I40" s="64" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="27" customHeight="1">
-      <c r="B41" s="61"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53">
+      <c r="B41" s="60"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52">
         <v>2</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="G41" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50" t="s">
-        <v>235</v>
+        <v>242</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41" s="48"/>
+      <c r="I41" s="49" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53">
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52">
         <v>3</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="G42" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="H42" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="I42" s="50" t="s">
-        <v>240</v>
+        <v>246</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="I42" s="49" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53">
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52">
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="G43" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="H43" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="I43" s="50" t="s">
-        <v>245</v>
+        <v>251</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="H43" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="I43" s="49" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="36.75" customHeight="1">
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53">
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52">
         <v>5</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="G44" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50" t="s">
-        <v>249</v>
+        <v>256</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="39.75" customHeight="1">
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53">
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52">
         <v>6</v>
       </c>
-      <c r="E45" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="F45" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="G45" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="H45" s="54"/>
-      <c r="I45" s="50"/>
+      <c r="E45" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="G45" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="H45" s="53"/>
+      <c r="I45" s="49"/>
     </row>
     <row r="46" spans="2:9" ht="15">
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="62"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="61"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
     </row>
     <row r="47" spans="2:9" ht="38.25">
-      <c r="B47" s="53">
+      <c r="B47" s="52">
         <v>4</v>
       </c>
-      <c r="C47" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="D47" s="53">
+      <c r="C47" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D47" s="52">
         <v>1</v>
       </c>
-      <c r="E47" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="F47" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="G47" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="H47" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="I47" s="56" t="s">
-        <v>153</v>
+      <c r="E47" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="I47" s="55" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53">
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52">
         <v>2</v>
       </c>
-      <c r="E48" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="F48" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="G48" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="H48" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="I48" s="49" t="s">
-        <v>257</v>
+      <c r="E48" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="F48" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="H48" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="I48" s="48" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53">
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52">
         <v>3</v>
       </c>
-      <c r="E49" s="56" t="s">
-        <v>258</v>
+      <c r="E49" s="55" t="s">
+        <v>267</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="G49" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="H49" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="I49" s="50" t="s">
-        <v>262</v>
+        <v>268</v>
+      </c>
+      <c r="G49" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="H49" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="I49" s="49" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53">
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52">
         <v>4</v>
       </c>
-      <c r="E50" s="56" t="s">
-        <v>263</v>
+      <c r="E50" s="55" t="s">
+        <v>272</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="G50" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="H50" s="50" t="s">
-        <v>266</v>
-      </c>
-      <c r="I50" s="50" t="s">
-        <v>267</v>
+        <v>273</v>
+      </c>
+      <c r="G50" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="H50" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="I50" s="49" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="32.25" customHeight="1">
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53">
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52">
         <v>5</v>
       </c>
-      <c r="E51" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="G51" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
+      <c r="E51" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="F51" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="H54" s="51"/>
+      <c r="H54" s="50"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="H55" s="51"/>
+      <c r="H55" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37230,7 +37223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26143E4E-D99B-424D-B64E-1AC6E8022E09}">
   <dimension ref="A2:V120"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
@@ -37261,55 +37254,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15">
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="15">
-      <c r="B3" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
+      <c r="B3" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="27" t="s">
-        <v>269</v>
+      <c r="B4" s="26" t="s">
+        <v>278</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I4" t="s">
-        <v>274</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>275</v>
+        <v>283</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5"/>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>100</v>
       </c>
       <c r="C5">
@@ -37319,27 +37312,27 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G5" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="H5">
         <v>9876781234</v>
       </c>
-      <c r="I5" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>280</v>
+      <c r="I5" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5"/>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>101</v>
       </c>
       <c r="C6">
@@ -37349,243 +37342,243 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F6" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="G6" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="H6">
         <v>9129867850</v>
       </c>
-      <c r="I6" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>284</v>
+      <c r="I6" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="15">
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="11" spans="1:10" ht="15">
-      <c r="B11" s="68" t="s">
-        <v>285</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>286</v>
-      </c>
-      <c r="D11" s="92"/>
-      <c r="F11" s="93" t="s">
-        <v>287</v>
-      </c>
-      <c r="G11" s="93"/>
-      <c r="I11" s="93" t="s">
-        <v>288</v>
-      </c>
-      <c r="J11" s="93"/>
+      <c r="B11" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="91"/>
+      <c r="F11" s="92" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" s="92"/>
+      <c r="I11" s="92" t="s">
+        <v>297</v>
+      </c>
+      <c r="J11" s="92"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>293</v>
+      <c r="B12" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>1</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>1</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="38">
+      <c r="D13" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="37">
         <v>1</v>
       </c>
-      <c r="G13" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="I13" s="38">
+      <c r="G13" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="I13" s="37">
         <v>3</v>
       </c>
-      <c r="J13" s="39" t="s">
-        <v>296</v>
+      <c r="J13" s="38" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <v>2</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>2</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="F14" s="38">
+      <c r="D14" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="37">
         <v>2</v>
       </c>
-      <c r="G14" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="I14" s="38">
+      <c r="G14" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="I14" s="37">
         <v>4</v>
       </c>
-      <c r="J14" s="39" t="s">
-        <v>299</v>
+      <c r="J14" s="38" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="32"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="I15" s="40">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="31"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="I15" s="39">
         <v>5</v>
       </c>
-      <c r="J15" s="41" t="s">
-        <v>300</v>
+      <c r="J15" s="40" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="21" spans="2:9" ht="15">
-      <c r="B21" s="33"/>
+      <c r="B21" s="32"/>
     </row>
     <row r="22" spans="2:9" ht="15">
-      <c r="B22" s="91" t="s">
-        <v>301</v>
-      </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
+      <c r="B22" s="90" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="38" t="s">
-        <v>302</v>
+      <c r="B23" s="37" t="s">
+        <v>311</v>
       </c>
       <c r="C23" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>305</v>
+        <v>313</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="38">
+      <c r="B24" s="37">
         <v>1</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="42">
         <v>36962</v>
       </c>
       <c r="D24" t="s">
-        <v>306</v>
-      </c>
-      <c r="E24" s="44">
+        <v>315</v>
+      </c>
+      <c r="E24" s="43">
         <v>44177</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15">
-      <c r="B25" s="38">
+      <c r="B25" s="37">
         <v>2</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="42">
         <v>36770</v>
       </c>
       <c r="D25" t="s">
-        <v>306</v>
-      </c>
-      <c r="E25" s="44">
+        <v>315</v>
+      </c>
+      <c r="E25" s="43">
         <v>43580</v>
       </c>
-      <c r="F25" s="33"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="40"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="41"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="28" spans="2:9" ht="15">
-      <c r="B28" s="96" t="s">
-        <v>307</v>
-      </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="35"/>
-      <c r="H28" s="97" t="s">
-        <v>308</v>
-      </c>
-      <c r="I28" s="98"/>
+      <c r="B28" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="34"/>
+      <c r="H28" s="96" t="s">
+        <v>317</v>
+      </c>
+      <c r="I28" s="97"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>312</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>314</v>
+      <c r="B29" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="I29" s="38" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="27">
+      <c r="B30" s="26">
         <v>1</v>
       </c>
       <c r="C30">
@@ -37597,18 +37590,18 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="27">
         <v>1</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="37">
         <v>1</v>
       </c>
-      <c r="I30" s="39" t="s">
-        <v>315</v>
+      <c r="I30" s="38" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="27">
+      <c r="B31" s="26">
         <v>2</v>
       </c>
       <c r="C31">
@@ -37620,289 +37613,289 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="27">
         <v>1</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="37">
         <v>2</v>
       </c>
-      <c r="I31" s="39" t="s">
-        <v>316</v>
+      <c r="I31" s="38" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="30">
+      <c r="B32" s="29">
         <v>3</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="30">
         <v>2</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="30">
         <v>1</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="30">
         <v>0</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="31">
         <v>0</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="39">
         <v>3</v>
       </c>
-      <c r="I32" s="41" t="s">
-        <v>317</v>
+      <c r="I32" s="40" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15">
-      <c r="B35" s="34"/>
-      <c r="C35" s="70"/>
-      <c r="F35" s="92" t="s">
-        <v>318</v>
-      </c>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="100"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="69"/>
+      <c r="F35" s="91" t="s">
+        <v>327</v>
+      </c>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="99"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="H36" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="I36" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="J36" s="37" t="s">
-        <v>324</v>
+      <c r="B36" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="27">
+      <c r="B37" s="26">
         <v>1</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="27">
         <v>1</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H37" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="I37">
         <v>2019</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J37" s="38">
         <v>2020</v>
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="27">
+      <c r="B38" s="26">
         <v>2</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="27">
         <v>2</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="37">
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H38" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="I38">
         <v>2020</v>
       </c>
-      <c r="J38" s="39">
+      <c r="J38" s="38">
         <v>2020</v>
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="27">
+      <c r="B39" s="26">
         <v>3</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="27">
         <v>2</v>
       </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="41"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="40"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="30"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="31"/>
     </row>
     <row r="41" spans="2:10" ht="15">
-      <c r="F41" s="92" t="s">
-        <v>328</v>
-      </c>
-      <c r="G41" s="99"/>
-      <c r="H41" s="100"/>
+      <c r="F41" s="91" t="s">
+        <v>337</v>
+      </c>
+      <c r="G41" s="98"/>
+      <c r="H41" s="99"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="F42" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="G42" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>331</v>
+      <c r="F42" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15">
-      <c r="B43" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="C43" s="102"/>
-      <c r="F43" s="38">
+      <c r="B43" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="C43" s="101"/>
+      <c r="F43" s="37">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>333</v>
-      </c>
-      <c r="H43" s="39"/>
+        <v>342</v>
+      </c>
+      <c r="H43" s="38"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="F44" s="38">
+      <c r="B44" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="F44" s="37">
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>336</v>
-      </c>
-      <c r="H44" s="39"/>
+        <v>345</v>
+      </c>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="27">
+      <c r="B45" s="26">
         <v>1</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="27">
         <v>1</v>
       </c>
-      <c r="F45" s="40">
+      <c r="F45" s="39">
         <v>3</v>
       </c>
-      <c r="G45" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="H45" s="41"/>
+      <c r="G45" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="H45" s="40"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="27">
+      <c r="B46" s="26">
         <v>2</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="30">
+      <c r="B47" s="29">
         <v>3</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="31">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:22" ht="15">
-      <c r="B50" s="92" t="s">
-        <v>338</v>
-      </c>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="37"/>
-      <c r="H50" s="92" t="s">
-        <v>339</v>
-      </c>
-      <c r="I50" s="100"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="99" t="s">
-        <v>340</v>
-      </c>
-      <c r="M50" s="100"/>
-      <c r="O50" s="92" t="s">
+      <c r="B50" s="91" t="s">
+        <v>347</v>
+      </c>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="36"/>
+      <c r="H50" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="I50" s="99"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="98" t="s">
+        <v>349</v>
+      </c>
+      <c r="M50" s="99"/>
+      <c r="O50" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="P50" s="100"/>
-      <c r="R50" s="96" t="s">
-        <v>341</v>
-      </c>
-      <c r="S50" s="101"/>
-      <c r="T50" s="102"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="33"/>
+      <c r="P50" s="99"/>
+      <c r="R50" s="95" t="s">
+        <v>350</v>
+      </c>
+      <c r="S50" s="100"/>
+      <c r="T50" s="101"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
     </row>
     <row r="51" spans="2:22">
-      <c r="B51" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="D51" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="E51" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="H51" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="I51" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="K51" s="38"/>
+      <c r="B51" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="K51" s="37"/>
       <c r="L51" t="s">
-        <v>348</v>
-      </c>
-      <c r="M51" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="O51" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="P51" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="R51" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="S51" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="T51" s="35" t="s">
-        <v>324</v>
+        <v>357</v>
+      </c>
+      <c r="M51" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="O51" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="P51" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="R51" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="S51" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="T51" s="34" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="2:22">
-      <c r="B52" s="38">
+      <c r="B52" s="37">
         <v>1</v>
       </c>
       <c r="C52">
@@ -37914,40 +37907,40 @@
       <c r="E52">
         <v>200</v>
       </c>
-      <c r="F52" s="47">
+      <c r="F52" s="46">
         <v>0.90200000000000002</v>
       </c>
-      <c r="H52" s="38">
+      <c r="H52" s="37">
         <v>500</v>
       </c>
-      <c r="I52" s="39" t="s">
-        <v>351</v>
-      </c>
-      <c r="K52" s="38"/>
+      <c r="I52" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="K52" s="37"/>
       <c r="L52">
         <v>600</v>
       </c>
-      <c r="M52" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="O52" s="38">
+      <c r="M52" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="O52" s="37">
         <v>200</v>
       </c>
-      <c r="P52" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="R52" s="27">
+      <c r="P52" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="R52" s="26">
         <v>1</v>
       </c>
       <c r="S52">
         <v>2018</v>
       </c>
-      <c r="T52" s="28">
+      <c r="T52" s="27">
         <v>2022</v>
       </c>
     </row>
     <row r="53" spans="2:22">
-      <c r="B53" s="38">
+      <c r="B53" s="37">
         <v>2</v>
       </c>
       <c r="C53">
@@ -37959,40 +37952,40 @@
       <c r="E53">
         <v>201</v>
       </c>
-      <c r="F53" s="47">
+      <c r="F53" s="46">
         <v>0.80300000000000005</v>
       </c>
-      <c r="H53" s="38">
+      <c r="H53" s="37">
         <v>501</v>
       </c>
-      <c r="I53" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="K53" s="38"/>
+      <c r="I53" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="K53" s="37"/>
       <c r="L53">
         <v>601</v>
       </c>
-      <c r="M53" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="O53" s="38">
+      <c r="M53" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="O53" s="37">
         <v>201</v>
       </c>
-      <c r="P53" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="R53" s="27">
+      <c r="P53" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="R53" s="26">
         <v>2</v>
       </c>
       <c r="S53">
         <v>2017</v>
       </c>
-      <c r="T53" s="28">
+      <c r="T53" s="27">
         <v>2019</v>
       </c>
     </row>
     <row r="54" spans="2:22">
-      <c r="B54" s="38">
+      <c r="B54" s="37">
         <v>3</v>
       </c>
       <c r="C54">
@@ -38004,479 +37997,479 @@
       <c r="E54">
         <v>202</v>
       </c>
-      <c r="F54" s="47">
+      <c r="F54" s="46">
         <v>0.78700000000000003</v>
       </c>
-      <c r="H54" s="38">
+      <c r="H54" s="37">
         <v>502</v>
       </c>
-      <c r="I54" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="K54" s="38"/>
+      <c r="I54" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K54" s="37"/>
       <c r="L54">
         <v>602</v>
       </c>
-      <c r="M54" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="O54" s="38">
+      <c r="M54" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="O54" s="37">
         <v>202</v>
       </c>
-      <c r="P54" s="39" t="s">
-        <v>359</v>
-      </c>
-      <c r="R54" s="27"/>
-      <c r="T54" s="28"/>
+      <c r="P54" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="R54" s="26"/>
+      <c r="T54" s="27"/>
     </row>
     <row r="55" spans="2:22">
-      <c r="B55" s="40"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="41"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="41"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="45">
+      <c r="B55" s="39"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="40"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="40"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="44">
         <v>603</v>
       </c>
-      <c r="M55" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="O55" s="40">
+      <c r="M55" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="O55" s="39">
         <v>203</v>
       </c>
-      <c r="P55" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="R55" s="30"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="32"/>
+      <c r="P55" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="R55" s="29"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="31"/>
     </row>
     <row r="62" spans="2:22" ht="15">
-      <c r="B62" s="97" t="s">
-        <v>362</v>
-      </c>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="48"/>
-      <c r="H62" s="96" t="s">
-        <v>363</v>
-      </c>
-      <c r="I62" s="101"/>
-      <c r="J62" s="101"/>
-      <c r="K62" s="101"/>
-      <c r="L62" s="102"/>
+      <c r="B62" s="96" t="s">
+        <v>371</v>
+      </c>
+      <c r="C62" s="102"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="47"/>
+      <c r="H62" s="95" t="s">
+        <v>372</v>
+      </c>
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="101"/>
     </row>
     <row r="63" spans="2:22">
-      <c r="B63" s="27" t="s">
-        <v>364</v>
+      <c r="B63" s="26" t="s">
+        <v>373</v>
       </c>
       <c r="C63" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="D63" t="s">
-        <v>366</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="H63" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="I63" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="J63" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="K63" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="L63" s="35" t="s">
-        <v>324</v>
+        <v>375</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="I63" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="J63" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="K63" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="L63" s="34" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="2:22">
-      <c r="B64" s="27">
+      <c r="B64" s="26">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="27">
         <v>302</v>
       </c>
-      <c r="H64" s="27">
+      <c r="H64" s="26">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J64" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="K64">
         <v>2019</v>
       </c>
-      <c r="L64" s="28">
+      <c r="L64" s="27">
         <v>2019</v>
       </c>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="27">
+      <c r="B65" s="26">
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="27">
         <v>303</v>
       </c>
-      <c r="H65" s="27">
+      <c r="H65" s="26">
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="J65" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="K65">
         <v>2020</v>
       </c>
-      <c r="L65" s="28">
+      <c r="L65" s="27">
         <v>2020</v>
       </c>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="30">
+      <c r="B66" s="29">
         <v>3</v>
       </c>
-      <c r="C66" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="D66" s="31">
+      <c r="C66" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="D66" s="30">
         <v>1</v>
       </c>
-      <c r="E66" s="32">
+      <c r="E66" s="31">
         <v>301</v>
       </c>
-      <c r="H66" s="30"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="32"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="31"/>
     </row>
     <row r="68" spans="2:12" ht="15">
-      <c r="F68" s="92" t="s">
-        <v>372</v>
-      </c>
-      <c r="G68" s="100"/>
+      <c r="F68" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="G68" s="99"/>
     </row>
     <row r="69" spans="2:12" ht="15">
-      <c r="B69" s="96" t="s">
-        <v>373</v>
-      </c>
-      <c r="C69" s="102"/>
-      <c r="F69" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="G69" s="37" t="s">
-        <v>375</v>
+      <c r="B69" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="C69" s="101"/>
+      <c r="F69" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="G69" s="36" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="F70" s="38">
+      <c r="B70" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="F70" s="37">
         <v>278</v>
       </c>
-      <c r="G70" s="39" t="s">
-        <v>378</v>
+      <c r="G70" s="38" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="27">
+      <c r="B71" s="26">
         <v>1</v>
       </c>
-      <c r="C71" s="28">
+      <c r="C71" s="27">
         <v>278</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71" s="37">
         <v>279</v>
       </c>
-      <c r="G71" s="39" t="s">
-        <v>379</v>
+      <c r="G71" s="38" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="27">
+      <c r="B72" s="26">
         <v>2</v>
       </c>
-      <c r="C72" s="28">
+      <c r="C72" s="27">
         <v>280</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="37">
         <v>280</v>
       </c>
-      <c r="G72" s="39" t="s">
-        <v>380</v>
+      <c r="G72" s="38" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="30">
+      <c r="B73" s="29">
         <v>3</v>
       </c>
-      <c r="C73" s="32">
+      <c r="C73" s="31">
         <v>279</v>
       </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="41"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="40"/>
     </row>
     <row r="76" spans="2:12" ht="15">
-      <c r="B76" s="67"/>
-      <c r="F76" s="96" t="s">
-        <v>381</v>
-      </c>
-      <c r="G76" s="102"/>
+      <c r="B76" s="66"/>
+      <c r="F76" s="95" t="s">
+        <v>390</v>
+      </c>
+      <c r="G76" s="101"/>
     </row>
     <row r="77" spans="2:12">
-      <c r="F77" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="G77" s="35" t="s">
-        <v>383</v>
+      <c r="F77" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="2:12">
-      <c r="F78" s="27">
+      <c r="F78" s="26">
         <v>1</v>
       </c>
-      <c r="G78" s="28" t="s">
-        <v>384</v>
+      <c r="G78" s="27" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="79" spans="2:12">
-      <c r="F79" s="27">
+      <c r="F79" s="26">
         <v>2</v>
       </c>
-      <c r="G79" s="28" t="s">
-        <v>385</v>
+      <c r="G79" s="27" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="2:12">
-      <c r="F80" s="27"/>
-      <c r="G80" s="28"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="27"/>
     </row>
     <row r="81" spans="2:9">
-      <c r="F81" s="30"/>
-      <c r="G81" s="32"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="31"/>
     </row>
     <row r="87" spans="2:9" ht="15">
-      <c r="B87" s="92" t="s">
-        <v>386</v>
-      </c>
-      <c r="C87" s="100"/>
-      <c r="E87" s="93" t="s">
+      <c r="B87" s="91" t="s">
+        <v>395</v>
+      </c>
+      <c r="C87" s="99"/>
+      <c r="E87" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="104"/>
-      <c r="H87" s="92" t="s">
+      <c r="F87" s="103"/>
+      <c r="H87" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="I87" s="100"/>
+      <c r="I87" s="99"/>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="C88" s="37" t="s">
-        <v>388</v>
-      </c>
-      <c r="E88" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="F88" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="H88" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="I88" s="37" t="s">
-        <v>391</v>
+      <c r="B88" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="E88" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="H88" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="I88" s="36" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="38">
+      <c r="B89" s="37">
         <v>1</v>
       </c>
-      <c r="C89" s="39">
+      <c r="C89" s="38">
         <v>10</v>
       </c>
-      <c r="E89" s="38">
+      <c r="E89" s="37">
         <v>1</v>
       </c>
-      <c r="F89" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="H89" s="38">
+      <c r="F89" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="H89" s="37">
         <v>10</v>
       </c>
-      <c r="I89" s="39" t="s">
-        <v>392</v>
+      <c r="I89" s="38" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="90" spans="2:9">
-      <c r="B90" s="38">
+      <c r="B90" s="37">
         <v>2</v>
       </c>
-      <c r="C90" s="39">
+      <c r="C90" s="38">
         <v>11</v>
       </c>
-      <c r="E90" s="38">
+      <c r="E90" s="37">
         <v>2</v>
       </c>
-      <c r="F90" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="H90" s="38">
+      <c r="F90" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="H90" s="37">
         <v>11</v>
       </c>
-      <c r="I90" s="39" t="s">
-        <v>394</v>
+      <c r="I90" s="38" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="2:9">
-      <c r="B91" s="38">
+      <c r="B91" s="37">
         <v>3</v>
       </c>
-      <c r="C91" s="39">
+      <c r="C91" s="38">
         <v>12</v>
       </c>
-      <c r="E91" s="38">
+      <c r="E91" s="37">
         <v>3</v>
       </c>
-      <c r="F91" s="39" t="s">
-        <v>395</v>
-      </c>
-      <c r="H91" s="38">
+      <c r="F91" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="H91" s="37">
         <v>12</v>
       </c>
-      <c r="I91" s="39" t="s">
-        <v>396</v>
+      <c r="I91" s="38" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="2:9">
-      <c r="B92" s="40"/>
-      <c r="C92" s="41"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="41"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="41"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="40"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="40"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="40"/>
     </row>
     <row r="96" spans="2:9" ht="15">
-      <c r="B96" s="69" t="s">
-        <v>397</v>
+      <c r="B96" s="68" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="36" t="s">
-        <v>398</v>
+      <c r="B97" s="35" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="38">
+      <c r="B98" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="38">
+      <c r="B99" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="38">
+      <c r="B100" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="40"/>
+      <c r="B101" s="39"/>
     </row>
     <row r="105" spans="2:2" ht="15">
-      <c r="B105" s="68" t="s">
-        <v>399</v>
+      <c r="B105" s="67" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="27" t="s">
-        <v>400</v>
+      <c r="B106" s="26" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="27">
+      <c r="B107" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="27">
+      <c r="B108" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="27">
+      <c r="B109" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="30"/>
+      <c r="B110" s="29"/>
     </row>
     <row r="115" spans="2:3" ht="15">
-      <c r="B115" s="92" t="s">
-        <v>401</v>
-      </c>
-      <c r="C115" s="100"/>
+      <c r="B115" s="91" t="s">
+        <v>410</v>
+      </c>
+      <c r="C115" s="99"/>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="C116" s="35" t="s">
-        <v>403</v>
+      <c r="B116" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="C116" s="34" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="27">
+      <c r="B117" s="26">
         <v>1</v>
       </c>
-      <c r="C117" s="28"/>
+      <c r="C117" s="27"/>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="27">
+      <c r="B118" s="26">
         <v>2</v>
       </c>
-      <c r="C118" s="28"/>
+      <c r="C118" s="27"/>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="27">
+      <c r="B119" s="26">
         <v>3</v>
       </c>
-      <c r="C119" s="28"/>
+      <c r="C119" s="27"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="30"/>
-      <c r="C120" s="32"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -38518,15 +38511,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3CFBF-880F-481E-9D27-6F5C85AAC27F}">
   <dimension ref="V29"/>
   <sheetViews>
-    <sheetView topLeftCell="D216" workbookViewId="0">
-      <selection activeCell="L176" sqref="L176"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="29" spans="22:22">
       <c r="V29" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -38536,10 +38529,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E2C87B-569D-4472-B55B-F22E4DB21FBE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="Y50" sqref="Y50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79905DE3-DAB3-4C6E-84FE-24BF5F973564}">
   <dimension ref="C1:K603"/>
   <sheetViews>
-    <sheetView topLeftCell="T116" workbookViewId="0">
+    <sheetView topLeftCell="T6" workbookViewId="0">
       <selection activeCell="AD188" sqref="AD188"/>
     </sheetView>
   </sheetViews>
@@ -38547,28 +38555,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="23.25">
       <c r="J1" s="12" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.25">
       <c r="C4" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="6" spans="3:10" ht="20.25">
       <c r="D6" s="10" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="20.25">
       <c r="D21" s="10" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="20.25">
       <c r="D33" s="13" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -38576,34 +38584,34 @@
     </row>
     <row r="46" spans="4:8" ht="20.25">
       <c r="D46" s="10" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="20.25">
       <c r="C59" s="11" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="61" spans="3:4" ht="20.25">
       <c r="D61" s="10" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="20.25">
       <c r="D74" s="10" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="85" spans="4:4" ht="20.25">
       <c r="D85" s="10" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="296" spans="3:5" ht="18">
       <c r="C296" s="9" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -38616,256 +38624,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF61F9D4-CE67-4B1A-BDEF-73A765CC6053}">
-  <dimension ref="A1:Q88"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="22" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B3" t="s">
-        <v>413</v>
-      </c>
-      <c r="F3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="B6" t="s">
-        <v>417</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>412</v>
-      </c>
-      <c r="B10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>415</v>
-      </c>
-      <c r="B12" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="22" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>412</v>
-      </c>
-      <c r="B17" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>415</v>
-      </c>
-      <c r="B19" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>412</v>
-      </c>
-      <c r="B22" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>415</v>
-      </c>
-      <c r="B24" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="22"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="Q42" s="6"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="51" spans="1:1" ht="15">
-      <c r="A51" s="22"/>
-    </row>
-    <row r="64" spans="1:1" ht="15">
-      <c r="A64" s="22" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>412</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>415</v>
-      </c>
-      <c r="B68" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="B69" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>412</v>
-      </c>
-      <c r="B74" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>415</v>
-      </c>
-      <c r="B76" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="B77" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="6" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>412</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>415</v>
-      </c>
-      <c r="B82" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="B83" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15">
-      <c r="A85" s="22" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>412</v>
-      </c>
-      <c r="B86" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>415</v>
-      </c>
-      <c r="B88" t="s">
-        <v>443</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -38890,10 +38648,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -38903,47 +38661,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -38998,10 +38756,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>4</v>
@@ -39010,31 +38768,31 @@
     <row r="19" spans="1:4">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="D20" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -39068,128 +38826,128 @@
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
       <c r="L3" s="10" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="O9" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B15" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="O17" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="B19" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="B21" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="B23" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="B25" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="O25" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="20" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="20" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="20" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE4384A3-96AF-4F5E-B733-7762E5E42441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D0BC73-26BA-4656-8AA3-647340CC12B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="462">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -476,6 +476,30 @@
   </si>
   <si>
     <t>Seperate services for user actions and profile actions</t>
+  </si>
+  <si>
+    <t>Work on accordion design in view profile</t>
+  </si>
+  <si>
+    <t>Modify services and interactions</t>
+  </si>
+  <si>
+    <t>Get all profiles by user ID in searching all profiles</t>
+  </si>
+  <si>
+    <t>Change total profiles to get profiles</t>
+  </si>
+  <si>
+    <t>Get all profiles functions and search profiles functions will be same</t>
+  </si>
+  <si>
+    <t>Give mail as list while sharing</t>
+  </si>
+  <si>
+    <t>Give profile ID while exporting</t>
+  </si>
+  <si>
+    <t>Add profilers email in request to update</t>
   </si>
   <si>
     <t>Team Genesis - Profile Management Project</t>
@@ -914,46 +938,67 @@
     <t>User_Name</t>
   </si>
   <si>
-    <t>Mobile_Number</t>
-  </si>
-  <si>
-    <t>E-mail</t>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>MailAddress</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Geetha</t>
-  </si>
-  <si>
-    <t>Geetha.Kumaran</t>
-  </si>
-  <si>
-    <t>*********</t>
-  </si>
-  <si>
-    <t>geetha.kumaran@gmail.com</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>Ram.murugan</t>
-  </si>
-  <si>
-    <t>ram.muruga@gmail.com</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Reporting_person</t>
-  </si>
-  <si>
-    <t>HR</t>
+    <t>RP_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR01      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R01       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brindha   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brindham  </t>
+  </si>
+  <si>
+    <t>br@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female    </t>
+  </si>
+  <si>
+    <t>**********</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR02      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R02       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ram       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramk      </t>
+  </si>
+  <si>
+    <t>ra@gmail.com</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sita      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitam     </t>
+  </si>
+  <si>
+    <t>sita@gmail.com</t>
+  </si>
+  <si>
+    <t>Reporting_Person</t>
   </si>
   <si>
     <t>Organisation</t>
@@ -962,436 +1007,397 @@
     <t>Role</t>
   </si>
   <si>
-    <t>RP_id</t>
-  </si>
-  <si>
-    <t>HR_id</t>
-  </si>
-  <si>
-    <t>HR_Name</t>
-  </si>
-  <si>
-    <t>Organization_Name</t>
-  </si>
-  <si>
-    <t>Role_Name</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>AI</t>
+    <t>RP_name</t>
+  </si>
+  <si>
+    <t>Organisation_name</t>
+  </si>
+  <si>
+    <t>Role_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP01      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP02      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaya      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSE       </t>
+  </si>
+  <si>
+    <t>Personal_Details</t>
+  </si>
+  <si>
+    <t>Profile_id</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR01      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR02      </t>
+  </si>
+  <si>
+    <t>User_Language</t>
+  </si>
+  <si>
+    <t>Language_id</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Speak</t>
+  </si>
+  <si>
+    <t>isactive</t>
+  </si>
+  <si>
+    <t>Breakdown</t>
+  </si>
+  <si>
+    <t>Breakdown_id</t>
+  </si>
+  <si>
+    <t>Starting_month</t>
+  </si>
+  <si>
+    <t>Ending_month</t>
+  </si>
+  <si>
+    <t>Starting_year</t>
+  </si>
+  <si>
+    <t>Ending_year</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>Social_Media</t>
+  </si>
+  <si>
+    <t>Social_Media_id</t>
+  </si>
+  <si>
+    <t>Social_Media_Name</t>
+  </si>
+  <si>
+    <t>Social_Media_Link</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>Education_Details</t>
+  </si>
+  <si>
+    <t>Education_id</t>
+  </si>
+  <si>
+    <t>College_id</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Starting_Year</t>
+  </si>
+  <si>
+    <t>Ending_Year</t>
+  </si>
+  <si>
+    <t>PR01</t>
+  </si>
+  <si>
+    <t>ED01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C01       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE       </t>
+  </si>
+  <si>
+    <t>College_Name</t>
+  </si>
+  <si>
+    <t>ED02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C02       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIT       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKCT      </t>
+  </si>
+  <si>
+    <t>Project_id</t>
+  </si>
+  <si>
+    <t>Project_name</t>
+  </si>
+  <si>
+    <t>Starting_Month</t>
+  </si>
+  <si>
+    <t>Ending_Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P012      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big data  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P017      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haddop    </t>
+  </si>
+  <si>
+    <t>Skill_id</t>
+  </si>
+  <si>
+    <t>Domain_id</t>
+  </si>
+  <si>
+    <t>Technology_id</t>
+  </si>
+  <si>
+    <t>Domain_name</t>
+  </si>
+  <si>
+    <t>Technology_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S01       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D01       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE01      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S02       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D02       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE02      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java      </t>
+  </si>
+  <si>
+    <t>Achievements</t>
+  </si>
+  <si>
+    <t>AchievementType</t>
+  </si>
+  <si>
+    <t>AchievementsId</t>
+  </si>
+  <si>
+    <t>AchievementTypeId</t>
+  </si>
+  <si>
+    <t>AC01</t>
+  </si>
+  <si>
+    <t>ACT01</t>
+  </si>
+  <si>
+    <t>Awards</t>
+  </si>
+  <si>
+    <t>AC02</t>
+  </si>
+  <si>
+    <t>ACT02</t>
+  </si>
+  <si>
+    <t>AC03</t>
+  </si>
+  <si>
+    <t>AC04</t>
+  </si>
+  <si>
+    <t>ProfileHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProfileHistoryId </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PR02</t>
+  </si>
+  <si>
+    <t>PR03</t>
+  </si>
+  <si>
+    <t>User_Profile_History</t>
+  </si>
+  <si>
+    <t>Profile_history_id</t>
+  </si>
+  <si>
+    <t>File_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Work Flow</t>
+  </si>
+  <si>
+    <t>Profile create</t>
+  </si>
+  <si>
+    <t>Profile view</t>
+  </si>
+  <si>
+    <t>Profile Update</t>
+  </si>
+  <si>
+    <t>Profile Download</t>
+  </si>
+  <si>
+    <t>Request to update profile</t>
+  </si>
+  <si>
+    <t>Profile Search based on Filters</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Request for update</t>
+  </si>
+  <si>
+    <t>Hierarchy based search</t>
+  </si>
+  <si>
+    <t>Non Functional</t>
+  </si>
+  <si>
+    <t>Navigability</t>
+  </si>
+  <si>
+    <t>Responsiveness</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Designation Hierarchy</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>Level 9</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>SSE , SE</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>TL ,SSE,SE</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>ML,TL,SSE,SE</t>
   </si>
   <si>
     <t>PM</t>
-  </si>
-  <si>
-    <t>Sankar</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>User_Personal_Details</t>
-  </si>
-  <si>
-    <t>Personal_id</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>DOJ</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>User_Language</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>User_Languade_id</t>
-  </si>
-  <si>
-    <t>Language_id</t>
-  </si>
-  <si>
-    <t>Read</t>
-  </si>
-  <si>
-    <t>Write</t>
-  </si>
-  <si>
-    <t>Speak</t>
-  </si>
-  <si>
-    <t>Language_Name</t>
-  </si>
-  <si>
-    <t>Tamil</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Hindi</t>
-  </si>
-  <si>
-    <t>Breakdown</t>
-  </si>
-  <si>
-    <t>User_Breakdown_id</t>
-  </si>
-  <si>
-    <t>Breakdown_id</t>
-  </si>
-  <si>
-    <t>Starting_month</t>
-  </si>
-  <si>
-    <t>Ending_month</t>
-  </si>
-  <si>
-    <t>Starting_year</t>
-  </si>
-  <si>
-    <t>Ending_year</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>Social_Media</t>
-  </si>
-  <si>
-    <t>Social_Media_id</t>
-  </si>
-  <si>
-    <t>Social_Media_Name</t>
-  </si>
-  <si>
-    <t>Social_Media_Link</t>
-  </si>
-  <si>
-    <t>User_Social_Media</t>
-  </si>
-  <si>
-    <t>Linkedin</t>
-  </si>
-  <si>
-    <t>User_Social_Media_id</t>
-  </si>
-  <si>
-    <t>Social_media_id</t>
-  </si>
-  <si>
-    <t>Twitter</t>
-  </si>
-  <si>
-    <t>Telegram</t>
-  </si>
-  <si>
-    <t>User_Educationals</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Education_Duration</t>
-  </si>
-  <si>
-    <t>Education_id</t>
-  </si>
-  <si>
-    <t>Course_id</t>
-  </si>
-  <si>
-    <t>Duration_id</t>
-  </si>
-  <si>
-    <t>College_id</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>Course_Name</t>
-  </si>
-  <si>
-    <t>Degree_id</t>
-  </si>
-  <si>
-    <t>Degree_name</t>
-  </si>
-  <si>
-    <t>College_Name</t>
-  </si>
-  <si>
-    <t>CSE</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>BIT</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Btech</t>
-  </si>
-  <si>
-    <t>SKCT</t>
-  </si>
-  <si>
-    <t>ECE</t>
-  </si>
-  <si>
-    <t>Bsc</t>
-  </si>
-  <si>
-    <t>PSNA</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>User_Projects</t>
-  </si>
-  <si>
-    <t>Project_Duration</t>
-  </si>
-  <si>
-    <t>Project_details_id</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Project_Duration_id</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>Feburary</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Tools</t>
-  </si>
-  <si>
-    <t>User_Projects_tools</t>
-  </si>
-  <si>
-    <t>Tool_id</t>
-  </si>
-  <si>
-    <t>Tool_Name</t>
-  </si>
-  <si>
-    <t>User_Projects_tools_id</t>
-  </si>
-  <si>
-    <t>Tools_id</t>
-  </si>
-  <si>
-    <t>VisualStudio</t>
-  </si>
-  <si>
-    <t>Eclipse</t>
-  </si>
-  <si>
-    <t>Oracle</t>
-  </si>
-  <si>
-    <t>Projects</t>
-  </si>
-  <si>
-    <t>Project_id</t>
-  </si>
-  <si>
-    <t>Project_Name</t>
-  </si>
-  <si>
-    <t>Profile_Management</t>
-  </si>
-  <si>
-    <t>Blind_Assistance</t>
-  </si>
-  <si>
-    <t>User_Skills</t>
-  </si>
-  <si>
-    <t>Skill_id</t>
-  </si>
-  <si>
-    <t>Technology_id</t>
-  </si>
-  <si>
-    <t>Domain_id</t>
-  </si>
-  <si>
-    <t>Domain_Name</t>
-  </si>
-  <si>
-    <t>Technology_Name</t>
-  </si>
-  <si>
-    <t>DOT NET</t>
-  </si>
-  <si>
-    <t>Banking</t>
-  </si>
-  <si>
-    <t>JAVA</t>
-  </si>
-  <si>
-    <t>Automobile</t>
-  </si>
-  <si>
-    <t>BFS</t>
-  </si>
-  <si>
-    <t>User_Achievements</t>
-  </si>
-  <si>
-    <t>Achievement_id</t>
-  </si>
-  <si>
-    <t>User_Certifications</t>
-  </si>
-  <si>
-    <t>Certification_id</t>
-  </si>
-  <si>
-    <t>User_Profile_History</t>
-  </si>
-  <si>
-    <t>Profile_history_id</t>
-  </si>
-  <si>
-    <t>File_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Work Flow</t>
-  </si>
-  <si>
-    <t>Profile create</t>
-  </si>
-  <si>
-    <t>Profile view</t>
-  </si>
-  <si>
-    <t>Profile Update</t>
-  </si>
-  <si>
-    <t>Profile Download</t>
-  </si>
-  <si>
-    <t>Request to update profile</t>
-  </si>
-  <si>
-    <t>Profile Search based on Filters</t>
-  </si>
-  <si>
-    <t>Functional</t>
-  </si>
-  <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>Download</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>Request for update</t>
-  </si>
-  <si>
-    <t>Hierarchy based search</t>
-  </si>
-  <si>
-    <t>Non Functional</t>
-  </si>
-  <si>
-    <t>Navigability</t>
-  </si>
-  <si>
-    <t>Responsiveness</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Accessibility</t>
-  </si>
-  <si>
-    <t>Designation Hierarchy</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>SSE</t>
-  </si>
-  <si>
-    <t>Level 9</t>
-  </si>
-  <si>
-    <t>TL</t>
-  </si>
-  <si>
-    <t>SSE , SE</t>
-  </si>
-  <si>
-    <t>TL ,SSE,SE</t>
-  </si>
-  <si>
-    <t>ML,TL,SSE,SE</t>
   </si>
   <si>
     <t>PL,ML,TL,SSE,SE</t>
@@ -1455,7 +1461,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1574,6 +1580,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1619,7 +1636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1786,90 +1803,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -1887,34 +1820,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -2128,7 +2033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2171,26 +2076,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2222,121 +2114,180 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2573,23 +2524,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="7" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E2BEAF-FF55-426C-298E-AEBA7ABEE930}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B1306D-F5CD-AA71-BEBE-3E43E3155916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,8 +2556,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="1457325"/>
-          <a:ext cx="8286750" cy="12744450"/>
+          <a:off x="4467225" y="0"/>
+          <a:ext cx="15954375" cy="22040850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2622,23 +2573,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="7" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C508D85A-FA62-8454-66D6-89B6E9D53F61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2EFA80-74DE-82C7-9452-8B2D1DC4607C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,8 +2605,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3762375" y="1657350"/>
-          <a:ext cx="9486900" cy="7772400"/>
+          <a:off x="466725" y="390525"/>
+          <a:ext cx="8077200" cy="7496175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -35716,10 +35667,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -35730,24 +35681,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="68" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="25" customFormat="1" ht="12.75">
-      <c r="A2" s="86">
+      <c r="A2" s="69">
         <v>44653</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="71" t="s">
         <v>43</v>
       </c>
     </row>
@@ -35762,695 +35713,753 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="12.75">
-      <c r="A5" s="70">
+      <c r="A5" s="53">
         <v>44655</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75">
-      <c r="A6" s="73"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="57" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="73"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="79">
+      <c r="A10" s="62">
         <v>44656</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="64" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="73"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="58" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="73"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="58" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="73"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="58" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="73"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="58" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="79">
+      <c r="A17" s="62">
         <v>44657</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="64" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="73"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="58" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="73"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="58" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="73"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="58" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="73"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="58" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="73"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="58" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="73"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="58" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="73"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="58" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="73"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="58" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="73"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="58" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="73"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="58" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="78" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="79">
+      <c r="A30" s="62">
         <v>44658</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="64" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="73"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="58" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="73"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="58" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="73"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="58" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="73"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="23"/>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="73"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="58" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="73"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="23"/>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="58" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="73"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="58" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="73"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="58" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="73"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="23"/>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="58" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="73"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="23"/>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="58" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="73"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="23"/>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="58" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="73"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="23"/>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="58" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="76"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="78" t="s">
+      <c r="A43" s="59"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="79">
+      <c r="A45" s="62">
         <v>44659</v>
       </c>
-      <c r="B45" s="82" t="s">
+      <c r="B45" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="81" t="s">
+      <c r="C45" s="64" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="73"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="23"/>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="58" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="73"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="23"/>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="58" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="73"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="23"/>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="58" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="73"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="23"/>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="58" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="73"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="23"/>
-      <c r="C50" s="75" t="s">
+      <c r="C50" s="58" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="73"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="23"/>
-      <c r="C51" s="75" t="s">
+      <c r="C51" s="58" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A52" s="73"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="23"/>
-      <c r="C52" s="75" t="s">
+      <c r="C52" s="58" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A53" s="73"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="23"/>
-      <c r="C53" s="75" t="s">
+      <c r="C53" s="58" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A54" s="73"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="23"/>
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="58" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A55" s="73"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="23"/>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="58" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A56" s="73"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="23"/>
-      <c r="C56" s="75" t="s">
+      <c r="C56" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A57" s="76"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="78" t="s">
+      <c r="A57" s="59"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="61" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A60" s="79">
+      <c r="A60" s="62">
         <v>44660</v>
       </c>
-      <c r="B60" s="80"/>
-      <c r="C60" s="81" t="s">
+      <c r="B60" s="63"/>
+      <c r="C60" s="64" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A61" s="73"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="23"/>
-      <c r="C61" s="75" t="s">
+      <c r="C61" s="58" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A62" s="73"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="23"/>
-      <c r="C62" s="75" t="s">
+      <c r="C62" s="58" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A63" s="73"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="23"/>
-      <c r="C63" s="75" t="s">
+      <c r="C63" s="58" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A64" s="73"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="23"/>
-      <c r="C64" s="75" t="s">
+      <c r="C64" s="58" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A65" s="73"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="23"/>
-      <c r="C65" s="75" t="s">
+      <c r="C65" s="58" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A66" s="76"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="78" t="s">
+      <c r="A66" s="59"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="61" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A68" s="79">
+      <c r="A68" s="62">
         <v>44662</v>
       </c>
-      <c r="B68" s="80" t="s">
+      <c r="B68" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="81" t="s">
+      <c r="C68" s="64" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A69" s="73"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="23"/>
-      <c r="C69" s="75" t="s">
+      <c r="C69" s="58" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A70" s="73"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="23"/>
-      <c r="C70" s="75" t="s">
+      <c r="C70" s="58" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A71" s="73"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="23"/>
-      <c r="C71" s="75" t="s">
+      <c r="C71" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A72" s="73"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="23"/>
-      <c r="C72" s="75" t="s">
+      <c r="C72" s="58" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A73" s="73"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="23"/>
-      <c r="C73" s="75" t="s">
+      <c r="C73" s="58" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A74" s="73"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="23"/>
-      <c r="C74" s="75" t="s">
+      <c r="C74" s="58" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A75" s="73"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="23"/>
-      <c r="C75" s="75" t="s">
+      <c r="C75" s="58" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A76" s="73"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="23"/>
-      <c r="C76" s="75" t="s">
+      <c r="C76" s="58" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A77" s="73"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="23"/>
-      <c r="C77" s="75" t="s">
+      <c r="C77" s="58" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A78" s="76"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="78" t="s">
+      <c r="A78" s="59"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A80" s="79">
+      <c r="A80" s="62">
         <v>44663</v>
       </c>
-      <c r="B80" s="80"/>
-      <c r="C80" s="81" t="s">
+      <c r="B80" s="63"/>
+      <c r="C80" s="64" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A81" s="73"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="23"/>
-      <c r="C81" s="75" t="s">
+      <c r="C81" s="58" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A82" s="73"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="23"/>
-      <c r="C82" s="75" t="s">
+      <c r="C82" s="58" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A83" s="73"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="23"/>
-      <c r="C83" s="75" t="s">
+      <c r="C83" s="58" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A84" s="76"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="78" t="s">
+      <c r="A84" s="59"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="61" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A86" s="79">
+      <c r="A86" s="62">
         <v>44664</v>
       </c>
-      <c r="B86" s="80" t="s">
+      <c r="B86" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="81" t="s">
+      <c r="C86" s="64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A87" s="73"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="23"/>
-      <c r="C87" s="75" t="s">
+      <c r="C87" s="58" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A88" s="73"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="23"/>
-      <c r="C88" s="75" t="s">
+      <c r="C88" s="58" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A89" s="76"/>
-      <c r="B89" s="77"/>
-      <c r="C89" s="78" t="s">
+      <c r="A89" s="59"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A91" s="79">
+      <c r="A91" s="62">
         <v>44671</v>
       </c>
-      <c r="B91" s="80"/>
-      <c r="C91" s="81" t="s">
+      <c r="B91" s="63"/>
+      <c r="C91" s="64" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A92" s="73"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="23"/>
-      <c r="C92" s="75" t="s">
+      <c r="C92" s="58" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A93" s="76"/>
-      <c r="B93" s="77"/>
-      <c r="C93" s="78" t="s">
+      <c r="A93" s="59"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="61" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A95" s="79">
+      <c r="A95" s="62">
         <v>44672</v>
       </c>
-      <c r="B95" s="80"/>
-      <c r="C95" s="81" t="s">
+      <c r="B95" s="63"/>
+      <c r="C95" s="64" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A96" s="73"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="23"/>
-      <c r="C96" s="75" t="s">
+      <c r="C96" s="58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A97" s="73"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="23"/>
-      <c r="C97" s="75" t="s">
+      <c r="C97" s="58" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A98" s="76"/>
-      <c r="B98" s="77"/>
-      <c r="C98" s="78" t="s">
+      <c r="A98" s="59"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="61" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A100" s="79">
+      <c r="A100" s="62">
         <v>44673</v>
       </c>
-      <c r="B100" s="80"/>
-      <c r="C100" s="81" t="s">
+      <c r="B100" s="63"/>
+      <c r="C100" s="64" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A101" s="73"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="23"/>
-      <c r="C101" s="75" t="s">
+      <c r="C101" s="58" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A102" s="73"/>
+      <c r="A102" s="56"/>
       <c r="B102" s="23"/>
-      <c r="C102" s="75" t="s">
+      <c r="C102" s="58" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A103" s="73"/>
+      <c r="A103" s="56"/>
       <c r="B103" s="23"/>
-      <c r="C103" s="75" t="s">
+      <c r="C103" s="58" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A104" s="73"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="23"/>
-      <c r="C104" s="75" t="s">
+      <c r="C104" s="58" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A105" s="73"/>
+      <c r="A105" s="56"/>
       <c r="B105" s="23"/>
-      <c r="C105" s="75" t="s">
+      <c r="C105" s="58" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A106" s="73"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="23"/>
-      <c r="C106" s="75" t="s">
+      <c r="C106" s="58" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A107" s="73"/>
+      <c r="A107" s="56"/>
       <c r="B107" s="23"/>
-      <c r="C107" s="75" t="s">
+      <c r="C107" s="58" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A108" s="76"/>
-      <c r="B108" s="77"/>
-      <c r="C108" s="78" t="s">
+      <c r="A108" s="59"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="61" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A110" s="62">
+        <v>44674</v>
+      </c>
+      <c r="B110" s="63"/>
+      <c r="C110" s="64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A111" s="56"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A112" s="56"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A113" s="56"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A114" s="56"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A115" s="56"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A116" s="56"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A117" s="59"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="61" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -36480,7 +36489,7 @@
   <sheetData>
     <row r="5" spans="1:5">
       <c r="E5" s="8" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -36488,726 +36497,726 @@
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="8" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>153</v>
+      <c r="B18" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>161</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="51">
-      <c r="B19" s="52">
+      <c r="B19" s="39">
         <v>1</v>
       </c>
-      <c r="C19" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="52">
+      <c r="C19" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="39">
         <v>1</v>
       </c>
-      <c r="E19" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="I19" s="55" t="s">
-        <v>162</v>
+      <c r="E19" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="38.25">
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39">
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="I20" s="56" t="s">
-        <v>167</v>
+        <v>172</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="62.25" customHeight="1">
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39">
         <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="I21" s="57" t="s">
-        <v>172</v>
+        <v>177</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.5" customHeight="1">
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39">
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="I22" s="56" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="38.25" customHeight="1">
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39">
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="I23" s="58" t="s">
-        <v>182</v>
+        <v>187</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25.5">
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39">
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="I24" s="55" t="s">
-        <v>187</v>
+        <v>192</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1">
-      <c r="B25" s="65"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52">
+      <c r="B25" s="52"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39">
         <v>7</v>
       </c>
-      <c r="E25" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
+      <c r="E25" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" spans="2:9" ht="37.5" customHeight="1">
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39">
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="I26" s="49" t="s">
-        <v>195</v>
+        <v>200</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="42" customHeight="1">
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39">
         <v>9</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G27" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="38.25" customHeight="1">
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39">
         <v>10</v>
       </c>
-      <c r="E28" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="F28" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="G28" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
+      <c r="E28" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
     </row>
     <row r="30" spans="2:9" ht="51">
-      <c r="B30" s="52">
+      <c r="B30" s="39">
         <v>2</v>
       </c>
-      <c r="C30" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="52">
+      <c r="C30" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="39">
         <v>1</v>
       </c>
-      <c r="E30" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="I30" s="55" t="s">
-        <v>162</v>
+      <c r="E30" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="I30" s="42" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="51">
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39">
         <v>2</v>
       </c>
-      <c r="E31" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="H31" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="I31" s="49"/>
+      <c r="E31" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="2:9" ht="51">
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52">
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39">
         <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="G32" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="I32" s="48" t="s">
-        <v>213</v>
+        <v>218</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="31.5" customHeight="1">
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52">
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39">
         <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="G33" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="H33" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="I33" s="48" t="s">
-        <v>218</v>
+        <v>223</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="34.5" customHeight="1">
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39">
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49" t="s">
-        <v>222</v>
+        <v>228</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="48" customHeight="1">
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39">
         <v>7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="H35" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="I35" s="58" t="s">
-        <v>225</v>
+        <v>232</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" s="45" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="39" customHeight="1">
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39">
         <v>8</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="I36" s="49" t="s">
-        <v>230</v>
+        <v>235</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="37.5" customHeight="1">
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39">
         <v>9</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="H37" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="I37" s="49" t="s">
-        <v>235</v>
+        <v>240</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36.75" customHeight="1">
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52">
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39">
         <v>10</v>
       </c>
-      <c r="E38" s="53" t="s">
-        <v>236</v>
-      </c>
-      <c r="F38" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G38" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
+      <c r="E38" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="G38" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
     </row>
     <row r="39" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
     </row>
     <row r="40" spans="2:9" ht="38.25">
-      <c r="B40" s="52">
+      <c r="B40" s="39">
         <v>3</v>
       </c>
-      <c r="C40" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="D40" s="52">
+      <c r="C40" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="D40" s="39">
         <v>1</v>
       </c>
-      <c r="E40" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="H40" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="I40" s="64" t="s">
-        <v>162</v>
+      <c r="E40" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="I40" s="51" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="27" customHeight="1">
-      <c r="B41" s="60"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52">
+      <c r="B41" s="47"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39">
         <v>2</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="G41" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49" t="s">
-        <v>244</v>
+        <v>250</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="H41" s="35"/>
+      <c r="I41" s="36" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39">
         <v>3</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="G42" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="H42" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="I42" s="49" t="s">
-        <v>249</v>
+        <v>254</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="I42" s="36" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52">
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39">
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="G43" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="H43" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="I43" s="49" t="s">
-        <v>254</v>
+        <v>259</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="36.75" customHeight="1">
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39">
         <v>5</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="G44" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49" t="s">
-        <v>258</v>
+        <v>264</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="39.75" customHeight="1">
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52">
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39">
         <v>6</v>
       </c>
-      <c r="E45" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G45" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="H45" s="53"/>
-      <c r="I45" s="49"/>
+      <c r="E45" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45" s="40"/>
+      <c r="I45" s="36"/>
     </row>
     <row r="46" spans="2:9" ht="15">
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="61"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" spans="2:9" ht="38.25">
-      <c r="B47" s="52">
+      <c r="B47" s="39">
         <v>4</v>
       </c>
-      <c r="C47" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="D47" s="52">
+      <c r="C47" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" s="39">
         <v>1</v>
       </c>
-      <c r="E47" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="F47" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="G47" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="H47" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="I47" s="55" t="s">
-        <v>162</v>
+      <c r="E47" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="F47" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="I47" s="42" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52">
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39">
         <v>2</v>
       </c>
-      <c r="E48" s="55" t="s">
-        <v>262</v>
-      </c>
-      <c r="F48" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="G48" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="H48" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="I48" s="48" t="s">
-        <v>266</v>
+      <c r="E48" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="H48" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39">
         <v>3</v>
       </c>
-      <c r="E49" s="55" t="s">
-        <v>267</v>
+      <c r="E49" s="42" t="s">
+        <v>275</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="G49" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="H49" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="I49" s="49" t="s">
-        <v>271</v>
+        <v>276</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="I49" s="36" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39">
         <v>4</v>
       </c>
-      <c r="E50" s="55" t="s">
-        <v>272</v>
+      <c r="E50" s="42" t="s">
+        <v>280</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="G50" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="H50" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="I50" s="49" t="s">
-        <v>276</v>
+        <v>281</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="I50" s="36" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="32.25" customHeight="1">
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39">
         <v>5</v>
       </c>
-      <c r="E51" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="F51" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G51" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
+      <c r="E51" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="H54" s="50"/>
+      <c r="H54" s="37"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="H55" s="50"/>
+      <c r="H55" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37223,8 +37232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26143E4E-D99B-424D-B64E-1AC6E8022E09}">
   <dimension ref="A2:V120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -37239,8 +37248,8 @@
     <col min="8" max="8" width="22.5703125" customWidth="1"/>
     <col min="9" max="9" width="25.28515625" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" customWidth="1"/>
     <col min="14" max="14" width="18.140625" customWidth="1"/>
     <col min="15" max="15" width="22.5703125" customWidth="1"/>
@@ -37253,336 +37262,335 @@
     <col min="22" max="22" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15">
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+    <row r="2" spans="1:11" ht="15">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
     </row>
-    <row r="3" spans="1:10" ht="15">
-      <c r="B3" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
+    <row r="3" spans="1:11" ht="15">
+      <c r="B3" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="33"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="4" spans="1:11">
+      <c r="B4" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="J4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
-        <v>282</v>
-      </c>
-      <c r="I4" t="s">
-        <v>283</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>284</v>
+      <c r="K4" s="33" t="s">
+        <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="5"/>
       <c r="B5" s="26">
-        <v>100</v>
-      </c>
-      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="C5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5">
+        <v>9876543567</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="I5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J5" t="s">
+        <v>300</v>
+      </c>
+      <c r="K5" s="27">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G5" t="s">
-        <v>287</v>
-      </c>
-      <c r="H5">
-        <v>9876781234</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>289</v>
-      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="5"/>
       <c r="B6" s="26">
-        <v>101</v>
-      </c>
-      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="C6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6">
+        <v>9876873567</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="I6" t="s">
+        <v>306</v>
+      </c>
+      <c r="J6" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="28">
+        <v>3</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="G7" s="29">
+        <v>8975908765</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F6" t="s">
-        <v>291</v>
-      </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="15">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="105" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="107"/>
+      <c r="E10" s="105" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" s="107"/>
+      <c r="H10" s="105" t="s">
+        <v>312</v>
+      </c>
+      <c r="I10" s="107"/>
+    </row>
+    <row r="11" spans="1:11" ht="15">
+      <c r="B11" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="H6">
-        <v>9129867850</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>293</v>
-      </c>
+      <c r="F11" s="79" t="s">
+        <v>314</v>
+      </c>
+      <c r="G11" s="72"/>
+      <c r="H11" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="I11" s="79" t="s">
+        <v>315</v>
+      </c>
+      <c r="J11" s="72"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
+    <row r="12" spans="1:11">
+      <c r="B12" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="15">
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="B11" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="C11" s="91" t="s">
-        <v>295</v>
-      </c>
-      <c r="D11" s="91"/>
-      <c r="F11" s="92" t="s">
-        <v>296</v>
-      </c>
-      <c r="G11" s="92"/>
-      <c r="I11" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="J11" s="92"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="G12" s="36" t="s">
+    <row r="13" spans="1:11" ht="15">
+      <c r="B13" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="I12" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="J12" s="36" t="s">
+      <c r="F13" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15">
-      <c r="B13" s="26">
-        <v>1</v>
-      </c>
-      <c r="C13" s="26">
-        <v>1</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="37">
-        <v>1</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="I13" s="37">
-        <v>3</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="26">
-        <v>2</v>
-      </c>
-      <c r="C14" s="26">
-        <v>2</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="F14" s="37">
-        <v>2</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="I14" s="37">
-        <v>4</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="I15" s="39">
-        <v>5</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>309</v>
+      <c r="I13" s="30" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="B19" s="105" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="15">
-      <c r="B21" s="32"/>
+      <c r="B21" s="81" t="s">
+        <v>328</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="80">
+        <v>37237</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="15">
-      <c r="B22" s="90" t="s">
-        <v>310</v>
-      </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="C23" t="s">
-        <v>312</v>
-      </c>
-      <c r="D23" t="s">
-        <v>313</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>314</v>
+      <c r="B22" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="82">
+        <v>2</v>
+      </c>
+      <c r="D22" s="83">
+        <v>36903</v>
+      </c>
+      <c r="E22" s="84" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="37">
-        <v>1</v>
-      </c>
-      <c r="C24" s="42">
-        <v>36962</v>
-      </c>
-      <c r="D24" t="s">
-        <v>315</v>
-      </c>
-      <c r="E24" s="43">
-        <v>44177</v>
-      </c>
+      <c r="C24" s="80"/>
+      <c r="E24" s="80"/>
     </row>
     <row r="25" spans="2:9" ht="15">
-      <c r="B25" s="37">
-        <v>2</v>
-      </c>
-      <c r="C25" s="42">
-        <v>36770</v>
-      </c>
-      <c r="D25" t="s">
-        <v>315</v>
-      </c>
-      <c r="E25" s="43">
-        <v>43580</v>
-      </c>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="39"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="40"/>
+      <c r="C25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="28" spans="2:9" ht="15">
-      <c r="B28" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="34"/>
-      <c r="H28" s="96" t="s">
-        <v>317</v>
-      </c>
-      <c r="I28" s="97"/>
+      <c r="B28" s="108" t="s">
+        <v>331</v>
+      </c>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>321</v>
+      <c r="B29" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>334</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="H29" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>323</v>
+        <v>335</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="26">
         <v>1</v>
       </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="C30" t="s">
+        <v>328</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -37590,22 +37598,17 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30">
         <v>1</v>
       </c>
-      <c r="H30" s="37">
-        <v>1</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>324</v>
-      </c>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="26">
         <v>2</v>
       </c>
-      <c r="C31">
-        <v>2</v>
+      <c r="C31" t="s">
+        <v>328</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -37613,840 +37616,635 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31">
         <v>1</v>
       </c>
-      <c r="H31" s="37">
-        <v>2</v>
-      </c>
-      <c r="I31" s="38" t="s">
-        <v>325</v>
-      </c>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="29">
+      <c r="B32" s="28">
         <v>3</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D32" s="29">
+        <v>1</v>
+      </c>
+      <c r="E32" s="29">
+        <v>0</v>
+      </c>
+      <c r="F32" s="29">
+        <v>0</v>
+      </c>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="35" spans="2:8" ht="15">
+      <c r="C35" s="72"/>
+    </row>
+    <row r="36" spans="2:8" ht="15">
+      <c r="B36" s="108" t="s">
+        <v>337</v>
+      </c>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="110"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="26">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>328</v>
+      </c>
+      <c r="D38" t="s">
+        <v>343</v>
+      </c>
+      <c r="E38" t="s">
+        <v>343</v>
+      </c>
+      <c r="F38">
+        <v>2019</v>
+      </c>
+      <c r="G38">
+        <v>2020</v>
+      </c>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="26">
         <v>2</v>
       </c>
-      <c r="D32" s="30">
+      <c r="C39" t="s">
+        <v>328</v>
+      </c>
+      <c r="D39" t="s">
+        <v>344</v>
+      </c>
+      <c r="E39" t="s">
+        <v>345</v>
+      </c>
+      <c r="F39">
+        <v>2020</v>
+      </c>
+      <c r="G39">
+        <v>2020</v>
+      </c>
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="42" spans="2:8" ht="15">
+      <c r="B42" s="111" t="s">
+        <v>346</v>
+      </c>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="113"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="26">
         <v>1</v>
       </c>
-      <c r="E32" s="30">
-        <v>0</v>
-      </c>
-      <c r="F32" s="31">
-        <v>0</v>
-      </c>
-      <c r="H32" s="39">
+      <c r="C44" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" t="s">
+        <v>350</v>
+      </c>
+      <c r="F44" s="27"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="26">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>328</v>
+      </c>
+      <c r="D45" t="s">
+        <v>351</v>
+      </c>
+      <c r="F45" s="27"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="28">
         <v>3</v>
       </c>
-      <c r="I32" s="40" t="s">
-        <v>326</v>
-      </c>
+      <c r="C46" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="E46" s="29"/>
+      <c r="F46" s="30"/>
     </row>
-    <row r="35" spans="2:10" ht="15">
-      <c r="B35" s="33"/>
-      <c r="C35" s="69"/>
-      <c r="F35" s="91" t="s">
-        <v>327</v>
-      </c>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="99"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="G36" s="41" t="s">
-        <v>330</v>
-      </c>
-      <c r="H36" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="I36" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="J36" s="36" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="26">
-        <v>1</v>
-      </c>
-      <c r="C37" s="27">
-        <v>1</v>
-      </c>
-      <c r="F37" s="37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>334</v>
-      </c>
-      <c r="H37" t="s">
-        <v>334</v>
-      </c>
-      <c r="I37">
-        <v>2019</v>
-      </c>
-      <c r="J37" s="38">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="26">
-        <v>2</v>
-      </c>
-      <c r="C38" s="27">
-        <v>2</v>
-      </c>
-      <c r="F38" s="37">
-        <v>2</v>
-      </c>
-      <c r="G38" t="s">
-        <v>335</v>
-      </c>
-      <c r="H38" t="s">
-        <v>336</v>
-      </c>
-      <c r="I38">
-        <v>2020</v>
-      </c>
-      <c r="J38" s="38">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="26">
-        <v>3</v>
-      </c>
-      <c r="C39" s="27">
-        <v>2</v>
-      </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="40"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="29"/>
-      <c r="C40" s="31"/>
-    </row>
-    <row r="41" spans="2:10" ht="15">
-      <c r="F41" s="91" t="s">
-        <v>337</v>
-      </c>
-      <c r="G41" s="98"/>
-      <c r="H41" s="99"/>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="F42" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="G42" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="15">
-      <c r="B43" s="95" t="s">
-        <v>341</v>
-      </c>
-      <c r="C43" s="101"/>
-      <c r="F43" s="37">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>342</v>
-      </c>
-      <c r="H43" s="38"/>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="F44" s="37">
-        <v>2</v>
-      </c>
-      <c r="G44" t="s">
-        <v>345</v>
-      </c>
-      <c r="H44" s="38"/>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="26">
-        <v>1</v>
-      </c>
-      <c r="C45" s="27">
-        <v>1</v>
-      </c>
-      <c r="F45" s="39">
-        <v>3</v>
-      </c>
-      <c r="G45" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="H45" s="40"/>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="26">
-        <v>2</v>
-      </c>
-      <c r="C46" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="29">
-        <v>3</v>
-      </c>
-      <c r="C47" s="31">
-        <v>3</v>
-      </c>
+    <row r="49" spans="2:22">
+      <c r="B49" s="105" t="s">
+        <v>353</v>
+      </c>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="107"/>
     </row>
     <row r="50" spans="2:22" ht="15">
-      <c r="B50" s="91" t="s">
-        <v>347</v>
-      </c>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="36"/>
-      <c r="H50" s="91" t="s">
-        <v>348</v>
-      </c>
-      <c r="I50" s="99"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="98" t="s">
-        <v>349</v>
-      </c>
-      <c r="M50" s="99"/>
-      <c r="O50" s="91" t="s">
+      <c r="B50" s="89" t="s">
+        <v>325</v>
+      </c>
+      <c r="C50" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="D50" s="85" t="s">
+        <v>355</v>
+      </c>
+      <c r="E50" s="85" t="s">
+        <v>356</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="H50" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="I50" s="72"/>
+      <c r="K50" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="P50" s="99"/>
-      <c r="R50" s="95" t="s">
-        <v>350</v>
-      </c>
-      <c r="S50" s="100"/>
-      <c r="T50" s="101"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
+      <c r="L50" s="113"/>
+      <c r="M50" s="72"/>
+      <c r="R50" s="72"/>
+      <c r="S50" s="72"/>
+      <c r="T50" s="72"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="31"/>
     </row>
     <row r="51" spans="2:22">
-      <c r="B51" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="E51" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="F51" s="36" t="s">
+      <c r="B51" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C51" t="s">
+        <v>361</v>
+      </c>
+      <c r="D51" t="s">
+        <v>362</v>
+      </c>
+      <c r="E51" t="s">
+        <v>363</v>
+      </c>
+      <c r="F51" t="s">
+        <v>364</v>
+      </c>
+      <c r="G51" s="80">
+        <v>42370</v>
+      </c>
+      <c r="H51" s="87">
+        <v>44562</v>
+      </c>
+      <c r="K51" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="H51" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="I51" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="K51" s="37"/>
-      <c r="L51" t="s">
-        <v>357</v>
-      </c>
-      <c r="M51" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="O51" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="P51" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="R51" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="S51" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="T51" s="34" t="s">
-        <v>333</v>
+      <c r="L51" s="33" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="2:22">
-      <c r="B52" s="37">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>500</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>200</v>
-      </c>
-      <c r="F52" s="46">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="H52" s="37">
-        <v>500</v>
-      </c>
-      <c r="I52" s="38" t="s">
+      <c r="B52" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="K52" s="37"/>
-      <c r="L52">
-        <v>600</v>
-      </c>
-      <c r="M52" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="O52" s="37">
-        <v>200</v>
-      </c>
-      <c r="P52" s="38" t="s">
+      <c r="C52" t="s">
+        <v>366</v>
+      </c>
+      <c r="D52" t="s">
+        <v>367</v>
+      </c>
+      <c r="E52" t="s">
+        <v>368</v>
+      </c>
+      <c r="F52" s="86" t="s">
+        <v>364</v>
+      </c>
+      <c r="G52" s="80">
+        <v>44562</v>
+      </c>
+      <c r="H52" s="87">
+        <v>46023</v>
+      </c>
+      <c r="K52" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="R52" s="26">
-        <v>1</v>
-      </c>
-      <c r="S52">
-        <v>2018</v>
-      </c>
-      <c r="T52" s="27">
-        <v>2022</v>
+      <c r="L52" s="27" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="2:22">
-      <c r="B53" s="37">
-        <v>2</v>
-      </c>
-      <c r="C53">
-        <v>500</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53">
-        <v>201</v>
-      </c>
-      <c r="F53" s="46">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="H53" s="37">
-        <v>501</v>
-      </c>
-      <c r="I53" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="K53" s="37"/>
-      <c r="L53">
-        <v>601</v>
-      </c>
-      <c r="M53" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="O53" s="37">
-        <v>201</v>
-      </c>
-      <c r="P53" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="R53" s="26">
-        <v>2</v>
-      </c>
-      <c r="S53">
-        <v>2017</v>
-      </c>
-      <c r="T53" s="27">
-        <v>2019</v>
+      <c r="B53" s="28"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="30"/>
+      <c r="K53" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="L53" s="30" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="2:22">
-      <c r="B54" s="37">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <v>501</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>202</v>
-      </c>
-      <c r="F54" s="46">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="H54" s="37">
-        <v>502</v>
-      </c>
-      <c r="I54" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="K54" s="37"/>
-      <c r="L54">
-        <v>602</v>
-      </c>
-      <c r="M54" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="O54" s="37">
-        <v>202</v>
-      </c>
-      <c r="P54" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="R54" s="26"/>
-      <c r="T54" s="27"/>
+      <c r="F54" s="86"/>
     </row>
-    <row r="55" spans="2:22">
-      <c r="B55" s="39"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="40"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="40"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="44">
-        <v>603</v>
-      </c>
-      <c r="M55" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="O55" s="39">
-        <v>203</v>
-      </c>
-      <c r="P55" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="R55" s="29"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="31"/>
+    <row r="56" spans="2:22">
+      <c r="B56" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="107"/>
+    </row>
+    <row r="57" spans="2:22">
+      <c r="B57" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="G57" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="H57" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22">
+      <c r="B58" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C58" t="s">
+        <v>328</v>
+      </c>
+      <c r="D58" t="s">
+        <v>376</v>
+      </c>
+      <c r="E58" s="80">
+        <v>43466</v>
+      </c>
+      <c r="F58" s="80">
+        <v>43470</v>
+      </c>
+      <c r="G58" s="80">
+        <v>43466</v>
+      </c>
+      <c r="H58" s="80">
+        <v>43466</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22">
+      <c r="B59" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="E59" s="90">
+        <v>43474</v>
+      </c>
+      <c r="F59" s="90">
+        <v>43477</v>
+      </c>
+      <c r="G59" s="90">
+        <v>43831</v>
+      </c>
+      <c r="H59" s="90">
+        <v>43831</v>
+      </c>
+      <c r="I59" s="30" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="62" spans="2:22" ht="15">
-      <c r="B62" s="96" t="s">
-        <v>371</v>
-      </c>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="47"/>
-      <c r="H62" s="95" t="s">
-        <v>372</v>
-      </c>
-      <c r="I62" s="100"/>
-      <c r="J62" s="100"/>
-      <c r="K62" s="100"/>
-      <c r="L62" s="101"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
     </row>
-    <row r="63" spans="2:22">
-      <c r="B63" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="C63" t="s">
-        <v>374</v>
-      </c>
-      <c r="D63" t="s">
-        <v>375</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="H63" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="I63" s="45" t="s">
+    <row r="66" spans="2:11">
+      <c r="B66" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="106"/>
+      <c r="D66" s="107"/>
+      <c r="F66" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="106"/>
+      <c r="H66" s="107"/>
+      <c r="J66" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="107"/>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="G67" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="J67" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="K67" s="33" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="C68" t="s">
+        <v>328</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="F68" s="93" t="s">
+        <v>385</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H68" s="94" t="s">
+        <v>387</v>
+      </c>
+      <c r="J68" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="K68" s="27" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="15">
+      <c r="B69" s="91" t="s">
+        <v>389</v>
+      </c>
+      <c r="C69" s="92" t="s">
+        <v>328</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="F69" s="91" t="s">
+        <v>390</v>
+      </c>
+      <c r="G69" s="92" t="s">
+        <v>386</v>
+      </c>
+      <c r="H69" s="95" t="s">
+        <v>387</v>
+      </c>
+      <c r="J69" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="K69" s="30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" s="114" t="s">
+        <v>393</v>
+      </c>
+      <c r="C74" s="115"/>
+      <c r="D74" s="116"/>
+      <c r="F74" s="117" t="s">
+        <v>394</v>
+      </c>
+      <c r="G74" s="117"/>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="C75" s="97" t="s">
+        <v>325</v>
+      </c>
+      <c r="D75" s="98" t="s">
+        <v>396</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="15">
+      <c r="B76" s="99" t="s">
+        <v>397</v>
+      </c>
+      <c r="C76" t="s">
+        <v>328</v>
+      </c>
+      <c r="D76" s="100" t="s">
+        <v>398</v>
+      </c>
+      <c r="F76" s="99" t="s">
+        <v>398</v>
+      </c>
+      <c r="G76" s="100" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="15">
+      <c r="B77" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="C77" t="s">
+        <v>328</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F77" s="101" t="s">
+        <v>401</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="C78" t="s">
         <v>330</v>
       </c>
-      <c r="J63" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="K63" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="L63" s="34" t="s">
-        <v>333</v>
+      <c r="D78" s="27" t="s">
+        <v>398</v>
       </c>
     </row>
-    <row r="64" spans="2:22">
-      <c r="B64" s="26">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>376</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" s="27">
-        <v>302</v>
-      </c>
-      <c r="H64" s="26">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>334</v>
-      </c>
-      <c r="J64" t="s">
-        <v>377</v>
-      </c>
-      <c r="K64">
-        <v>2019</v>
-      </c>
-      <c r="L64" s="27">
-        <v>2019</v>
+    <row r="79" spans="2:11">
+      <c r="B79" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>398</v>
       </c>
     </row>
-    <row r="65" spans="2:12">
-      <c r="B65" s="26">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>378</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" s="27">
-        <v>303</v>
-      </c>
-      <c r="H65" s="26">
-        <v>2</v>
-      </c>
-      <c r="I65" t="s">
-        <v>379</v>
-      </c>
-      <c r="J65" t="s">
-        <v>380</v>
-      </c>
-      <c r="K65">
-        <v>2020</v>
-      </c>
-      <c r="L65" s="27">
-        <v>2020</v>
-      </c>
+    <row r="84" spans="2:9">
+      <c r="B84" s="102" t="s">
+        <v>404</v>
+      </c>
+      <c r="C84" s="103"/>
+      <c r="D84" s="104"/>
     </row>
-    <row r="66" spans="2:12">
-      <c r="B66" s="29">
-        <v>3</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="D66" s="30">
-        <v>1</v>
-      </c>
-      <c r="E66" s="31">
-        <v>301</v>
-      </c>
-      <c r="H66" s="29"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="31"/>
+    <row r="85" spans="2:9">
+      <c r="B85" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>406</v>
+      </c>
     </row>
-    <row r="68" spans="2:12" ht="15">
-      <c r="F68" s="91" t="s">
-        <v>381</v>
-      </c>
-      <c r="G68" s="99"/>
-    </row>
-    <row r="69" spans="2:12" ht="15">
-      <c r="B69" s="95" t="s">
-        <v>382</v>
-      </c>
-      <c r="C69" s="101"/>
-      <c r="F69" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="G69" s="36" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12">
-      <c r="B70" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="F70" s="37">
-        <v>278</v>
-      </c>
-      <c r="G70" s="38" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12">
-      <c r="B71" s="26">
-        <v>1</v>
-      </c>
-      <c r="C71" s="27">
-        <v>278</v>
-      </c>
-      <c r="F71" s="37">
-        <v>279</v>
-      </c>
-      <c r="G71" s="38" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12">
-      <c r="B72" s="26">
-        <v>2</v>
-      </c>
-      <c r="C72" s="27">
-        <v>280</v>
-      </c>
-      <c r="F72" s="37">
-        <v>280</v>
-      </c>
-      <c r="G72" s="38" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12">
-      <c r="B73" s="29">
-        <v>3</v>
-      </c>
-      <c r="C73" s="31">
-        <v>279</v>
-      </c>
-      <c r="F73" s="39"/>
-      <c r="G73" s="40"/>
-    </row>
-    <row r="76" spans="2:12" ht="15">
-      <c r="B76" s="66"/>
-      <c r="F76" s="95" t="s">
-        <v>390</v>
-      </c>
-      <c r="G76" s="101"/>
-    </row>
-    <row r="77" spans="2:12">
-      <c r="F77" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="G77" s="34" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12">
-      <c r="F78" s="26">
-        <v>1</v>
-      </c>
-      <c r="G78" s="27" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12">
-      <c r="F79" s="26">
-        <v>2</v>
-      </c>
-      <c r="G79" s="27" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12">
-      <c r="F80" s="26"/>
-      <c r="G80" s="27"/>
-    </row>
-    <row r="81" spans="2:9">
-      <c r="F81" s="29"/>
-      <c r="G81" s="31"/>
+    <row r="86" spans="2:9">
+      <c r="C86" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="87" spans="2:9" ht="15">
-      <c r="B87" s="91" t="s">
-        <v>395</v>
-      </c>
-      <c r="C87" s="99"/>
-      <c r="E87" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" s="103"/>
-      <c r="H87" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="I87" s="99"/>
+      <c r="B87" s="72"/>
+      <c r="C87" t="s">
+        <v>407</v>
+      </c>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="72"/>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="C88" s="36" t="s">
-        <v>397</v>
-      </c>
-      <c r="E88" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="F88" s="36" t="s">
-        <v>399</v>
-      </c>
-      <c r="H88" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="I88" s="36" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="37">
-        <v>1</v>
-      </c>
-      <c r="C89" s="38">
-        <v>10</v>
-      </c>
-      <c r="E89" s="37">
-        <v>1</v>
-      </c>
-      <c r="F89" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="H89" s="37">
-        <v>10</v>
-      </c>
-      <c r="I89" s="38" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="37">
-        <v>2</v>
-      </c>
-      <c r="C90" s="38">
-        <v>11</v>
-      </c>
-      <c r="E90" s="37">
-        <v>2</v>
-      </c>
-      <c r="F90" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="H90" s="37">
-        <v>11</v>
-      </c>
-      <c r="I90" s="38" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9">
-      <c r="B91" s="37">
-        <v>3</v>
-      </c>
-      <c r="C91" s="38">
-        <v>12</v>
-      </c>
-      <c r="E91" s="37">
-        <v>3</v>
-      </c>
-      <c r="F91" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="H91" s="37">
-        <v>12</v>
-      </c>
-      <c r="I91" s="38" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="39"/>
-      <c r="C92" s="40"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="40"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="40"/>
+      <c r="C88" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="96" spans="2:9" ht="15">
-      <c r="B96" s="68" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="35" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="39"/>
+      <c r="B96" s="72"/>
     </row>
     <row r="105" spans="2:2" ht="15">
-      <c r="B105" s="67" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="26" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="29"/>
+      <c r="B105" s="72"/>
     </row>
     <row r="115" spans="2:3" ht="15">
-      <c r="B115" s="91" t="s">
-        <v>410</v>
-      </c>
-      <c r="C115" s="99"/>
+      <c r="B115" s="118" t="s">
+        <v>409</v>
+      </c>
+      <c r="C115" s="119"/>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="33" t="s">
+      <c r="B116" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="C116" s="33" t="s">
         <v>411</v>
-      </c>
-      <c r="C116" s="34" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="117" spans="2:3">
@@ -38468,40 +38266,36 @@
       <c r="C119" s="27"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="29"/>
-      <c r="C120" s="31"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="H87:I87"/>
+  <mergeCells count="20">
     <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="K50:L50"/>
     <mergeCell ref="H28:I28"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F41:H41"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F74:G74"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" xr:uid="{F610AA21-35AB-47F9-A7AB-2E2649DB49A2}"/>
-    <hyperlink ref="I6" r:id="rId2" xr:uid="{3CF8C471-0C36-4514-AE42-52CBE6D894A4}"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{6AF15854-A6D3-47C8-94A2-116322D859F2}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{FAC1F37D-FC30-4DFD-A775-5B9E50D4DCF3}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{0EB93B12-A252-4DBE-808B-E5C2C8C6C6CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38509,18 +38303,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3CFBF-880F-481E-9D27-6F5C85AAC27F}">
-  <dimension ref="V29"/>
+  <dimension ref="V29:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Y48" sqref="Y48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="29" spans="22:22">
       <c r="V29" t="s">
-        <v>413</v>
-      </c>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="25:25">
+      <c r="Y48" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38532,7 +38329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E2C87B-569D-4472-B55B-F22E4DB21FBE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
@@ -38547,7 +38344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79905DE3-DAB3-4C6E-84FE-24BF5F973564}">
   <dimension ref="C1:K603"/>
   <sheetViews>
-    <sheetView topLeftCell="T6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD188" sqref="AD188"/>
     </sheetView>
   </sheetViews>
@@ -38555,28 +38352,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="23.25">
       <c r="J1" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.25">
       <c r="C4" s="11" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="6" spans="3:10" ht="20.25">
       <c r="D6" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="20.25">
       <c r="D21" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="20.25">
       <c r="D33" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -38584,34 +38381,34 @@
     </row>
     <row r="46" spans="4:8" ht="20.25">
       <c r="D46" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="20.25">
       <c r="C59" s="11" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="61" spans="3:4" ht="20.25">
       <c r="D61" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="20.25">
       <c r="D74" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="85" spans="4:4" ht="20.25">
       <c r="D85" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="296" spans="3:5" ht="18">
       <c r="C296" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -38648,10 +38445,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -38661,47 +38458,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>422</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>426</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -38756,10 +38553,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>4</v>
@@ -38768,31 +38565,31 @@
     <row r="19" spans="1:4">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="D20" t="s">
         <v>431</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="D20" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -38826,36 +38623,36 @@
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
       <c r="L3" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" t="s">
+        <v>434</v>
+      </c>
+      <c r="O9" t="s">
         <v>436</v>
-      </c>
-      <c r="B9" t="s">
-        <v>435</v>
-      </c>
-      <c r="O9" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B11" t="s">
         <v>438</v>
-      </c>
-      <c r="B11" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>439</v>
       </c>
       <c r="B13" t="s">
         <v>440</v>
@@ -38863,91 +38660,91 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>441</v>
       </c>
       <c r="B15" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>443</v>
       </c>
       <c r="B17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O17" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B19" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B21" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B23" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B25" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="O25" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="20" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="20" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="20" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25216"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D0BC73-26BA-4656-8AA3-647340CC12B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF02EB4-BC07-4B42-A6F1-2CF1257F7E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="472">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -500,6 +500,36 @@
   </si>
   <si>
     <t>Add profilers email in request to update</t>
+  </si>
+  <si>
+    <t>Estimation for UI implementation, Code reviews, testing</t>
+  </si>
+  <si>
+    <t>Remove list for awards and certificates</t>
+  </si>
+  <si>
+    <t>Define method for populating values when editing</t>
+  </si>
+  <si>
+    <t>Check whether the filters are and/or operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In share and request to update, pass profile_id </t>
+  </si>
+  <si>
+    <t>Define method for getting recent profile in profile history</t>
+  </si>
+  <si>
+    <t>Estimation for page integration and code merging - 4 hours/2days</t>
+  </si>
+  <si>
+    <t>Compatability testing 3 hours</t>
+  </si>
+  <si>
+    <t>Swagger documentation 30-40 hours</t>
+  </si>
+  <si>
+    <t>WEB API Integration, Service Implementation, Service validation</t>
   </si>
   <si>
     <t>Team Genesis - Profile Management Project</t>
@@ -2230,6 +2260,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2237,15 +2276,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2260,10 +2290,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2282,12 +2318,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -35667,10 +35697,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -36460,6 +36490,80 @@
       <c r="B117" s="60"/>
       <c r="C117" s="61" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A119" s="62">
+        <v>44617</v>
+      </c>
+      <c r="B119" s="63"/>
+      <c r="C119" s="64" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A120" s="56"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A121" s="56"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A122" s="56"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A123" s="56"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A124" s="59"/>
+      <c r="B124" s="60"/>
+      <c r="C124" s="61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A126" s="62">
+        <v>44677</v>
+      </c>
+      <c r="B126" s="63"/>
+      <c r="C126" s="64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A127" s="56"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A128" s="56"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A129" s="59"/>
+      <c r="B129" s="60"/>
+      <c r="C129" s="61" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -36489,7 +36593,7 @@
   <sheetData>
     <row r="5" spans="1:5">
       <c r="E5" s="8" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -36497,33 +36601,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="8" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="51">
@@ -36531,25 +36635,25 @@
         <v>1</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D19" s="39">
         <v>1</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="38.25">
@@ -36559,19 +36663,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="62.25" customHeight="1">
@@ -36581,19 +36685,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.5" customHeight="1">
@@ -36603,19 +36707,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="38.25" customHeight="1">
@@ -36625,19 +36729,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25.5">
@@ -36647,19 +36751,19 @@
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1">
@@ -36669,13 +36773,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
@@ -36687,19 +36791,19 @@
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="42" customHeight="1">
@@ -36709,17 +36813,17 @@
         <v>9</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="38.25" customHeight="1">
@@ -36729,13 +36833,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
@@ -36755,25 +36859,25 @@
         <v>2</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D30" s="39">
         <v>1</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="51">
@@ -36783,16 +36887,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I31" s="36"/>
     </row>
@@ -36803,19 +36907,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="31.5" customHeight="1">
@@ -36825,19 +36929,19 @@
         <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="34.5" customHeight="1">
@@ -36847,17 +36951,17 @@
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="H34" s="36"/>
       <c r="I34" s="36" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="48" customHeight="1">
@@ -36867,19 +36971,19 @@
         <v>7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="39" customHeight="1">
@@ -36889,19 +36993,19 @@
         <v>8</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="37.5" customHeight="1">
@@ -36911,19 +37015,19 @@
         <v>9</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36.75" customHeight="1">
@@ -36933,13 +37037,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
@@ -36959,25 +37063,25 @@
         <v>3</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D40" s="39">
         <v>1</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="27" customHeight="1">
@@ -36987,17 +37091,17 @@
         <v>2</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="36" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
@@ -37007,19 +37111,19 @@
         <v>3</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30.75" customHeight="1">
@@ -37029,19 +37133,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="36.75" customHeight="1">
@@ -37051,17 +37155,17 @@
         <v>5</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="36" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="39.75" customHeight="1">
@@ -37071,13 +37175,13 @@
         <v>6</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="36"/>
@@ -37097,25 +37201,25 @@
         <v>4</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D47" s="39">
         <v>1</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="30.75" customHeight="1">
@@ -37125,19 +37229,19 @@
         <v>2</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29.25" customHeight="1">
@@ -37147,19 +37251,19 @@
         <v>3</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.5" customHeight="1">
@@ -37169,19 +37273,19 @@
         <v>4</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="32.25" customHeight="1">
@@ -37191,13 +37295,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F51" s="40" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
@@ -37263,54 +37367,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15">
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="B3" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
+        <v>168</v>
+      </c>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="32" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -37319,28 +37423,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E5" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="F5" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G5">
         <v>9876543567</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="I5" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="J5" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="K5" s="27">
         <v>1</v>
@@ -37352,28 +37456,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F6" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="G6">
         <v>9876873567</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="I6" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="J6" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="K6" s="27">
         <v>2</v>
@@ -37384,28 +37488,28 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="G7" s="29">
         <v>8975908765</v>
       </c>
       <c r="H7" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="I7" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="I7" s="29" t="s">
-        <v>299</v>
-      </c>
       <c r="J7" s="29" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="K7" s="30">
         <v>1</v>
@@ -37417,108 +37521,108 @@
       <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="105" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="107"/>
-      <c r="E10" s="105" t="s">
-        <v>311</v>
-      </c>
-      <c r="F10" s="107"/>
-      <c r="H10" s="105" t="s">
-        <v>312</v>
-      </c>
-      <c r="I10" s="107"/>
+      <c r="B10" s="102" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" s="103"/>
+      <c r="E10" s="102" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="103"/>
+      <c r="H10" s="102" t="s">
+        <v>322</v>
+      </c>
+      <c r="I10" s="103"/>
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="B11" s="76" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="32" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="26" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="B13" s="28" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
-      <c r="B19" s="105" t="s">
-        <v>324</v>
-      </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="107"/>
+      <c r="B19" s="102" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="103"/>
       <c r="F19" s="31"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="32" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15">
       <c r="B21" s="81" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -37527,12 +37631,12 @@
         <v>37237</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15">
       <c r="B22" s="78" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C22" s="82">
         <v>2</v>
@@ -37541,7 +37645,7 @@
         <v>36903</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -37555,34 +37659,34 @@
     </row>
     <row r="28" spans="2:9" ht="15">
       <c r="B28" s="108" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C28" s="109"/>
       <c r="D28" s="109"/>
       <c r="E28" s="109"/>
       <c r="F28" s="109"/>
       <c r="G28" s="110"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="32" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -37590,7 +37694,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -37608,7 +37712,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -37626,7 +37730,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D32" s="29">
         <v>1</v>
@@ -37644,7 +37748,7 @@
     </row>
     <row r="36" spans="2:8" ht="15">
       <c r="B36" s="108" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C36" s="109"/>
       <c r="D36" s="109"/>
@@ -37655,25 +37759,25 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="32" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -37681,13 +37785,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D38" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="E38" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -37702,13 +37806,13 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D39" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="E39" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F39">
         <v>2020</v>
@@ -37729,28 +37833,28 @@
     </row>
     <row r="42" spans="2:8" ht="15">
       <c r="B42" s="111" t="s">
-        <v>346</v>
-      </c>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="113"/>
+        <v>356</v>
+      </c>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="112"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="32" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -37758,10 +37862,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D44" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F44" s="27"/>
     </row>
@@ -37770,10 +37874,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D45" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="F45" s="27"/>
     </row>
@@ -37782,52 +37886,52 @@
         <v>3</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="30"/>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="105" t="s">
-        <v>353</v>
-      </c>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="107"/>
+      <c r="B49" s="102" t="s">
+        <v>363</v>
+      </c>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="103"/>
     </row>
     <row r="50" spans="2:22" ht="15">
       <c r="B50" s="89" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C50" s="85" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D50" s="85" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="H50" s="79" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="I50" s="72"/>
       <c r="K50" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="113"/>
+      <c r="L50" s="112"/>
       <c r="M50" s="72"/>
       <c r="R50" s="72"/>
       <c r="S50" s="72"/>
@@ -37837,19 +37941,19 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="26" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C51" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D51" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="E51" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="F51" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="G51" s="80">
         <v>42370</v>
@@ -37858,27 +37962,27 @@
         <v>44562</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="L51" s="33" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="26" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C52" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="D52" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="E52" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F52" s="86" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="G52" s="80">
         <v>44562</v>
@@ -37887,10 +37991,10 @@
         <v>46023</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -37902,62 +38006,62 @@
       <c r="G53" s="29"/>
       <c r="H53" s="30"/>
       <c r="K53" s="28" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="2:22">
       <c r="F54" s="86"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="105" t="s">
+      <c r="B56" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="107"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="103"/>
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="32" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="26" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C58" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D58" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="E58" s="80">
         <v>43466</v>
@@ -37972,18 +38076,18 @@
         <v>43466</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="2:22">
       <c r="B59" s="28" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="E59" s="90">
         <v>43474</v>
@@ -37998,7 +38102,7 @@
         <v>43831</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="2:22" ht="15">
@@ -38012,156 +38116,156 @@
       <c r="L62" s="72"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="105" t="s">
+      <c r="B66" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="106"/>
-      <c r="D66" s="107"/>
-      <c r="F66" s="105" t="s">
+      <c r="C66" s="104"/>
+      <c r="D66" s="103"/>
+      <c r="F66" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="106"/>
-      <c r="H66" s="107"/>
-      <c r="J66" s="105" t="s">
+      <c r="G66" s="104"/>
+      <c r="H66" s="103"/>
+      <c r="J66" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="107"/>
+      <c r="K66" s="103"/>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="32" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="K67" s="33" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="26" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C68" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F68" s="93" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="H68" s="94" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="15">
       <c r="B69" s="91" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C69" s="92" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="F69" s="91" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="G69" s="92" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="H69" s="95" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="J69" s="28" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="K69" s="30" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="114" t="s">
-        <v>393</v>
-      </c>
-      <c r="C74" s="115"/>
-      <c r="D74" s="116"/>
-      <c r="F74" s="117" t="s">
-        <v>394</v>
-      </c>
-      <c r="G74" s="117"/>
+      <c r="B74" s="116" t="s">
+        <v>403</v>
+      </c>
+      <c r="C74" s="117"/>
+      <c r="D74" s="118"/>
+      <c r="F74" s="119" t="s">
+        <v>404</v>
+      </c>
+      <c r="G74" s="119"/>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="96" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C75" s="97" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D75" s="98" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="15">
       <c r="B76" s="99" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C76" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D76" s="100" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="F76" s="99" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="G76" s="100" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15">
       <c r="B77" s="26" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C77" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="F77" s="101" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>23</v>
@@ -38169,53 +38273,53 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="26" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C78" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="28" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="102" t="s">
-        <v>404</v>
-      </c>
-      <c r="C84" s="103"/>
-      <c r="D84" s="104"/>
+      <c r="B84" s="105" t="s">
+        <v>414</v>
+      </c>
+      <c r="C84" s="106"/>
+      <c r="D84" s="107"/>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="28" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="C86" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="15">
       <c r="B87" s="72"/>
       <c r="C87" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="E87" s="72"/>
       <c r="F87" s="72"/>
@@ -38224,7 +38328,7 @@
     </row>
     <row r="88" spans="2:9">
       <c r="C88" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="15">
@@ -38234,17 +38338,17 @@
       <c r="B105" s="72"/>
     </row>
     <row r="115" spans="2:3" ht="15">
-      <c r="B115" s="118" t="s">
-        <v>409</v>
-      </c>
-      <c r="C115" s="119"/>
+      <c r="B115" s="120" t="s">
+        <v>419</v>
+      </c>
+      <c r="C115" s="121"/>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="32" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="117" spans="2:3">
@@ -38272,21 +38376,21 @@
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="B115:C115"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="F66:H66"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="F66:H66"/>
     <mergeCell ref="J66:K66"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B56:I56"/>
     <mergeCell ref="B36:H36"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B74:D74"/>
@@ -38305,7 +38409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3CFBF-880F-481E-9D27-6F5C85AAC27F}">
   <dimension ref="V29:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Y48" sqref="Y48"/>
     </sheetView>
   </sheetViews>
@@ -38313,7 +38417,7 @@
   <sheetData>
     <row r="29" spans="22:22">
       <c r="V29" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="25:25">
@@ -38352,28 +38456,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="23.25">
       <c r="J1" s="12" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.25">
       <c r="C4" s="11" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="6" spans="3:10" ht="20.25">
       <c r="D6" s="10" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="20.25">
       <c r="D21" s="10" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="20.25">
       <c r="D33" s="13" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -38381,34 +38485,34 @@
     </row>
     <row r="46" spans="4:8" ht="20.25">
       <c r="D46" s="10" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="20.25">
       <c r="C59" s="11" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="61" spans="3:4" ht="20.25">
       <c r="D61" s="10" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="20.25">
       <c r="D74" s="10" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="85" spans="4:4" ht="20.25">
       <c r="D85" s="10" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="296" spans="3:5" ht="18">
       <c r="C296" s="9" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -38445,10 +38549,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -38458,47 +38562,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -38553,10 +38657,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>4</v>
@@ -38565,31 +38669,31 @@
     <row r="19" spans="1:4">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="D20" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -38623,128 +38727,128 @@
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
       <c r="L3" s="10" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="O9" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B11" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B13" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="B15" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B17" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="O17" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B19" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B21" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B23" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B25" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="O25" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="20" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="20" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="20" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF02EB4-BC07-4B42-A6F1-2CF1257F7E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50EE3E11-1D04-41EB-8797-27C7DC62CC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="484">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -530,6 +530,42 @@
   </si>
   <si>
     <t>WEB API Integration, Service Implementation, Service validation</t>
+  </si>
+  <si>
+    <t>Refine HTML validation for profile details(personal,education,home,profile viewing)</t>
+  </si>
+  <si>
+    <t>Discussed Timesheet new template</t>
+  </si>
+  <si>
+    <t>Team/ Customer Meeting should be less than an hour</t>
+  </si>
+  <si>
+    <t>Resolution portability should be maintained</t>
+  </si>
+  <si>
+    <t>Remove horizontal scroll in every page,only vertical scroll should be there</t>
+  </si>
+  <si>
+    <t>Add floating scroll bar</t>
+  </si>
+  <si>
+    <t>Image differentiation for user pic and profile pic</t>
+  </si>
+  <si>
+    <t>Maintain same font style throughout the system</t>
+  </si>
+  <si>
+    <t>Layout - Increase wizard width, same button size,name spacing, fixed filters spacing</t>
+  </si>
+  <si>
+    <t>Discussed Estimation</t>
+  </si>
+  <si>
+    <t>For the next 6 days - should spend 6-7hrs only for project</t>
+  </si>
+  <si>
+    <t>Code review Web API - do defensive coding</t>
   </si>
   <si>
     <t>Team Genesis - Profile Management Project</t>
@@ -1622,7 +1658,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1662,6 +1698,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2063,7 +2105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2260,13 +2302,28 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2287,19 +2344,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2314,11 +2362,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -35697,10 +35742,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126:C129"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141:C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -36564,6 +36609,94 @@
       <c r="B129" s="60"/>
       <c r="C129" s="61" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A131" s="122">
+        <v>44678</v>
+      </c>
+      <c r="B131" s="63"/>
+      <c r="C131" s="64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A132" s="56"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A133" s="56"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A134" s="56"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A135" s="56"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A136" s="56"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A137" s="56"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A138" s="56"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A139" s="59"/>
+      <c r="B139" s="60"/>
+      <c r="C139" s="61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A141" s="122">
+        <v>44679</v>
+      </c>
+      <c r="B141" s="63"/>
+      <c r="C141" s="64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A142" s="56"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="58" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A143" s="59"/>
+      <c r="B143" s="60"/>
+      <c r="C143" s="61" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -36593,7 +36726,7 @@
   <sheetData>
     <row r="5" spans="1:5">
       <c r="E5" s="8" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -36601,33 +36734,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="8" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="51">
@@ -36635,25 +36768,25 @@
         <v>1</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D19" s="39">
         <v>1</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="38.25">
@@ -36663,19 +36796,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="62.25" customHeight="1">
@@ -36685,19 +36818,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.5" customHeight="1">
@@ -36707,19 +36840,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="38.25" customHeight="1">
@@ -36729,19 +36862,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25.5">
@@ -36751,19 +36884,19 @@
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1">
@@ -36773,13 +36906,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
@@ -36791,19 +36924,19 @@
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="42" customHeight="1">
@@ -36813,17 +36946,17 @@
         <v>9</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="38.25" customHeight="1">
@@ -36833,13 +36966,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
@@ -36859,25 +36992,25 @@
         <v>2</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D30" s="39">
         <v>1</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="51">
@@ -36887,16 +37020,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I31" s="36"/>
     </row>
@@ -36907,19 +37040,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="31.5" customHeight="1">
@@ -36929,19 +37062,19 @@
         <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="34.5" customHeight="1">
@@ -36951,17 +37084,17 @@
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="H34" s="36"/>
       <c r="I34" s="36" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="48" customHeight="1">
@@ -36971,19 +37104,19 @@
         <v>7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="39" customHeight="1">
@@ -36993,19 +37126,19 @@
         <v>8</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="37.5" customHeight="1">
@@ -37015,19 +37148,19 @@
         <v>9</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36.75" customHeight="1">
@@ -37037,13 +37170,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
@@ -37063,25 +37196,25 @@
         <v>3</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D40" s="39">
         <v>1</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="27" customHeight="1">
@@ -37091,17 +37224,17 @@
         <v>2</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="36" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
@@ -37111,19 +37244,19 @@
         <v>3</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30.75" customHeight="1">
@@ -37133,19 +37266,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="36.75" customHeight="1">
@@ -37155,17 +37288,17 @@
         <v>5</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="36" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="39.75" customHeight="1">
@@ -37175,13 +37308,13 @@
         <v>6</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="36"/>
@@ -37201,25 +37334,25 @@
         <v>4</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="D47" s="39">
         <v>1</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="30.75" customHeight="1">
@@ -37229,19 +37362,19 @@
         <v>2</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29.25" customHeight="1">
@@ -37251,19 +37384,19 @@
         <v>3</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.5" customHeight="1">
@@ -37273,19 +37406,19 @@
         <v>4</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="32.25" customHeight="1">
@@ -37295,13 +37428,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F51" s="40" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
@@ -37367,54 +37500,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15">
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
     </row>
     <row r="3" spans="1:11" ht="15">
-      <c r="B3" s="111" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
+      <c r="B3" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="32" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -37423,28 +37556,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D5" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E5" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="F5" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="G5">
         <v>9876543567</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="I5" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="J5" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="K5" s="27">
         <v>1</v>
@@ -37456,28 +37589,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E6" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="F6" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>9876873567</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="I6" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="J6" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="K6" s="27">
         <v>2</v>
@@ -37488,28 +37621,28 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="G7" s="29">
         <v>8975908765</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="K7" s="30">
         <v>1</v>
@@ -37521,108 +37654,108 @@
       <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="102" t="s">
-        <v>320</v>
-      </c>
-      <c r="C10" s="103"/>
-      <c r="E10" s="102" t="s">
-        <v>321</v>
-      </c>
-      <c r="F10" s="103"/>
-      <c r="H10" s="102" t="s">
-        <v>322</v>
-      </c>
-      <c r="I10" s="103"/>
+      <c r="B10" s="104" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="106"/>
+      <c r="E10" s="104" t="s">
+        <v>333</v>
+      </c>
+      <c r="F10" s="106"/>
+      <c r="H10" s="104" t="s">
+        <v>334</v>
+      </c>
+      <c r="I10" s="106"/>
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="B11" s="76" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="32" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="26" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="B13" s="28" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
-      <c r="B19" s="102" t="s">
-        <v>334</v>
-      </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="103"/>
+      <c r="B19" s="104" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
       <c r="F19" s="31"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="32" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15">
       <c r="B21" s="81" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -37631,12 +37764,12 @@
         <v>37237</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15">
       <c r="B22" s="78" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C22" s="82">
         <v>2</v>
@@ -37645,7 +37778,7 @@
         <v>36903</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -37658,35 +37791,35 @@
       <c r="F25" s="31"/>
     </row>
     <row r="28" spans="2:9" ht="15">
-      <c r="B28" s="108" t="s">
-        <v>341</v>
-      </c>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
+      <c r="B28" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="32" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -37694,7 +37827,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -37712,7 +37845,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -37730,7 +37863,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D32" s="29">
         <v>1</v>
@@ -37747,37 +37880,37 @@
       <c r="C35" s="72"/>
     </row>
     <row r="36" spans="2:8" ht="15">
-      <c r="B36" s="108" t="s">
-        <v>347</v>
-      </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="110"/>
+      <c r="B36" s="113" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="115"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="32" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -37785,13 +37918,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D38" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="E38" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -37806,13 +37939,13 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D39" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="E39" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="F39">
         <v>2020</v>
@@ -37832,29 +37965,29 @@
       <c r="H40" s="30"/>
     </row>
     <row r="42" spans="2:8" ht="15">
-      <c r="B42" s="111" t="s">
-        <v>356</v>
-      </c>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="112"/>
+      <c r="B42" s="108" t="s">
+        <v>368</v>
+      </c>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="116"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="32" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="D43" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="F43" s="33" t="s">
         <v>358</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -37862,10 +37995,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D44" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="F44" s="27"/>
     </row>
@@ -37874,10 +38007,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D45" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F45" s="27"/>
     </row>
@@ -37886,52 +38019,52 @@
         <v>3</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="30"/>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="102" t="s">
-        <v>363</v>
-      </c>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="103"/>
+      <c r="B49" s="104" t="s">
+        <v>375</v>
+      </c>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="106"/>
     </row>
     <row r="50" spans="2:22" ht="15">
       <c r="B50" s="89" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C50" s="85" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D50" s="85" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="H50" s="79" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="I50" s="72"/>
-      <c r="K50" s="111" t="s">
+      <c r="K50" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="112"/>
+      <c r="L50" s="116"/>
       <c r="M50" s="72"/>
       <c r="R50" s="72"/>
       <c r="S50" s="72"/>
@@ -37941,19 +38074,19 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="26" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C51" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="D51" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="E51" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="F51" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="G51" s="80">
         <v>42370</v>
@@ -37962,27 +38095,27 @@
         <v>44562</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="L51" s="33" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="26" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C52" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D52" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="E52" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="F52" s="86" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="G52" s="80">
         <v>44562</v>
@@ -37991,10 +38124,10 @@
         <v>46023</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -38006,62 +38139,62 @@
       <c r="G53" s="29"/>
       <c r="H53" s="30"/>
       <c r="K53" s="28" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="2:22">
       <c r="F54" s="86"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="103"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="106"/>
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="32" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="26" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="C58" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D58" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="E58" s="80">
         <v>43466</v>
@@ -38076,18 +38209,18 @@
         <v>43466</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="2:22">
       <c r="B59" s="28" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="E59" s="90">
         <v>43474</v>
@@ -38102,7 +38235,7 @@
         <v>43831</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="2:22" ht="15">
@@ -38116,156 +38249,156 @@
       <c r="L62" s="72"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="102" t="s">
+      <c r="B66" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="104"/>
-      <c r="D66" s="103"/>
-      <c r="F66" s="102" t="s">
+      <c r="C66" s="105"/>
+      <c r="D66" s="106"/>
+      <c r="F66" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="104"/>
-      <c r="H66" s="103"/>
-      <c r="J66" s="102" t="s">
+      <c r="G66" s="105"/>
+      <c r="H66" s="106"/>
+      <c r="J66" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="103"/>
+      <c r="K66" s="106"/>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="32" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="K67" s="33" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="26" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="C68" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="F68" s="93" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="H68" s="94" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="15">
       <c r="B69" s="91" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C69" s="92" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="F69" s="91" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="G69" s="92" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="H69" s="95" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="J69" s="28" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="K69" s="30" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="116" t="s">
-        <v>403</v>
-      </c>
-      <c r="C74" s="117"/>
-      <c r="D74" s="118"/>
-      <c r="F74" s="119" t="s">
-        <v>404</v>
-      </c>
-      <c r="G74" s="119"/>
+      <c r="B74" s="118" t="s">
+        <v>415</v>
+      </c>
+      <c r="C74" s="119"/>
+      <c r="D74" s="120"/>
+      <c r="F74" s="121" t="s">
+        <v>416</v>
+      </c>
+      <c r="G74" s="121"/>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="96" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C75" s="97" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="D75" s="98" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="15">
       <c r="B76" s="99" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C76" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D76" s="100" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="F76" s="99" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="G76" s="100" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15">
       <c r="B77" s="26" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C77" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="F77" s="101" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>23</v>
@@ -38273,53 +38406,53 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="26" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C78" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="28" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="105" t="s">
-        <v>414</v>
-      </c>
-      <c r="C84" s="106"/>
-      <c r="D84" s="107"/>
+      <c r="B84" s="110" t="s">
+        <v>426</v>
+      </c>
+      <c r="C84" s="111"/>
+      <c r="D84" s="112"/>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="28" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="C86" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="15">
       <c r="B87" s="72"/>
       <c r="C87" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="E87" s="72"/>
       <c r="F87" s="72"/>
@@ -38328,7 +38461,7 @@
     </row>
     <row r="88" spans="2:9">
       <c r="C88" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="15">
@@ -38338,17 +38471,17 @@
       <c r="B105" s="72"/>
     </row>
     <row r="115" spans="2:3" ht="15">
-      <c r="B115" s="120" t="s">
-        <v>419</v>
-      </c>
-      <c r="C115" s="121"/>
+      <c r="B115" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="C115" s="103"/>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="32" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" spans="2:3">
@@ -38375,6 +38508,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F74:G74"/>
     <mergeCell ref="B115:C115"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="F66:H66"/>
@@ -38391,10 +38528,6 @@
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="F74:G74"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{6AF15854-A6D3-47C8-94A2-116322D859F2}"/>
@@ -38417,7 +38550,7 @@
   <sheetData>
     <row r="29" spans="22:22">
       <c r="V29" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="25:25">
@@ -38456,28 +38589,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="23.25">
       <c r="J1" s="12" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.25">
       <c r="C4" s="11" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="6" spans="3:10" ht="20.25">
       <c r="D6" s="10" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="20.25">
       <c r="D21" s="10" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="20.25">
       <c r="D33" s="13" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -38485,34 +38618,34 @@
     </row>
     <row r="46" spans="4:8" ht="20.25">
       <c r="D46" s="10" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="20.25">
       <c r="C59" s="11" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="61" spans="3:4" ht="20.25">
       <c r="D61" s="10" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="20.25">
       <c r="D74" s="10" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="85" spans="4:4" ht="20.25">
       <c r="D85" s="10" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="296" spans="3:5" ht="18">
       <c r="C296" s="9" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -38549,10 +38682,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -38562,47 +38695,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -38657,10 +38790,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>4</v>
@@ -38669,31 +38802,31 @@
     <row r="19" spans="1:4">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="D20" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -38727,128 +38860,128 @@
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
       <c r="L3" s="10" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="B9" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="O9" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B11" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="B13" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="B15" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B17" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="O17" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="B19" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="B21" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B23" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B25" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="O25" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="20" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="20" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="20" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50EE3E11-1D04-41EB-8797-27C7DC62CC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61941D9D-C823-4FB8-91B6-33EC3D7D4851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="489">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -566,6 +566,21 @@
   </si>
   <si>
     <t>Code review Web API - do defensive coding</t>
+  </si>
+  <si>
+    <t>Discussed daywise chart for timesheet</t>
+  </si>
+  <si>
+    <t>Discussed LLD</t>
+  </si>
+  <si>
+    <t>To track work on daily basis and minus work done</t>
+  </si>
+  <si>
+    <t>Increase filter box size</t>
+  </si>
+  <si>
+    <t>Rework on sidebar</t>
   </si>
   <si>
     <t>Team Genesis - Profile Management Project</t>
@@ -2302,28 +2317,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2344,10 +2347,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2362,8 +2374,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -35742,10 +35757,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:C143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -35766,7 +35781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="25" customFormat="1" ht="12.75">
+    <row r="2" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="69">
         <v>44653</v>
       </c>
@@ -35787,7 +35802,7 @@
       <c r="B4" s="24"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="12.75">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5" s="53">
         <v>44655</v>
       </c>
@@ -36612,7 +36627,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A131" s="122">
+      <c r="A131" s="102">
         <v>44678</v>
       </c>
       <c r="B131" s="63"/>
@@ -36677,7 +36692,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A141" s="122">
+      <c r="A141" s="102">
         <v>44679</v>
       </c>
       <c r="B141" s="63"/>
@@ -36697,6 +36712,43 @@
       <c r="B143" s="60"/>
       <c r="C143" s="61" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A145" s="102">
+        <v>44680</v>
+      </c>
+      <c r="B145" s="63"/>
+      <c r="C145" s="64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A146" s="56"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A147" s="56"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A148" s="56"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A149" s="59"/>
+      <c r="B149" s="60"/>
+      <c r="C149" s="61" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -36708,7 +36760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99455432-5260-4250-8176-F630DA6BD87E}">
   <dimension ref="A5:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
@@ -36726,7 +36778,7 @@
   <sheetData>
     <row r="5" spans="1:5">
       <c r="E5" s="8" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -36734,33 +36786,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="51">
@@ -36768,25 +36820,25 @@
         <v>1</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D19" s="39">
         <v>1</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="38.25">
@@ -36796,19 +36848,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="62.25" customHeight="1">
@@ -36818,19 +36870,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.5" customHeight="1">
@@ -36840,19 +36892,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="38.25" customHeight="1">
@@ -36862,19 +36914,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25.5">
@@ -36884,19 +36936,19 @@
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1">
@@ -36906,13 +36958,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
@@ -36924,19 +36976,19 @@
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="42" customHeight="1">
@@ -36946,17 +36998,17 @@
         <v>9</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="38.25" customHeight="1">
@@ -36966,13 +37018,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
@@ -36992,25 +37044,25 @@
         <v>2</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D30" s="39">
         <v>1</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="51">
@@ -37020,16 +37072,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I31" s="36"/>
     </row>
@@ -37040,19 +37092,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="31.5" customHeight="1">
@@ -37062,19 +37114,19 @@
         <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="34.5" customHeight="1">
@@ -37084,17 +37136,17 @@
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H34" s="36"/>
       <c r="I34" s="36" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="48" customHeight="1">
@@ -37104,19 +37156,19 @@
         <v>7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="39" customHeight="1">
@@ -37126,19 +37178,19 @@
         <v>8</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="37.5" customHeight="1">
@@ -37148,19 +37200,19 @@
         <v>9</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36.75" customHeight="1">
@@ -37170,13 +37222,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
@@ -37196,25 +37248,25 @@
         <v>3</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D40" s="39">
         <v>1</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="27" customHeight="1">
@@ -37224,17 +37276,17 @@
         <v>2</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="36" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
@@ -37244,19 +37296,19 @@
         <v>3</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30.75" customHeight="1">
@@ -37266,19 +37318,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="36.75" customHeight="1">
@@ -37288,17 +37340,17 @@
         <v>5</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="36" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="39.75" customHeight="1">
@@ -37308,13 +37360,13 @@
         <v>6</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="36"/>
@@ -37334,25 +37386,25 @@
         <v>4</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D47" s="39">
         <v>1</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="30.75" customHeight="1">
@@ -37362,19 +37414,19 @@
         <v>2</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29.25" customHeight="1">
@@ -37384,19 +37436,19 @@
         <v>3</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.5" customHeight="1">
@@ -37406,19 +37458,19 @@
         <v>4</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="32.25" customHeight="1">
@@ -37428,13 +37480,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F51" s="40" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
@@ -37500,54 +37552,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15">
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
     </row>
     <row r="3" spans="1:11" ht="15">
-      <c r="B3" s="108" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
+      <c r="B3" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="32" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -37556,28 +37608,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D5" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E5" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F5" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G5">
         <v>9876543567</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I5" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J5" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K5" s="27">
         <v>1</v>
@@ -37589,28 +37641,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D6" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E6" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G6">
         <v>9876873567</v>
       </c>
       <c r="H6" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" t="s">
+        <v>333</v>
+      </c>
+      <c r="J6" t="s">
         <v>327</v>
-      </c>
-      <c r="I6" t="s">
-        <v>328</v>
-      </c>
-      <c r="J6" t="s">
-        <v>322</v>
       </c>
       <c r="K6" s="27">
         <v>2</v>
@@ -37621,28 +37673,28 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G7" s="29">
         <v>8975908765</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K7" s="30">
         <v>1</v>
@@ -37654,108 +37706,108 @@
       <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="104" t="s">
-        <v>332</v>
-      </c>
-      <c r="C10" s="106"/>
-      <c r="E10" s="104" t="s">
-        <v>333</v>
-      </c>
-      <c r="F10" s="106"/>
-      <c r="H10" s="104" t="s">
-        <v>334</v>
-      </c>
-      <c r="I10" s="106"/>
+      <c r="B10" s="103" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" s="104"/>
+      <c r="E10" s="103" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" s="104"/>
+      <c r="H10" s="103" t="s">
+        <v>339</v>
+      </c>
+      <c r="I10" s="104"/>
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="B11" s="76" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="32" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="26" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="B13" s="28" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
-      <c r="B19" s="104" t="s">
-        <v>346</v>
+      <c r="B19" s="103" t="s">
+        <v>351</v>
       </c>
       <c r="C19" s="105"/>
       <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="31"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="32" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15">
       <c r="B21" s="81" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -37764,12 +37816,12 @@
         <v>37237</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15">
       <c r="B22" s="78" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C22" s="82">
         <v>2</v>
@@ -37778,7 +37830,7 @@
         <v>36903</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -37791,35 +37843,35 @@
       <c r="F25" s="31"/>
     </row>
     <row r="28" spans="2:9" ht="15">
-      <c r="B28" s="113" t="s">
-        <v>353</v>
-      </c>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
+      <c r="B28" s="109" t="s">
+        <v>358</v>
+      </c>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="32" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -37827,7 +37879,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -37845,7 +37897,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -37863,7 +37915,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D32" s="29">
         <v>1</v>
@@ -37880,37 +37932,37 @@
       <c r="C35" s="72"/>
     </row>
     <row r="36" spans="2:8" ht="15">
-      <c r="B36" s="113" t="s">
-        <v>359</v>
-      </c>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="115"/>
+      <c r="B36" s="109" t="s">
+        <v>364</v>
+      </c>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="111"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="32" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F37" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="H37" s="33" t="s">
         <v>363</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -37918,13 +37970,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D38" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E38" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -37939,13 +37991,13 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D39" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E39" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F39">
         <v>2020</v>
@@ -37965,29 +38017,29 @@
       <c r="H40" s="30"/>
     </row>
     <row r="42" spans="2:8" ht="15">
-      <c r="B42" s="108" t="s">
-        <v>368</v>
-      </c>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="116"/>
+      <c r="B42" s="112" t="s">
+        <v>373</v>
+      </c>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="113"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="32" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -37995,10 +38047,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D44" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F44" s="27"/>
     </row>
@@ -38007,10 +38059,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D45" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F45" s="27"/>
     </row>
@@ -38019,52 +38071,52 @@
         <v>3</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="30"/>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="104" t="s">
-        <v>375</v>
+      <c r="B49" s="103" t="s">
+        <v>380</v>
       </c>
       <c r="C49" s="105"/>
       <c r="D49" s="105"/>
       <c r="E49" s="105"/>
       <c r="F49" s="105"/>
       <c r="G49" s="105"/>
-      <c r="H49" s="106"/>
+      <c r="H49" s="104"/>
     </row>
     <row r="50" spans="2:22" ht="15">
       <c r="B50" s="89" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C50" s="85" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D50" s="85" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H50" s="79" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I50" s="72"/>
-      <c r="K50" s="108" t="s">
+      <c r="K50" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="116"/>
+      <c r="L50" s="113"/>
       <c r="M50" s="72"/>
       <c r="R50" s="72"/>
       <c r="S50" s="72"/>
@@ -38074,19 +38126,19 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="26" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C51" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D51" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E51" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="F51" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G51" s="80">
         <v>42370</v>
@@ -38095,27 +38147,27 @@
         <v>44562</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L51" s="33" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="26" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C52" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D52" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E52" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F52" s="86" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G52" s="80">
         <v>44562</v>
@@ -38124,10 +38176,10 @@
         <v>46023</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -38139,17 +38191,17 @@
       <c r="G53" s="29"/>
       <c r="H53" s="30"/>
       <c r="K53" s="28" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="2:22">
       <c r="F54" s="86"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="104" t="s">
+      <c r="B56" s="103" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="105"/>
@@ -38158,43 +38210,43 @@
       <c r="F56" s="105"/>
       <c r="G56" s="105"/>
       <c r="H56" s="105"/>
-      <c r="I56" s="106"/>
+      <c r="I56" s="104"/>
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="32" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="26" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C58" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D58" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E58" s="80">
         <v>43466</v>
@@ -38209,18 +38261,18 @@
         <v>43466</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="2:22">
       <c r="B59" s="28" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E59" s="90">
         <v>43474</v>
@@ -38235,7 +38287,7 @@
         <v>43831</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="2:22" ht="15">
@@ -38249,156 +38301,156 @@
       <c r="L62" s="72"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="104" t="s">
+      <c r="B66" s="103" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="105"/>
-      <c r="D66" s="106"/>
-      <c r="F66" s="104" t="s">
+      <c r="D66" s="104"/>
+      <c r="F66" s="103" t="s">
         <v>15</v>
       </c>
       <c r="G66" s="105"/>
-      <c r="H66" s="106"/>
-      <c r="J66" s="104" t="s">
+      <c r="H66" s="104"/>
+      <c r="J66" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="106"/>
+      <c r="K66" s="104"/>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="32" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K67" s="33" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="26" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C68" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F68" s="93" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="H68" s="94" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="15">
       <c r="B69" s="91" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C69" s="92" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="F69" s="91" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="G69" s="92" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="H69" s="95" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="J69" s="28" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K69" s="30" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="118" t="s">
-        <v>415</v>
-      </c>
-      <c r="C74" s="119"/>
-      <c r="D74" s="120"/>
-      <c r="F74" s="121" t="s">
-        <v>416</v>
-      </c>
-      <c r="G74" s="121"/>
+      <c r="B74" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="C74" s="118"/>
+      <c r="D74" s="119"/>
+      <c r="F74" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="G74" s="120"/>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="96" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C75" s="97" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D75" s="98" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="15">
       <c r="B76" s="99" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C76" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D76" s="100" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="F76" s="99" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G76" s="100" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15">
       <c r="B77" s="26" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C77" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F77" s="101" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>23</v>
@@ -38406,53 +38458,53 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="26" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C78" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D79" s="30" t="s">
         <v>425</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="110" t="s">
-        <v>426</v>
-      </c>
-      <c r="C84" s="111"/>
-      <c r="D84" s="112"/>
+      <c r="B84" s="106" t="s">
+        <v>431</v>
+      </c>
+      <c r="C84" s="107"/>
+      <c r="D84" s="108"/>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="28" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="C86" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="15">
       <c r="B87" s="72"/>
       <c r="C87" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="E87" s="72"/>
       <c r="F87" s="72"/>
@@ -38461,7 +38513,7 @@
     </row>
     <row r="88" spans="2:9">
       <c r="C88" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="15">
@@ -38471,17 +38523,17 @@
       <c r="B105" s="72"/>
     </row>
     <row r="115" spans="2:3" ht="15">
-      <c r="B115" s="102" t="s">
-        <v>431</v>
-      </c>
-      <c r="C115" s="103"/>
+      <c r="B115" s="121" t="s">
+        <v>436</v>
+      </c>
+      <c r="C115" s="122"/>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="32" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="117" spans="2:3">
@@ -38508,10 +38560,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="F74:G74"/>
     <mergeCell ref="B115:C115"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="F66:H66"/>
@@ -38528,6 +38576,10 @@
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F74:G74"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{6AF15854-A6D3-47C8-94A2-116322D859F2}"/>
@@ -38550,7 +38602,7 @@
   <sheetData>
     <row r="29" spans="22:22">
       <c r="V29" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="25:25">
@@ -38589,28 +38641,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="23.25">
       <c r="J1" s="12" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.25">
       <c r="C4" s="11" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="6" spans="3:10" ht="20.25">
       <c r="D6" s="10" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="20.25">
       <c r="D21" s="10" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="20.25">
       <c r="D33" s="13" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -38618,34 +38670,34 @@
     </row>
     <row r="46" spans="4:8" ht="20.25">
       <c r="D46" s="10" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="20.25">
       <c r="C59" s="11" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="61" spans="3:4" ht="20.25">
       <c r="D61" s="10" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="20.25">
       <c r="D74" s="10" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="85" spans="4:4" ht="20.25">
       <c r="D85" s="10" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="296" spans="3:5" ht="18">
       <c r="C296" s="9" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -38682,10 +38734,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -38695,47 +38747,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -38790,10 +38842,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>4</v>
@@ -38802,31 +38854,31 @@
     <row r="19" spans="1:4">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D20" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -38860,128 +38912,128 @@
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
       <c r="L3" s="10" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="O9" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B13" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B15" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B17" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="O17" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B19" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B21" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B23" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B25" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="O25" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="20" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="20" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="20" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61941D9D-C823-4FB8-91B6-33EC3D7D4851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E38F14B-F845-4134-B7E5-684561E653E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="490">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Tools used</t>
   </si>
   <si>
-    <t xml:space="preserve">MOM </t>
-  </si>
-  <si>
     <t>Non scoped requirements</t>
   </si>
   <si>
@@ -581,6 +578,12 @@
   </si>
   <si>
     <t>Rework on sidebar</t>
+  </si>
+  <si>
+    <t>Discussed estimation for completed works</t>
+  </si>
+  <si>
+    <t>Discussed college master services</t>
   </si>
   <si>
     <t>Team Genesis - Profile Management Project</t>
@@ -2320,13 +2323,28 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2347,19 +2365,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2372,12 +2381,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -35757,10 +35760,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151:C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -35771,14 +35774,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="66"/>
+      <c r="B1" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1">
@@ -35786,10 +35787,10 @@
         <v>44653</v>
       </c>
       <c r="B2" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="71" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="25" customFormat="1" ht="12.75">
@@ -35807,33 +35808,33 @@
         <v>44655</v>
       </c>
       <c r="B5" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75">
       <c r="A6" s="56"/>
       <c r="B6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="56"/>
       <c r="B7" s="23"/>
       <c r="C7" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="59"/>
       <c r="B8" s="60"/>
       <c r="C8" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
@@ -35841,45 +35842,45 @@
         <v>44656</v>
       </c>
       <c r="B10" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="64" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="56"/>
       <c r="B11" s="23"/>
       <c r="C11" s="58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="56"/>
       <c r="B12" s="23"/>
       <c r="C12" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="56"/>
       <c r="B13" s="23"/>
       <c r="C13" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="56"/>
       <c r="B14" s="23"/>
       <c r="C14" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="59"/>
       <c r="B15" s="60"/>
       <c r="C15" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
@@ -35887,89 +35888,89 @@
         <v>44657</v>
       </c>
       <c r="B17" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="64" t="s">
         <v>57</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="56"/>
       <c r="B18" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="58" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="56"/>
       <c r="B19" s="23"/>
       <c r="C19" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="56"/>
       <c r="B20" s="23"/>
       <c r="C20" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="56"/>
       <c r="B21" s="23"/>
       <c r="C21" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="56"/>
       <c r="B22" s="23"/>
       <c r="C22" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="56"/>
       <c r="B23" s="23"/>
       <c r="C23" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="56"/>
       <c r="B24" s="23"/>
       <c r="C24" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="56"/>
       <c r="B25" s="23"/>
       <c r="C25" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="56"/>
       <c r="B26" s="23"/>
       <c r="C26" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="56"/>
       <c r="B27" s="23"/>
       <c r="C27" s="58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="59"/>
       <c r="B28" s="60"/>
       <c r="C28" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
@@ -35977,107 +35978,107 @@
         <v>44658</v>
       </c>
       <c r="B30" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="64" t="s">
         <v>71</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="56"/>
       <c r="B31" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="58" t="s">
         <v>73</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="56"/>
       <c r="B32" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="58" t="s">
         <v>75</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="56"/>
       <c r="B33" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="58" t="s">
         <v>77</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="56"/>
       <c r="B34" s="23"/>
       <c r="C34" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="56"/>
       <c r="B35" s="23"/>
       <c r="C35" s="58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="56"/>
       <c r="B36" s="23"/>
       <c r="C36" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="56"/>
       <c r="B37" s="23"/>
       <c r="C37" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="56"/>
       <c r="B38" s="23"/>
       <c r="C38" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="56"/>
       <c r="B39" s="23"/>
       <c r="C39" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="56"/>
       <c r="B40" s="23"/>
       <c r="C40" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="56"/>
       <c r="B41" s="23"/>
       <c r="C41" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="56"/>
       <c r="B42" s="23"/>
       <c r="C42" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="59"/>
       <c r="B43" s="60"/>
       <c r="C43" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
@@ -36085,94 +36086,94 @@
         <v>44659</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="56"/>
       <c r="B46" s="23"/>
       <c r="C46" s="58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="56"/>
       <c r="B47" s="23"/>
       <c r="C47" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="56"/>
       <c r="B48" s="23"/>
       <c r="C48" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="56"/>
       <c r="B49" s="23"/>
       <c r="C49" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="56"/>
       <c r="B50" s="23"/>
       <c r="C50" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="56"/>
       <c r="B51" s="23"/>
       <c r="C51" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="56"/>
       <c r="B52" s="23"/>
       <c r="C52" s="58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="56"/>
       <c r="B53" s="23"/>
       <c r="C53" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="56"/>
       <c r="B54" s="23"/>
       <c r="C54" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="56"/>
       <c r="B55" s="23"/>
       <c r="C55" s="58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="56"/>
       <c r="B56" s="23"/>
       <c r="C56" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="59"/>
       <c r="B57" s="60"/>
       <c r="C57" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
@@ -36181,49 +36182,49 @@
       </c>
       <c r="B60" s="63"/>
       <c r="C60" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
       <c r="A61" s="56"/>
       <c r="B61" s="23"/>
       <c r="C61" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1">
       <c r="A62" s="56"/>
       <c r="B62" s="23"/>
       <c r="C62" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1">
       <c r="A63" s="56"/>
       <c r="B63" s="23"/>
       <c r="C63" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1">
       <c r="A64" s="56"/>
       <c r="B64" s="23"/>
       <c r="C64" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1">
       <c r="A65" s="56"/>
       <c r="B65" s="23"/>
       <c r="C65" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1">
       <c r="A66" s="59"/>
       <c r="B66" s="60"/>
       <c r="C66" s="61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1">
@@ -36231,80 +36232,80 @@
         <v>44662</v>
       </c>
       <c r="B68" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="64" t="s">
         <v>109</v>
-      </c>
-      <c r="C68" s="64" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1">
       <c r="A69" s="56"/>
       <c r="B69" s="23"/>
       <c r="C69" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1">
       <c r="A70" s="56"/>
       <c r="B70" s="23"/>
       <c r="C70" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1">
       <c r="A71" s="56"/>
       <c r="B71" s="23"/>
       <c r="C71" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1">
       <c r="A72" s="56"/>
       <c r="B72" s="23"/>
       <c r="C72" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1">
       <c r="A73" s="56"/>
       <c r="B73" s="23"/>
       <c r="C73" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1">
       <c r="A74" s="56"/>
       <c r="B74" s="23"/>
       <c r="C74" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1">
       <c r="A75" s="56"/>
       <c r="B75" s="23"/>
       <c r="C75" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1">
       <c r="A76" s="56"/>
       <c r="B76" s="23"/>
       <c r="C76" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1">
       <c r="A77" s="56"/>
       <c r="B77" s="23"/>
       <c r="C77" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1">
       <c r="A78" s="59"/>
       <c r="B78" s="60"/>
       <c r="C78" s="61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1">
@@ -36313,35 +36314,35 @@
       </c>
       <c r="B80" s="63"/>
       <c r="C80" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1">
       <c r="A81" s="56"/>
       <c r="B81" s="23"/>
       <c r="C81" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1">
       <c r="A82" s="56"/>
       <c r="B82" s="23"/>
       <c r="C82" s="58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1">
       <c r="A83" s="56"/>
       <c r="B83" s="23"/>
       <c r="C83" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1">
       <c r="A84" s="59"/>
       <c r="B84" s="60"/>
       <c r="C84" s="61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1">
@@ -36349,31 +36350,31 @@
         <v>44664</v>
       </c>
       <c r="B86" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="64" t="s">
         <v>126</v>
-      </c>
-      <c r="C86" s="64" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1">
       <c r="A87" s="56"/>
       <c r="B87" s="23"/>
       <c r="C87" s="58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1">
       <c r="A88" s="56"/>
       <c r="B88" s="23"/>
       <c r="C88" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1">
       <c r="A89" s="59"/>
       <c r="B89" s="60"/>
       <c r="C89" s="61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1">
@@ -36382,21 +36383,21 @@
       </c>
       <c r="B91" s="63"/>
       <c r="C91" s="64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1">
       <c r="A92" s="56"/>
       <c r="B92" s="23"/>
       <c r="C92" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1">
       <c r="A93" s="59"/>
       <c r="B93" s="60"/>
       <c r="C93" s="61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1">
@@ -36405,28 +36406,28 @@
       </c>
       <c r="B95" s="63"/>
       <c r="C95" s="64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1">
       <c r="A96" s="56"/>
       <c r="B96" s="23"/>
       <c r="C96" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1">
       <c r="A97" s="56"/>
       <c r="B97" s="23"/>
       <c r="C97" s="58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1">
       <c r="A98" s="59"/>
       <c r="B98" s="60"/>
       <c r="C98" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1">
@@ -36435,63 +36436,63 @@
       </c>
       <c r="B100" s="63"/>
       <c r="C100" s="64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1">
       <c r="A101" s="56"/>
       <c r="B101" s="23"/>
       <c r="C101" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1">
       <c r="A102" s="56"/>
       <c r="B102" s="23"/>
       <c r="C102" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1">
       <c r="A103" s="56"/>
       <c r="B103" s="23"/>
       <c r="C103" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1">
       <c r="A104" s="56"/>
       <c r="B104" s="23"/>
       <c r="C104" s="58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1">
       <c r="A105" s="56"/>
       <c r="B105" s="23"/>
       <c r="C105" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1">
       <c r="A106" s="56"/>
       <c r="B106" s="23"/>
       <c r="C106" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1">
       <c r="A107" s="56"/>
       <c r="B107" s="23"/>
       <c r="C107" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1">
       <c r="A108" s="59"/>
       <c r="B108" s="60"/>
       <c r="C108" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1">
@@ -36500,56 +36501,56 @@
       </c>
       <c r="B110" s="63"/>
       <c r="C110" s="64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1">
       <c r="A111" s="56"/>
       <c r="B111" s="23"/>
       <c r="C111" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1">
       <c r="A112" s="56"/>
       <c r="B112" s="23"/>
       <c r="C112" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1">
       <c r="A113" s="56"/>
       <c r="B113" s="23"/>
       <c r="C113" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1">
       <c r="A114" s="56"/>
       <c r="B114" s="23"/>
       <c r="C114" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1">
       <c r="A115" s="56"/>
       <c r="B115" s="23"/>
       <c r="C115" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1">
       <c r="A116" s="56"/>
       <c r="B116" s="23"/>
       <c r="C116" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1">
       <c r="A117" s="59"/>
       <c r="B117" s="60"/>
       <c r="C117" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1">
@@ -36558,42 +36559,42 @@
       </c>
       <c r="B119" s="63"/>
       <c r="C119" s="64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1">
       <c r="A120" s="56"/>
       <c r="B120" s="23"/>
       <c r="C120" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1">
       <c r="A121" s="56"/>
       <c r="B121" s="23"/>
       <c r="C121" s="58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1">
       <c r="A122" s="56"/>
       <c r="B122" s="23"/>
       <c r="C122" s="58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1">
       <c r="A123" s="56"/>
       <c r="B123" s="23"/>
       <c r="C123" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1">
       <c r="A124" s="59"/>
       <c r="B124" s="60"/>
       <c r="C124" s="61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1">
@@ -36602,28 +36603,28 @@
       </c>
       <c r="B126" s="63"/>
       <c r="C126" s="64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1">
       <c r="A127" s="56"/>
       <c r="B127" s="23"/>
       <c r="C127" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1">
       <c r="A128" s="56"/>
       <c r="B128" s="23"/>
       <c r="C128" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1">
       <c r="A129" s="59"/>
       <c r="B129" s="60"/>
       <c r="C129" s="61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1">
@@ -36632,63 +36633,63 @@
       </c>
       <c r="B131" s="63"/>
       <c r="C131" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1">
       <c r="A132" s="56"/>
       <c r="B132" s="23"/>
       <c r="C132" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1">
       <c r="A133" s="56"/>
       <c r="B133" s="23"/>
       <c r="C133" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1">
       <c r="A134" s="56"/>
       <c r="B134" s="23"/>
       <c r="C134" s="58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1">
       <c r="A135" s="56"/>
       <c r="B135" s="23"/>
       <c r="C135" s="58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1">
       <c r="A136" s="56"/>
       <c r="B136" s="23"/>
       <c r="C136" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1">
       <c r="A137" s="56"/>
       <c r="B137" s="23"/>
       <c r="C137" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1">
       <c r="A138" s="56"/>
       <c r="B138" s="23"/>
       <c r="C138" s="58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1">
       <c r="A139" s="59"/>
       <c r="B139" s="60"/>
       <c r="C139" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1">
@@ -36697,21 +36698,21 @@
       </c>
       <c r="B141" s="63"/>
       <c r="C141" s="64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1">
       <c r="A142" s="56"/>
       <c r="B142" s="23"/>
       <c r="C142" s="58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1">
       <c r="A143" s="59"/>
       <c r="B143" s="60"/>
       <c r="C143" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1">
@@ -36720,35 +36721,51 @@
       </c>
       <c r="B145" s="63"/>
       <c r="C145" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1">
       <c r="A146" s="56"/>
       <c r="B146" s="23"/>
       <c r="C146" s="58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15.75" customHeight="1">
       <c r="A147" s="56"/>
       <c r="B147" s="23"/>
       <c r="C147" s="58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1">
       <c r="A148" s="56"/>
       <c r="B148" s="23"/>
       <c r="C148" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1">
       <c r="A149" s="59"/>
       <c r="B149" s="60"/>
       <c r="C149" s="61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A151" s="102">
+        <v>44686</v>
+      </c>
+      <c r="B151" s="63"/>
+      <c r="C151" s="64" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A152" s="59"/>
+      <c r="B152" s="60"/>
+      <c r="C152" s="61" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -36778,7 +36795,7 @@
   <sheetData>
     <row r="5" spans="1:5">
       <c r="E5" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -36786,33 +36803,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="51">
@@ -36820,25 +36837,25 @@
         <v>1</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D19" s="39">
         <v>1</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="38.25">
@@ -36848,19 +36865,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="62.25" customHeight="1">
@@ -36870,19 +36887,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.5" customHeight="1">
@@ -36892,19 +36909,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="38.25" customHeight="1">
@@ -36914,19 +36931,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25.5">
@@ -36936,19 +36953,19 @@
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1">
@@ -36958,13 +36975,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
@@ -36976,19 +36993,19 @@
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="42" customHeight="1">
@@ -36998,17 +37015,17 @@
         <v>9</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="38.25" customHeight="1">
@@ -37018,13 +37035,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
@@ -37044,25 +37061,25 @@
         <v>2</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D30" s="39">
         <v>1</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="51">
@@ -37072,16 +37089,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I31" s="36"/>
     </row>
@@ -37092,19 +37109,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="31.5" customHeight="1">
@@ -37114,19 +37131,19 @@
         <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="34.5" customHeight="1">
@@ -37136,17 +37153,17 @@
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H34" s="36"/>
       <c r="I34" s="36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="48" customHeight="1">
@@ -37156,19 +37173,19 @@
         <v>7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="39" customHeight="1">
@@ -37178,19 +37195,19 @@
         <v>8</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="37.5" customHeight="1">
@@ -37200,19 +37217,19 @@
         <v>9</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36.75" customHeight="1">
@@ -37222,13 +37239,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
@@ -37248,25 +37265,25 @@
         <v>3</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D40" s="39">
         <v>1</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="27" customHeight="1">
@@ -37276,17 +37293,17 @@
         <v>2</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="36" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
@@ -37296,19 +37313,19 @@
         <v>3</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30.75" customHeight="1">
@@ -37318,19 +37335,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="36.75" customHeight="1">
@@ -37340,17 +37357,17 @@
         <v>5</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="39.75" customHeight="1">
@@ -37360,13 +37377,13 @@
         <v>6</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="36"/>
@@ -37386,25 +37403,25 @@
         <v>4</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D47" s="39">
         <v>1</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="30.75" customHeight="1">
@@ -37414,19 +37431,19 @@
         <v>2</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29.25" customHeight="1">
@@ -37436,19 +37453,19 @@
         <v>3</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.5" customHeight="1">
@@ -37458,19 +37475,19 @@
         <v>4</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="32.25" customHeight="1">
@@ -37480,13 +37497,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F51" s="40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
@@ -37521,7 +37538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26143E4E-D99B-424D-B64E-1AC6E8022E09}">
   <dimension ref="A2:V120"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
@@ -37552,54 +37569,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15">
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
     </row>
     <row r="3" spans="1:11" ht="15">
-      <c r="B3" s="112" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
+      <c r="B3" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -37608,28 +37625,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G5">
         <v>9876543567</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K5" s="27">
         <v>1</v>
@@ -37641,28 +37658,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G6">
         <v>9876873567</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K6" s="27">
         <v>2</v>
@@ -37673,28 +37690,28 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G7" s="29">
         <v>8975908765</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K7" s="30">
         <v>1</v>
@@ -37706,108 +37723,108 @@
       <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="103" t="s">
-        <v>337</v>
-      </c>
-      <c r="C10" s="104"/>
-      <c r="E10" s="103" t="s">
+      <c r="B10" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="F10" s="104"/>
-      <c r="H10" s="103" t="s">
+      <c r="C10" s="107"/>
+      <c r="E10" s="105" t="s">
         <v>339</v>
       </c>
-      <c r="I10" s="104"/>
+      <c r="F10" s="107"/>
+      <c r="H10" s="105" t="s">
+        <v>340</v>
+      </c>
+      <c r="I10" s="107"/>
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="B11" s="76" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="B13" s="28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
-      <c r="B19" s="103" t="s">
-        <v>351</v>
-      </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="104"/>
+      <c r="B19" s="105" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
       <c r="F19" s="31"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="32" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15">
       <c r="B21" s="81" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -37816,12 +37833,12 @@
         <v>37237</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15">
       <c r="B22" s="78" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C22" s="82">
         <v>2</v>
@@ -37830,7 +37847,7 @@
         <v>36903</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -37843,35 +37860,35 @@
       <c r="F25" s="31"/>
     </row>
     <row r="28" spans="2:9" ht="15">
-      <c r="B28" s="109" t="s">
-        <v>358</v>
-      </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
+      <c r="B28" s="114" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="32" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -37879,7 +37896,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -37897,7 +37914,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -37915,7 +37932,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D32" s="29">
         <v>1</v>
@@ -37932,37 +37949,37 @@
       <c r="C35" s="72"/>
     </row>
     <row r="36" spans="2:8" ht="15">
-      <c r="B36" s="109" t="s">
-        <v>364</v>
-      </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="111"/>
+      <c r="B36" s="114" t="s">
+        <v>365</v>
+      </c>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="116"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="32" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -37970,13 +37987,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D38" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E38" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -37991,13 +38008,13 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D39" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F39">
         <v>2020</v>
@@ -38017,29 +38034,29 @@
       <c r="H40" s="30"/>
     </row>
     <row r="42" spans="2:8" ht="15">
-      <c r="B42" s="112" t="s">
-        <v>373</v>
-      </c>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="113"/>
+      <c r="B42" s="109" t="s">
+        <v>374</v>
+      </c>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="117"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="32" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -38047,10 +38064,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D44" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F44" s="27"/>
     </row>
@@ -38059,10 +38076,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D45" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F45" s="27"/>
     </row>
@@ -38071,52 +38088,52 @@
         <v>3</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="30"/>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="103" t="s">
-        <v>380</v>
-      </c>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="104"/>
+      <c r="B49" s="105" t="s">
+        <v>381</v>
+      </c>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="107"/>
     </row>
     <row r="50" spans="2:22" ht="15">
       <c r="B50" s="89" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C50" s="85" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D50" s="85" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H50" s="79" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I50" s="72"/>
-      <c r="K50" s="112" t="s">
+      <c r="K50" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="113"/>
+      <c r="L50" s="117"/>
       <c r="M50" s="72"/>
       <c r="R50" s="72"/>
       <c r="S50" s="72"/>
@@ -38126,19 +38143,19 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="26" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C51" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D51" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E51" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F51" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G51" s="80">
         <v>42370</v>
@@ -38147,27 +38164,27 @@
         <v>44562</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L51" s="33" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="26" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C52" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D52" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E52" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F52" s="86" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G52" s="80">
         <v>44562</v>
@@ -38176,10 +38193,10 @@
         <v>46023</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -38191,62 +38208,62 @@
       <c r="G53" s="29"/>
       <c r="H53" s="30"/>
       <c r="K53" s="28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="2:22">
       <c r="F54" s="86"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="103" t="s">
+      <c r="B56" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="104"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="107"/>
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="32" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="26" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C58" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D58" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E58" s="80">
         <v>43466</v>
@@ -38261,18 +38278,18 @@
         <v>43466</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="2:22">
       <c r="B59" s="28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E59" s="90">
         <v>43474</v>
@@ -38287,7 +38304,7 @@
         <v>43831</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="2:22" ht="15">
@@ -38301,156 +38318,156 @@
       <c r="L62" s="72"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="103" t="s">
+      <c r="B66" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="105"/>
-      <c r="D66" s="104"/>
-      <c r="F66" s="103" t="s">
+      <c r="C66" s="106"/>
+      <c r="D66" s="107"/>
+      <c r="F66" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="105"/>
-      <c r="H66" s="104"/>
-      <c r="J66" s="103" t="s">
+      <c r="G66" s="106"/>
+      <c r="H66" s="107"/>
+      <c r="J66" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="104"/>
+      <c r="K66" s="107"/>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="32" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H67" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="J67" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="J67" s="32" t="s">
-        <v>408</v>
-      </c>
       <c r="K67" s="33" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="26" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C68" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F68" s="93" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H68" s="94" t="s">
+        <v>415</v>
+      </c>
+      <c r="J68" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="J68" s="26" t="s">
-        <v>413</v>
-      </c>
       <c r="K68" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="15">
       <c r="B69" s="91" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C69" s="92" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F69" s="91" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G69" s="92" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H69" s="95" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J69" s="28" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K69" s="30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="C74" s="118"/>
-      <c r="D74" s="119"/>
-      <c r="F74" s="120" t="s">
+      <c r="B74" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="G74" s="120"/>
+      <c r="C74" s="120"/>
+      <c r="D74" s="121"/>
+      <c r="F74" s="122" t="s">
+        <v>422</v>
+      </c>
+      <c r="G74" s="122"/>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="C75" s="97" t="s">
+        <v>353</v>
+      </c>
+      <c r="D75" s="98" t="s">
+        <v>424</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="G75" s="15" t="s">
         <v>422</v>
-      </c>
-      <c r="C75" s="97" t="s">
-        <v>352</v>
-      </c>
-      <c r="D75" s="98" t="s">
-        <v>423</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="15">
       <c r="B76" s="99" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C76" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D76" s="100" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F76" s="99" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G76" s="100" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15">
       <c r="B77" s="26" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C77" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F77" s="101" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>23</v>
@@ -38458,53 +38475,53 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="26" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C78" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="28" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="106" t="s">
-        <v>431</v>
-      </c>
-      <c r="C84" s="107"/>
-      <c r="D84" s="108"/>
+      <c r="B84" s="111" t="s">
+        <v>432</v>
+      </c>
+      <c r="C84" s="112"/>
+      <c r="D84" s="113"/>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="28" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="C86" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="15">
       <c r="B87" s="72"/>
       <c r="C87" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E87" s="72"/>
       <c r="F87" s="72"/>
@@ -38513,7 +38530,7 @@
     </row>
     <row r="88" spans="2:9">
       <c r="C88" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="15">
@@ -38523,17 +38540,17 @@
       <c r="B105" s="72"/>
     </row>
     <row r="115" spans="2:3" ht="15">
-      <c r="B115" s="121" t="s">
-        <v>436</v>
-      </c>
-      <c r="C115" s="122"/>
+      <c r="B115" s="103" t="s">
+        <v>437</v>
+      </c>
+      <c r="C115" s="104"/>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="32" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="2:3">
@@ -38560,6 +38577,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F74:G74"/>
     <mergeCell ref="B115:C115"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="F66:H66"/>
@@ -38576,10 +38597,6 @@
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="F74:G74"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{6AF15854-A6D3-47C8-94A2-116322D859F2}"/>
@@ -38594,7 +38611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3CFBF-880F-481E-9D27-6F5C85AAC27F}">
   <dimension ref="V29:Y48"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F189" workbookViewId="0">
       <selection activeCell="Y48" sqref="Y48"/>
     </sheetView>
   </sheetViews>
@@ -38602,7 +38619,7 @@
   <sheetData>
     <row r="29" spans="22:22">
       <c r="V29" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="25:25">
@@ -38618,7 +38635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E2C87B-569D-4472-B55B-F22E4DB21FBE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
@@ -38633,7 +38650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79905DE3-DAB3-4C6E-84FE-24BF5F973564}">
   <dimension ref="C1:K603"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="AD188" sqref="AD188"/>
     </sheetView>
   </sheetViews>
@@ -38641,28 +38658,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="23.25">
       <c r="J1" s="12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.25">
       <c r="C4" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="6" spans="3:10" ht="20.25">
       <c r="D6" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="20.25">
       <c r="D21" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="20.25">
       <c r="D33" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -38670,34 +38687,34 @@
     </row>
     <row r="46" spans="4:8" ht="20.25">
       <c r="D46" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="20.25">
       <c r="C59" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="61" spans="3:4" ht="20.25">
       <c r="D61" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="20.25">
       <c r="D74" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="85" spans="4:4" ht="20.25">
       <c r="D85" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="296" spans="3:5" ht="18">
       <c r="C296" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -38734,10 +38751,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -38747,47 +38764,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -38842,10 +38859,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>4</v>
@@ -38854,31 +38871,31 @@
     <row r="19" spans="1:4">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D20" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -38912,128 +38929,128 @@
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
       <c r="L3" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" t="s">
         <v>462</v>
       </c>
-      <c r="B9" t="s">
-        <v>461</v>
-      </c>
       <c r="O9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B13" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B15" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B17" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O17" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B19" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B21" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B23" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O25" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="20" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="20" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="20" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25301"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E38F14B-F845-4134-B7E5-684561E653E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77940E91-7800-46D9-94F8-0662D5C9DDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="492">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -584,6 +584,12 @@
   </si>
   <si>
     <t>Discussed college master services</t>
+  </si>
+  <si>
+    <t>Discussed user service</t>
+  </si>
+  <si>
+    <t>Discussed master services</t>
   </si>
   <si>
     <t>Team Genesis - Profile Management Project</t>
@@ -2323,6 +2329,36 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2341,12 +2377,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2356,31 +2386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -35760,10 +35766,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151:C152"/>
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -36767,6 +36773,34 @@
       <c r="C152" s="61" t="s">
         <v>182</v>
       </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A154" s="102">
+        <v>44687</v>
+      </c>
+      <c r="B154" s="63"/>
+      <c r="C154" s="64" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A155" s="59"/>
+      <c r="B155" s="60"/>
+      <c r="C155" s="61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A157" s="102">
+        <v>44690</v>
+      </c>
+      <c r="B157" s="63"/>
+      <c r="C157" s="64"/>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A158" s="59"/>
+      <c r="B158" s="60"/>
+      <c r="C158" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -36795,7 +36829,7 @@
   <sheetData>
     <row r="5" spans="1:5">
       <c r="E5" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -36803,33 +36837,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="51">
@@ -36837,25 +36871,25 @@
         <v>1</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D19" s="39">
         <v>1</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="38.25">
@@ -36865,19 +36899,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="62.25" customHeight="1">
@@ -36887,19 +36921,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.5" customHeight="1">
@@ -36909,19 +36943,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="38.25" customHeight="1">
@@ -36931,19 +36965,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25.5">
@@ -36953,19 +36987,19 @@
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1">
@@ -36975,13 +37009,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
@@ -36993,19 +37027,19 @@
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="42" customHeight="1">
@@ -37015,17 +37049,17 @@
         <v>9</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="38.25" customHeight="1">
@@ -37035,13 +37069,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
@@ -37061,25 +37095,25 @@
         <v>2</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D30" s="39">
         <v>1</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="51">
@@ -37089,16 +37123,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I31" s="36"/>
     </row>
@@ -37109,19 +37143,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="31.5" customHeight="1">
@@ -37131,19 +37165,19 @@
         <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="34.5" customHeight="1">
@@ -37153,17 +37187,17 @@
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H34" s="36"/>
       <c r="I34" s="36" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="48" customHeight="1">
@@ -37173,19 +37207,19 @@
         <v>7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="39" customHeight="1">
@@ -37195,19 +37229,19 @@
         <v>8</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="37.5" customHeight="1">
@@ -37217,19 +37251,19 @@
         <v>9</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36.75" customHeight="1">
@@ -37239,13 +37273,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
@@ -37265,25 +37299,25 @@
         <v>3</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D40" s="39">
         <v>1</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="27" customHeight="1">
@@ -37293,17 +37327,17 @@
         <v>2</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="36" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
@@ -37313,19 +37347,19 @@
         <v>3</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30.75" customHeight="1">
@@ -37335,19 +37369,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="36.75" customHeight="1">
@@ -37357,17 +37391,17 @@
         <v>5</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="36" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="39.75" customHeight="1">
@@ -37377,13 +37411,13 @@
         <v>6</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="36"/>
@@ -37403,25 +37437,25 @@
         <v>4</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D47" s="39">
         <v>1</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="30.75" customHeight="1">
@@ -37431,19 +37465,19 @@
         <v>2</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29.25" customHeight="1">
@@ -37453,19 +37487,19 @@
         <v>3</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.5" customHeight="1">
@@ -37475,19 +37509,19 @@
         <v>4</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="32.25" customHeight="1">
@@ -37497,13 +37531,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F51" s="40" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
@@ -37569,54 +37603,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15">
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="15">
-      <c r="B3" s="109" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
+      <c r="B3" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="32" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -37625,28 +37659,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G5">
         <v>9876543567</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K5" s="27">
         <v>1</v>
@@ -37658,28 +37692,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G6">
         <v>9876873567</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K6" s="27">
         <v>2</v>
@@ -37690,28 +37724,28 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G7" s="29">
         <v>8975908765</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K7" s="30">
         <v>1</v>
@@ -37723,108 +37757,108 @@
       <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="105" t="s">
-        <v>338</v>
-      </c>
-      <c r="C10" s="107"/>
-      <c r="E10" s="105" t="s">
-        <v>339</v>
-      </c>
-      <c r="F10" s="107"/>
-      <c r="H10" s="105" t="s">
+      <c r="B10" s="115" t="s">
         <v>340</v>
       </c>
-      <c r="I10" s="107"/>
+      <c r="C10" s="117"/>
+      <c r="E10" s="115" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="117"/>
+      <c r="H10" s="115" t="s">
+        <v>342</v>
+      </c>
+      <c r="I10" s="117"/>
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="B11" s="76" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="32" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="26" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="B13" s="28" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
-      <c r="B19" s="105" t="s">
-        <v>352</v>
-      </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="107"/>
+      <c r="B19" s="115" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="31"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="32" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15">
       <c r="B21" s="81" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -37833,12 +37867,12 @@
         <v>37237</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15">
       <c r="B22" s="78" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C22" s="82">
         <v>2</v>
@@ -37847,7 +37881,7 @@
         <v>36903</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -37860,35 +37894,35 @@
       <c r="F25" s="31"/>
     </row>
     <row r="28" spans="2:9" ht="15">
-      <c r="B28" s="114" t="s">
-        <v>359</v>
-      </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
+      <c r="B28" s="103" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="32" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -37896,7 +37930,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -37914,7 +37948,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -37932,7 +37966,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D32" s="29">
         <v>1</v>
@@ -37949,37 +37983,37 @@
       <c r="C35" s="72"/>
     </row>
     <row r="36" spans="2:8" ht="15">
-      <c r="B36" s="114" t="s">
-        <v>365</v>
-      </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="116"/>
+      <c r="B36" s="103" t="s">
+        <v>367</v>
+      </c>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="105"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="H37" s="33" t="s">
         <v>366</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -37987,13 +38021,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D38" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E38" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -38008,13 +38042,13 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D39" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E39" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F39">
         <v>2020</v>
@@ -38034,29 +38068,29 @@
       <c r="H40" s="30"/>
     </row>
     <row r="42" spans="2:8" ht="15">
-      <c r="B42" s="109" t="s">
-        <v>374</v>
-      </c>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="117"/>
+      <c r="B42" s="106" t="s">
+        <v>376</v>
+      </c>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="108"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="32" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -38064,10 +38098,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D44" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F44" s="27"/>
     </row>
@@ -38076,10 +38110,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D45" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F45" s="27"/>
     </row>
@@ -38088,52 +38122,52 @@
         <v>3</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="30"/>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="105" t="s">
-        <v>381</v>
-      </c>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="107"/>
+      <c r="B49" s="115" t="s">
+        <v>383</v>
+      </c>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="117"/>
     </row>
     <row r="50" spans="2:22" ht="15">
       <c r="B50" s="89" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C50" s="85" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D50" s="85" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H50" s="79" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I50" s="72"/>
-      <c r="K50" s="109" t="s">
+      <c r="K50" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="117"/>
+      <c r="L50" s="108"/>
       <c r="M50" s="72"/>
       <c r="R50" s="72"/>
       <c r="S50" s="72"/>
@@ -38143,19 +38177,19 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="26" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C51" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D51" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E51" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F51" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G51" s="80">
         <v>42370</v>
@@ -38164,27 +38198,27 @@
         <v>44562</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L51" s="33" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="26" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C52" t="s">
+        <v>396</v>
+      </c>
+      <c r="D52" t="s">
+        <v>397</v>
+      </c>
+      <c r="E52" t="s">
+        <v>398</v>
+      </c>
+      <c r="F52" s="86" t="s">
         <v>394</v>
-      </c>
-      <c r="D52" t="s">
-        <v>395</v>
-      </c>
-      <c r="E52" t="s">
-        <v>396</v>
-      </c>
-      <c r="F52" s="86" t="s">
-        <v>392</v>
       </c>
       <c r="G52" s="80">
         <v>44562</v>
@@ -38193,10 +38227,10 @@
         <v>46023</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -38208,62 +38242,62 @@
       <c r="G53" s="29"/>
       <c r="H53" s="30"/>
       <c r="K53" s="28" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="2:22">
       <c r="F54" s="86"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="105" t="s">
+      <c r="B56" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="107"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="117"/>
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="32" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="26" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C58" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D58" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E58" s="80">
         <v>43466</v>
@@ -38278,18 +38312,18 @@
         <v>43466</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59" spans="2:22">
       <c r="B59" s="28" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E59" s="90">
         <v>43474</v>
@@ -38304,7 +38338,7 @@
         <v>43831</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="2:22" ht="15">
@@ -38318,156 +38352,156 @@
       <c r="L62" s="72"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="105" t="s">
+      <c r="B66" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="106"/>
-      <c r="D66" s="107"/>
-      <c r="F66" s="105" t="s">
+      <c r="C66" s="116"/>
+      <c r="D66" s="117"/>
+      <c r="F66" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="106"/>
-      <c r="H66" s="107"/>
-      <c r="J66" s="105" t="s">
+      <c r="G66" s="116"/>
+      <c r="H66" s="117"/>
+      <c r="J66" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="107"/>
+      <c r="K66" s="117"/>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="32" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K67" s="33" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="26" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F68" s="93" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H68" s="94" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="15">
       <c r="B69" s="91" t="s">
+        <v>419</v>
+      </c>
+      <c r="C69" s="92" t="s">
+        <v>358</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="F69" s="91" t="s">
+        <v>420</v>
+      </c>
+      <c r="G69" s="92" t="s">
+        <v>416</v>
+      </c>
+      <c r="H69" s="95" t="s">
         <v>417</v>
       </c>
-      <c r="C69" s="92" t="s">
-        <v>356</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="F69" s="91" t="s">
-        <v>418</v>
-      </c>
-      <c r="G69" s="92" t="s">
-        <v>414</v>
-      </c>
-      <c r="H69" s="95" t="s">
-        <v>415</v>
-      </c>
       <c r="J69" s="28" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K69" s="30" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="119" t="s">
-        <v>421</v>
-      </c>
-      <c r="C74" s="120"/>
-      <c r="D74" s="121"/>
-      <c r="F74" s="122" t="s">
-        <v>422</v>
-      </c>
-      <c r="G74" s="122"/>
+      <c r="B74" s="109" t="s">
+        <v>423</v>
+      </c>
+      <c r="C74" s="110"/>
+      <c r="D74" s="111"/>
+      <c r="F74" s="112" t="s">
+        <v>424</v>
+      </c>
+      <c r="G74" s="112"/>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="96" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C75" s="97" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D75" s="98" t="s">
+        <v>426</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="G75" s="15" t="s">
         <v>424</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="15">
       <c r="B76" s="99" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C76" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D76" s="100" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F76" s="99" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G76" s="100" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15">
       <c r="B77" s="26" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C77" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F77" s="101" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>23</v>
@@ -38475,53 +38509,53 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="26" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C78" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="28" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="111" t="s">
-        <v>432</v>
-      </c>
-      <c r="C84" s="112"/>
-      <c r="D84" s="113"/>
+      <c r="B84" s="119" t="s">
+        <v>434</v>
+      </c>
+      <c r="C84" s="120"/>
+      <c r="D84" s="121"/>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="28" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="C86" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="15">
       <c r="B87" s="72"/>
       <c r="C87" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E87" s="72"/>
       <c r="F87" s="72"/>
@@ -38530,7 +38564,7 @@
     </row>
     <row r="88" spans="2:9">
       <c r="C88" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="15">
@@ -38540,17 +38574,17 @@
       <c r="B105" s="72"/>
     </row>
     <row r="115" spans="2:3" ht="15">
-      <c r="B115" s="103" t="s">
-        <v>437</v>
-      </c>
-      <c r="C115" s="104"/>
+      <c r="B115" s="113" t="s">
+        <v>439</v>
+      </c>
+      <c r="C115" s="114"/>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="32" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="117" spans="2:3">
@@ -38577,18 +38611,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="J66:K66"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B49:H49"/>
@@ -38597,6 +38619,18 @@
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="F66:H66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{6AF15854-A6D3-47C8-94A2-116322D859F2}"/>
@@ -38619,7 +38653,7 @@
   <sheetData>
     <row r="29" spans="22:22">
       <c r="V29" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="25:25">
@@ -38658,28 +38692,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="23.25">
       <c r="J1" s="12" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.25">
       <c r="C4" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="6" spans="3:10" ht="20.25">
       <c r="D6" s="10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="20.25">
       <c r="D21" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="20.25">
       <c r="D33" s="13" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -38687,34 +38721,34 @@
     </row>
     <row r="46" spans="4:8" ht="20.25">
       <c r="D46" s="10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="20.25">
       <c r="C59" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="61" spans="3:4" ht="20.25">
       <c r="D61" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="20.25">
       <c r="D74" s="10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="85" spans="4:4" ht="20.25">
       <c r="D85" s="10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="296" spans="3:5" ht="18">
       <c r="C296" s="9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -38751,10 +38785,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -38764,47 +38798,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -38859,10 +38893,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>4</v>
@@ -38871,31 +38905,31 @@
     <row r="19" spans="1:4">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D20" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -38929,128 +38963,128 @@
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
       <c r="L3" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O9" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B11" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B13" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B15" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="O17" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B19" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B23" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B25" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O25" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="20" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="20" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="20" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25301"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77940E91-7800-46D9-94F8-0662D5C9DDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A2138E7-378D-4D47-9024-8EC90C651F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="495">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -590,6 +590,15 @@
   </si>
   <si>
     <t>Discussed master services</t>
+  </si>
+  <si>
+    <t>OOPS, Datastructure, Leet Code</t>
+  </si>
+  <si>
+    <t>Mark estimation status for completed work</t>
+  </si>
+  <si>
+    <t>Complete WEB Api for all services and most importantly complete get all by today</t>
   </si>
   <si>
     <t>Team Genesis - Profile Management Project</t>
@@ -2329,6 +2338,24 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2341,10 +2368,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2363,30 +2396,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -35766,10 +35775,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+      <selection activeCell="A157" sqref="A157:C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -36795,12 +36804,23 @@
         <v>44690</v>
       </c>
       <c r="B157" s="63"/>
-      <c r="C157" s="64"/>
+      <c r="C157" s="64" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="158" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A158" s="59"/>
-      <c r="B158" s="60"/>
-      <c r="C158" s="61"/>
+      <c r="A158" s="56"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A159" s="59"/>
+      <c r="B159" s="60"/>
+      <c r="C159" s="61" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -36829,7 +36849,7 @@
   <sheetData>
     <row r="5" spans="1:5">
       <c r="E5" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -36837,33 +36857,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="51">
@@ -36871,25 +36891,25 @@
         <v>1</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D19" s="39">
         <v>1</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="38.25">
@@ -36899,19 +36919,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="62.25" customHeight="1">
@@ -36921,19 +36941,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.5" customHeight="1">
@@ -36943,19 +36963,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="38.25" customHeight="1">
@@ -36965,19 +36985,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25.5">
@@ -36987,19 +37007,19 @@
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1">
@@ -37009,13 +37029,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
@@ -37027,19 +37047,19 @@
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="42" customHeight="1">
@@ -37049,17 +37069,17 @@
         <v>9</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="38.25" customHeight="1">
@@ -37069,13 +37089,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
@@ -37095,25 +37115,25 @@
         <v>2</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D30" s="39">
         <v>1</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="51">
@@ -37123,16 +37143,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I31" s="36"/>
     </row>
@@ -37143,19 +37163,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="31.5" customHeight="1">
@@ -37165,19 +37185,19 @@
         <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="34.5" customHeight="1">
@@ -37187,17 +37207,17 @@
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H34" s="36"/>
       <c r="I34" s="36" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="48" customHeight="1">
@@ -37207,19 +37227,19 @@
         <v>7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="39" customHeight="1">
@@ -37229,19 +37249,19 @@
         <v>8</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="37.5" customHeight="1">
@@ -37251,19 +37271,19 @@
         <v>9</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36.75" customHeight="1">
@@ -37273,13 +37293,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
@@ -37299,25 +37319,25 @@
         <v>3</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D40" s="39">
         <v>1</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="27" customHeight="1">
@@ -37327,17 +37347,17 @@
         <v>2</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="36" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
@@ -37347,19 +37367,19 @@
         <v>3</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30.75" customHeight="1">
@@ -37369,19 +37389,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="36.75" customHeight="1">
@@ -37391,17 +37411,17 @@
         <v>5</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="36" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="39.75" customHeight="1">
@@ -37411,13 +37431,13 @@
         <v>6</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="36"/>
@@ -37437,25 +37457,25 @@
         <v>4</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D47" s="39">
         <v>1</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="30.75" customHeight="1">
@@ -37465,19 +37485,19 @@
         <v>2</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29.25" customHeight="1">
@@ -37487,19 +37507,19 @@
         <v>3</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.5" customHeight="1">
@@ -37509,19 +37529,19 @@
         <v>4</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="32.25" customHeight="1">
@@ -37531,13 +37551,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F51" s="40" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
@@ -37603,54 +37623,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15">
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
     </row>
     <row r="3" spans="1:11" ht="15">
-      <c r="B3" s="106" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
+      <c r="B3" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="32" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -37659,28 +37679,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G5">
         <v>9876543567</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K5" s="27">
         <v>1</v>
@@ -37692,28 +37712,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E6" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G6">
         <v>9876873567</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I6" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="J6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K6" s="27">
         <v>2</v>
@@ -37724,28 +37744,28 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G7" s="29">
         <v>8975908765</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K7" s="30">
         <v>1</v>
@@ -37757,108 +37777,108 @@
       <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="115" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" s="117"/>
-      <c r="E10" s="115" t="s">
-        <v>341</v>
-      </c>
-      <c r="F10" s="117"/>
-      <c r="H10" s="115" t="s">
-        <v>342</v>
-      </c>
-      <c r="I10" s="117"/>
+      <c r="B10" s="103" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="104"/>
+      <c r="E10" s="103" t="s">
+        <v>344</v>
+      </c>
+      <c r="F10" s="104"/>
+      <c r="H10" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="I10" s="104"/>
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="B11" s="76" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="32" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="26" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="B13" s="28" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
-      <c r="B19" s="115" t="s">
-        <v>354</v>
-      </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="117"/>
+      <c r="B19" s="103" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="31"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="32" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15">
       <c r="B21" s="81" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -37867,12 +37887,12 @@
         <v>37237</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15">
       <c r="B22" s="78" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C22" s="82">
         <v>2</v>
@@ -37881,7 +37901,7 @@
         <v>36903</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -37894,35 +37914,35 @@
       <c r="F25" s="31"/>
     </row>
     <row r="28" spans="2:9" ht="15">
-      <c r="B28" s="103" t="s">
-        <v>361</v>
-      </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
+      <c r="B28" s="109" t="s">
+        <v>364</v>
+      </c>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="32" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -37930,7 +37950,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -37948,7 +37968,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -37966,7 +37986,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D32" s="29">
         <v>1</v>
@@ -37983,37 +38003,37 @@
       <c r="C35" s="72"/>
     </row>
     <row r="36" spans="2:8" ht="15">
-      <c r="B36" s="103" t="s">
-        <v>367</v>
-      </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="105"/>
+      <c r="B36" s="109" t="s">
+        <v>370</v>
+      </c>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="111"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="32" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D37" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="H37" s="33" t="s">
         <v>369</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -38021,13 +38041,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D38" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E38" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -38042,13 +38062,13 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D39" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E39" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F39">
         <v>2020</v>
@@ -38068,29 +38088,29 @@
       <c r="H40" s="30"/>
     </row>
     <row r="42" spans="2:8" ht="15">
-      <c r="B42" s="106" t="s">
-        <v>376</v>
-      </c>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="108"/>
+      <c r="B42" s="112" t="s">
+        <v>379</v>
+      </c>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="113"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="32" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -38098,10 +38118,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D44" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F44" s="27"/>
     </row>
@@ -38110,10 +38130,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D45" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F45" s="27"/>
     </row>
@@ -38122,52 +38142,52 @@
         <v>3</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="30"/>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="115" t="s">
-        <v>383</v>
-      </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="117"/>
+      <c r="B49" s="103" t="s">
+        <v>386</v>
+      </c>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="104"/>
     </row>
     <row r="50" spans="2:22" ht="15">
       <c r="B50" s="89" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C50" s="85" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D50" s="85" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H50" s="79" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I50" s="72"/>
-      <c r="K50" s="106" t="s">
+      <c r="K50" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="108"/>
+      <c r="L50" s="113"/>
       <c r="M50" s="72"/>
       <c r="R50" s="72"/>
       <c r="S50" s="72"/>
@@ -38177,19 +38197,19 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="26" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C51" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D51" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E51" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F51" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G51" s="80">
         <v>42370</v>
@@ -38198,27 +38218,27 @@
         <v>44562</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L51" s="33" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="26" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C52" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D52" t="s">
+        <v>400</v>
+      </c>
+      <c r="E52" t="s">
+        <v>401</v>
+      </c>
+      <c r="F52" s="86" t="s">
         <v>397</v>
-      </c>
-      <c r="E52" t="s">
-        <v>398</v>
-      </c>
-      <c r="F52" s="86" t="s">
-        <v>394</v>
       </c>
       <c r="G52" s="80">
         <v>44562</v>
@@ -38227,10 +38247,10 @@
         <v>46023</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -38242,62 +38262,62 @@
       <c r="G53" s="29"/>
       <c r="H53" s="30"/>
       <c r="K53" s="28" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54" spans="2:22">
       <c r="F54" s="86"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="115" t="s">
+      <c r="B56" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="117"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="104"/>
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="32" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="26" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C58" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D58" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E58" s="80">
         <v>43466</v>
@@ -38312,18 +38332,18 @@
         <v>43466</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="2:22">
       <c r="B59" s="28" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E59" s="90">
         <v>43474</v>
@@ -38338,7 +38358,7 @@
         <v>43831</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="2:22" ht="15">
@@ -38352,156 +38372,156 @@
       <c r="L62" s="72"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="115" t="s">
+      <c r="B66" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="116"/>
-      <c r="D66" s="117"/>
-      <c r="F66" s="115" t="s">
+      <c r="C66" s="105"/>
+      <c r="D66" s="104"/>
+      <c r="F66" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="116"/>
-      <c r="H66" s="117"/>
-      <c r="J66" s="115" t="s">
+      <c r="G66" s="105"/>
+      <c r="H66" s="104"/>
+      <c r="J66" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="117"/>
+      <c r="K66" s="104"/>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="32" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K67" s="33" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="26" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C68" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F68" s="93" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H68" s="94" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="15">
       <c r="B69" s="91" t="s">
+        <v>422</v>
+      </c>
+      <c r="C69" s="92" t="s">
+        <v>361</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="F69" s="91" t="s">
+        <v>423</v>
+      </c>
+      <c r="G69" s="92" t="s">
         <v>419</v>
       </c>
-      <c r="C69" s="92" t="s">
-        <v>358</v>
-      </c>
-      <c r="D69" s="30" t="s">
+      <c r="H69" s="95" t="s">
         <v>420</v>
       </c>
-      <c r="F69" s="91" t="s">
-        <v>420</v>
-      </c>
-      <c r="G69" s="92" t="s">
-        <v>416</v>
-      </c>
-      <c r="H69" s="95" t="s">
-        <v>417</v>
-      </c>
       <c r="J69" s="28" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K69" s="30" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="109" t="s">
-        <v>423</v>
-      </c>
-      <c r="C74" s="110"/>
-      <c r="D74" s="111"/>
-      <c r="F74" s="112" t="s">
-        <v>424</v>
-      </c>
-      <c r="G74" s="112"/>
+      <c r="B74" s="117" t="s">
+        <v>426</v>
+      </c>
+      <c r="C74" s="118"/>
+      <c r="D74" s="119"/>
+      <c r="F74" s="120" t="s">
+        <v>427</v>
+      </c>
+      <c r="G74" s="120"/>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="96" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C75" s="97" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D75" s="98" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="15">
       <c r="B76" s="99" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C76" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D76" s="100" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F76" s="99" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G76" s="100" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15">
       <c r="B77" s="26" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C77" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F77" s="101" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>23</v>
@@ -38509,53 +38529,53 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="26" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C78" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="28" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="119" t="s">
-        <v>434</v>
-      </c>
-      <c r="C84" s="120"/>
-      <c r="D84" s="121"/>
+      <c r="B84" s="106" t="s">
+        <v>437</v>
+      </c>
+      <c r="C84" s="107"/>
+      <c r="D84" s="108"/>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="28" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="C86" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="15">
       <c r="B87" s="72"/>
       <c r="C87" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E87" s="72"/>
       <c r="F87" s="72"/>
@@ -38564,7 +38584,7 @@
     </row>
     <row r="88" spans="2:9">
       <c r="C88" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="15">
@@ -38574,17 +38594,17 @@
       <c r="B105" s="72"/>
     </row>
     <row r="115" spans="2:3" ht="15">
-      <c r="B115" s="113" t="s">
-        <v>439</v>
-      </c>
-      <c r="C115" s="114"/>
+      <c r="B115" s="121" t="s">
+        <v>442</v>
+      </c>
+      <c r="C115" s="122"/>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="32" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="117" spans="2:3">
@@ -38611,6 +38631,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="J66:K66"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B49:H49"/>
@@ -38619,18 +38647,10 @@
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="F74:G74"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="F66:H66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{6AF15854-A6D3-47C8-94A2-116322D859F2}"/>
@@ -38645,7 +38665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3CFBF-880F-481E-9D27-6F5C85AAC27F}">
   <dimension ref="V29:Y48"/>
   <sheetViews>
-    <sheetView topLeftCell="F189" workbookViewId="0">
+    <sheetView topLeftCell="Y48" workbookViewId="0">
       <selection activeCell="Y48" sqref="Y48"/>
     </sheetView>
   </sheetViews>
@@ -38653,7 +38673,7 @@
   <sheetData>
     <row r="29" spans="22:22">
       <c r="V29" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="25:25">
@@ -38692,28 +38712,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="23.25">
       <c r="J1" s="12" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.25">
       <c r="C4" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="6" spans="3:10" ht="20.25">
       <c r="D6" s="10" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="20.25">
       <c r="D21" s="10" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="20.25">
       <c r="D33" s="13" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -38721,34 +38741,34 @@
     </row>
     <row r="46" spans="4:8" ht="20.25">
       <c r="D46" s="10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="20.25">
       <c r="C59" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="61" spans="3:4" ht="20.25">
       <c r="D61" s="10" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="20.25">
       <c r="D74" s="10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="85" spans="4:4" ht="20.25">
       <c r="D85" s="10" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="296" spans="3:5" ht="18">
       <c r="C296" s="9" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -38785,10 +38805,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -38798,47 +38818,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -38893,10 +38913,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>4</v>
@@ -38905,31 +38925,31 @@
     <row r="19" spans="1:4">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -38963,128 +38983,128 @@
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
       <c r="L3" s="10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="O9" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B11" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B15" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B17" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="O17" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B19" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B21" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B23" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B25" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="O25" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="20" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="20" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="20" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25301"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A2138E7-378D-4D47-9024-8EC90C651F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="User_Requirements" sheetId="9" r:id="rId8"/>
     <sheet name="Hierarchy" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="501">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -1552,11 +1551,29 @@
   <si>
     <t>Level 0</t>
   </si>
+  <si>
+    <t>Create dummy service when integrating</t>
+  </si>
+  <si>
+    <t>Discussed data loading on demand or load defaultly</t>
+  </si>
+  <si>
+    <t>Complete webapi within Friday</t>
+  </si>
+  <si>
+    <t>Swagger via integration with API</t>
+  </si>
+  <si>
+    <t>Discussed plan for work from home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintain timesheet discipline and be resposible </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
@@ -1741,7 +1758,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -2133,12 +2150,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2338,13 +2475,28 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2365,19 +2517,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2392,11 +2535,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2596,10 +2757,10 @@
         <xdr:cNvPr id="61" name="Picture 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C17F9D2-85B2-40D5-8CEB-FD2C1ED14836}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C17F9D2-85B2-40D5-8CEB-FD2C1ED14836}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A55E8469-840C-4FD5-9155-FC6641F4322A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{A55E8469-840C-4FD5-9155-FC6641F4322A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2648,7 +2809,7 @@
         <xdr:cNvPr id="7" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B1306D-F5CD-AA71-BEBE-3E43E3155916}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62B1306D-F5CD-AA71-BEBE-3E43E3155916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2697,7 +2858,7 @@
         <xdr:cNvPr id="7" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2EFA80-74DE-82C7-9452-8B2D1DC4607C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D2EFA80-74DE-82C7-9452-8B2D1DC4607C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2746,10 +2907,10 @@
         <xdr:cNvPr id="1043" name="Down Arrow 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFC5A91-DBBA-459D-BB2F-0CE48AD188A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBFC5A91-DBBA-459D-BB2F-0CE48AD188A3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{190E9656-C7F2-405F-9D02-85B6C01B78EE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{190E9656-C7F2-405F-9D02-85B6C01B78EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,10 +3064,10 @@
         <xdr:cNvPr id="1080" name="Down Arrow 204">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49B3700-C172-4973-834D-99DE957D03EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A49B3700-C172-4973-834D-99DE957D03EF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EBFC5A91-DBBA-459D-BB2F-0CE48AD188A3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{EBFC5A91-DBBA-459D-BB2F-0CE48AD188A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,10 +3226,10 @@
         <xdr:cNvPr id="1077" name="Down Arrow 205">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77566F8-4BCF-449E-B2FE-E28026A99A6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A77566F8-4BCF-449E-B2FE-E28026A99A6C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A49B3700-C172-4973-834D-99DE957D03EF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{A49B3700-C172-4973-834D-99DE957D03EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3227,10 +3388,10 @@
         <xdr:cNvPr id="1076" name="Down Arrow 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE0FCEA-A74C-419D-A727-09BB2396B7B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AE0FCEA-A74C-419D-A727-09BB2396B7B5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A77566F8-4BCF-449E-B2FE-E28026A99A6C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{A77566F8-4BCF-449E-B2FE-E28026A99A6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3389,10 +3550,10 @@
         <xdr:cNvPr id="1087" name="Down Arrow 209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4B3F21-76DB-45E7-98AF-CEB16822A591}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF4B3F21-76DB-45E7-98AF-CEB16822A591}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9AE0FCEA-A74C-419D-A727-09BB2396B7B5}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9AE0FCEA-A74C-419D-A727-09BB2396B7B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3551,10 +3712,10 @@
         <xdr:cNvPr id="139" name="Down Arrow 214">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD67421-8225-4712-8310-504663BB3119}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBD67421-8225-4712-8310-504663BB3119}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AF4B3F21-76DB-45E7-98AF-CEB16822A591}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AF4B3F21-76DB-45E7-98AF-CEB16822A591}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3713,10 +3874,10 @@
         <xdr:cNvPr id="138" name="Down Arrow 215">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE46FE35-6547-49BC-A103-2762D46D76B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE46FE35-6547-49BC-A103-2762D46D76B6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DBD67421-8225-4712-8310-504663BB3119}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{DBD67421-8225-4712-8310-504663BB3119}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3875,10 +4036,10 @@
         <xdr:cNvPr id="1228" name="TextBox 220">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE203AC-A86D-47D7-9A96-7D88A1E966EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DE203AC-A86D-47D7-9A96-7D88A1E966EE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CE46FE35-6547-49BC-A103-2762D46D76B6}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{CE46FE35-6547-49BC-A103-2762D46D76B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4006,10 +4167,10 @@
         <xdr:cNvPr id="1133" name="Rectangle 273">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA307E5-97E6-41DC-988F-C0AB012490C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BA307E5-97E6-41DC-988F-C0AB012490C4}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3DE203AC-A86D-47D7-9A96-7D88A1E966EE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3DE203AC-A86D-47D7-9A96-7D88A1E966EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4184,10 +4345,10 @@
         <xdr:cNvPr id="1136" name="Rectangle 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5518A716-AD23-4257-8FAF-D60E89CDD97E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5518A716-AD23-4257-8FAF-D60E89CDD97E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9BA307E5-97E6-41DC-988F-C0AB012490C4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9BA307E5-97E6-41DC-988F-C0AB012490C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4362,10 +4523,10 @@
         <xdr:cNvPr id="1137" name="Rectangle 275">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EEF4C43-1103-40BE-B4D4-731893538E82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5EEF4C43-1103-40BE-B4D4-731893538E82}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5518A716-AD23-4257-8FAF-D60E89CDD97E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5518A716-AD23-4257-8FAF-D60E89CDD97E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4540,10 +4701,10 @@
         <xdr:cNvPr id="245" name="Down Arrow 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC701BE5-C6A8-4E28-B4B0-F3DD8C2B7E94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC701BE5-C6A8-4E28-B4B0-F3DD8C2B7E94}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5EEF4C43-1103-40BE-B4D4-731893538E82}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5EEF4C43-1103-40BE-B4D4-731893538E82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4702,10 +4863,10 @@
         <xdr:cNvPr id="361" name="Down Arrow 277">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DCB1F1D-4C9B-43FF-AEFB-0E2CD4B1A31F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DCB1F1D-4C9B-43FF-AEFB-0E2CD4B1A31F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DC701BE5-C6A8-4E28-B4B0-F3DD8C2B7E94}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{DC701BE5-C6A8-4E28-B4B0-F3DD8C2B7E94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4864,10 +5025,10 @@
         <xdr:cNvPr id="246" name="Down Arrow 278">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49DF71C1-67A4-4DEC-AF07-A3BF0D3269B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49DF71C1-67A4-4DEC-AF07-A3BF0D3269B9}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1DCB1F1D-4C9B-43FF-AEFB-0E2CD4B1A31F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1DCB1F1D-4C9B-43FF-AEFB-0E2CD4B1A31F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5026,10 +5187,10 @@
         <xdr:cNvPr id="360" name="Down Arrow 279">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7944F78-9D09-49AA-9B20-6319D64E6DFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7944F78-9D09-49AA-9B20-6319D64E6DFA}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{49DF71C1-67A4-4DEC-AF07-A3BF0D3269B9}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{49DF71C1-67A4-4DEC-AF07-A3BF0D3269B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5188,10 +5349,10 @@
         <xdr:cNvPr id="241" name="Down Arrow 280">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87ED4DB-CF86-4C18-9936-14359FC66E97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E87ED4DB-CF86-4C18-9936-14359FC66E97}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C7944F78-9D09-49AA-9B20-6319D64E6DFA}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C7944F78-9D09-49AA-9B20-6319D64E6DFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5350,10 +5511,10 @@
         <xdr:cNvPr id="372" name="Down Arrow 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A951B151-E71F-4864-8B0A-5A829A42A288}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A951B151-E71F-4864-8B0A-5A829A42A288}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E87ED4DB-CF86-4C18-9936-14359FC66E97}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E87ED4DB-CF86-4C18-9936-14359FC66E97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5512,10 +5673,10 @@
         <xdr:cNvPr id="256" name="Down Arrow 282">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8961AD95-FE13-4181-8C1C-A6E53FC28BD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8961AD95-FE13-4181-8C1C-A6E53FC28BD9}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A951B151-E71F-4864-8B0A-5A829A42A288}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{A951B151-E71F-4864-8B0A-5A829A42A288}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5669,10 +5830,10 @@
         <xdr:cNvPr id="318" name="Down Arrow 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32790C4E-3467-4D3A-BEE7-2A65E1AC182C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32790C4E-3467-4D3A-BEE7-2A65E1AC182C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8961AD95-FE13-4181-8C1C-A6E53FC28BD9}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8961AD95-FE13-4181-8C1C-A6E53FC28BD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5829,10 +5990,10 @@
         <xdr:cNvPr id="253" name="Rectangle 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD4AAA0A-0289-4DE9-8770-9FDB1E619B08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD4AAA0A-0289-4DE9-8770-9FDB1E619B08}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{32790C4E-3467-4D3A-BEE7-2A65E1AC182C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{32790C4E-3467-4D3A-BEE7-2A65E1AC182C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5989,10 +6150,10 @@
         <xdr:cNvPr id="297" name="Rectangle 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3329D79F-040A-4FEA-BE73-943904AAC485}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3329D79F-040A-4FEA-BE73-943904AAC485}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BD4AAA0A-0289-4DE9-8770-9FDB1E619B08}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{BD4AAA0A-0289-4DE9-8770-9FDB1E619B08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6149,10 +6310,10 @@
         <xdr:cNvPr id="271" name="Rectangle 286">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403CE683-38DE-4DCB-BE11-F9C4939A584D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{403CE683-38DE-4DCB-BE11-F9C4939A584D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3329D79F-040A-4FEA-BE73-943904AAC485}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3329D79F-040A-4FEA-BE73-943904AAC485}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6309,10 +6470,10 @@
         <xdr:cNvPr id="298" name="Rectangle 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2113FB3B-1CCC-4652-802E-6B8926572D89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2113FB3B-1CCC-4652-802E-6B8926572D89}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{403CE683-38DE-4DCB-BE11-F9C4939A584D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{403CE683-38DE-4DCB-BE11-F9C4939A584D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6469,10 +6630,10 @@
         <xdr:cNvPr id="306" name="Rectangle 288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618A8534-98A7-44F0-844B-0F51021D399C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{618A8534-98A7-44F0-844B-0F51021D399C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2113FB3B-1CCC-4652-802E-6B8926572D89}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2113FB3B-1CCC-4652-802E-6B8926572D89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6629,10 +6790,10 @@
         <xdr:cNvPr id="1216" name="Down Arrow 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171CD929-3227-4DE2-B8B5-13622B8842F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{171CD929-3227-4DE2-B8B5-13622B8842F3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{618A8534-98A7-44F0-844B-0F51021D399C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{618A8534-98A7-44F0-844B-0F51021D399C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6789,10 +6950,10 @@
         <xdr:cNvPr id="340" name="Rectangle 292">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A4ADEC-DD4E-4A2A-90CF-DDAAF05C185E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3A4ADEC-DD4E-4A2A-90CF-DDAAF05C185E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{171CD929-3227-4DE2-B8B5-13622B8842F3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{171CD929-3227-4DE2-B8B5-13622B8842F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6967,10 +7128,10 @@
         <xdr:cNvPr id="341" name="Rectangle 293">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967B9C71-F9A1-41E9-82AA-BDB739D8D5B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{967B9C71-F9A1-41E9-82AA-BDB739D8D5B5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B3A4ADEC-DD4E-4A2A-90CF-DDAAF05C185E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B3A4ADEC-DD4E-4A2A-90CF-DDAAF05C185E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7145,10 +7306,10 @@
         <xdr:cNvPr id="375" name="Down Arrow 294">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF37AB6-A549-4E4D-9C0E-D7C114521D86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FF37AB6-A549-4E4D-9C0E-D7C114521D86}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{967B9C71-F9A1-41E9-82AA-BDB739D8D5B5}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{967B9C71-F9A1-41E9-82AA-BDB739D8D5B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7314,10 +7475,10 @@
         <xdr:cNvPr id="383" name="Down Arrow 295">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63D464B4-61A2-4E4A-AD22-3054637009E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63D464B4-61A2-4E4A-AD22-3054637009E0}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9FF37AB6-A549-4E4D-9C0E-D7C114521D86}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9FF37AB6-A549-4E4D-9C0E-D7C114521D86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7483,10 +7644,10 @@
         <xdr:cNvPr id="1280" name="Down Arrow 297">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61ECB4E9-87D7-4BF2-9C8E-5E63ED45325C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61ECB4E9-87D7-4BF2-9C8E-5E63ED45325C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{63D464B4-61A2-4E4A-AD22-3054637009E0}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{63D464B4-61A2-4E4A-AD22-3054637009E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7652,10 +7813,10 @@
         <xdr:cNvPr id="1287" name="Down Arrow 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A652CE0-C848-4051-9E5A-D4125EC5C9D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A652CE0-C848-4051-9E5A-D4125EC5C9D3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{61ECB4E9-87D7-4BF2-9C8E-5E63ED45325C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{61ECB4E9-87D7-4BF2-9C8E-5E63ED45325C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7821,10 +7982,10 @@
         <xdr:cNvPr id="382" name="Rectangle 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C53997-DE9A-44D6-B177-48CE52BFFDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9C53997-DE9A-44D6-B177-48CE52BFFDAE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9A652CE0-C848-4051-9E5A-D4125EC5C9D3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9A652CE0-C848-4051-9E5A-D4125EC5C9D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7999,10 +8160,10 @@
         <xdr:cNvPr id="1284" name="Down Arrow 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4EA3C2-A3ED-4FEB-861C-7C124B5E9492}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF4EA3C2-A3ED-4FEB-861C-7C124B5E9492}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E9C53997-DE9A-44D6-B177-48CE52BFFDAE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E9C53997-DE9A-44D6-B177-48CE52BFFDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8168,7 +8329,7 @@
         <xdr:cNvPr id="1030" name="Rounded Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33DDE61-C7E7-4079-B033-6F69C9672B02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F33DDE61-C7E7-4079-B033-6F69C9672B02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8242,10 +8403,10 @@
         <xdr:cNvPr id="350" name="Rounded Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20CB432-2B6F-438F-A148-0A4547B3C1EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E20CB432-2B6F-438F-A148-0A4547B3C1EF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F33DDE61-C7E7-4079-B033-6F69C9672B02}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F33DDE61-C7E7-4079-B033-6F69C9672B02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8413,10 +8574,10 @@
         <xdr:cNvPr id="1095" name="Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F381F636-FA08-4341-BEBF-4D33A96F1C5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F381F636-FA08-4341-BEBF-4D33A96F1C5D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E20CB432-2B6F-438F-A148-0A4547B3C1EF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E20CB432-2B6F-438F-A148-0A4547B3C1EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8508,10 +8669,10 @@
         <xdr:cNvPr id="1019" name="Rectangle 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9361E35B-454F-45D1-BC16-2FE19685B42B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9361E35B-454F-45D1-BC16-2FE19685B42B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F381F636-FA08-4341-BEBF-4D33A96F1C5D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F381F636-FA08-4341-BEBF-4D33A96F1C5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8592,10 +8753,10 @@
         <xdr:cNvPr id="1098" name="Rectangle 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600B294B-7117-4BBB-A662-8EF9FF14B071}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{600B294B-7117-4BBB-A662-8EF9FF14B071}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9361E35B-454F-45D1-BC16-2FE19685B42B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9361E35B-454F-45D1-BC16-2FE19685B42B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8687,10 +8848,10 @@
         <xdr:cNvPr id="1097" name="Rectangle 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADC36B3-9077-4970-A505-D67DF64AB68E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5ADC36B3-9077-4970-A505-D67DF64AB68E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{600B294B-7117-4BBB-A662-8EF9FF14B071}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{600B294B-7117-4BBB-A662-8EF9FF14B071}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8878,10 +9039,10 @@
         <xdr:cNvPr id="1099" name="Rectangle 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5ADC36B3-9077-4970-A505-D67DF64AB68E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5ADC36B3-9077-4970-A505-D67DF64AB68E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8975,10 +9136,10 @@
         <xdr:cNvPr id="967" name="Rectangle 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9072,10 +9233,10 @@
         <xdr:cNvPr id="971" name="Rectangle 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE1959D-8998-48A0-B9F0-DDF44D984D94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ADE1959D-8998-48A0-B9F0-DDF44D984D94}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9169,10 +9330,10 @@
         <xdr:cNvPr id="1104" name="Straight Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C74B14D1-A74B-4F90-8FCB-8DCEC1A60560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C74B14D1-A74B-4F90-8FCB-8DCEC1A60560}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{ADE1959D-8998-48A0-B9F0-DDF44D984D94}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{ADE1959D-8998-48A0-B9F0-DDF44D984D94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9182,7 +9343,7 @@
           <a:endCxn id="1098" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{F381F636-FA08-4341-BEBF-4D33A96F1C5D}" end="{600B294B-7117-4BBB-A662-8EF9FF14B071}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{F381F636-FA08-4341-BEBF-4D33A96F1C5D}" end="{600B294B-7117-4BBB-A662-8EF9FF14B071}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9234,10 +9395,10 @@
         <xdr:cNvPr id="1102" name="Straight Connector 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEAC2BD-5F6D-4E06-A3BA-A0F204C695A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BEAC2BD-5F6D-4E06-A3BA-A0F204C695A4}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C74B14D1-A74B-4F90-8FCB-8DCEC1A60560}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C74B14D1-A74B-4F90-8FCB-8DCEC1A60560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9247,7 +9408,7 @@
           <a:endCxn id="1097" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{600B294B-7117-4BBB-A662-8EF9FF14B071}" end="{5ADC36B3-9077-4970-A505-D67DF64AB68E}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{600B294B-7117-4BBB-A662-8EF9FF14B071}" end="{5ADC36B3-9077-4970-A505-D67DF64AB68E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9299,10 +9460,10 @@
         <xdr:cNvPr id="1138" name="Rectangle 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F067FC5-4B5D-F712-8F85-AA8FA646BA6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F067FC5-4B5D-F712-8F85-AA8FA646BA6A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5BEAC2BD-5F6D-4E06-A3BA-A0F204C695A4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5BEAC2BD-5F6D-4E06-A3BA-A0F204C695A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9385,10 +9546,10 @@
         <xdr:cNvPr id="1100" name="Straight Connector 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF945760-37A6-40F2-8727-82E4624EED85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF945760-37A6-40F2-8727-82E4624EED85}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5F067FC5-4B5D-F712-8F85-AA8FA646BA6A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5F067FC5-4B5D-F712-8F85-AA8FA646BA6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9398,7 +9559,7 @@
           <a:endCxn id="1099" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{5ADC36B3-9077-4970-A505-D67DF64AB68E}" end="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{5ADC36B3-9077-4970-A505-D67DF64AB68E}" end="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9450,10 +9611,10 @@
         <xdr:cNvPr id="530" name="Rectangle 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B48C053-83AC-4EDD-AD25-53781C7027DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B48C053-83AC-4EDD-AD25-53781C7027DD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D83BA665-4A7C-42D9-ACDE-02BE1B2D4CD7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D83BA665-4A7C-42D9-ACDE-02BE1B2D4CD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9629,10 +9790,10 @@
         <xdr:cNvPr id="1141" name="Rectangle 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2B48C053-83AC-4EDD-AD25-53781C7027DD}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2B48C053-83AC-4EDD-AD25-53781C7027DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9715,10 +9876,10 @@
         <xdr:cNvPr id="533" name="Rectangle 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B437DD1-4A72-4478-80E2-92BE7FA74507}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B437DD1-4A72-4478-80E2-92BE7FA74507}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9894,10 +10055,10 @@
         <xdr:cNvPr id="346" name="Rectangle 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED92323-E0A7-42C1-BE19-87157791FD6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AED92323-E0A7-42C1-BE19-87157791FD6A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3B437DD1-4A72-4478-80E2-92BE7FA74507}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3B437DD1-4A72-4478-80E2-92BE7FA74507}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10072,10 +10233,10 @@
         <xdr:cNvPr id="513" name="Rectangle 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98C757A-4218-4B08-82B2-1D6BC9EABFCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B98C757A-4218-4B08-82B2-1D6BC9EABFCE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AED92323-E0A7-42C1-BE19-87157791FD6A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AED92323-E0A7-42C1-BE19-87157791FD6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10250,10 +10411,10 @@
         <xdr:cNvPr id="1101" name="Straight Connector 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F49A7D-72BC-47C8-B96B-7CE6C7D87807}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27F49A7D-72BC-47C8-B96B-7CE6C7D87807}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B98C757A-4218-4B08-82B2-1D6BC9EABFCE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B98C757A-4218-4B08-82B2-1D6BC9EABFCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10262,7 +10423,7 @@
           <a:stCxn id="1099" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}" end="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}" end="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -10314,10 +10475,10 @@
         <xdr:cNvPr id="1140" name="Rectangle 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCBDFE0-8CBC-ACA4-541E-DEFD95987543}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BCBDFE0-8CBC-ACA4-541E-DEFD95987543}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{27F49A7D-72BC-47C8-B96B-7CE6C7D87807}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{27F49A7D-72BC-47C8-B96B-7CE6C7D87807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10400,10 +10561,10 @@
         <xdr:cNvPr id="972" name="Straight Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BEDC8E2-E55E-4445-98FF-8A42CE43A77A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BEDC8E2-E55E-4445-98FF-8A42CE43A77A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5BCBDFE0-8CBC-ACA4-541E-DEFD95987543}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5BCBDFE0-8CBC-ACA4-541E-DEFD95987543}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10413,7 +10574,7 @@
           <a:endCxn id="971" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}" end="{ADE1959D-8998-48A0-B9F0-DDF44D984D94}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}" end="{ADE1959D-8998-48A0-B9F0-DDF44D984D94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -10465,10 +10626,10 @@
         <xdr:cNvPr id="1046" name="Rectangle 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BAD808-69FD-417D-8D6E-72722A28E5BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78BAD808-69FD-417D-8D6E-72722A28E5BD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8BEDC8E2-E55E-4445-98FF-8A42CE43A77A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8BEDC8E2-E55E-4445-98FF-8A42CE43A77A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10651,10 +10812,10 @@
         <xdr:cNvPr id="1045" name="Rectangle 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{78BAD808-69FD-417D-8D6E-72722A28E5BD}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{78BAD808-69FD-417D-8D6E-72722A28E5BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10837,10 +10998,10 @@
         <xdr:cNvPr id="1048" name="Rectangle 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A6DC14-7C43-4C56-938A-54B3D77B6351}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8A6DC14-7C43-4C56-938A-54B3D77B6351}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11023,10 +11184,10 @@
         <xdr:cNvPr id="1139" name="Rectangle 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1661596-6A49-25E3-4BBE-FC28C16D30C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1661596-6A49-25E3-4BBE-FC28C16D30C0}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C8A6DC14-7C43-4C56-938A-54B3D77B6351}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C8A6DC14-7C43-4C56-938A-54B3D77B6351}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11109,10 +11270,10 @@
         <xdr:cNvPr id="1049" name="Rectangle 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7443FD-FF6C-45B2-AD85-A7DA2F977555}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C7443FD-FF6C-45B2-AD85-A7DA2F977555}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F1661596-6A49-25E3-4BBE-FC28C16D30C0}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F1661596-6A49-25E3-4BBE-FC28C16D30C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11295,10 +11456,10 @@
         <xdr:cNvPr id="1047" name="Rectangle 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EDC5171-7437-441C-A2CF-A5AC2EAFFC5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EDC5171-7437-441C-A2CF-A5AC2EAFFC5E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6C7443FD-FF6C-45B2-AD85-A7DA2F977555}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{6C7443FD-FF6C-45B2-AD85-A7DA2F977555}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11481,10 +11642,10 @@
         <xdr:cNvPr id="1142" name="Rectangle 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB918F3-260C-403D-31CC-F6F6E5AC5EAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DB918F3-260C-403D-31CC-F6F6E5AC5EAD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3EDC5171-7437-441C-A2CF-A5AC2EAFFC5E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3EDC5171-7437-441C-A2CF-A5AC2EAFFC5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11585,10 +11746,10 @@
         <xdr:cNvPr id="561" name="Rectangle 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E93EDFC-E9F6-4718-8534-665AD30D494A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E93EDFC-E9F6-4718-8534-665AD30D494A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5DB918F3-260C-403D-31CC-F6F6E5AC5EAD}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5DB918F3-260C-403D-31CC-F6F6E5AC5EAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11763,10 +11924,10 @@
         <xdr:cNvPr id="1023" name="Rectangle 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917C7D1D-2CD5-41A9-8A3D-9F62EA3898A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{917C7D1D-2CD5-41A9-8A3D-9F62EA3898A2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8E93EDFC-E9F6-4718-8534-665AD30D494A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8E93EDFC-E9F6-4718-8534-665AD30D494A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11941,10 +12102,10 @@
         <xdr:cNvPr id="1052" name="Straight Connector 173">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96206F8-7439-4BC9-8BCD-37420C883A41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E96206F8-7439-4BC9-8BCD-37420C883A41}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{917C7D1D-2CD5-41A9-8A3D-9F62EA3898A2}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{917C7D1D-2CD5-41A9-8A3D-9F62EA3898A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11953,7 +12114,7 @@
           <a:endCxn id="1045" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -12005,10 +12166,10 @@
         <xdr:cNvPr id="1143" name="Rectangle 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4262C60-6092-89D5-CEE1-3551C91F9437}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4262C60-6092-89D5-CEE1-3551C91F9437}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E96206F8-7439-4BC9-8BCD-37420C883A41}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E96206F8-7439-4BC9-8BCD-37420C883A41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12091,10 +12252,10 @@
         <xdr:cNvPr id="534" name="Rectangle 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A317E57-35D0-46C4-AD4E-5C3AB89879C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A317E57-35D0-46C4-AD4E-5C3AB89879C7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E4262C60-6092-89D5-CEE1-3551C91F9437}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E4262C60-6092-89D5-CEE1-3551C91F9437}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12270,10 +12431,10 @@
         <xdr:cNvPr id="1050" name="Straight Connector 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C21EB24-B984-4971-AE7E-A07B727FC2CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C21EB24-B984-4971-AE7E-A07B727FC2CB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B4B55678-C655-C05B-0919-810B5FFFFAB7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B4B55678-C655-C05B-0919-810B5FFFFAB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12281,7 +12442,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -12333,10 +12494,10 @@
         <xdr:cNvPr id="1051" name="Straight Connector 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03DFF60-6C45-4194-A557-057DD53F8357}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C03DFF60-6C45-4194-A557-057DD53F8357}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2C21EB24-B984-4971-AE7E-A07B727FC2CB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2C21EB24-B984-4971-AE7E-A07B727FC2CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12345,7 +12506,7 @@
           <a:endCxn id="1049" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{6C7443FD-FF6C-45B2-AD85-A7DA2F977555}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{6C7443FD-FF6C-45B2-AD85-A7DA2F977555}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -12397,10 +12558,10 @@
         <xdr:cNvPr id="535" name="Rectangle 256">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10DE804B-D3EF-4690-B735-F91CB04A3B8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10DE804B-D3EF-4690-B735-F91CB04A3B8B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C03DFF60-6C45-4194-A557-057DD53F8357}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C03DFF60-6C45-4194-A557-057DD53F8357}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12576,10 +12737,10 @@
         <xdr:cNvPr id="1165" name="Rectangle 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA531F5-B375-494E-AA0F-A596B9CCF7F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBA531F5-B375-494E-AA0F-A596B9CCF7F6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{10DE804B-D3EF-4690-B735-F91CB04A3B8B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{10DE804B-D3EF-4690-B735-F91CB04A3B8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12755,10 +12916,10 @@
         <xdr:cNvPr id="1149" name="Rectangle 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DBA531F5-B375-494E-AA0F-A596B9CCF7F6}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{DBA531F5-B375-494E-AA0F-A596B9CCF7F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12934,10 +13095,10 @@
         <xdr:cNvPr id="1168" name="Rectangle 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9A3853-6780-4014-AFE1-1C2807BA9E37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9A3853-6780-4014-AFE1-1C2807BA9E37}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13127,10 +13288,10 @@
         <xdr:cNvPr id="1150" name="Rectangle 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E81C20-7303-4462-9EDF-A13262235900}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98E81C20-7303-4462-9EDF-A13262235900}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9C9A3853-6780-4014-AFE1-1C2807BA9E37}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9C9A3853-6780-4014-AFE1-1C2807BA9E37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13306,10 +13467,10 @@
         <xdr:cNvPr id="538" name="Rectangle 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57D2E9D-C30E-42C8-BDAA-4239AC01F3A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B57D2E9D-C30E-42C8-BDAA-4239AC01F3A3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{98E81C20-7303-4462-9EDF-A13262235900}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{98E81C20-7303-4462-9EDF-A13262235900}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13485,10 +13646,10 @@
         <xdr:cNvPr id="1215" name="Rectangle 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9A0992-0FED-4B26-823B-6784B802045F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D9A0992-0FED-4B26-823B-6784B802045F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B57D2E9D-C30E-42C8-BDAA-4239AC01F3A3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B57D2E9D-C30E-42C8-BDAA-4239AC01F3A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13664,10 +13825,10 @@
         <xdr:cNvPr id="1053" name="Straight Connector 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6647D58C-49BA-4197-85E8-8CA8F0BE1AC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6647D58C-49BA-4197-85E8-8CA8F0BE1AC0}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3D9A0992-0FED-4B26-823B-6784B802045F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3D9A0992-0FED-4B26-823B-6784B802045F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13675,7 +13836,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -13727,10 +13888,10 @@
         <xdr:cNvPr id="1058" name="Straight Connector 318">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B9AFB5D-4BF1-4C83-B890-14643CBCDF97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B9AFB5D-4BF1-4C83-B890-14643CBCDF97}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{357C8DBA-76B1-D046-DE88-2A1FBB3373AF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{357C8DBA-76B1-D046-DE88-2A1FBB3373AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13739,7 +13900,7 @@
           <a:endCxn id="1054" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{E9B87A2D-12B7-4A81-8CD5-E39E763C05FB}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{E9B87A2D-12B7-4A81-8CD5-E39E763C05FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -13791,10 +13952,10 @@
         <xdr:cNvPr id="1197" name="Straight Connector 369">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E024EA03-6E50-4DD6-A9C5-C75D681B7311}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E024EA03-6E50-4DD6-A9C5-C75D681B7311}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0B9AFB5D-4BF1-4C83-B890-14643CBCDF97}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0B9AFB5D-4BF1-4C83-B890-14643CBCDF97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13803,7 +13964,7 @@
           <a:endCxn id="1149" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -13860,10 +14021,10 @@
         <xdr:cNvPr id="1210" name="Straight Connector 370">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D5D7E1-43A7-4CEE-A94B-55E9481931CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6D5D7E1-43A7-4CEE-A94B-55E9481931CF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E024EA03-6E50-4DD6-A9C5-C75D681B7311}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E024EA03-6E50-4DD6-A9C5-C75D681B7311}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13872,7 +14033,7 @@
           <a:stCxn id="1150" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{98E81C20-7303-4462-9EDF-A13262235900}" end="{00000000-0000-0000-0000-000000000000}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{98E81C20-7303-4462-9EDF-A13262235900}" end="{00000000-0000-0000-0000-000000000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -13929,10 +14090,10 @@
         <xdr:cNvPr id="1056" name="Rectangle 325">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7683EEA-E9A2-485D-8D4C-D15747FD996E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7683EEA-E9A2-485D-8D4C-D15747FD996E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E6D5D7E1-43A7-4CEE-A94B-55E9481931CF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E6D5D7E1-43A7-4CEE-A94B-55E9481931CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14115,10 +14276,10 @@
         <xdr:cNvPr id="1059" name="Straight Connector 350">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D622045D-E7CC-4F8C-9013-ED75E7E8C308}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D622045D-E7CC-4F8C-9013-ED75E7E8C308}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F7449D9E-5A85-470D-9EF9-5DF95B326A0F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F7449D9E-5A85-470D-9EF9-5DF95B326A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14126,7 +14287,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -14178,10 +14339,10 @@
         <xdr:cNvPr id="3" name="Rectangle 337">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FFFD2B-CA95-4830-8794-A273E8E9E6E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83FFFD2B-CA95-4830-8794-A273E8E9E6E2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D622045D-E7CC-4F8C-9013-ED75E7E8C308}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D622045D-E7CC-4F8C-9013-ED75E7E8C308}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14356,10 +14517,10 @@
         <xdr:cNvPr id="1060" name="Straight Connector 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9078CDF5-7C23-4E8E-81EF-E1EEC1C0D2E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9078CDF5-7C23-4E8E-81EF-E1EEC1C0D2E0}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{83FFFD2B-CA95-4830-8794-A273E8E9E6E2}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{83FFFD2B-CA95-4830-8794-A273E8E9E6E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14367,7 +14528,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -14419,10 +14580,10 @@
         <xdr:cNvPr id="1055" name="Rectangle 360">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7165109D-9F37-4A76-82D6-6DBD9D6E3948}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7165109D-9F37-4A76-82D6-6DBD9D6E3948}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9078CDF5-7C23-4E8E-81EF-E1EEC1C0D2E0}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9078CDF5-7C23-4E8E-81EF-E1EEC1C0D2E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14605,10 +14766,10 @@
         <xdr:cNvPr id="1054" name="Rectangle 366">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B87A2D-12B7-4A81-8CD5-E39E763C05FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9B87A2D-12B7-4A81-8CD5-E39E763C05FB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7165109D-9F37-4A76-82D6-6DBD9D6E3948}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{7165109D-9F37-4A76-82D6-6DBD9D6E3948}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14791,10 +14952,10 @@
         <xdr:cNvPr id="1057" name="Rectangle 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A42B10-AFDA-4831-A11A-449C48F09C11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2A42B10-AFDA-4831-A11A-449C48F09C11}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E9B87A2D-12B7-4A81-8CD5-E39E763C05FB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E9B87A2D-12B7-4A81-8CD5-E39E763C05FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14977,10 +15138,10 @@
         <xdr:cNvPr id="1196" name="Straight Connector 419">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19EB784E-97E0-46F5-8A30-FAB65D1CD625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19EB784E-97E0-46F5-8A30-FAB65D1CD625}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E2A42B10-AFDA-4831-A11A-449C48F09C11}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E2A42B10-AFDA-4831-A11A-449C48F09C11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14989,7 +15150,7 @@
           <a:stCxn id="1149" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{ECA95649-CBAF-43E1-8321-EB130E00578B}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{ECA95649-CBAF-43E1-8321-EB130E00578B}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -15046,10 +15207,10 @@
         <xdr:cNvPr id="1044" name="Rectangle 378">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CC5172-5894-41B1-B868-94A3433DEDB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0CC5172-5894-41B1-B868-94A3433DEDB9}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{19EB784E-97E0-46F5-8A30-FAB65D1CD625}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{19EB784E-97E0-46F5-8A30-FAB65D1CD625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15224,10 +15385,10 @@
         <xdr:cNvPr id="1193" name="Straight Connector 427">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4658E29-244B-4163-950B-205154DB023D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4658E29-244B-4163-950B-205154DB023D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C0CC5172-5894-41B1-B868-94A3433DEDB9}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C0CC5172-5894-41B1-B868-94A3433DEDB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15236,7 +15397,7 @@
           <a:stCxn id="1168" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9C9A3853-6780-4014-AFE1-1C2807BA9E37}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{9C9A3853-6780-4014-AFE1-1C2807BA9E37}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -15293,10 +15454,10 @@
         <xdr:cNvPr id="1167" name="Rectangle 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6C0B01-13C6-4F73-BDD3-73CEE581B9EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F6C0B01-13C6-4F73-BDD3-73CEE581B9EE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8A1C256B-462A-4924-A861-82C6043E2363}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8A1C256B-462A-4924-A861-82C6043E2363}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15472,10 +15633,10 @@
         <xdr:cNvPr id="1162" name="Rectangle 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1F6C0B01-13C6-4F73-BDD3-73CEE581B9EE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1F6C0B01-13C6-4F73-BDD3-73CEE581B9EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15651,10 +15812,10 @@
         <xdr:cNvPr id="1151" name="Rectangle 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9734724-9F8B-4FCC-B3AC-156CE761E14B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9734724-9F8B-4FCC-B3AC-156CE761E14B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15844,10 +16005,10 @@
         <xdr:cNvPr id="1171" name="Rectangle 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3FA4CF-57DF-4CAC-870F-2ACB06FF39FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA3FA4CF-57DF-4CAC-870F-2ACB06FF39FE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B9734724-9F8B-4FCC-B3AC-156CE761E14B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B9734724-9F8B-4FCC-B3AC-156CE761E14B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16023,10 +16184,10 @@
         <xdr:cNvPr id="1217" name="Rectangle 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C18CCC5-6456-42FB-94F4-241FCD3A50A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C18CCC5-6456-42FB-94F4-241FCD3A50A5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AA3FA4CF-57DF-4CAC-870F-2ACB06FF39FE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AA3FA4CF-57DF-4CAC-870F-2ACB06FF39FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16202,10 +16363,10 @@
         <xdr:cNvPr id="1202" name="Straight Connector 369">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547D1F48-A63A-44BF-AEBB-4BDABC7182F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{547D1F48-A63A-44BF-AEBB-4BDABC7182F5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{881AF886-0FA1-42FB-8D59-8228F6891627}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{881AF886-0FA1-42FB-8D59-8228F6891627}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16214,7 +16375,7 @@
           <a:endCxn id="1162" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -16271,10 +16432,10 @@
         <xdr:cNvPr id="1203" name="Straight Connector 370">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C46A1A-9D23-4BE4-B09D-EA42C461733A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44C46A1A-9D23-4BE4-B09D-EA42C461733A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{547D1F48-A63A-44BF-AEBB-4BDABC7182F5}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{547D1F48-A63A-44BF-AEBB-4BDABC7182F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16283,7 +16444,7 @@
           <a:stCxn id="1171" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{AA3FA4CF-57DF-4CAC-870F-2ACB06FF39FE}" end="{00000000-0000-0000-0000-000000000000}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{AA3FA4CF-57DF-4CAC-870F-2ACB06FF39FE}" end="{00000000-0000-0000-0000-000000000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -16340,10 +16501,10 @@
         <xdr:cNvPr id="1200" name="Straight Connector 419">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A72250C-19DC-4234-8F8D-CCDB7B3493C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A72250C-19DC-4234-8F8D-CCDB7B3493C2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1E276541-5E3F-4E09-B23A-7E09B36E30F1}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1E276541-5E3F-4E09-B23A-7E09B36E30F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16352,7 +16513,7 @@
           <a:stCxn id="1162" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -16409,10 +16570,10 @@
         <xdr:cNvPr id="1189" name="Straight Connector 427">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42AF609F-737F-4FA6-B187-D78E2004E9A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42AF609F-737F-4FA6-B187-D78E2004E9A9}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A72250C-19DC-4234-8F8D-CCDB7B3493C2}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5A72250C-19DC-4234-8F8D-CCDB7B3493C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16421,7 +16582,7 @@
           <a:stCxn id="1151" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B9734724-9F8B-4FCC-B3AC-156CE761E14B}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{B9734724-9F8B-4FCC-B3AC-156CE761E14B}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -16478,10 +16639,10 @@
         <xdr:cNvPr id="1169" name="Rectangle 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EADE90C-609E-46C6-A492-6B399304C992}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EADE90C-609E-46C6-A492-6B399304C992}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{59471B16-99B0-41B1-A977-415592FDBA27}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{59471B16-99B0-41B1-A977-415592FDBA27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16657,10 +16818,10 @@
         <xdr:cNvPr id="1177" name="Rectangle 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2EADE90C-609E-46C6-A492-6B399304C992}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2EADE90C-609E-46C6-A492-6B399304C992}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16836,10 +16997,10 @@
         <xdr:cNvPr id="1155" name="Rectangle 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104F9262-AC05-4546-89D9-FFE1EA88727E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{104F9262-AC05-4546-89D9-FFE1EA88727E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17029,10 +17190,10 @@
         <xdr:cNvPr id="1180" name="Rectangle 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65BBA05-9BE2-48F8-B1A6-A72A2CBF33A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D65BBA05-9BE2-48F8-B1A6-A72A2CBF33A0}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{104F9262-AC05-4546-89D9-FFE1EA88727E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{104F9262-AC05-4546-89D9-FFE1EA88727E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17208,10 +17369,10 @@
         <xdr:cNvPr id="1218" name="Rectangle 286">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16835D16-EC76-4943-B470-E490F79118DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16835D16-EC76-4943-B470-E490F79118DD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D65BBA05-9BE2-48F8-B1A6-A72A2CBF33A0}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D65BBA05-9BE2-48F8-B1A6-A72A2CBF33A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17387,10 +17548,10 @@
         <xdr:cNvPr id="1190" name="Straight Connector 369">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9F940C-AA8F-40DC-9E49-376FB34CDDAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB9F940C-AA8F-40DC-9E49-376FB34CDDAB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{392A0066-DE6D-4A7C-96BB-C0C7DC7A91F3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{392A0066-DE6D-4A7C-96BB-C0C7DC7A91F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17399,7 +17560,7 @@
           <a:endCxn id="1177" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -17456,10 +17617,10 @@
         <xdr:cNvPr id="1211" name="Straight Connector 370">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C7D2F4-AAAD-4CA2-89F1-B00026A19CC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16C7D2F4-AAAD-4CA2-89F1-B00026A19CC6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FB9F940C-AA8F-40DC-9E49-376FB34CDDAB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{FB9F940C-AA8F-40DC-9E49-376FB34CDDAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17468,7 +17629,7 @@
           <a:stCxn id="1180" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{D65BBA05-9BE2-48F8-B1A6-A72A2CBF33A0}" end="{00000000-0000-0000-0000-000000000000}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{D65BBA05-9BE2-48F8-B1A6-A72A2CBF33A0}" end="{00000000-0000-0000-0000-000000000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -17525,10 +17686,10 @@
         <xdr:cNvPr id="1209" name="Straight Connector 419">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23770963-AA0C-42C9-B90C-2EE991F33AC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23770963-AA0C-42C9-B90C-2EE991F33AC3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{82205002-6704-4D9F-A290-3463594F271B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{82205002-6704-4D9F-A290-3463594F271B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17537,7 +17698,7 @@
           <a:stCxn id="1177" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -17594,10 +17755,10 @@
         <xdr:cNvPr id="1205" name="Straight Connector 427">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E7A5F1E-44F6-4C29-92F7-322CFC623788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E7A5F1E-44F6-4C29-92F7-322CFC623788}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{23770963-AA0C-42C9-B90C-2EE991F33AC3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{23770963-AA0C-42C9-B90C-2EE991F33AC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17606,7 +17767,7 @@
           <a:stCxn id="1155" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{104F9262-AC05-4546-89D9-FFE1EA88727E}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{104F9262-AC05-4546-89D9-FFE1EA88727E}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -17663,10 +17824,10 @@
         <xdr:cNvPr id="1172" name="Rectangle 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BDD67F9-8731-4416-8637-9CEB1391FE92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BDD67F9-8731-4416-8637-9CEB1391FE92}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F1F1FC65-9469-4A40-AB0E-6E233ECF8FB7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F1F1FC65-9469-4A40-AB0E-6E233ECF8FB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17842,10 +18003,10 @@
         <xdr:cNvPr id="1161" name="Rectangle 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6BDD67F9-8731-4416-8637-9CEB1391FE92}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{6BDD67F9-8731-4416-8637-9CEB1391FE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18021,10 +18182,10 @@
         <xdr:cNvPr id="1153" name="Rectangle 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CFA0EC-1A83-475F-904B-01B03EAE7C87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4CFA0EC-1A83-475F-904B-01B03EAE7C87}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18214,10 +18375,10 @@
         <xdr:cNvPr id="1156" name="Rectangle 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CB16B3-B489-448D-8572-B43E88C10DCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1CB16B3-B489-448D-8572-B43E88C10DCC}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C4CFA0EC-1A83-475F-904B-01B03EAE7C87}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C4CFA0EC-1A83-475F-904B-01B03EAE7C87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18393,10 +18554,10 @@
         <xdr:cNvPr id="1221" name="Rectangle 286">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF25A41-9CF8-4191-9230-974B59C8A7B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DF25A41-9CF8-4191-9230-974B59C8A7B6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D1CB16B3-B489-448D-8572-B43E88C10DCC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D1CB16B3-B489-448D-8572-B43E88C10DCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18572,10 +18733,10 @@
         <xdr:cNvPr id="1194" name="Straight Connector 369">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A192E5B-A33E-4BA6-98E0-0024D72FC381}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A192E5B-A33E-4BA6-98E0-0024D72FC381}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B274B20B-64A2-48B8-B614-9F423171E895}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B274B20B-64A2-48B8-B614-9F423171E895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18584,7 +18745,7 @@
           <a:endCxn id="1161" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -18641,10 +18802,10 @@
         <xdr:cNvPr id="1199" name="Straight Connector 370">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CFCAFE-0643-4C66-B8FB-EA1C727E571C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0CFCAFE-0643-4C66-B8FB-EA1C727E571C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6A192E5B-A33E-4BA6-98E0-0024D72FC381}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{6A192E5B-A33E-4BA6-98E0-0024D72FC381}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18653,7 +18814,7 @@
           <a:stCxn id="1156" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{D1CB16B3-B489-448D-8572-B43E88C10DCC}" end="{00000000-0000-0000-0000-000000000000}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{D1CB16B3-B489-448D-8572-B43E88C10DCC}" end="{00000000-0000-0000-0000-000000000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -18710,10 +18871,10 @@
         <xdr:cNvPr id="1201" name="Straight Connector 419">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049A105B-D031-4727-A436-C3BF5DA487DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{049A105B-D031-4727-A436-C3BF5DA487DC}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8DCC8CFF-E5B6-46F3-B64E-BF3E871705E6}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8DCC8CFF-E5B6-46F3-B64E-BF3E871705E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18722,7 +18883,7 @@
           <a:stCxn id="1161" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -18779,10 +18940,10 @@
         <xdr:cNvPr id="1204" name="Straight Connector 427">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D464C2DE-4DC2-450B-A3DF-AD915AFF9F44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D464C2DE-4DC2-450B-A3DF-AD915AFF9F44}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{049A105B-D031-4727-A436-C3BF5DA487DC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{049A105B-D031-4727-A436-C3BF5DA487DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18791,7 +18952,7 @@
           <a:stCxn id="1153" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{C4CFA0EC-1A83-475F-904B-01B03EAE7C87}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{C4CFA0EC-1A83-475F-904B-01B03EAE7C87}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -18848,10 +19009,10 @@
         <xdr:cNvPr id="1181" name="Rectangle 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA0F980-3783-4716-A9A7-CF15F43FBF6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BA0F980-3783-4716-A9A7-CF15F43FBF6C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2DBC081F-592B-46DD-B11B-205B000818B4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2DBC081F-592B-46DD-B11B-205B000818B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19027,10 +19188,10 @@
         <xdr:cNvPr id="1183" name="Rectangle 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D3BCBC-87D9-4370-BBE1-54013878CE30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06D3BCBC-87D9-4370-BBE1-54013878CE30}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6BA0F980-3783-4716-A9A7-CF15F43FBF6C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{6BA0F980-3783-4716-A9A7-CF15F43FBF6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19206,10 +19367,10 @@
         <xdr:cNvPr id="1174" name="Rectangle 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC5FBF0B-3979-48D1-826D-DE2EC3B62613}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC5FBF0B-3979-48D1-826D-DE2EC3B62613}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{06D3BCBC-87D9-4370-BBE1-54013878CE30}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{06D3BCBC-87D9-4370-BBE1-54013878CE30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19399,10 +19560,10 @@
         <xdr:cNvPr id="1176" name="Rectangle 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E5BCEE-1F6F-4E26-A746-3043E09A55E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82E5BCEE-1F6F-4E26-A746-3043E09A55E5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AC5FBF0B-3979-48D1-826D-DE2EC3B62613}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AC5FBF0B-3979-48D1-826D-DE2EC3B62613}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19578,10 +19739,10 @@
         <xdr:cNvPr id="1223" name="Rectangle 286">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6DE949E-0989-47D0-B38B-069F792E664F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6DE949E-0989-47D0-B38B-069F792E664F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{82E5BCEE-1F6F-4E26-A746-3043E09A55E5}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{82E5BCEE-1F6F-4E26-A746-3043E09A55E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19757,10 +19918,10 @@
         <xdr:cNvPr id="1208" name="Straight Connector 369">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728E3533-00C5-4455-8D40-C8C1D6E336DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{728E3533-00C5-4455-8D40-C8C1D6E336DF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E674544E-387B-4847-A8BD-48C78C0F7CAF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E674544E-387B-4847-A8BD-48C78C0F7CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19769,7 +19930,7 @@
           <a:endCxn id="1183" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{06D3BCBC-87D9-4370-BBE1-54013878CE30}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{06D3BCBC-87D9-4370-BBE1-54013878CE30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -19826,10 +19987,10 @@
         <xdr:cNvPr id="1187" name="Straight Connector 370">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4DA616-7DAC-416E-8127-1A188D8FE8BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB4DA616-7DAC-416E-8127-1A188D8FE8BE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{728E3533-00C5-4455-8D40-C8C1D6E336DF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{728E3533-00C5-4455-8D40-C8C1D6E336DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19838,7 +19999,7 @@
           <a:stCxn id="1176" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{82E5BCEE-1F6F-4E26-A746-3043E09A55E5}" end="{00000000-0000-0000-0000-000000000000}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{82E5BCEE-1F6F-4E26-A746-3043E09A55E5}" end="{00000000-0000-0000-0000-000000000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -19895,10 +20056,10 @@
         <xdr:cNvPr id="1192" name="Straight Connector 419">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D044D77-7A87-4AAC-A2E1-C7734DA8309D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D044D77-7A87-4AAC-A2E1-C7734DA8309D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A858046E-60F5-4E3C-8B09-33FF37AEBA78}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{A858046E-60F5-4E3C-8B09-33FF37AEBA78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19907,7 +20068,7 @@
           <a:stCxn id="1183" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{06D3BCBC-87D9-4370-BBE1-54013878CE30}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{06D3BCBC-87D9-4370-BBE1-54013878CE30}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -19964,10 +20125,10 @@
         <xdr:cNvPr id="1186" name="Straight Connector 427">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922FF614-1A1E-4073-A450-2EE00645A891}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{922FF614-1A1E-4073-A450-2EE00645A891}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6D044D77-7A87-4AAC-A2E1-C7734DA8309D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{6D044D77-7A87-4AAC-A2E1-C7734DA8309D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19976,7 +20137,7 @@
           <a:stCxn id="1174" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{AC5FBF0B-3979-48D1-826D-DE2EC3B62613}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{AC5FBF0B-3979-48D1-826D-DE2EC3B62613}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -20033,10 +20194,10 @@
         <xdr:cNvPr id="1031" name="Rectangle 570">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{922FF614-1A1E-4073-A450-2EE00645A891}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{922FF614-1A1E-4073-A450-2EE00645A891}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20212,10 +20373,10 @@
         <xdr:cNvPr id="560" name="Down Arrow 448">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1BC899-541B-41A1-B208-FE184B3D7F44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA1BC899-541B-41A1-B208-FE184B3D7F44}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20278,10 +20439,10 @@
         <xdr:cNvPr id="1032" name="Rectangle 594">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A128FF-655E-4B75-BE2B-DE6CC5427A7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4A128FF-655E-4B75-BE2B-DE6CC5427A7F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B3C1FE16-3143-4007-9D81-3A8CA4CB18FE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B3C1FE16-3143-4007-9D81-3A8CA4CB18FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20457,10 +20618,10 @@
         <xdr:cNvPr id="1033" name="Rectangle 602">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5F8EAF-A3A3-4CC9-B845-EC348B9BA5CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E5F8EAF-A3A3-4CC9-B845-EC348B9BA5CB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B4A128FF-655E-4B75-BE2B-DE6CC5427A7F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B4A128FF-655E-4B75-BE2B-DE6CC5427A7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20636,10 +20797,10 @@
         <xdr:cNvPr id="575" name="Straight Connector 661">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9406A78B-A48A-8E80-2923-B748F3F4DFDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9406A78B-A48A-8E80-2923-B748F3F4DFDA}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{413C801C-4EFB-4B65-AA3C-F12481686E35}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{413C801C-4EFB-4B65-AA3C-F12481686E35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20649,7 +20810,7 @@
           <a:endCxn id="533" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{3B437DD1-4A72-4478-80E2-92BE7FA74507}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{3B437DD1-4A72-4478-80E2-92BE7FA74507}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -20701,10 +20862,10 @@
         <xdr:cNvPr id="137" name="Straight Connector 673">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A697C3A3-7430-4D36-8CD7-E608CD4B27BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A697C3A3-7430-4D36-8CD7-E608CD4B27BB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{832B08A2-C334-44A9-8A92-00D85FD2FD2E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{832B08A2-C334-44A9-8A92-00D85FD2FD2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20713,7 +20874,7 @@
           <a:endCxn id="534" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{8A317E57-35D0-46C4-AD4E-5C3AB89879C7}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{8A317E57-35D0-46C4-AD4E-5C3AB89879C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -20765,10 +20926,10 @@
         <xdr:cNvPr id="145" name="Straight Connector 680">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65651BE-3CE5-46AC-9BA9-BD5EF95CECB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C65651BE-3CE5-46AC-9BA9-BD5EF95CECB7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{754EA7CE-BE8C-4A8E-B77A-CB2151C9494E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{754EA7CE-BE8C-4A8E-B77A-CB2151C9494E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20777,7 +20938,7 @@
           <a:endCxn id="535" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{10DE804B-D3EF-4690-B735-F91CB04A3B8B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{10DE804B-D3EF-4690-B735-F91CB04A3B8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -20829,10 +20990,10 @@
         <xdr:cNvPr id="176" name="Straight Connector 684">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5531F7C9-459E-449C-B3CE-CC3D5432F6EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5531F7C9-459E-449C-B3CE-CC3D5432F6EE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C65651BE-3CE5-46AC-9BA9-BD5EF95CECB7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C65651BE-3CE5-46AC-9BA9-BD5EF95CECB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20841,7 +21002,7 @@
           <a:endCxn id="538" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{B57D2E9D-C30E-42C8-BDAA-4239AC01F3A3}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{B57D2E9D-C30E-42C8-BDAA-4239AC01F3A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -20893,10 +21054,10 @@
         <xdr:cNvPr id="1118" name="Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB814958-62BB-46E0-9816-820B5803626B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB814958-62BB-46E0-9816-820B5803626B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{11D01BE2-29A9-4D95-8752-B3C7FA0E562F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{11D01BE2-29A9-4D95-8752-B3C7FA0E562F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20988,10 +21149,10 @@
         <xdr:cNvPr id="1117" name="Rectangle 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BB814958-62BB-46E0-9816-820B5803626B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{BB814958-62BB-46E0-9816-820B5803626B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21083,10 +21244,10 @@
         <xdr:cNvPr id="1121" name="Rectangle 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4270860B-D8EB-4CE5-A515-344DA33472CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4270860B-D8EB-4CE5-A515-344DA33472CD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21274,10 +21435,10 @@
         <xdr:cNvPr id="1120" name="Rectangle 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8086ABE5-8D50-4E21-95E3-0B3B4DD66B02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8086ABE5-8D50-4E21-95E3-0B3B4DD66B02}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4270860B-D8EB-4CE5-A515-344DA33472CD}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4270860B-D8EB-4CE5-A515-344DA33472CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21371,10 +21532,10 @@
         <xdr:cNvPr id="1123" name="Straight Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3149E3DD-2B43-4A24-8D2E-24BE02CEA9A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3149E3DD-2B43-4A24-8D2E-24BE02CEA9A7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D259078E-548B-4227-A13E-8BFB21A29F32}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D259078E-548B-4227-A13E-8BFB21A29F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21384,7 +21545,7 @@
           <a:endCxn id="1117" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{BB814958-62BB-46E0-9816-820B5803626B}" end="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{BB814958-62BB-46E0-9816-820B5803626B}" end="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -21436,10 +21597,10 @@
         <xdr:cNvPr id="1125" name="Straight Connector 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD60ED15-0E4C-4E97-AC00-E73F9A40574F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD60ED15-0E4C-4E97-AC00-E73F9A40574F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3149E3DD-2B43-4A24-8D2E-24BE02CEA9A7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3149E3DD-2B43-4A24-8D2E-24BE02CEA9A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21449,7 +21610,7 @@
           <a:endCxn id="1121" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}" end="{4270860B-D8EB-4CE5-A515-344DA33472CD}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}" end="{4270860B-D8EB-4CE5-A515-344DA33472CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -21501,10 +21662,10 @@
         <xdr:cNvPr id="1126" name="Straight Connector 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609E266B-5ACE-434E-97EB-C3D26BB0FA31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{609E266B-5ACE-434E-97EB-C3D26BB0FA31}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DD60ED15-0E4C-4E97-AC00-E73F9A40574F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{DD60ED15-0E4C-4E97-AC00-E73F9A40574F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21513,7 +21674,7 @@
           <a:endCxn id="194" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{4270860B-D8EB-4CE5-A515-344DA33472CD}" end="{012D3164-7DEC-48EE-B9C7-2835ECC4FBA1}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{4270860B-D8EB-4CE5-A515-344DA33472CD}" end="{012D3164-7DEC-48EE-B9C7-2835ECC4FBA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -21565,10 +21726,10 @@
         <xdr:cNvPr id="1122" name="Straight Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE3B07D-5BB5-44A5-8F1E-11EE31173CCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBE3B07D-5BB5-44A5-8F1E-11EE31173CCB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{609E266B-5ACE-434E-97EB-C3D26BB0FA31}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{609E266B-5ACE-434E-97EB-C3D26BB0FA31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21576,7 +21737,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B1B7821D-A5CD-4EF4-9AC9-45F1F8D9E09F}" end="{D259078E-548B-4227-A13E-8BFB21A29F32}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{B1B7821D-A5CD-4EF4-9AC9-45F1F8D9E09F}" end="{D259078E-548B-4227-A13E-8BFB21A29F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -21628,10 +21789,10 @@
         <xdr:cNvPr id="1268" name="Rectangle 644">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6B3BE4-58DB-47D2-ADD0-E9EA360E6A60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F6B3BE4-58DB-47D2-ADD0-E9EA360E6A60}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BBE3B07D-5BB5-44A5-8F1E-11EE31173CCB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{BBE3B07D-5BB5-44A5-8F1E-11EE31173CCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21806,10 +21967,10 @@
         <xdr:cNvPr id="1012" name="Rectangle 646">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F03B319-AA5C-43A6-9187-5C98794BBF85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F03B319-AA5C-43A6-9187-5C98794BBF85}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9F6B3BE4-58DB-47D2-ADD0-E9EA360E6A60}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9F6B3BE4-58DB-47D2-ADD0-E9EA360E6A60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21984,10 +22145,10 @@
         <xdr:cNvPr id="1034" name="Straight Connector 755">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E93E09A-A2A3-4CD3-86F8-558967084E50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E93E09A-A2A3-4CD3-86F8-558967084E50}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1F03B319-AA5C-43A6-9187-5C98794BBF85}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1F03B319-AA5C-43A6-9187-5C98794BBF85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21997,7 +22158,7 @@
           <a:endCxn id="1032" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}" end="{B4A128FF-655E-4B75-BE2B-DE6CC5427A7F}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}" end="{B4A128FF-655E-4B75-BE2B-DE6CC5427A7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -22049,10 +22210,10 @@
         <xdr:cNvPr id="1035" name="Straight Connector 756">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4582C5C-6110-4224-BB92-30D5B854C106}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4582C5C-6110-4224-BB92-30D5B854C106}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5E93E09A-A2A3-4CD3-86F8-558967084E50}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5E93E09A-A2A3-4CD3-86F8-558967084E50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22061,7 +22222,7 @@
           <a:endCxn id="1033" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}" end="{7E5F8EAF-A3A3-4CC9-B845-EC348B9BA5CB}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}" end="{7E5F8EAF-A3A3-4CC9-B845-EC348B9BA5CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -22113,10 +22274,10 @@
         <xdr:cNvPr id="1246" name="Down Arrow 681">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D6139B-4DBB-461C-ACCC-ED00B9B15B7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3D6139B-4DBB-461C-ACCC-ED00B9B15B7A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B4582C5C-6110-4224-BB92-30D5B854C106}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B4582C5C-6110-4224-BB92-30D5B854C106}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22275,10 +22436,10 @@
         <xdr:cNvPr id="1010" name="Down Arrow 683">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E1A88D-E42F-4DAF-9718-5EDA49A61740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28E1A88D-E42F-4DAF-9718-5EDA49A61740}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E3D6139B-4DBB-461C-ACCC-ED00B9B15B7A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E3D6139B-4DBB-461C-ACCC-ED00B9B15B7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22444,10 +22605,10 @@
         <xdr:cNvPr id="1245" name="Down Arrow 687">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C4C3C3-3926-48F4-955F-0B2C1D7384E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1C4C3C3-3926-48F4-955F-0B2C1D7384E8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{28E1A88D-E42F-4DAF-9718-5EDA49A61740}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{28E1A88D-E42F-4DAF-9718-5EDA49A61740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22606,10 +22767,10 @@
         <xdr:cNvPr id="1239" name="Rectangle 726">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA9E2FA-4075-4688-B882-B4A92B0035F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AA9E2FA-4075-4688-B882-B4A92B0035F7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A1C4C3C3-3926-48F4-955F-0B2C1D7384E8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{A1C4C3C3-3926-48F4-955F-0B2C1D7384E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22797,10 +22958,10 @@
         <xdr:cNvPr id="325" name="Rectangle 731">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A6FD80-6DB7-4AFD-B654-3A47B92B89C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05A6FD80-6DB7-4AFD-B654-3A47B92B89C9}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0AA9E2FA-4075-4688-B882-B4A92B0035F7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0AA9E2FA-4075-4688-B882-B4A92B0035F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22975,10 +23136,10 @@
         <xdr:cNvPr id="1144" name="Straight Connector 834">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC19D5F-7449-44EB-39E6-FC1E1890F246}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDC19D5F-7449-44EB-39E6-FC1E1890F246}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{05A6FD80-6DB7-4AFD-B654-3A47B92B89C9}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{05A6FD80-6DB7-4AFD-B654-3A47B92B89C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22987,7 +23148,7 @@
           <a:endCxn id="1141" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -23039,10 +23200,10 @@
         <xdr:cNvPr id="1147" name="Straight Connector 836">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9BFC3A-780C-44F6-9238-5A9F89B35EFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B9BFC3A-780C-44F6-9238-5A9F89B35EFE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BDC19D5F-7449-44EB-39E6-FC1E1890F246}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{BDC19D5F-7449-44EB-39E6-FC1E1890F246}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23050,7 +23211,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -23102,10 +23263,10 @@
         <xdr:cNvPr id="1145" name="Straight Connector 839">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715EFE78-2B59-4305-A90D-5CB27716697E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{715EFE78-2B59-4305-A90D-5CB27716697E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2B9BFC3A-780C-44F6-9238-5A9F89B35EFE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2B9BFC3A-780C-44F6-9238-5A9F89B35EFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23113,7 +23274,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -23165,10 +23326,10 @@
         <xdr:cNvPr id="1148" name="Straight Connector 840">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7224507-1174-45CE-BE60-0367307E8229}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7224507-1174-45CE-BE60-0367307E8229}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{715EFE78-2B59-4305-A90D-5CB27716697E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{715EFE78-2B59-4305-A90D-5CB27716697E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23176,7 +23337,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -23228,10 +23389,10 @@
         <xdr:cNvPr id="1146" name="Straight Connector 841">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C43F69-7250-402B-91CE-87A498F0CE8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7C43F69-7250-402B-91CE-87A498F0CE8C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A7224507-1174-45CE-BE60-0367307E8229}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{A7224507-1174-45CE-BE60-0367307E8229}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23239,7 +23400,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -23291,10 +23452,10 @@
         <xdr:cNvPr id="1261" name="Rectangle 748">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A736148-5926-4CAF-92A7-75BF435DAB1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A736148-5926-4CAF-92A7-75BF435DAB1D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F7C43F69-7250-402B-91CE-87A498F0CE8C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F7C43F69-7250-402B-91CE-87A498F0CE8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23469,10 +23630,10 @@
         <xdr:cNvPr id="1262" name="Rectangle 749">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917DE197-A541-4318-825C-44A5AE39D955}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{917DE197-A541-4318-825C-44A5AE39D955}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0A736148-5926-4CAF-92A7-75BF435DAB1D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0A736148-5926-4CAF-92A7-75BF435DAB1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23647,10 +23808,10 @@
         <xdr:cNvPr id="359" name="Down Arrow 754">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501D28CD-D519-4151-8BED-CC0DD08EFDAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{501D28CD-D519-4151-8BED-CC0DD08EFDAC}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{917DE197-A541-4318-825C-44A5AE39D955}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{917DE197-A541-4318-825C-44A5AE39D955}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23809,10 +23970,10 @@
         <xdr:cNvPr id="999" name="Down Arrow 818">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6261C5B7-A8D0-461E-A338-0D5D85CE49DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6261C5B7-A8D0-461E-A338-0D5D85CE49DB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{501D28CD-D519-4151-8BED-CC0DD08EFDAC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{501D28CD-D519-4151-8BED-CC0DD08EFDAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23966,10 +24127,10 @@
         <xdr:cNvPr id="993" name="Down Arrow 893">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7133AE78-401C-43CA-9AD4-9503721D44B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7133AE78-401C-43CA-9AD4-9503721D44B3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6261C5B7-A8D0-461E-A338-0D5D85CE49DB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{6261C5B7-A8D0-461E-A338-0D5D85CE49DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24123,10 +24284,10 @@
         <xdr:cNvPr id="260" name="TextBox 813">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397519C4-5510-4498-91BD-CD424AE2686D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{397519C4-5510-4498-91BD-CD424AE2686D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7133AE78-401C-43CA-9AD4-9503721D44B3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{7133AE78-401C-43CA-9AD4-9503721D44B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24262,10 +24423,10 @@
         <xdr:cNvPr id="351" name="Down Arrow 900">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1690F52D-190C-4C05-8708-D69F0A412EA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1690F52D-190C-4C05-8708-D69F0A412EA5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{397519C4-5510-4498-91BD-CD424AE2686D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{397519C4-5510-4498-91BD-CD424AE2686D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24419,10 +24580,10 @@
         <xdr:cNvPr id="966" name="Rectangle 1224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{507D4C83-A22F-4D98-98AF-B3325F8AADF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{507D4C83-A22F-4D98-98AF-B3325F8AADF4}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{77A614C6-691F-4DE3-82C4-732AA36894A0}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{77A614C6-691F-4DE3-82C4-732AA36894A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24607,10 +24768,10 @@
         <xdr:cNvPr id="1226" name="Straight Connector 1225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C99D71A-4EA7-42CD-B8D2-5855F229E41E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C99D71A-4EA7-42CD-B8D2-5855F229E41E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{507D4C83-A22F-4D98-98AF-B3325F8AADF4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{507D4C83-A22F-4D98-98AF-B3325F8AADF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24618,7 +24779,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}" end="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}" end="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -24670,10 +24831,10 @@
         <xdr:cNvPr id="167" name="Rectangle 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05AC5AB8-5DEA-4F64-94EC-72CFFA2C46E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05AC5AB8-5DEA-4F64-94EC-72CFFA2C46E8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{70C166B7-B332-BC08-3658-22F5C0CC566E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{70C166B7-B332-BC08-3658-22F5C0CC566E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24848,10 +25009,10 @@
         <xdr:cNvPr id="170" name="Down Arrow 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2A1D46-3FEC-495A-AAD7-819F3B258B81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C2A1D46-3FEC-495A-AAD7-819F3B258B81}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{05AC5AB8-5DEA-4F64-94EC-72CFFA2C46E8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{05AC5AB8-5DEA-4F64-94EC-72CFFA2C46E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25017,10 +25178,10 @@
         <xdr:cNvPr id="171" name="Down Arrow 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6860AA5-EBD2-41CD-AD3A-D5923C88F9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6860AA5-EBD2-41CD-AD3A-D5923C88F9B4}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0C2A1D46-3FEC-495A-AAD7-819F3B258B81}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0C2A1D46-3FEC-495A-AAD7-819F3B258B81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25186,10 +25347,10 @@
         <xdr:cNvPr id="173" name="Down Arrow 172">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F10B84C-8CC2-4811-9044-6348E39FBCDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F10B84C-8CC2-4811-9044-6348E39FBCDD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E6860AA5-EBD2-41CD-AD3A-D5923C88F9B4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E6860AA5-EBD2-41CD-AD3A-D5923C88F9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25355,10 +25516,10 @@
         <xdr:cNvPr id="174" name="Down Arrow 173">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836E4681-648C-47B3-A10E-2BE40F90B1A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{836E4681-648C-47B3-A10E-2BE40F90B1A4}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7F10B84C-8CC2-4811-9044-6348E39FBCDD}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{7F10B84C-8CC2-4811-9044-6348E39FBCDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25524,10 +25685,10 @@
         <xdr:cNvPr id="177" name="Down Arrow 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2FC1B9-AA79-46BD-BA8D-66F9C70A6AA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A2FC1B9-AA79-46BD-BA8D-66F9C70A6AA6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{836E4681-648C-47B3-A10E-2BE40F90B1A4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{836E4681-648C-47B3-A10E-2BE40F90B1A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25693,10 +25854,10 @@
         <xdr:cNvPr id="178" name="Down Arrow 177">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74F6596-5043-475E-9DF6-5D74E2F43651}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B74F6596-5043-475E-9DF6-5D74E2F43651}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4A2FC1B9-AA79-46BD-BA8D-66F9C70A6AA6}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4A2FC1B9-AA79-46BD-BA8D-66F9C70A6AA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25862,10 +26023,10 @@
         <xdr:cNvPr id="1240" name="Rectangle 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B90CDF5-77D2-412F-8D1F-D4D4AF6C4058}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B90CDF5-77D2-412F-8D1F-D4D4AF6C4058}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B74F6596-5043-475E-9DF6-5D74E2F43651}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B74F6596-5043-475E-9DF6-5D74E2F43651}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26040,10 +26201,10 @@
         <xdr:cNvPr id="1263" name="Rectangle 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA968B3B-76B7-4AEA-8C25-38FA7411BB4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA968B3B-76B7-4AEA-8C25-38FA7411BB4F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0B90CDF5-77D2-412F-8D1F-D4D4AF6C4058}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0B90CDF5-77D2-412F-8D1F-D4D4AF6C4058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26218,10 +26379,10 @@
         <xdr:cNvPr id="1260" name="Down Arrow 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DC572D-72E8-4939-8BE4-B77B818C4D12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8DC572D-72E8-4939-8BE4-B77B818C4D12}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CA968B3B-76B7-4AEA-8C25-38FA7411BB4F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{CA968B3B-76B7-4AEA-8C25-38FA7411BB4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26387,10 +26548,10 @@
         <xdr:cNvPr id="1252" name="Down Arrow 183">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41893191-C496-430F-8974-3F960B3FBB73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41893191-C496-430F-8974-3F960B3FBB73}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E8DC572D-72E8-4939-8BE4-B77B818C4D12}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E8DC572D-72E8-4939-8BE4-B77B818C4D12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26556,10 +26717,10 @@
         <xdr:cNvPr id="1253" name="Down Arrow 184">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA8DD85-C50C-4445-A8EB-3F0D5A7F72B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FA8DD85-C50C-4445-A8EB-3F0D5A7F72B8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{41893191-C496-430F-8974-3F960B3FBB73}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{41893191-C496-430F-8974-3F960B3FBB73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26725,10 +26886,10 @@
         <xdr:cNvPr id="1266" name="Down Arrow 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1897B9C0-FB6F-49EA-8CB1-74649700CD14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1897B9C0-FB6F-49EA-8CB1-74649700CD14}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9FA8DD85-C50C-4445-A8EB-3F0D5A7F72B8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9FA8DD85-C50C-4445-A8EB-3F0D5A7F72B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26894,10 +27055,10 @@
         <xdr:cNvPr id="342" name="Down Arrow 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F823D2A7-7487-4EDF-ACE0-F7E9F5A4EF4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F823D2A7-7487-4EDF-ACE0-F7E9F5A4EF4E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1897B9C0-FB6F-49EA-8CB1-74649700CD14}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1897B9C0-FB6F-49EA-8CB1-74649700CD14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27063,10 +27224,10 @@
         <xdr:cNvPr id="1265" name="Down Arrow 187">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1B24A60-310E-44D3-AB13-06C6BD610FBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1B24A60-310E-44D3-AB13-06C6BD610FBB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F823D2A7-7487-4EDF-ACE0-F7E9F5A4EF4E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F823D2A7-7487-4EDF-ACE0-F7E9F5A4EF4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27232,10 +27393,10 @@
         <xdr:cNvPr id="1264" name="Down Arrow 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD33D259-3D47-4EA7-9901-6DC0FA48D36F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD33D259-3D47-4EA7-9901-6DC0FA48D36F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F1B24A60-310E-44D3-AB13-06C6BD610FBB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F1B24A60-310E-44D3-AB13-06C6BD610FBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27401,10 +27562,10 @@
         <xdr:cNvPr id="192" name="Rectangle 191">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6129A06A-0010-4832-A982-1371CAEA32F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6129A06A-0010-4832-A982-1371CAEA32F8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5276BEB5-4DA3-44B2-8B4C-709BC7EC18E8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5276BEB5-4DA3-44B2-8B4C-709BC7EC18E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27578,10 +27739,10 @@
         <xdr:cNvPr id="193" name="Straight Connector 192">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51738579-CC1E-438A-B9AB-03ADB8F79E4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51738579-CC1E-438A-B9AB-03ADB8F79E4C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6129A06A-0010-4832-A982-1371CAEA32F8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{6129A06A-0010-4832-A982-1371CAEA32F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27589,7 +27750,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -27641,10 +27802,10 @@
         <xdr:cNvPr id="194" name="Rectangle 193">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012D3164-7DEC-48EE-B9C7-2835ECC4FBA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{012D3164-7DEC-48EE-B9C7-2835ECC4FBA1}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{51738579-CC1E-438A-B9AB-03ADB8F79E4C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{51738579-CC1E-438A-B9AB-03ADB8F79E4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27829,10 +27990,10 @@
         <xdr:cNvPr id="195" name="Rectangle 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F29921E-4EEB-42BF-9313-01357580B1D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F29921E-4EEB-42BF-9313-01357580B1D3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{012D3164-7DEC-48EE-B9C7-2835ECC4FBA1}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{012D3164-7DEC-48EE-B9C7-2835ECC4FBA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28017,10 +28178,10 @@
         <xdr:cNvPr id="196" name="Rectangle 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06BEAF6B-565F-4CA0-9D3B-5F1711E0DFE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06BEAF6B-565F-4CA0-9D3B-5F1711E0DFE7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0F29921E-4EEB-42BF-9313-01357580B1D3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0F29921E-4EEB-42BF-9313-01357580B1D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28205,10 +28366,10 @@
         <xdr:cNvPr id="197" name="Straight Connector 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369D1F28-3947-490C-81A4-B896790FE187}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{369D1F28-3947-490C-81A4-B896790FE187}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{06BEAF6B-565F-4CA0-9D3B-5F1711E0DFE7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{06BEAF6B-565F-4CA0-9D3B-5F1711E0DFE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28216,7 +28377,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B1B7821D-A5CD-4EF4-9AC9-45F1F8D9E09F}" end="{D259078E-548B-4227-A13E-8BFB21A29F32}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{B1B7821D-A5CD-4EF4-9AC9-45F1F8D9E09F}" end="{D259078E-548B-4227-A13E-8BFB21A29F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -28268,10 +28429,10 @@
         <xdr:cNvPr id="198" name="Straight Connector 197">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69001B01-5B52-46F4-993B-89A19AF24BCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69001B01-5B52-46F4-993B-89A19AF24BCD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{369D1F28-3947-490C-81A4-B896790FE187}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{369D1F28-3947-490C-81A4-B896790FE187}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28280,7 +28441,7 @@
           <a:endCxn id="1120" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{4270860B-D8EB-4CE5-A515-344DA33472CD}" end="{8086ABE5-8D50-4E21-95E3-0B3B4DD66B02}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{4270860B-D8EB-4CE5-A515-344DA33472CD}" end="{8086ABE5-8D50-4E21-95E3-0B3B4DD66B02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -28332,10 +28493,10 @@
         <xdr:cNvPr id="1219" name="TextBox 167">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D545E599-9A11-4924-9C47-80CCDDA18EE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D545E599-9A11-4924-9C47-80CCDDA18EE8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{69001B01-5B52-46F4-993B-89A19AF24BCD}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{69001B01-5B52-46F4-993B-89A19AF24BCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28463,10 +28624,10 @@
         <xdr:cNvPr id="242" name="Rounded Rectangle 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4594E48C-A8A0-47AF-9643-82A61A865896}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4594E48C-A8A0-47AF-9643-82A61A865896}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D545E599-9A11-4924-9C47-80CCDDA18EE8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D545E599-9A11-4924-9C47-80CCDDA18EE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28634,10 +28795,10 @@
         <xdr:cNvPr id="335" name="Rectangle 178">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E55F61B-677A-427A-9A8F-F4B2DF9B2E31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E55F61B-677A-427A-9A8F-F4B2DF9B2E31}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4594E48C-A8A0-47AF-9643-82A61A865896}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4594E48C-A8A0-47AF-9643-82A61A865896}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28812,10 +28973,10 @@
         <xdr:cNvPr id="334" name="Rectangle 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5AFF7B-6C9E-4A07-8A9F-1AEB21C1EC29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB5AFF7B-6C9E-4A07-8A9F-1AEB21C1EC29}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8E55F61B-677A-427A-9A8F-F4B2DF9B2E31}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8E55F61B-677A-427A-9A8F-F4B2DF9B2E31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28990,10 +29151,10 @@
         <xdr:cNvPr id="371" name="Rectangle 171">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2A5052-AAD4-4233-8F53-D8BE87879FE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C2A5052-AAD4-4233-8F53-D8BE87879FE7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FB5AFF7B-6C9E-4A07-8A9F-1AEB21C1EC29}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{FB5AFF7B-6C9E-4A07-8A9F-1AEB21C1EC29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29168,10 +29329,10 @@
         <xdr:cNvPr id="332" name="Rectangle 179">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31602C7-D8EE-43BD-9128-99895AAB41CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F31602C7-D8EE-43BD-9128-99895AAB41CE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1C2A5052-AAD4-4233-8F53-D8BE87879FE7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1C2A5052-AAD4-4233-8F53-D8BE87879FE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29346,10 +29507,10 @@
         <xdr:cNvPr id="239" name="Down Arrow 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50715AEE-3F13-4B2F-A8F5-F62D64C34652}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50715AEE-3F13-4B2F-A8F5-F62D64C34652}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F31602C7-D8EE-43BD-9128-99895AAB41CE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F31602C7-D8EE-43BD-9128-99895AAB41CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29508,10 +29669,10 @@
         <xdr:cNvPr id="23" name="Down Arrow 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F153CDE-65B6-4005-86AA-4894722B6AD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F153CDE-65B6-4005-86AA-4894722B6AD6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D17F0FCA-D33F-4F28-BF2F-98B9139475A4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D17F0FCA-D33F-4F28-BF2F-98B9139475A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29670,10 +29831,10 @@
         <xdr:cNvPr id="978" name="Rectangle 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC7494E-8BCF-4A4A-8C1A-7B45C89D9EF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8AC7494E-8BCF-4A4A-8C1A-7B45C89D9EF1}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{36301B8F-BBBE-44C0-8FAE-030F025C647B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{36301B8F-BBBE-44C0-8FAE-030F025C647B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29848,10 +30009,10 @@
         <xdr:cNvPr id="979" name="Down Arrow 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154D1C93-7AB2-4680-B976-1A1DD394E132}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{154D1C93-7AB2-4680-B976-1A1DD394E132}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B99E360B-A6B7-4677-B839-1983BF6AFACB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B99E360B-A6B7-4677-B839-1983BF6AFACB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30010,10 +30171,10 @@
         <xdr:cNvPr id="222" name="Rectangle 213">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CC9DF5-8C75-4036-AD49-5C0CB483D711}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89CC9DF5-8C75-4036-AD49-5C0CB483D711}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{154D1C93-7AB2-4680-B976-1A1DD394E132}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{154D1C93-7AB2-4680-B976-1A1DD394E132}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30188,10 +30349,10 @@
         <xdr:cNvPr id="370" name="Down Arrow 214">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4F09C5-9601-43CD-9F81-D88CEA1ED16C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA4F09C5-9601-43CD-9F81-D88CEA1ED16C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{89CC9DF5-8C75-4036-AD49-5C0CB483D711}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{89CC9DF5-8C75-4036-AD49-5C0CB483D711}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30350,10 +30511,10 @@
         <xdr:cNvPr id="1069" name="Down Arrow 215">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2063FBA-A5C1-4380-90B9-32822F7FA01B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2063FBA-A5C1-4380-90B9-32822F7FA01B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AA4F09C5-9601-43CD-9F81-D88CEA1ED16C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AA4F09C5-9601-43CD-9F81-D88CEA1ED16C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30512,10 +30673,10 @@
         <xdr:cNvPr id="315" name="Down Arrow 314">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431D2BFC-C7BE-40DB-B643-F23A9E5F32CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{431D2BFC-C7BE-40DB-B643-F23A9E5F32CF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D5C8CACE-3709-4D41-BE37-8457DF7D1BB8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D5C8CACE-3709-4D41-BE37-8457DF7D1BB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30674,10 +30835,10 @@
         <xdr:cNvPr id="26" name="Rounded Rectangle 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A7CD64-ACF0-4F92-80DE-66AF5CD3FD5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42A7CD64-ACF0-4F92-80DE-66AF5CD3FD5B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4182348C-D180-4F02-9DC8-F7A99707F285}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4182348C-D180-4F02-9DC8-F7A99707F285}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30845,10 +31006,10 @@
         <xdr:cNvPr id="35" name="Rectangle 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B0A413-657C-43C6-ABC2-53D9A02C760B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2B0A413-657C-43C6-ABC2-53D9A02C760B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{42A7CD64-ACF0-4F92-80DE-66AF5CD3FD5B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{42A7CD64-ACF0-4F92-80DE-66AF5CD3FD5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31023,10 +31184,10 @@
         <xdr:cNvPr id="136" name="Rectangle 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44047026-DAB2-4856-908D-E1E13B02C591}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44047026-DAB2-4856-908D-E1E13B02C591}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C2B0A413-657C-43C6-ABC2-53D9A02C760B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C2B0A413-657C-43C6-ABC2-53D9A02C760B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31201,10 +31362,10 @@
         <xdr:cNvPr id="46" name="Rectangle 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819BE950-2739-4047-9985-5489AEB8050F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{819BE950-2739-4047-9985-5489AEB8050F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{44047026-DAB2-4856-908D-E1E13B02C591}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{44047026-DAB2-4856-908D-E1E13B02C591}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31379,10 +31540,10 @@
         <xdr:cNvPr id="1086" name="Rectangle 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E2473B-0AA9-4F74-8BC7-CE8793570BD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74E2473B-0AA9-4F74-8BC7-CE8793570BD2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{819BE950-2739-4047-9985-5489AEB8050F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{819BE950-2739-4047-9985-5489AEB8050F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31557,10 +31718,10 @@
         <xdr:cNvPr id="62" name="Down Arrow 204">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88A183C-1268-4CAE-B633-FCB32478F617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F88A183C-1268-4CAE-B633-FCB32478F617}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3003C76B-8B68-43E6-B7E4-CB98ACFC0E5E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3003C76B-8B68-43E6-B7E4-CB98ACFC0E5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31719,10 +31880,10 @@
         <xdr:cNvPr id="61" name="Down Arrow 205">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF332DB3-DD3B-42EB-8ECF-FF9ADCAA269D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF332DB3-DD3B-42EB-8ECF-FF9ADCAA269D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F88A183C-1268-4CAE-B633-FCB32478F617}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F88A183C-1268-4CAE-B633-FCB32478F617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31881,10 +32042,10 @@
         <xdr:cNvPr id="1085" name="Down Arrow 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFEBDAD-3061-4880-B712-7F19C36AD84E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACFEBDAD-3061-4880-B712-7F19C36AD84E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CF332DB3-DD3B-42EB-8ECF-FF9ADCAA269D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{CF332DB3-DD3B-42EB-8ECF-FF9ADCAA269D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32043,10 +32204,10 @@
         <xdr:cNvPr id="128" name="Down Arrow 210">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980D3B18-169A-4A37-8616-0AB1B52BFCA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{980D3B18-169A-4A37-8616-0AB1B52BFCA1}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038535E2-12D7-41D5-B575-62DB53BC7B5D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{038535E2-12D7-41D5-B575-62DB53BC7B5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32205,10 +32366,10 @@
         <xdr:cNvPr id="1068" name="Rectangle 211">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB27272-23E1-4630-8B81-FC433985FF59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CB27272-23E1-4630-8B81-FC433985FF59}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{980D3B18-169A-4A37-8616-0AB1B52BFCA1}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{980D3B18-169A-4A37-8616-0AB1B52BFCA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32383,10 +32544,10 @@
         <xdr:cNvPr id="1079" name="Rectangle 212">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B616C3A-BC14-4C10-B0A1-740146E82339}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B616C3A-BC14-4C10-B0A1-740146E82339}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8CB27272-23E1-4630-8B81-FC433985FF59}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8CB27272-23E1-4630-8B81-FC433985FF59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32561,10 +32722,10 @@
         <xdr:cNvPr id="1082" name="Rectangle 213">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D942F34-4A03-46F4-81CC-4A1C6B29BA8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D942F34-4A03-46F4-81CC-4A1C6B29BA8B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8B616C3A-BC14-4C10-B0A1-740146E82339}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8B616C3A-BC14-4C10-B0A1-740146E82339}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32739,10 +32900,10 @@
         <xdr:cNvPr id="293" name="Rectangle 216">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F185995-C371-4E64-85CE-43A9B4EBA267}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F185995-C371-4E64-85CE-43A9B4EBA267}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2D942F34-4A03-46F4-81CC-4A1C6B29BA8B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2D942F34-4A03-46F4-81CC-4A1C6B29BA8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32899,10 +33060,10 @@
         <xdr:cNvPr id="1294" name="Rectangle 215">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FA75E3-1591-455E-AFE3-0641C8646924}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79FA75E3-1591-455E-AFE3-0641C8646924}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8F185995-C371-4E64-85CE-43A9B4EBA267}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8F185995-C371-4E64-85CE-43A9B4EBA267}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33077,10 +33238,10 @@
         <xdr:cNvPr id="1295" name="Rectangle 216">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D6B7F7-91E0-4846-A4D9-F3B47220ECB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83D6B7F7-91E0-4846-A4D9-F3B47220ECB8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{79FA75E3-1591-455E-AFE3-0641C8646924}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{79FA75E3-1591-455E-AFE3-0641C8646924}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33255,10 +33416,10 @@
         <xdr:cNvPr id="1303" name="Down Arrow 217">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D76C24-06C5-4925-974D-20F53071B5A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71D76C24-06C5-4925-974D-20F53071B5A2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{83D6B7F7-91E0-4846-A4D9-F3B47220ECB8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{83D6B7F7-91E0-4846-A4D9-F3B47220ECB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33424,10 +33585,10 @@
         <xdr:cNvPr id="1305" name="Down Arrow 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA66F36-79E7-4129-B7FE-1EBADEF298D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CA66F36-79E7-4129-B7FE-1EBADEF298D8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{71D76C24-06C5-4925-974D-20F53071B5A2}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{71D76C24-06C5-4925-974D-20F53071B5A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33593,10 +33754,10 @@
         <xdr:cNvPr id="1306" name="Down Arrow 219">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23C5797-1079-4DCA-9FC5-9DB403F42553}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E23C5797-1079-4DCA-9FC5-9DB403F42553}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4CA66F36-79E7-4129-B7FE-1EBADEF298D8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4CA66F36-79E7-4129-B7FE-1EBADEF298D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33767,7 +33928,7 @@
         <xdr:cNvPr id="35" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479FFE2B-F33D-6227-32BF-B9F776D7A6C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{479FFE2B-F33D-6227-32BF-B9F776D7A6C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33839,10 +34000,10 @@
         <xdr:cNvPr id="38" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4677F81-B478-4443-A5C2-AECD6ED62659}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4677F81-B478-4443-A5C2-AECD6ED62659}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{479FFE2B-F33D-6227-32BF-B9F776D7A6C3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{479FFE2B-F33D-6227-32BF-B9F776D7A6C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34008,10 +34169,10 @@
         <xdr:cNvPr id="39" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42509E24-CDF7-423A-A405-DB5E689F5D21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42509E24-CDF7-423A-A405-DB5E689F5D21}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E4677F81-B478-4443-A5C2-AECD6ED62659}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E4677F81-B478-4443-A5C2-AECD6ED62659}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34177,10 +34338,10 @@
         <xdr:cNvPr id="40" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F87CC526-F963-43C2-B20B-5414A7DE105F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F87CC526-F963-43C2-B20B-5414A7DE105F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{42509E24-CDF7-423A-A405-DB5E689F5D21}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{42509E24-CDF7-423A-A405-DB5E689F5D21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34346,10 +34507,10 @@
         <xdr:cNvPr id="41" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C1EB1BE-C19E-431F-84D1-E017992A679D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C1EB1BE-C19E-431F-84D1-E017992A679D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F87CC526-F963-43C2-B20B-5414A7DE105F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F87CC526-F963-43C2-B20B-5414A7DE105F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34515,10 +34676,10 @@
         <xdr:cNvPr id="42" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A0D583-11A7-4319-8C7F-FBFCE78815FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32A0D583-11A7-4319-8C7F-FBFCE78815FB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5C1EB1BE-C19E-431F-84D1-E017992A679D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5C1EB1BE-C19E-431F-84D1-E017992A679D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34684,10 +34845,10 @@
         <xdr:cNvPr id="43" name="Oval 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D36A8924-146B-42B2-8059-5E3A4577BD14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D36A8924-146B-42B2-8059-5E3A4577BD14}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{32A0D583-11A7-4319-8C7F-FBFCE78815FB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{32A0D583-11A7-4319-8C7F-FBFCE78815FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34853,10 +35014,10 @@
         <xdr:cNvPr id="46" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD6F499-E86D-4605-8A43-F45BAEBA2F3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AD6F499-E86D-4605-8A43-F45BAEBA2F3D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D36A8924-146B-42B2-8059-5E3A4577BD14}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D36A8924-146B-42B2-8059-5E3A4577BD14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35022,10 +35183,10 @@
         <xdr:cNvPr id="45" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8658C146-C82C-414E-8750-F88E17A3FF0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8658C146-C82C-414E-8750-F88E17A3FF0E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7AD6F499-E86D-4605-8A43-F45BAEBA2F3D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{7AD6F499-E86D-4605-8A43-F45BAEBA2F3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35191,10 +35352,10 @@
         <xdr:cNvPr id="44" name="Oval 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D479C09-2060-48FE-AEBD-7D6905B535DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D479C09-2060-48FE-AEBD-7D6905B535DF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8658C146-C82C-414E-8750-F88E17A3FF0E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8658C146-C82C-414E-8750-F88E17A3FF0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35346,26 +35507,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F9EBF00-BE17-4C34-AA4D-9166C47D56D7}" name="Table1" displayName="Table1" ref="B18:F52" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="B18:F52" xr:uid="{7F9EBF00-BE17-4C34-AA4D-9166C47D56D7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B18:F52" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="B18:F52"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D2DFA3B5-6F50-47FD-8D56-8B04C1D80F59}" name="User story id" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C0D19A5C-094C-4068-B258-746B30446059}" name="User" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{D67FF8ED-DFD4-44F6-9F65-70DCF79E975E}" name="S.no" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{DA5AB2AC-335D-48F8-A0DB-04A7F95E28D2}" name="Action" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FC4815FF-89C8-455F-8A70-39007E16BC4E}" name="Benefits" dataDxfId="4"/>
+    <tableColumn id="1" name="User story id" dataDxfId="8"/>
+    <tableColumn id="2" name="User" dataDxfId="7"/>
+    <tableColumn id="5" name="S.no" dataDxfId="6"/>
+    <tableColumn id="6" name="Action" dataDxfId="5"/>
+    <tableColumn id="3" name="Benefits" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1938D588-891F-4B4D-870C-B444968768B6}" name="Table2" displayName="Table2" ref="G18:I52" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="G18:I52" xr:uid="{1938D588-891F-4B4D-870C-B444968768B6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="G18:I52" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="G18:I52"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1DC7B051-A560-4D46-966C-B157E51318D0}" name="Acceptance criteria" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{41C99027-3CC0-4992-9738-EAC153AEA309}" name="Assumptions" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{6DB6F676-80C6-4A00-9DF2-5FA326FD378B}" name="Constraints" dataDxfId="0"/>
+    <tableColumn id="1" name="Acceptance criteria" dataDxfId="2"/>
+    <tableColumn id="2" name="Assumptions" dataDxfId="1"/>
+    <tableColumn id="3" name="Constraints" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -35568,7 +35729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -35771,14 +35932,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157:C159"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -36822,13 +36983,61 @@
         <v>187</v>
       </c>
     </row>
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="161" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A161" s="123">
+        <v>44691</v>
+      </c>
+      <c r="B161" s="124"/>
+      <c r="C161" s="125" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A162" s="126"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="127" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A163" s="126"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="127" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A164" s="128"/>
+      <c r="B164" s="129"/>
+      <c r="C164" s="130" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="166" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A166" s="102">
+        <v>44692</v>
+      </c>
+      <c r="B166" s="63"/>
+      <c r="C166" s="64" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A167" s="59"/>
+      <c r="B167" s="60"/>
+      <c r="C167" s="61" t="s">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99455432-5260-4250-8176-F630DA6BD87E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I55"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
@@ -37589,7 +37798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26143E4E-D99B-424D-B64E-1AC6E8022E09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37623,22 +37832,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15">
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
     </row>
     <row r="3" spans="1:11" ht="15">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11">
@@ -37777,18 +37986,18 @@
       <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="E10" s="103" t="s">
+      <c r="C10" s="107"/>
+      <c r="E10" s="105" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="104"/>
-      <c r="H10" s="103" t="s">
+      <c r="F10" s="107"/>
+      <c r="H10" s="105" t="s">
         <v>345</v>
       </c>
-      <c r="I10" s="104"/>
+      <c r="I10" s="107"/>
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="B11" s="76" t="s">
@@ -37854,12 +38063,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="105" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="104"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
       <c r="F19" s="31"/>
     </row>
     <row r="20" spans="2:9">
@@ -37914,16 +38123,16 @@
       <c r="F25" s="31"/>
     </row>
     <row r="28" spans="2:9" ht="15">
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="114" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="32" t="s">
@@ -38003,15 +38212,15 @@
       <c r="C35" s="72"/>
     </row>
     <row r="36" spans="2:8" ht="15">
-      <c r="B36" s="109" t="s">
+      <c r="B36" s="114" t="s">
         <v>370</v>
       </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="111"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="116"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="32" t="s">
@@ -38088,13 +38297,13 @@
       <c r="H40" s="30"/>
     </row>
     <row r="42" spans="2:8" ht="15">
-      <c r="B42" s="112" t="s">
+      <c r="B42" s="109" t="s">
         <v>379</v>
       </c>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="113"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="117"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="32" t="s">
@@ -38151,15 +38360,15 @@
       <c r="F46" s="30"/>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="105" t="s">
         <v>386</v>
       </c>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="104"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="107"/>
     </row>
     <row r="50" spans="2:22" ht="15">
       <c r="B50" s="89" t="s">
@@ -38184,10 +38393,10 @@
         <v>392</v>
       </c>
       <c r="I50" s="72"/>
-      <c r="K50" s="112" t="s">
+      <c r="K50" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="113"/>
+      <c r="L50" s="117"/>
       <c r="M50" s="72"/>
       <c r="R50" s="72"/>
       <c r="S50" s="72"/>
@@ -38272,16 +38481,16 @@
       <c r="F54" s="86"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="103" t="s">
+      <c r="B56" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="104"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="107"/>
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="32" t="s">
@@ -38372,20 +38581,20 @@
       <c r="L62" s="72"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="103" t="s">
+      <c r="B66" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="105"/>
-      <c r="D66" s="104"/>
-      <c r="F66" s="103" t="s">
+      <c r="C66" s="106"/>
+      <c r="D66" s="107"/>
+      <c r="F66" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="105"/>
-      <c r="H66" s="104"/>
-      <c r="J66" s="103" t="s">
+      <c r="G66" s="106"/>
+      <c r="H66" s="107"/>
+      <c r="J66" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="104"/>
+      <c r="K66" s="107"/>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="32" t="s">
@@ -38466,15 +38675,15 @@
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="117" t="s">
+      <c r="B74" s="119" t="s">
         <v>426</v>
       </c>
-      <c r="C74" s="118"/>
-      <c r="D74" s="119"/>
-      <c r="F74" s="120" t="s">
+      <c r="C74" s="120"/>
+      <c r="D74" s="121"/>
+      <c r="F74" s="122" t="s">
         <v>427</v>
       </c>
-      <c r="G74" s="120"/>
+      <c r="G74" s="122"/>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="96" t="s">
@@ -38550,11 +38759,11 @@
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="106" t="s">
+      <c r="B84" s="111" t="s">
         <v>437</v>
       </c>
-      <c r="C84" s="107"/>
-      <c r="D84" s="108"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="113"/>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="28" t="s">
@@ -38594,10 +38803,10 @@
       <c r="B105" s="72"/>
     </row>
     <row r="115" spans="2:3" ht="15">
-      <c r="B115" s="121" t="s">
+      <c r="B115" s="103" t="s">
         <v>442</v>
       </c>
-      <c r="C115" s="122"/>
+      <c r="C115" s="104"/>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="32" t="s">
@@ -38631,6 +38840,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F74:G74"/>
     <mergeCell ref="B115:C115"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="F66:H66"/>
@@ -38647,22 +38860,18 @@
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="F74:G74"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{6AF15854-A6D3-47C8-94A2-116322D859F2}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{FAC1F37D-FC30-4DFD-A775-5B9E50D4DCF3}"/>
-    <hyperlink ref="H7" r:id="rId3" xr:uid="{0EB93B12-A252-4DBE-808B-E5C2C8C6C6CC}"/>
+    <hyperlink ref="H5" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3CFBF-880F-481E-9D27-6F5C85AAC27F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="V29:Y48"/>
   <sheetViews>
     <sheetView topLeftCell="Y48" workbookViewId="0">
@@ -38686,7 +38895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E2C87B-569D-4472-B55B-F22E4DB21FBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38701,7 +38910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79905DE3-DAB3-4C6E-84FE-24BF5F973564}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:K603"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -38785,7 +38994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410A1412-495E-48DA-B036-98866AE3DBED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38968,7 +39177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC21BEB0-7817-4402-83E4-96DD5F41634F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O79"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25428"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4CF21D4-168D-488C-89B0-3AD436164BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="User_Requirements" sheetId="9" r:id="rId8"/>
     <sheet name="Hierarchy" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="503">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -598,6 +599,30 @@
   </si>
   <si>
     <t>Complete WEB Api for all services and most importantly complete get all by today</t>
+  </si>
+  <si>
+    <t>Create dummy service when integrating</t>
+  </si>
+  <si>
+    <t>Discussed data loading on demand or load defaultly</t>
+  </si>
+  <si>
+    <t>Complete webapi within Friday</t>
+  </si>
+  <si>
+    <t>Swagger via integration with API</t>
+  </si>
+  <si>
+    <t>Discussed plan for work from home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintain timesheet discipline and be resposible </t>
+  </si>
+  <si>
+    <t>Request for smtp from aspire</t>
+  </si>
+  <si>
+    <t>For download and share profile refer how to write word file in C#</t>
   </si>
   <si>
     <t>Team Genesis - Profile Management Project</t>
@@ -1551,29 +1576,11 @@
   <si>
     <t>Level 0</t>
   </si>
-  <si>
-    <t>Create dummy service when integrating</t>
-  </si>
-  <si>
-    <t>Discussed data loading on demand or load defaultly</t>
-  </si>
-  <si>
-    <t>Complete webapi within Friday</t>
-  </si>
-  <si>
-    <t>Swagger via integration with API</t>
-  </si>
-  <si>
-    <t>Discussed plan for work from home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintain timesheet discipline and be resposible </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
@@ -2475,66 +2482,6 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2558,6 +2505,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2757,10 +2764,10 @@
         <xdr:cNvPr id="61" name="Picture 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C17F9D2-85B2-40D5-8CEB-FD2C1ED14836}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C17F9D2-85B2-40D5-8CEB-FD2C1ED14836}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{A55E8469-840C-4FD5-9155-FC6641F4322A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A55E8469-840C-4FD5-9155-FC6641F4322A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2816,7 @@
         <xdr:cNvPr id="7" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62B1306D-F5CD-AA71-BEBE-3E43E3155916}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B1306D-F5CD-AA71-BEBE-3E43E3155916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2865,7 @@
         <xdr:cNvPr id="7" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D2EFA80-74DE-82C7-9452-8B2D1DC4607C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2EFA80-74DE-82C7-9452-8B2D1DC4607C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2907,10 +2914,10 @@
         <xdr:cNvPr id="1043" name="Down Arrow 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBFC5A91-DBBA-459D-BB2F-0CE48AD188A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFC5A91-DBBA-459D-BB2F-0CE48AD188A3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{190E9656-C7F2-405F-9D02-85B6C01B78EE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{190E9656-C7F2-405F-9D02-85B6C01B78EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3064,10 +3071,10 @@
         <xdr:cNvPr id="1080" name="Down Arrow 204">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A49B3700-C172-4973-834D-99DE957D03EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49B3700-C172-4973-834D-99DE957D03EF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{EBFC5A91-DBBA-459D-BB2F-0CE48AD188A3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EBFC5A91-DBBA-459D-BB2F-0CE48AD188A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3226,10 +3233,10 @@
         <xdr:cNvPr id="1077" name="Down Arrow 205">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A77566F8-4BCF-449E-B2FE-E28026A99A6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77566F8-4BCF-449E-B2FE-E28026A99A6C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{A49B3700-C172-4973-834D-99DE957D03EF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A49B3700-C172-4973-834D-99DE957D03EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3388,10 +3395,10 @@
         <xdr:cNvPr id="1076" name="Down Arrow 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AE0FCEA-A74C-419D-A727-09BB2396B7B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE0FCEA-A74C-419D-A727-09BB2396B7B5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{A77566F8-4BCF-449E-B2FE-E28026A99A6C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A77566F8-4BCF-449E-B2FE-E28026A99A6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3550,10 +3557,10 @@
         <xdr:cNvPr id="1087" name="Down Arrow 209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF4B3F21-76DB-45E7-98AF-CEB16822A591}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4B3F21-76DB-45E7-98AF-CEB16822A591}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9AE0FCEA-A74C-419D-A727-09BB2396B7B5}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9AE0FCEA-A74C-419D-A727-09BB2396B7B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3712,10 +3719,10 @@
         <xdr:cNvPr id="139" name="Down Arrow 214">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBD67421-8225-4712-8310-504663BB3119}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD67421-8225-4712-8310-504663BB3119}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AF4B3F21-76DB-45E7-98AF-CEB16822A591}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AF4B3F21-76DB-45E7-98AF-CEB16822A591}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3874,10 +3881,10 @@
         <xdr:cNvPr id="138" name="Down Arrow 215">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE46FE35-6547-49BC-A103-2762D46D76B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE46FE35-6547-49BC-A103-2762D46D76B6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{DBD67421-8225-4712-8310-504663BB3119}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DBD67421-8225-4712-8310-504663BB3119}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4036,10 +4043,10 @@
         <xdr:cNvPr id="1228" name="TextBox 220">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DE203AC-A86D-47D7-9A96-7D88A1E966EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE203AC-A86D-47D7-9A96-7D88A1E966EE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{CE46FE35-6547-49BC-A103-2762D46D76B6}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CE46FE35-6547-49BC-A103-2762D46D76B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4167,10 +4174,10 @@
         <xdr:cNvPr id="1133" name="Rectangle 273">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BA307E5-97E6-41DC-988F-C0AB012490C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA307E5-97E6-41DC-988F-C0AB012490C4}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3DE203AC-A86D-47D7-9A96-7D88A1E966EE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3DE203AC-A86D-47D7-9A96-7D88A1E966EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4345,10 +4352,10 @@
         <xdr:cNvPr id="1136" name="Rectangle 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5518A716-AD23-4257-8FAF-D60E89CDD97E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5518A716-AD23-4257-8FAF-D60E89CDD97E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9BA307E5-97E6-41DC-988F-C0AB012490C4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9BA307E5-97E6-41DC-988F-C0AB012490C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4523,10 +4530,10 @@
         <xdr:cNvPr id="1137" name="Rectangle 275">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5EEF4C43-1103-40BE-B4D4-731893538E82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EEF4C43-1103-40BE-B4D4-731893538E82}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5518A716-AD23-4257-8FAF-D60E89CDD97E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5518A716-AD23-4257-8FAF-D60E89CDD97E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4701,10 +4708,10 @@
         <xdr:cNvPr id="245" name="Down Arrow 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC701BE5-C6A8-4E28-B4B0-F3DD8C2B7E94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC701BE5-C6A8-4E28-B4B0-F3DD8C2B7E94}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5EEF4C43-1103-40BE-B4D4-731893538E82}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5EEF4C43-1103-40BE-B4D4-731893538E82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4863,10 +4870,10 @@
         <xdr:cNvPr id="361" name="Down Arrow 277">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DCB1F1D-4C9B-43FF-AEFB-0E2CD4B1A31F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DCB1F1D-4C9B-43FF-AEFB-0E2CD4B1A31F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{DC701BE5-C6A8-4E28-B4B0-F3DD8C2B7E94}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DC701BE5-C6A8-4E28-B4B0-F3DD8C2B7E94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5025,10 +5032,10 @@
         <xdr:cNvPr id="246" name="Down Arrow 278">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49DF71C1-67A4-4DEC-AF07-A3BF0D3269B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49DF71C1-67A4-4DEC-AF07-A3BF0D3269B9}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1DCB1F1D-4C9B-43FF-AEFB-0E2CD4B1A31F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1DCB1F1D-4C9B-43FF-AEFB-0E2CD4B1A31F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5187,10 +5194,10 @@
         <xdr:cNvPr id="360" name="Down Arrow 279">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7944F78-9D09-49AA-9B20-6319D64E6DFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7944F78-9D09-49AA-9B20-6319D64E6DFA}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{49DF71C1-67A4-4DEC-AF07-A3BF0D3269B9}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{49DF71C1-67A4-4DEC-AF07-A3BF0D3269B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5349,10 +5356,10 @@
         <xdr:cNvPr id="241" name="Down Arrow 280">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E87ED4DB-CF86-4C18-9936-14359FC66E97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87ED4DB-CF86-4C18-9936-14359FC66E97}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C7944F78-9D09-49AA-9B20-6319D64E6DFA}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C7944F78-9D09-49AA-9B20-6319D64E6DFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5511,10 +5518,10 @@
         <xdr:cNvPr id="372" name="Down Arrow 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A951B151-E71F-4864-8B0A-5A829A42A288}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A951B151-E71F-4864-8B0A-5A829A42A288}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E87ED4DB-CF86-4C18-9936-14359FC66E97}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E87ED4DB-CF86-4C18-9936-14359FC66E97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5673,10 +5680,10 @@
         <xdr:cNvPr id="256" name="Down Arrow 282">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8961AD95-FE13-4181-8C1C-A6E53FC28BD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8961AD95-FE13-4181-8C1C-A6E53FC28BD9}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{A951B151-E71F-4864-8B0A-5A829A42A288}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A951B151-E71F-4864-8B0A-5A829A42A288}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5830,10 +5837,10 @@
         <xdr:cNvPr id="318" name="Down Arrow 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32790C4E-3467-4D3A-BEE7-2A65E1AC182C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32790C4E-3467-4D3A-BEE7-2A65E1AC182C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8961AD95-FE13-4181-8C1C-A6E53FC28BD9}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8961AD95-FE13-4181-8C1C-A6E53FC28BD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5990,10 +5997,10 @@
         <xdr:cNvPr id="253" name="Rectangle 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD4AAA0A-0289-4DE9-8770-9FDB1E619B08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD4AAA0A-0289-4DE9-8770-9FDB1E619B08}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{32790C4E-3467-4D3A-BEE7-2A65E1AC182C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{32790C4E-3467-4D3A-BEE7-2A65E1AC182C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6150,10 +6157,10 @@
         <xdr:cNvPr id="297" name="Rectangle 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3329D79F-040A-4FEA-BE73-943904AAC485}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3329D79F-040A-4FEA-BE73-943904AAC485}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{BD4AAA0A-0289-4DE9-8770-9FDB1E619B08}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BD4AAA0A-0289-4DE9-8770-9FDB1E619B08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6310,10 +6317,10 @@
         <xdr:cNvPr id="271" name="Rectangle 286">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{403CE683-38DE-4DCB-BE11-F9C4939A584D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403CE683-38DE-4DCB-BE11-F9C4939A584D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3329D79F-040A-4FEA-BE73-943904AAC485}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3329D79F-040A-4FEA-BE73-943904AAC485}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6470,10 +6477,10 @@
         <xdr:cNvPr id="298" name="Rectangle 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2113FB3B-1CCC-4652-802E-6B8926572D89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2113FB3B-1CCC-4652-802E-6B8926572D89}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{403CE683-38DE-4DCB-BE11-F9C4939A584D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{403CE683-38DE-4DCB-BE11-F9C4939A584D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6630,10 +6637,10 @@
         <xdr:cNvPr id="306" name="Rectangle 288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{618A8534-98A7-44F0-844B-0F51021D399C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618A8534-98A7-44F0-844B-0F51021D399C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2113FB3B-1CCC-4652-802E-6B8926572D89}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2113FB3B-1CCC-4652-802E-6B8926572D89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6790,10 +6797,10 @@
         <xdr:cNvPr id="1216" name="Down Arrow 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{171CD929-3227-4DE2-B8B5-13622B8842F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171CD929-3227-4DE2-B8B5-13622B8842F3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{618A8534-98A7-44F0-844B-0F51021D399C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{618A8534-98A7-44F0-844B-0F51021D399C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6950,10 +6957,10 @@
         <xdr:cNvPr id="340" name="Rectangle 292">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3A4ADEC-DD4E-4A2A-90CF-DDAAF05C185E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A4ADEC-DD4E-4A2A-90CF-DDAAF05C185E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{171CD929-3227-4DE2-B8B5-13622B8842F3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{171CD929-3227-4DE2-B8B5-13622B8842F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7128,10 +7135,10 @@
         <xdr:cNvPr id="341" name="Rectangle 293">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{967B9C71-F9A1-41E9-82AA-BDB739D8D5B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967B9C71-F9A1-41E9-82AA-BDB739D8D5B5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B3A4ADEC-DD4E-4A2A-90CF-DDAAF05C185E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B3A4ADEC-DD4E-4A2A-90CF-DDAAF05C185E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7306,10 +7313,10 @@
         <xdr:cNvPr id="375" name="Down Arrow 294">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FF37AB6-A549-4E4D-9C0E-D7C114521D86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF37AB6-A549-4E4D-9C0E-D7C114521D86}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{967B9C71-F9A1-41E9-82AA-BDB739D8D5B5}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{967B9C71-F9A1-41E9-82AA-BDB739D8D5B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7475,10 +7482,10 @@
         <xdr:cNvPr id="383" name="Down Arrow 295">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63D464B4-61A2-4E4A-AD22-3054637009E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63D464B4-61A2-4E4A-AD22-3054637009E0}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9FF37AB6-A549-4E4D-9C0E-D7C114521D86}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9FF37AB6-A549-4E4D-9C0E-D7C114521D86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7644,10 +7651,10 @@
         <xdr:cNvPr id="1280" name="Down Arrow 297">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61ECB4E9-87D7-4BF2-9C8E-5E63ED45325C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61ECB4E9-87D7-4BF2-9C8E-5E63ED45325C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{63D464B4-61A2-4E4A-AD22-3054637009E0}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{63D464B4-61A2-4E4A-AD22-3054637009E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7813,10 +7820,10 @@
         <xdr:cNvPr id="1287" name="Down Arrow 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A652CE0-C848-4051-9E5A-D4125EC5C9D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A652CE0-C848-4051-9E5A-D4125EC5C9D3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{61ECB4E9-87D7-4BF2-9C8E-5E63ED45325C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{61ECB4E9-87D7-4BF2-9C8E-5E63ED45325C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7982,10 +7989,10 @@
         <xdr:cNvPr id="382" name="Rectangle 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9C53997-DE9A-44D6-B177-48CE52BFFDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C53997-DE9A-44D6-B177-48CE52BFFDAE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9A652CE0-C848-4051-9E5A-D4125EC5C9D3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9A652CE0-C848-4051-9E5A-D4125EC5C9D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8160,10 +8167,10 @@
         <xdr:cNvPr id="1284" name="Down Arrow 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF4EA3C2-A3ED-4FEB-861C-7C124B5E9492}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4EA3C2-A3ED-4FEB-861C-7C124B5E9492}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E9C53997-DE9A-44D6-B177-48CE52BFFDAE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E9C53997-DE9A-44D6-B177-48CE52BFFDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8329,7 +8336,7 @@
         <xdr:cNvPr id="1030" name="Rounded Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F33DDE61-C7E7-4079-B033-6F69C9672B02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33DDE61-C7E7-4079-B033-6F69C9672B02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8403,10 +8410,10 @@
         <xdr:cNvPr id="350" name="Rounded Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E20CB432-2B6F-438F-A148-0A4547B3C1EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20CB432-2B6F-438F-A148-0A4547B3C1EF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F33DDE61-C7E7-4079-B033-6F69C9672B02}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F33DDE61-C7E7-4079-B033-6F69C9672B02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8574,10 +8581,10 @@
         <xdr:cNvPr id="1095" name="Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F381F636-FA08-4341-BEBF-4D33A96F1C5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F381F636-FA08-4341-BEBF-4D33A96F1C5D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E20CB432-2B6F-438F-A148-0A4547B3C1EF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E20CB432-2B6F-438F-A148-0A4547B3C1EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8669,10 +8676,10 @@
         <xdr:cNvPr id="1019" name="Rectangle 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9361E35B-454F-45D1-BC16-2FE19685B42B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9361E35B-454F-45D1-BC16-2FE19685B42B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F381F636-FA08-4341-BEBF-4D33A96F1C5D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F381F636-FA08-4341-BEBF-4D33A96F1C5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8753,10 +8760,10 @@
         <xdr:cNvPr id="1098" name="Rectangle 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{600B294B-7117-4BBB-A662-8EF9FF14B071}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600B294B-7117-4BBB-A662-8EF9FF14B071}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9361E35B-454F-45D1-BC16-2FE19685B42B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9361E35B-454F-45D1-BC16-2FE19685B42B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8848,10 +8855,10 @@
         <xdr:cNvPr id="1097" name="Rectangle 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5ADC36B3-9077-4970-A505-D67DF64AB68E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADC36B3-9077-4970-A505-D67DF64AB68E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{600B294B-7117-4BBB-A662-8EF9FF14B071}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{600B294B-7117-4BBB-A662-8EF9FF14B071}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9039,10 +9046,10 @@
         <xdr:cNvPr id="1099" name="Rectangle 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5ADC36B3-9077-4970-A505-D67DF64AB68E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5ADC36B3-9077-4970-A505-D67DF64AB68E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9136,10 +9143,10 @@
         <xdr:cNvPr id="967" name="Rectangle 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9233,10 +9240,10 @@
         <xdr:cNvPr id="971" name="Rectangle 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ADE1959D-8998-48A0-B9F0-DDF44D984D94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE1959D-8998-48A0-B9F0-DDF44D984D94}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9330,10 +9337,10 @@
         <xdr:cNvPr id="1104" name="Straight Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C74B14D1-A74B-4F90-8FCB-8DCEC1A60560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C74B14D1-A74B-4F90-8FCB-8DCEC1A60560}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{ADE1959D-8998-48A0-B9F0-DDF44D984D94}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{ADE1959D-8998-48A0-B9F0-DDF44D984D94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9343,7 +9350,7 @@
           <a:endCxn id="1098" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{F381F636-FA08-4341-BEBF-4D33A96F1C5D}" end="{600B294B-7117-4BBB-A662-8EF9FF14B071}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{F381F636-FA08-4341-BEBF-4D33A96F1C5D}" end="{600B294B-7117-4BBB-A662-8EF9FF14B071}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9395,10 +9402,10 @@
         <xdr:cNvPr id="1102" name="Straight Connector 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BEAC2BD-5F6D-4E06-A3BA-A0F204C695A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEAC2BD-5F6D-4E06-A3BA-A0F204C695A4}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C74B14D1-A74B-4F90-8FCB-8DCEC1A60560}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C74B14D1-A74B-4F90-8FCB-8DCEC1A60560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9408,7 +9415,7 @@
           <a:endCxn id="1097" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{600B294B-7117-4BBB-A662-8EF9FF14B071}" end="{5ADC36B3-9077-4970-A505-D67DF64AB68E}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{600B294B-7117-4BBB-A662-8EF9FF14B071}" end="{5ADC36B3-9077-4970-A505-D67DF64AB68E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9460,10 +9467,10 @@
         <xdr:cNvPr id="1138" name="Rectangle 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F067FC5-4B5D-F712-8F85-AA8FA646BA6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F067FC5-4B5D-F712-8F85-AA8FA646BA6A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5BEAC2BD-5F6D-4E06-A3BA-A0F204C695A4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5BEAC2BD-5F6D-4E06-A3BA-A0F204C695A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9546,10 +9553,10 @@
         <xdr:cNvPr id="1100" name="Straight Connector 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF945760-37A6-40F2-8727-82E4624EED85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF945760-37A6-40F2-8727-82E4624EED85}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5F067FC5-4B5D-F712-8F85-AA8FA646BA6A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5F067FC5-4B5D-F712-8F85-AA8FA646BA6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9559,7 +9566,7 @@
           <a:endCxn id="1099" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{5ADC36B3-9077-4970-A505-D67DF64AB68E}" end="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{5ADC36B3-9077-4970-A505-D67DF64AB68E}" end="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9611,10 +9618,10 @@
         <xdr:cNvPr id="530" name="Rectangle 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B48C053-83AC-4EDD-AD25-53781C7027DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B48C053-83AC-4EDD-AD25-53781C7027DD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D83BA665-4A7C-42D9-ACDE-02BE1B2D4CD7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D83BA665-4A7C-42D9-ACDE-02BE1B2D4CD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9790,10 +9797,10 @@
         <xdr:cNvPr id="1141" name="Rectangle 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2B48C053-83AC-4EDD-AD25-53781C7027DD}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2B48C053-83AC-4EDD-AD25-53781C7027DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9876,10 +9883,10 @@
         <xdr:cNvPr id="533" name="Rectangle 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B437DD1-4A72-4478-80E2-92BE7FA74507}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B437DD1-4A72-4478-80E2-92BE7FA74507}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10055,10 +10062,10 @@
         <xdr:cNvPr id="346" name="Rectangle 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AED92323-E0A7-42C1-BE19-87157791FD6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED92323-E0A7-42C1-BE19-87157791FD6A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3B437DD1-4A72-4478-80E2-92BE7FA74507}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3B437DD1-4A72-4478-80E2-92BE7FA74507}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10233,10 +10240,10 @@
         <xdr:cNvPr id="513" name="Rectangle 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B98C757A-4218-4B08-82B2-1D6BC9EABFCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98C757A-4218-4B08-82B2-1D6BC9EABFCE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AED92323-E0A7-42C1-BE19-87157791FD6A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AED92323-E0A7-42C1-BE19-87157791FD6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10411,10 +10418,10 @@
         <xdr:cNvPr id="1101" name="Straight Connector 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27F49A7D-72BC-47C8-B96B-7CE6C7D87807}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F49A7D-72BC-47C8-B96B-7CE6C7D87807}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B98C757A-4218-4B08-82B2-1D6BC9EABFCE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B98C757A-4218-4B08-82B2-1D6BC9EABFCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10423,7 +10430,7 @@
           <a:stCxn id="1099" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}" end="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}" end="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -10475,10 +10482,10 @@
         <xdr:cNvPr id="1140" name="Rectangle 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BCBDFE0-8CBC-ACA4-541E-DEFD95987543}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCBDFE0-8CBC-ACA4-541E-DEFD95987543}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{27F49A7D-72BC-47C8-B96B-7CE6C7D87807}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{27F49A7D-72BC-47C8-B96B-7CE6C7D87807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10561,10 +10568,10 @@
         <xdr:cNvPr id="972" name="Straight Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BEDC8E2-E55E-4445-98FF-8A42CE43A77A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BEDC8E2-E55E-4445-98FF-8A42CE43A77A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5BCBDFE0-8CBC-ACA4-541E-DEFD95987543}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5BCBDFE0-8CBC-ACA4-541E-DEFD95987543}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10574,7 +10581,7 @@
           <a:endCxn id="971" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}" end="{ADE1959D-8998-48A0-B9F0-DDF44D984D94}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}" end="{ADE1959D-8998-48A0-B9F0-DDF44D984D94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -10626,10 +10633,10 @@
         <xdr:cNvPr id="1046" name="Rectangle 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78BAD808-69FD-417D-8D6E-72722A28E5BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BAD808-69FD-417D-8D6E-72722A28E5BD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8BEDC8E2-E55E-4445-98FF-8A42CE43A77A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8BEDC8E2-E55E-4445-98FF-8A42CE43A77A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10812,10 +10819,10 @@
         <xdr:cNvPr id="1045" name="Rectangle 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{78BAD808-69FD-417D-8D6E-72722A28E5BD}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{78BAD808-69FD-417D-8D6E-72722A28E5BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10998,10 +11005,10 @@
         <xdr:cNvPr id="1048" name="Rectangle 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8A6DC14-7C43-4C56-938A-54B3D77B6351}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A6DC14-7C43-4C56-938A-54B3D77B6351}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11184,10 +11191,10 @@
         <xdr:cNvPr id="1139" name="Rectangle 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1661596-6A49-25E3-4BBE-FC28C16D30C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1661596-6A49-25E3-4BBE-FC28C16D30C0}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C8A6DC14-7C43-4C56-938A-54B3D77B6351}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C8A6DC14-7C43-4C56-938A-54B3D77B6351}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11270,10 +11277,10 @@
         <xdr:cNvPr id="1049" name="Rectangle 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C7443FD-FF6C-45B2-AD85-A7DA2F977555}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7443FD-FF6C-45B2-AD85-A7DA2F977555}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F1661596-6A49-25E3-4BBE-FC28C16D30C0}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F1661596-6A49-25E3-4BBE-FC28C16D30C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11456,10 +11463,10 @@
         <xdr:cNvPr id="1047" name="Rectangle 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EDC5171-7437-441C-A2CF-A5AC2EAFFC5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EDC5171-7437-441C-A2CF-A5AC2EAFFC5E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{6C7443FD-FF6C-45B2-AD85-A7DA2F977555}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6C7443FD-FF6C-45B2-AD85-A7DA2F977555}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11642,10 +11649,10 @@
         <xdr:cNvPr id="1142" name="Rectangle 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DB918F3-260C-403D-31CC-F6F6E5AC5EAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB918F3-260C-403D-31CC-F6F6E5AC5EAD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3EDC5171-7437-441C-A2CF-A5AC2EAFFC5E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3EDC5171-7437-441C-A2CF-A5AC2EAFFC5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11746,10 +11753,10 @@
         <xdr:cNvPr id="561" name="Rectangle 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E93EDFC-E9F6-4718-8534-665AD30D494A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E93EDFC-E9F6-4718-8534-665AD30D494A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5DB918F3-260C-403D-31CC-F6F6E5AC5EAD}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5DB918F3-260C-403D-31CC-F6F6E5AC5EAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11924,10 +11931,10 @@
         <xdr:cNvPr id="1023" name="Rectangle 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{917C7D1D-2CD5-41A9-8A3D-9F62EA3898A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917C7D1D-2CD5-41A9-8A3D-9F62EA3898A2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8E93EDFC-E9F6-4718-8534-665AD30D494A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8E93EDFC-E9F6-4718-8534-665AD30D494A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12102,10 +12109,10 @@
         <xdr:cNvPr id="1052" name="Straight Connector 173">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E96206F8-7439-4BC9-8BCD-37420C883A41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96206F8-7439-4BC9-8BCD-37420C883A41}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{917C7D1D-2CD5-41A9-8A3D-9F62EA3898A2}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{917C7D1D-2CD5-41A9-8A3D-9F62EA3898A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12114,7 +12121,7 @@
           <a:endCxn id="1045" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -12166,10 +12173,10 @@
         <xdr:cNvPr id="1143" name="Rectangle 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4262C60-6092-89D5-CEE1-3551C91F9437}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4262C60-6092-89D5-CEE1-3551C91F9437}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E96206F8-7439-4BC9-8BCD-37420C883A41}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E96206F8-7439-4BC9-8BCD-37420C883A41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12252,10 +12259,10 @@
         <xdr:cNvPr id="534" name="Rectangle 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A317E57-35D0-46C4-AD4E-5C3AB89879C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A317E57-35D0-46C4-AD4E-5C3AB89879C7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E4262C60-6092-89D5-CEE1-3551C91F9437}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E4262C60-6092-89D5-CEE1-3551C91F9437}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12431,10 +12438,10 @@
         <xdr:cNvPr id="1050" name="Straight Connector 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C21EB24-B984-4971-AE7E-A07B727FC2CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C21EB24-B984-4971-AE7E-A07B727FC2CB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B4B55678-C655-C05B-0919-810B5FFFFAB7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B4B55678-C655-C05B-0919-810B5FFFFAB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12442,7 +12449,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -12494,10 +12501,10 @@
         <xdr:cNvPr id="1051" name="Straight Connector 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C03DFF60-6C45-4194-A557-057DD53F8357}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03DFF60-6C45-4194-A557-057DD53F8357}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2C21EB24-B984-4971-AE7E-A07B727FC2CB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2C21EB24-B984-4971-AE7E-A07B727FC2CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12506,7 +12513,7 @@
           <a:endCxn id="1049" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{6C7443FD-FF6C-45B2-AD85-A7DA2F977555}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{6C7443FD-FF6C-45B2-AD85-A7DA2F977555}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -12558,10 +12565,10 @@
         <xdr:cNvPr id="535" name="Rectangle 256">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10DE804B-D3EF-4690-B735-F91CB04A3B8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10DE804B-D3EF-4690-B735-F91CB04A3B8B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C03DFF60-6C45-4194-A557-057DD53F8357}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C03DFF60-6C45-4194-A557-057DD53F8357}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12737,10 +12744,10 @@
         <xdr:cNvPr id="1165" name="Rectangle 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBA531F5-B375-494E-AA0F-A596B9CCF7F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA531F5-B375-494E-AA0F-A596B9CCF7F6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{10DE804B-D3EF-4690-B735-F91CB04A3B8B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{10DE804B-D3EF-4690-B735-F91CB04A3B8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12916,10 +12923,10 @@
         <xdr:cNvPr id="1149" name="Rectangle 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{DBA531F5-B375-494E-AA0F-A596B9CCF7F6}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DBA531F5-B375-494E-AA0F-A596B9CCF7F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13095,10 +13102,10 @@
         <xdr:cNvPr id="1168" name="Rectangle 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9A3853-6780-4014-AFE1-1C2807BA9E37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9A3853-6780-4014-AFE1-1C2807BA9E37}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13288,10 +13295,10 @@
         <xdr:cNvPr id="1150" name="Rectangle 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98E81C20-7303-4462-9EDF-A13262235900}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E81C20-7303-4462-9EDF-A13262235900}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9C9A3853-6780-4014-AFE1-1C2807BA9E37}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9C9A3853-6780-4014-AFE1-1C2807BA9E37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13467,10 +13474,10 @@
         <xdr:cNvPr id="538" name="Rectangle 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B57D2E9D-C30E-42C8-BDAA-4239AC01F3A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57D2E9D-C30E-42C8-BDAA-4239AC01F3A3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{98E81C20-7303-4462-9EDF-A13262235900}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{98E81C20-7303-4462-9EDF-A13262235900}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13646,10 +13653,10 @@
         <xdr:cNvPr id="1215" name="Rectangle 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D9A0992-0FED-4B26-823B-6784B802045F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9A0992-0FED-4B26-823B-6784B802045F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B57D2E9D-C30E-42C8-BDAA-4239AC01F3A3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B57D2E9D-C30E-42C8-BDAA-4239AC01F3A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13825,10 +13832,10 @@
         <xdr:cNvPr id="1053" name="Straight Connector 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6647D58C-49BA-4197-85E8-8CA8F0BE1AC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6647D58C-49BA-4197-85E8-8CA8F0BE1AC0}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3D9A0992-0FED-4B26-823B-6784B802045F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3D9A0992-0FED-4B26-823B-6784B802045F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13836,7 +13843,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -13888,10 +13895,10 @@
         <xdr:cNvPr id="1058" name="Straight Connector 318">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B9AFB5D-4BF1-4C83-B890-14643CBCDF97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B9AFB5D-4BF1-4C83-B890-14643CBCDF97}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{357C8DBA-76B1-D046-DE88-2A1FBB3373AF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{357C8DBA-76B1-D046-DE88-2A1FBB3373AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13900,7 +13907,7 @@
           <a:endCxn id="1054" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{E9B87A2D-12B7-4A81-8CD5-E39E763C05FB}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{E9B87A2D-12B7-4A81-8CD5-E39E763C05FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -13952,10 +13959,10 @@
         <xdr:cNvPr id="1197" name="Straight Connector 369">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E024EA03-6E50-4DD6-A9C5-C75D681B7311}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E024EA03-6E50-4DD6-A9C5-C75D681B7311}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0B9AFB5D-4BF1-4C83-B890-14643CBCDF97}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0B9AFB5D-4BF1-4C83-B890-14643CBCDF97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13964,7 +13971,7 @@
           <a:endCxn id="1149" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -14021,10 +14028,10 @@
         <xdr:cNvPr id="1210" name="Straight Connector 370">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6D5D7E1-43A7-4CEE-A94B-55E9481931CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D5D7E1-43A7-4CEE-A94B-55E9481931CF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E024EA03-6E50-4DD6-A9C5-C75D681B7311}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E024EA03-6E50-4DD6-A9C5-C75D681B7311}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14033,7 +14040,7 @@
           <a:stCxn id="1150" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{98E81C20-7303-4462-9EDF-A13262235900}" end="{00000000-0000-0000-0000-000000000000}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{98E81C20-7303-4462-9EDF-A13262235900}" end="{00000000-0000-0000-0000-000000000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -14090,10 +14097,10 @@
         <xdr:cNvPr id="1056" name="Rectangle 325">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7683EEA-E9A2-485D-8D4C-D15747FD996E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7683EEA-E9A2-485D-8D4C-D15747FD996E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E6D5D7E1-43A7-4CEE-A94B-55E9481931CF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E6D5D7E1-43A7-4CEE-A94B-55E9481931CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14276,10 +14283,10 @@
         <xdr:cNvPr id="1059" name="Straight Connector 350">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D622045D-E7CC-4F8C-9013-ED75E7E8C308}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D622045D-E7CC-4F8C-9013-ED75E7E8C308}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F7449D9E-5A85-470D-9EF9-5DF95B326A0F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F7449D9E-5A85-470D-9EF9-5DF95B326A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14287,7 +14294,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -14339,10 +14346,10 @@
         <xdr:cNvPr id="3" name="Rectangle 337">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83FFFD2B-CA95-4830-8794-A273E8E9E6E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FFFD2B-CA95-4830-8794-A273E8E9E6E2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D622045D-E7CC-4F8C-9013-ED75E7E8C308}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D622045D-E7CC-4F8C-9013-ED75E7E8C308}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14517,10 +14524,10 @@
         <xdr:cNvPr id="1060" name="Straight Connector 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9078CDF5-7C23-4E8E-81EF-E1EEC1C0D2E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9078CDF5-7C23-4E8E-81EF-E1EEC1C0D2E0}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{83FFFD2B-CA95-4830-8794-A273E8E9E6E2}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{83FFFD2B-CA95-4830-8794-A273E8E9E6E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14528,7 +14535,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9CE44125-180F-4184-B427-5CAF7E334CB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -14580,10 +14587,10 @@
         <xdr:cNvPr id="1055" name="Rectangle 360">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7165109D-9F37-4A76-82D6-6DBD9D6E3948}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7165109D-9F37-4A76-82D6-6DBD9D6E3948}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9078CDF5-7C23-4E8E-81EF-E1EEC1C0D2E0}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9078CDF5-7C23-4E8E-81EF-E1EEC1C0D2E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14766,10 +14773,10 @@
         <xdr:cNvPr id="1054" name="Rectangle 366">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9B87A2D-12B7-4A81-8CD5-E39E763C05FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B87A2D-12B7-4A81-8CD5-E39E763C05FB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{7165109D-9F37-4A76-82D6-6DBD9D6E3948}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7165109D-9F37-4A76-82D6-6DBD9D6E3948}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14952,10 +14959,10 @@
         <xdr:cNvPr id="1057" name="Rectangle 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2A42B10-AFDA-4831-A11A-449C48F09C11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A42B10-AFDA-4831-A11A-449C48F09C11}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E9B87A2D-12B7-4A81-8CD5-E39E763C05FB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E9B87A2D-12B7-4A81-8CD5-E39E763C05FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15138,10 +15145,10 @@
         <xdr:cNvPr id="1196" name="Straight Connector 419">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19EB784E-97E0-46F5-8A30-FAB65D1CD625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19EB784E-97E0-46F5-8A30-FAB65D1CD625}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E2A42B10-AFDA-4831-A11A-449C48F09C11}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E2A42B10-AFDA-4831-A11A-449C48F09C11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15150,7 +15157,7 @@
           <a:stCxn id="1149" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{ECA95649-CBAF-43E1-8321-EB130E00578B}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{ECA95649-CBAF-43E1-8321-EB130E00578B}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -15207,10 +15214,10 @@
         <xdr:cNvPr id="1044" name="Rectangle 378">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0CC5172-5894-41B1-B868-94A3433DEDB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CC5172-5894-41B1-B868-94A3433DEDB9}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{19EB784E-97E0-46F5-8A30-FAB65D1CD625}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{19EB784E-97E0-46F5-8A30-FAB65D1CD625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15385,10 +15392,10 @@
         <xdr:cNvPr id="1193" name="Straight Connector 427">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4658E29-244B-4163-950B-205154DB023D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4658E29-244B-4163-950B-205154DB023D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C0CC5172-5894-41B1-B868-94A3433DEDB9}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C0CC5172-5894-41B1-B868-94A3433DEDB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15397,7 +15404,7 @@
           <a:stCxn id="1168" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{9C9A3853-6780-4014-AFE1-1C2807BA9E37}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9C9A3853-6780-4014-AFE1-1C2807BA9E37}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -15454,10 +15461,10 @@
         <xdr:cNvPr id="1167" name="Rectangle 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F6C0B01-13C6-4F73-BDD3-73CEE581B9EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6C0B01-13C6-4F73-BDD3-73CEE581B9EE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8A1C256B-462A-4924-A861-82C6043E2363}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8A1C256B-462A-4924-A861-82C6043E2363}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15633,10 +15640,10 @@
         <xdr:cNvPr id="1162" name="Rectangle 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1F6C0B01-13C6-4F73-BDD3-73CEE581B9EE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1F6C0B01-13C6-4F73-BDD3-73CEE581B9EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15812,10 +15819,10 @@
         <xdr:cNvPr id="1151" name="Rectangle 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9734724-9F8B-4FCC-B3AC-156CE761E14B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9734724-9F8B-4FCC-B3AC-156CE761E14B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16005,10 +16012,10 @@
         <xdr:cNvPr id="1171" name="Rectangle 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA3FA4CF-57DF-4CAC-870F-2ACB06FF39FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3FA4CF-57DF-4CAC-870F-2ACB06FF39FE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B9734724-9F8B-4FCC-B3AC-156CE761E14B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B9734724-9F8B-4FCC-B3AC-156CE761E14B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16184,10 +16191,10 @@
         <xdr:cNvPr id="1217" name="Rectangle 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C18CCC5-6456-42FB-94F4-241FCD3A50A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C18CCC5-6456-42FB-94F4-241FCD3A50A5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AA3FA4CF-57DF-4CAC-870F-2ACB06FF39FE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AA3FA4CF-57DF-4CAC-870F-2ACB06FF39FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16363,10 +16370,10 @@
         <xdr:cNvPr id="1202" name="Straight Connector 369">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{547D1F48-A63A-44BF-AEBB-4BDABC7182F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547D1F48-A63A-44BF-AEBB-4BDABC7182F5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{881AF886-0FA1-42FB-8D59-8228F6891627}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{881AF886-0FA1-42FB-8D59-8228F6891627}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16375,7 +16382,7 @@
           <a:endCxn id="1162" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -16432,10 +16439,10 @@
         <xdr:cNvPr id="1203" name="Straight Connector 370">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44C46A1A-9D23-4BE4-B09D-EA42C461733A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C46A1A-9D23-4BE4-B09D-EA42C461733A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{547D1F48-A63A-44BF-AEBB-4BDABC7182F5}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{547D1F48-A63A-44BF-AEBB-4BDABC7182F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16444,7 +16451,7 @@
           <a:stCxn id="1171" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{AA3FA4CF-57DF-4CAC-870F-2ACB06FF39FE}" end="{00000000-0000-0000-0000-000000000000}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{AA3FA4CF-57DF-4CAC-870F-2ACB06FF39FE}" end="{00000000-0000-0000-0000-000000000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -16501,10 +16508,10 @@
         <xdr:cNvPr id="1200" name="Straight Connector 419">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A72250C-19DC-4234-8F8D-CCDB7B3493C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A72250C-19DC-4234-8F8D-CCDB7B3493C2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1E276541-5E3F-4E09-B23A-7E09B36E30F1}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1E276541-5E3F-4E09-B23A-7E09B36E30F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16513,7 +16520,7 @@
           <a:stCxn id="1162" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{E88CA0F6-199E-4EF5-80FF-B20C20F2C31A}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -16570,10 +16577,10 @@
         <xdr:cNvPr id="1189" name="Straight Connector 427">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42AF609F-737F-4FA6-B187-D78E2004E9A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42AF609F-737F-4FA6-B187-D78E2004E9A9}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5A72250C-19DC-4234-8F8D-CCDB7B3493C2}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A72250C-19DC-4234-8F8D-CCDB7B3493C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16582,7 +16589,7 @@
           <a:stCxn id="1151" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{B9734724-9F8B-4FCC-B3AC-156CE761E14B}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B9734724-9F8B-4FCC-B3AC-156CE761E14B}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -16639,10 +16646,10 @@
         <xdr:cNvPr id="1169" name="Rectangle 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EADE90C-609E-46C6-A492-6B399304C992}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EADE90C-609E-46C6-A492-6B399304C992}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{59471B16-99B0-41B1-A977-415592FDBA27}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{59471B16-99B0-41B1-A977-415592FDBA27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16818,10 +16825,10 @@
         <xdr:cNvPr id="1177" name="Rectangle 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2EADE90C-609E-46C6-A492-6B399304C992}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2EADE90C-609E-46C6-A492-6B399304C992}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16997,10 +17004,10 @@
         <xdr:cNvPr id="1155" name="Rectangle 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{104F9262-AC05-4546-89D9-FFE1EA88727E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104F9262-AC05-4546-89D9-FFE1EA88727E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17190,10 +17197,10 @@
         <xdr:cNvPr id="1180" name="Rectangle 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D65BBA05-9BE2-48F8-B1A6-A72A2CBF33A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65BBA05-9BE2-48F8-B1A6-A72A2CBF33A0}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{104F9262-AC05-4546-89D9-FFE1EA88727E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{104F9262-AC05-4546-89D9-FFE1EA88727E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17369,10 +17376,10 @@
         <xdr:cNvPr id="1218" name="Rectangle 286">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16835D16-EC76-4943-B470-E490F79118DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16835D16-EC76-4943-B470-E490F79118DD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D65BBA05-9BE2-48F8-B1A6-A72A2CBF33A0}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D65BBA05-9BE2-48F8-B1A6-A72A2CBF33A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17548,10 +17555,10 @@
         <xdr:cNvPr id="1190" name="Straight Connector 369">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB9F940C-AA8F-40DC-9E49-376FB34CDDAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9F940C-AA8F-40DC-9E49-376FB34CDDAB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{392A0066-DE6D-4A7C-96BB-C0C7DC7A91F3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{392A0066-DE6D-4A7C-96BB-C0C7DC7A91F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17560,7 +17567,7 @@
           <a:endCxn id="1177" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -17617,10 +17624,10 @@
         <xdr:cNvPr id="1211" name="Straight Connector 370">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16C7D2F4-AAAD-4CA2-89F1-B00026A19CC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C7D2F4-AAAD-4CA2-89F1-B00026A19CC6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{FB9F940C-AA8F-40DC-9E49-376FB34CDDAB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FB9F940C-AA8F-40DC-9E49-376FB34CDDAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17629,7 +17636,7 @@
           <a:stCxn id="1180" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{D65BBA05-9BE2-48F8-B1A6-A72A2CBF33A0}" end="{00000000-0000-0000-0000-000000000000}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{D65BBA05-9BE2-48F8-B1A6-A72A2CBF33A0}" end="{00000000-0000-0000-0000-000000000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -17686,10 +17693,10 @@
         <xdr:cNvPr id="1209" name="Straight Connector 419">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23770963-AA0C-42C9-B90C-2EE991F33AC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23770963-AA0C-42C9-B90C-2EE991F33AC3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{82205002-6704-4D9F-A290-3463594F271B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{82205002-6704-4D9F-A290-3463594F271B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17698,7 +17705,7 @@
           <a:stCxn id="1177" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{5C21824E-5EBF-4AC1-9E57-231780B4EDDF}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -17755,10 +17762,10 @@
         <xdr:cNvPr id="1205" name="Straight Connector 427">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E7A5F1E-44F6-4C29-92F7-322CFC623788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E7A5F1E-44F6-4C29-92F7-322CFC623788}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{23770963-AA0C-42C9-B90C-2EE991F33AC3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{23770963-AA0C-42C9-B90C-2EE991F33AC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17767,7 +17774,7 @@
           <a:stCxn id="1155" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{104F9262-AC05-4546-89D9-FFE1EA88727E}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{104F9262-AC05-4546-89D9-FFE1EA88727E}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -17824,10 +17831,10 @@
         <xdr:cNvPr id="1172" name="Rectangle 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BDD67F9-8731-4416-8637-9CEB1391FE92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BDD67F9-8731-4416-8637-9CEB1391FE92}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F1F1FC65-9469-4A40-AB0E-6E233ECF8FB7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F1F1FC65-9469-4A40-AB0E-6E233ECF8FB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18003,10 +18010,10 @@
         <xdr:cNvPr id="1161" name="Rectangle 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{6BDD67F9-8731-4416-8637-9CEB1391FE92}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6BDD67F9-8731-4416-8637-9CEB1391FE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18182,10 +18189,10 @@
         <xdr:cNvPr id="1153" name="Rectangle 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4CFA0EC-1A83-475F-904B-01B03EAE7C87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CFA0EC-1A83-475F-904B-01B03EAE7C87}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18375,10 +18382,10 @@
         <xdr:cNvPr id="1156" name="Rectangle 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1CB16B3-B489-448D-8572-B43E88C10DCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CB16B3-B489-448D-8572-B43E88C10DCC}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C4CFA0EC-1A83-475F-904B-01B03EAE7C87}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C4CFA0EC-1A83-475F-904B-01B03EAE7C87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18554,10 +18561,10 @@
         <xdr:cNvPr id="1221" name="Rectangle 286">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DF25A41-9CF8-4191-9230-974B59C8A7B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF25A41-9CF8-4191-9230-974B59C8A7B6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D1CB16B3-B489-448D-8572-B43E88C10DCC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D1CB16B3-B489-448D-8572-B43E88C10DCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18733,10 +18740,10 @@
         <xdr:cNvPr id="1194" name="Straight Connector 369">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A192E5B-A33E-4BA6-98E0-0024D72FC381}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A192E5B-A33E-4BA6-98E0-0024D72FC381}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B274B20B-64A2-48B8-B614-9F423171E895}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B274B20B-64A2-48B8-B614-9F423171E895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18745,7 +18752,7 @@
           <a:endCxn id="1161" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -18802,10 +18809,10 @@
         <xdr:cNvPr id="1199" name="Straight Connector 370">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0CFCAFE-0643-4C66-B8FB-EA1C727E571C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CFCAFE-0643-4C66-B8FB-EA1C727E571C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{6A192E5B-A33E-4BA6-98E0-0024D72FC381}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6A192E5B-A33E-4BA6-98E0-0024D72FC381}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18814,7 +18821,7 @@
           <a:stCxn id="1156" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{D1CB16B3-B489-448D-8572-B43E88C10DCC}" end="{00000000-0000-0000-0000-000000000000}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{D1CB16B3-B489-448D-8572-B43E88C10DCC}" end="{00000000-0000-0000-0000-000000000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -18871,10 +18878,10 @@
         <xdr:cNvPr id="1201" name="Straight Connector 419">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{049A105B-D031-4727-A436-C3BF5DA487DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049A105B-D031-4727-A436-C3BF5DA487DC}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8DCC8CFF-E5B6-46F3-B64E-BF3E871705E6}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8DCC8CFF-E5B6-46F3-B64E-BF3E871705E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18883,7 +18890,7 @@
           <a:stCxn id="1161" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9682D9B0-A0F7-4B6F-AE43-41FDB0486E76}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -18940,10 +18947,10 @@
         <xdr:cNvPr id="1204" name="Straight Connector 427">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D464C2DE-4DC2-450B-A3DF-AD915AFF9F44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D464C2DE-4DC2-450B-A3DF-AD915AFF9F44}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{049A105B-D031-4727-A436-C3BF5DA487DC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{049A105B-D031-4727-A436-C3BF5DA487DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18952,7 +18959,7 @@
           <a:stCxn id="1153" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{C4CFA0EC-1A83-475F-904B-01B03EAE7C87}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{C4CFA0EC-1A83-475F-904B-01B03EAE7C87}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -19009,10 +19016,10 @@
         <xdr:cNvPr id="1181" name="Rectangle 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BA0F980-3783-4716-A9A7-CF15F43FBF6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA0F980-3783-4716-A9A7-CF15F43FBF6C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2DBC081F-592B-46DD-B11B-205B000818B4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2DBC081F-592B-46DD-B11B-205B000818B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19188,10 +19195,10 @@
         <xdr:cNvPr id="1183" name="Rectangle 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06D3BCBC-87D9-4370-BBE1-54013878CE30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D3BCBC-87D9-4370-BBE1-54013878CE30}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{6BA0F980-3783-4716-A9A7-CF15F43FBF6C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6BA0F980-3783-4716-A9A7-CF15F43FBF6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19367,10 +19374,10 @@
         <xdr:cNvPr id="1174" name="Rectangle 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC5FBF0B-3979-48D1-826D-DE2EC3B62613}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC5FBF0B-3979-48D1-826D-DE2EC3B62613}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{06D3BCBC-87D9-4370-BBE1-54013878CE30}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{06D3BCBC-87D9-4370-BBE1-54013878CE30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19560,10 +19567,10 @@
         <xdr:cNvPr id="1176" name="Rectangle 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82E5BCEE-1F6F-4E26-A746-3043E09A55E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E5BCEE-1F6F-4E26-A746-3043E09A55E5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AC5FBF0B-3979-48D1-826D-DE2EC3B62613}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AC5FBF0B-3979-48D1-826D-DE2EC3B62613}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19739,10 +19746,10 @@
         <xdr:cNvPr id="1223" name="Rectangle 286">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6DE949E-0989-47D0-B38B-069F792E664F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6DE949E-0989-47D0-B38B-069F792E664F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{82E5BCEE-1F6F-4E26-A746-3043E09A55E5}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{82E5BCEE-1F6F-4E26-A746-3043E09A55E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19918,10 +19925,10 @@
         <xdr:cNvPr id="1208" name="Straight Connector 369">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{728E3533-00C5-4455-8D40-C8C1D6E336DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728E3533-00C5-4455-8D40-C8C1D6E336DF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E674544E-387B-4847-A8BD-48C78C0F7CAF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E674544E-387B-4847-A8BD-48C78C0F7CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19930,7 +19937,7 @@
           <a:endCxn id="1183" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{06D3BCBC-87D9-4370-BBE1-54013878CE30}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{06D3BCBC-87D9-4370-BBE1-54013878CE30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -19987,10 +19994,10 @@
         <xdr:cNvPr id="1187" name="Straight Connector 370">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB4DA616-7DAC-416E-8127-1A188D8FE8BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4DA616-7DAC-416E-8127-1A188D8FE8BE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{728E3533-00C5-4455-8D40-C8C1D6E336DF}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{728E3533-00C5-4455-8D40-C8C1D6E336DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19999,7 +20006,7 @@
           <a:stCxn id="1176" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{82E5BCEE-1F6F-4E26-A746-3043E09A55E5}" end="{00000000-0000-0000-0000-000000000000}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{82E5BCEE-1F6F-4E26-A746-3043E09A55E5}" end="{00000000-0000-0000-0000-000000000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -20056,10 +20063,10 @@
         <xdr:cNvPr id="1192" name="Straight Connector 419">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D044D77-7A87-4AAC-A2E1-C7734DA8309D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D044D77-7A87-4AAC-A2E1-C7734DA8309D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{A858046E-60F5-4E3C-8B09-33FF37AEBA78}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A858046E-60F5-4E3C-8B09-33FF37AEBA78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20068,7 +20075,7 @@
           <a:stCxn id="1183" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{06D3BCBC-87D9-4370-BBE1-54013878CE30}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{06D3BCBC-87D9-4370-BBE1-54013878CE30}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -20125,10 +20132,10 @@
         <xdr:cNvPr id="1186" name="Straight Connector 427">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{922FF614-1A1E-4073-A450-2EE00645A891}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922FF614-1A1E-4073-A450-2EE00645A891}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{6D044D77-7A87-4AAC-A2E1-C7734DA8309D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6D044D77-7A87-4AAC-A2E1-C7734DA8309D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20137,7 +20144,7 @@
           <a:stCxn id="1174" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{AC5FBF0B-3979-48D1-826D-DE2EC3B62613}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{AC5FBF0B-3979-48D1-826D-DE2EC3B62613}" end="{ECA95649-CBAF-43E1-8321-EB130E00578B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -20194,10 +20201,10 @@
         <xdr:cNvPr id="1031" name="Rectangle 570">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{922FF614-1A1E-4073-A450-2EE00645A891}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{922FF614-1A1E-4073-A450-2EE00645A891}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20373,10 +20380,10 @@
         <xdr:cNvPr id="560" name="Down Arrow 448">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA1BC899-541B-41A1-B208-FE184B3D7F44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1BC899-541B-41A1-B208-FE184B3D7F44}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20439,10 +20446,10 @@
         <xdr:cNvPr id="1032" name="Rectangle 594">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4A128FF-655E-4B75-BE2B-DE6CC5427A7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A128FF-655E-4B75-BE2B-DE6CC5427A7F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B3C1FE16-3143-4007-9D81-3A8CA4CB18FE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B3C1FE16-3143-4007-9D81-3A8CA4CB18FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20618,10 +20625,10 @@
         <xdr:cNvPr id="1033" name="Rectangle 602">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E5F8EAF-A3A3-4CC9-B845-EC348B9BA5CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5F8EAF-A3A3-4CC9-B845-EC348B9BA5CB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B4A128FF-655E-4B75-BE2B-DE6CC5427A7F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B4A128FF-655E-4B75-BE2B-DE6CC5427A7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20797,10 +20804,10 @@
         <xdr:cNvPr id="575" name="Straight Connector 661">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9406A78B-A48A-8E80-2923-B748F3F4DFDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9406A78B-A48A-8E80-2923-B748F3F4DFDA}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{413C801C-4EFB-4B65-AA3C-F12481686E35}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{413C801C-4EFB-4B65-AA3C-F12481686E35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20810,7 +20817,7 @@
           <a:endCxn id="533" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{3B437DD1-4A72-4478-80E2-92BE7FA74507}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{3B437DD1-4A72-4478-80E2-92BE7FA74507}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -20862,10 +20869,10 @@
         <xdr:cNvPr id="137" name="Straight Connector 673">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A697C3A3-7430-4D36-8CD7-E608CD4B27BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A697C3A3-7430-4D36-8CD7-E608CD4B27BB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{832B08A2-C334-44A9-8A92-00D85FD2FD2E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{832B08A2-C334-44A9-8A92-00D85FD2FD2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20874,7 +20881,7 @@
           <a:endCxn id="534" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{8A317E57-35D0-46C4-AD4E-5C3AB89879C7}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{8A317E57-35D0-46C4-AD4E-5C3AB89879C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -20926,10 +20933,10 @@
         <xdr:cNvPr id="145" name="Straight Connector 680">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C65651BE-3CE5-46AC-9BA9-BD5EF95CECB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65651BE-3CE5-46AC-9BA9-BD5EF95CECB7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{754EA7CE-BE8C-4A8E-B77A-CB2151C9494E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{754EA7CE-BE8C-4A8E-B77A-CB2151C9494E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20938,7 +20945,7 @@
           <a:endCxn id="535" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{10DE804B-D3EF-4690-B735-F91CB04A3B8B}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{10DE804B-D3EF-4690-B735-F91CB04A3B8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -20990,10 +20997,10 @@
         <xdr:cNvPr id="176" name="Straight Connector 684">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5531F7C9-459E-449C-B3CE-CC3D5432F6EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5531F7C9-459E-449C-B3CE-CC3D5432F6EE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C65651BE-3CE5-46AC-9BA9-BD5EF95CECB7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C65651BE-3CE5-46AC-9BA9-BD5EF95CECB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21002,7 +21009,7 @@
           <a:endCxn id="538" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{B57D2E9D-C30E-42C8-BDAA-4239AC01F3A3}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{2B48C053-83AC-4EDD-AD25-53781C7027DD}" end="{B57D2E9D-C30E-42C8-BDAA-4239AC01F3A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -21054,10 +21061,10 @@
         <xdr:cNvPr id="1118" name="Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB814958-62BB-46E0-9816-820B5803626B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB814958-62BB-46E0-9816-820B5803626B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{11D01BE2-29A9-4D95-8752-B3C7FA0E562F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{11D01BE2-29A9-4D95-8752-B3C7FA0E562F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21149,10 +21156,10 @@
         <xdr:cNvPr id="1117" name="Rectangle 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{BB814958-62BB-46E0-9816-820B5803626B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BB814958-62BB-46E0-9816-820B5803626B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21244,10 +21251,10 @@
         <xdr:cNvPr id="1121" name="Rectangle 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4270860B-D8EB-4CE5-A515-344DA33472CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4270860B-D8EB-4CE5-A515-344DA33472CD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21435,10 +21442,10 @@
         <xdr:cNvPr id="1120" name="Rectangle 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8086ABE5-8D50-4E21-95E3-0B3B4DD66B02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8086ABE5-8D50-4E21-95E3-0B3B4DD66B02}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4270860B-D8EB-4CE5-A515-344DA33472CD}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4270860B-D8EB-4CE5-A515-344DA33472CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21532,10 +21539,10 @@
         <xdr:cNvPr id="1123" name="Straight Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3149E3DD-2B43-4A24-8D2E-24BE02CEA9A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3149E3DD-2B43-4A24-8D2E-24BE02CEA9A7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D259078E-548B-4227-A13E-8BFB21A29F32}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D259078E-548B-4227-A13E-8BFB21A29F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21545,7 +21552,7 @@
           <a:endCxn id="1117" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{BB814958-62BB-46E0-9816-820B5803626B}" end="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{BB814958-62BB-46E0-9816-820B5803626B}" end="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -21597,10 +21604,10 @@
         <xdr:cNvPr id="1125" name="Straight Connector 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD60ED15-0E4C-4E97-AC00-E73F9A40574F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD60ED15-0E4C-4E97-AC00-E73F9A40574F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3149E3DD-2B43-4A24-8D2E-24BE02CEA9A7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3149E3DD-2B43-4A24-8D2E-24BE02CEA9A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21610,7 +21617,7 @@
           <a:endCxn id="1121" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}" end="{4270860B-D8EB-4CE5-A515-344DA33472CD}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{5B16AFA8-34BE-449D-BC5A-D2B36F617BC7}" end="{4270860B-D8EB-4CE5-A515-344DA33472CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -21662,10 +21669,10 @@
         <xdr:cNvPr id="1126" name="Straight Connector 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{609E266B-5ACE-434E-97EB-C3D26BB0FA31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609E266B-5ACE-434E-97EB-C3D26BB0FA31}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{DD60ED15-0E4C-4E97-AC00-E73F9A40574F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DD60ED15-0E4C-4E97-AC00-E73F9A40574F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21674,7 +21681,7 @@
           <a:endCxn id="194" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{4270860B-D8EB-4CE5-A515-344DA33472CD}" end="{012D3164-7DEC-48EE-B9C7-2835ECC4FBA1}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{4270860B-D8EB-4CE5-A515-344DA33472CD}" end="{012D3164-7DEC-48EE-B9C7-2835ECC4FBA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -21726,10 +21733,10 @@
         <xdr:cNvPr id="1122" name="Straight Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBE3B07D-5BB5-44A5-8F1E-11EE31173CCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE3B07D-5BB5-44A5-8F1E-11EE31173CCB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{609E266B-5ACE-434E-97EB-C3D26BB0FA31}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{609E266B-5ACE-434E-97EB-C3D26BB0FA31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21737,7 +21744,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{B1B7821D-A5CD-4EF4-9AC9-45F1F8D9E09F}" end="{D259078E-548B-4227-A13E-8BFB21A29F32}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B1B7821D-A5CD-4EF4-9AC9-45F1F8D9E09F}" end="{D259078E-548B-4227-A13E-8BFB21A29F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -21789,10 +21796,10 @@
         <xdr:cNvPr id="1268" name="Rectangle 644">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F6B3BE4-58DB-47D2-ADD0-E9EA360E6A60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6B3BE4-58DB-47D2-ADD0-E9EA360E6A60}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{BBE3B07D-5BB5-44A5-8F1E-11EE31173CCB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BBE3B07D-5BB5-44A5-8F1E-11EE31173CCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21967,10 +21974,10 @@
         <xdr:cNvPr id="1012" name="Rectangle 646">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F03B319-AA5C-43A6-9187-5C98794BBF85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F03B319-AA5C-43A6-9187-5C98794BBF85}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9F6B3BE4-58DB-47D2-ADD0-E9EA360E6A60}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9F6B3BE4-58DB-47D2-ADD0-E9EA360E6A60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22145,10 +22152,10 @@
         <xdr:cNvPr id="1034" name="Straight Connector 755">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E93E09A-A2A3-4CD3-86F8-558967084E50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E93E09A-A2A3-4CD3-86F8-558967084E50}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1F03B319-AA5C-43A6-9187-5C98794BBF85}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1F03B319-AA5C-43A6-9187-5C98794BBF85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22158,7 +22165,7 @@
           <a:endCxn id="1032" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}" end="{B4A128FF-655E-4B75-BE2B-DE6CC5427A7F}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}" end="{B4A128FF-655E-4B75-BE2B-DE6CC5427A7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -22210,10 +22217,10 @@
         <xdr:cNvPr id="1035" name="Straight Connector 756">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4582C5C-6110-4224-BB92-30D5B854C106}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4582C5C-6110-4224-BB92-30D5B854C106}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5E93E09A-A2A3-4CD3-86F8-558967084E50}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5E93E09A-A2A3-4CD3-86F8-558967084E50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22222,7 +22229,7 @@
           <a:endCxn id="1033" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}" end="{7E5F8EAF-A3A3-4CC9-B845-EC348B9BA5CB}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{21D31B6F-E870-4FCC-8AAF-79FB2E5B6AE2}" end="{7E5F8EAF-A3A3-4CC9-B845-EC348B9BA5CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -22274,10 +22281,10 @@
         <xdr:cNvPr id="1246" name="Down Arrow 681">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3D6139B-4DBB-461C-ACCC-ED00B9B15B7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D6139B-4DBB-461C-ACCC-ED00B9B15B7A}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B4582C5C-6110-4224-BB92-30D5B854C106}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B4582C5C-6110-4224-BB92-30D5B854C106}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22436,10 +22443,10 @@
         <xdr:cNvPr id="1010" name="Down Arrow 683">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28E1A88D-E42F-4DAF-9718-5EDA49A61740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E1A88D-E42F-4DAF-9718-5EDA49A61740}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E3D6139B-4DBB-461C-ACCC-ED00B9B15B7A}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E3D6139B-4DBB-461C-ACCC-ED00B9B15B7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22605,10 +22612,10 @@
         <xdr:cNvPr id="1245" name="Down Arrow 687">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1C4C3C3-3926-48F4-955F-0B2C1D7384E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C4C3C3-3926-48F4-955F-0B2C1D7384E8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{28E1A88D-E42F-4DAF-9718-5EDA49A61740}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{28E1A88D-E42F-4DAF-9718-5EDA49A61740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22767,10 +22774,10 @@
         <xdr:cNvPr id="1239" name="Rectangle 726">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AA9E2FA-4075-4688-B882-B4A92B0035F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA9E2FA-4075-4688-B882-B4A92B0035F7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{A1C4C3C3-3926-48F4-955F-0B2C1D7384E8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A1C4C3C3-3926-48F4-955F-0B2C1D7384E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22958,10 +22965,10 @@
         <xdr:cNvPr id="325" name="Rectangle 731">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05A6FD80-6DB7-4AFD-B654-3A47B92B89C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A6FD80-6DB7-4AFD-B654-3A47B92B89C9}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0AA9E2FA-4075-4688-B882-B4A92B0035F7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0AA9E2FA-4075-4688-B882-B4A92B0035F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23136,10 +23143,10 @@
         <xdr:cNvPr id="1144" name="Straight Connector 834">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDC19D5F-7449-44EB-39E6-FC1E1890F246}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC19D5F-7449-44EB-39E6-FC1E1890F246}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{05A6FD80-6DB7-4AFD-B654-3A47B92B89C9}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{05A6FD80-6DB7-4AFD-B654-3A47B92B89C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23148,7 +23155,7 @@
           <a:endCxn id="1141" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -23200,10 +23207,10 @@
         <xdr:cNvPr id="1147" name="Straight Connector 836">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B9BFC3A-780C-44F6-9238-5A9F89B35EFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9BFC3A-780C-44F6-9238-5A9F89B35EFE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{BDC19D5F-7449-44EB-39E6-FC1E1890F246}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BDC19D5F-7449-44EB-39E6-FC1E1890F246}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23211,7 +23218,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -23263,10 +23270,10 @@
         <xdr:cNvPr id="1145" name="Straight Connector 839">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{715EFE78-2B59-4305-A90D-5CB27716697E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715EFE78-2B59-4305-A90D-5CB27716697E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2B9BFC3A-780C-44F6-9238-5A9F89B35EFE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2B9BFC3A-780C-44F6-9238-5A9F89B35EFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23274,7 +23281,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -23326,10 +23333,10 @@
         <xdr:cNvPr id="1148" name="Straight Connector 840">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7224507-1174-45CE-BE60-0367307E8229}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7224507-1174-45CE-BE60-0367307E8229}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{715EFE78-2B59-4305-A90D-5CB27716697E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{715EFE78-2B59-4305-A90D-5CB27716697E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23337,7 +23344,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -23389,10 +23396,10 @@
         <xdr:cNvPr id="1146" name="Straight Connector 841">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7C43F69-7250-402B-91CE-87A498F0CE8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C43F69-7250-402B-91CE-87A498F0CE8C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{A7224507-1174-45CE-BE60-0367307E8229}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A7224507-1174-45CE-BE60-0367307E8229}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23400,7 +23407,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -23452,10 +23459,10 @@
         <xdr:cNvPr id="1261" name="Rectangle 748">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A736148-5926-4CAF-92A7-75BF435DAB1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A736148-5926-4CAF-92A7-75BF435DAB1D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F7C43F69-7250-402B-91CE-87A498F0CE8C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F7C43F69-7250-402B-91CE-87A498F0CE8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23630,10 +23637,10 @@
         <xdr:cNvPr id="1262" name="Rectangle 749">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{917DE197-A541-4318-825C-44A5AE39D955}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917DE197-A541-4318-825C-44A5AE39D955}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0A736148-5926-4CAF-92A7-75BF435DAB1D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0A736148-5926-4CAF-92A7-75BF435DAB1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23808,10 +23815,10 @@
         <xdr:cNvPr id="359" name="Down Arrow 754">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{501D28CD-D519-4151-8BED-CC0DD08EFDAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501D28CD-D519-4151-8BED-CC0DD08EFDAC}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{917DE197-A541-4318-825C-44A5AE39D955}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{917DE197-A541-4318-825C-44A5AE39D955}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23970,10 +23977,10 @@
         <xdr:cNvPr id="999" name="Down Arrow 818">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6261C5B7-A8D0-461E-A338-0D5D85CE49DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6261C5B7-A8D0-461E-A338-0D5D85CE49DB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{501D28CD-D519-4151-8BED-CC0DD08EFDAC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{501D28CD-D519-4151-8BED-CC0DD08EFDAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24127,10 +24134,10 @@
         <xdr:cNvPr id="993" name="Down Arrow 893">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7133AE78-401C-43CA-9AD4-9503721D44B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7133AE78-401C-43CA-9AD4-9503721D44B3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{6261C5B7-A8D0-461E-A338-0D5D85CE49DB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6261C5B7-A8D0-461E-A338-0D5D85CE49DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24284,10 +24291,10 @@
         <xdr:cNvPr id="260" name="TextBox 813">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{397519C4-5510-4498-91BD-CD424AE2686D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397519C4-5510-4498-91BD-CD424AE2686D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{7133AE78-401C-43CA-9AD4-9503721D44B3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7133AE78-401C-43CA-9AD4-9503721D44B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24423,10 +24430,10 @@
         <xdr:cNvPr id="351" name="Down Arrow 900">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1690F52D-190C-4C05-8708-D69F0A412EA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1690F52D-190C-4C05-8708-D69F0A412EA5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{397519C4-5510-4498-91BD-CD424AE2686D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{397519C4-5510-4498-91BD-CD424AE2686D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24580,10 +24587,10 @@
         <xdr:cNvPr id="966" name="Rectangle 1224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{507D4C83-A22F-4D98-98AF-B3325F8AADF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{507D4C83-A22F-4D98-98AF-B3325F8AADF4}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{77A614C6-691F-4DE3-82C4-732AA36894A0}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{77A614C6-691F-4DE3-82C4-732AA36894A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24768,10 +24775,10 @@
         <xdr:cNvPr id="1226" name="Straight Connector 1225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C99D71A-4EA7-42CD-B8D2-5855F229E41E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C99D71A-4EA7-42CD-B8D2-5855F229E41E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{507D4C83-A22F-4D98-98AF-B3325F8AADF4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{507D4C83-A22F-4D98-98AF-B3325F8AADF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24779,7 +24786,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}" end="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{782A1426-0B7C-4C69-9DEF-949F7CC60E18}" end="{DB7C9013-6A8A-4F7A-A1AA-3E7222E3A674}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -24831,10 +24838,10 @@
         <xdr:cNvPr id="167" name="Rectangle 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05AC5AB8-5DEA-4F64-94EC-72CFFA2C46E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05AC5AB8-5DEA-4F64-94EC-72CFFA2C46E8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{70C166B7-B332-BC08-3658-22F5C0CC566E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{70C166B7-B332-BC08-3658-22F5C0CC566E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25009,10 +25016,10 @@
         <xdr:cNvPr id="170" name="Down Arrow 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C2A1D46-3FEC-495A-AAD7-819F3B258B81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2A1D46-3FEC-495A-AAD7-819F3B258B81}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{05AC5AB8-5DEA-4F64-94EC-72CFFA2C46E8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{05AC5AB8-5DEA-4F64-94EC-72CFFA2C46E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25178,10 +25185,10 @@
         <xdr:cNvPr id="171" name="Down Arrow 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6860AA5-EBD2-41CD-AD3A-D5923C88F9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6860AA5-EBD2-41CD-AD3A-D5923C88F9B4}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0C2A1D46-3FEC-495A-AAD7-819F3B258B81}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0C2A1D46-3FEC-495A-AAD7-819F3B258B81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25347,10 +25354,10 @@
         <xdr:cNvPr id="173" name="Down Arrow 172">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F10B84C-8CC2-4811-9044-6348E39FBCDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F10B84C-8CC2-4811-9044-6348E39FBCDD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E6860AA5-EBD2-41CD-AD3A-D5923C88F9B4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E6860AA5-EBD2-41CD-AD3A-D5923C88F9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25516,10 +25523,10 @@
         <xdr:cNvPr id="174" name="Down Arrow 173">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{836E4681-648C-47B3-A10E-2BE40F90B1A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836E4681-648C-47B3-A10E-2BE40F90B1A4}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{7F10B84C-8CC2-4811-9044-6348E39FBCDD}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7F10B84C-8CC2-4811-9044-6348E39FBCDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25685,10 +25692,10 @@
         <xdr:cNvPr id="177" name="Down Arrow 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A2FC1B9-AA79-46BD-BA8D-66F9C70A6AA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2FC1B9-AA79-46BD-BA8D-66F9C70A6AA6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{836E4681-648C-47B3-A10E-2BE40F90B1A4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{836E4681-648C-47B3-A10E-2BE40F90B1A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25854,10 +25861,10 @@
         <xdr:cNvPr id="178" name="Down Arrow 177">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B74F6596-5043-475E-9DF6-5D74E2F43651}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74F6596-5043-475E-9DF6-5D74E2F43651}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4A2FC1B9-AA79-46BD-BA8D-66F9C70A6AA6}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4A2FC1B9-AA79-46BD-BA8D-66F9C70A6AA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26023,10 +26030,10 @@
         <xdr:cNvPr id="1240" name="Rectangle 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B90CDF5-77D2-412F-8D1F-D4D4AF6C4058}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B90CDF5-77D2-412F-8D1F-D4D4AF6C4058}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B74F6596-5043-475E-9DF6-5D74E2F43651}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B74F6596-5043-475E-9DF6-5D74E2F43651}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26201,10 +26208,10 @@
         <xdr:cNvPr id="1263" name="Rectangle 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA968B3B-76B7-4AEA-8C25-38FA7411BB4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA968B3B-76B7-4AEA-8C25-38FA7411BB4F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0B90CDF5-77D2-412F-8D1F-D4D4AF6C4058}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0B90CDF5-77D2-412F-8D1F-D4D4AF6C4058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26379,10 +26386,10 @@
         <xdr:cNvPr id="1260" name="Down Arrow 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8DC572D-72E8-4939-8BE4-B77B818C4D12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DC572D-72E8-4939-8BE4-B77B818C4D12}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{CA968B3B-76B7-4AEA-8C25-38FA7411BB4F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CA968B3B-76B7-4AEA-8C25-38FA7411BB4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26548,10 +26555,10 @@
         <xdr:cNvPr id="1252" name="Down Arrow 183">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41893191-C496-430F-8974-3F960B3FBB73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41893191-C496-430F-8974-3F960B3FBB73}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E8DC572D-72E8-4939-8BE4-B77B818C4D12}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E8DC572D-72E8-4939-8BE4-B77B818C4D12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26717,10 +26724,10 @@
         <xdr:cNvPr id="1253" name="Down Arrow 184">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FA8DD85-C50C-4445-A8EB-3F0D5A7F72B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA8DD85-C50C-4445-A8EB-3F0D5A7F72B8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{41893191-C496-430F-8974-3F960B3FBB73}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{41893191-C496-430F-8974-3F960B3FBB73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26886,10 +26893,10 @@
         <xdr:cNvPr id="1266" name="Down Arrow 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1897B9C0-FB6F-49EA-8CB1-74649700CD14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1897B9C0-FB6F-49EA-8CB1-74649700CD14}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9FA8DD85-C50C-4445-A8EB-3F0D5A7F72B8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9FA8DD85-C50C-4445-A8EB-3F0D5A7F72B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27055,10 +27062,10 @@
         <xdr:cNvPr id="342" name="Down Arrow 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F823D2A7-7487-4EDF-ACE0-F7E9F5A4EF4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F823D2A7-7487-4EDF-ACE0-F7E9F5A4EF4E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1897B9C0-FB6F-49EA-8CB1-74649700CD14}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1897B9C0-FB6F-49EA-8CB1-74649700CD14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27224,10 +27231,10 @@
         <xdr:cNvPr id="1265" name="Down Arrow 187">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1B24A60-310E-44D3-AB13-06C6BD610FBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1B24A60-310E-44D3-AB13-06C6BD610FBB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F823D2A7-7487-4EDF-ACE0-F7E9F5A4EF4E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F823D2A7-7487-4EDF-ACE0-F7E9F5A4EF4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27393,10 +27400,10 @@
         <xdr:cNvPr id="1264" name="Down Arrow 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD33D259-3D47-4EA7-9901-6DC0FA48D36F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD33D259-3D47-4EA7-9901-6DC0FA48D36F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F1B24A60-310E-44D3-AB13-06C6BD610FBB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F1B24A60-310E-44D3-AB13-06C6BD610FBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27562,10 +27569,10 @@
         <xdr:cNvPr id="192" name="Rectangle 191">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6129A06A-0010-4832-A982-1371CAEA32F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6129A06A-0010-4832-A982-1371CAEA32F8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5276BEB5-4DA3-44B2-8B4C-709BC7EC18E8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5276BEB5-4DA3-44B2-8B4C-709BC7EC18E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27739,10 +27746,10 @@
         <xdr:cNvPr id="193" name="Straight Connector 192">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51738579-CC1E-438A-B9AB-03ADB8F79E4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51738579-CC1E-438A-B9AB-03ADB8F79E4C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{6129A06A-0010-4832-A982-1371CAEA32F8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6129A06A-0010-4832-A982-1371CAEA32F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27750,7 +27757,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{3F3CDCC9-0594-5A00-49CF-6A37C5649608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -27802,10 +27809,10 @@
         <xdr:cNvPr id="194" name="Rectangle 193">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{012D3164-7DEC-48EE-B9C7-2835ECC4FBA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012D3164-7DEC-48EE-B9C7-2835ECC4FBA1}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{51738579-CC1E-438A-B9AB-03ADB8F79E4C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{51738579-CC1E-438A-B9AB-03ADB8F79E4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27990,10 +27997,10 @@
         <xdr:cNvPr id="195" name="Rectangle 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F29921E-4EEB-42BF-9313-01357580B1D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F29921E-4EEB-42BF-9313-01357580B1D3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{012D3164-7DEC-48EE-B9C7-2835ECC4FBA1}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{012D3164-7DEC-48EE-B9C7-2835ECC4FBA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28178,10 +28185,10 @@
         <xdr:cNvPr id="196" name="Rectangle 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06BEAF6B-565F-4CA0-9D3B-5F1711E0DFE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06BEAF6B-565F-4CA0-9D3B-5F1711E0DFE7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0F29921E-4EEB-42BF-9313-01357580B1D3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0F29921E-4EEB-42BF-9313-01357580B1D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28366,10 +28373,10 @@
         <xdr:cNvPr id="197" name="Straight Connector 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{369D1F28-3947-490C-81A4-B896790FE187}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369D1F28-3947-490C-81A4-B896790FE187}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{06BEAF6B-565F-4CA0-9D3B-5F1711E0DFE7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{06BEAF6B-565F-4CA0-9D3B-5F1711E0DFE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28377,7 +28384,7 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{B1B7821D-A5CD-4EF4-9AC9-45F1F8D9E09F}" end="{D259078E-548B-4227-A13E-8BFB21A29F32}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B1B7821D-A5CD-4EF4-9AC9-45F1F8D9E09F}" end="{D259078E-548B-4227-A13E-8BFB21A29F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -28429,10 +28436,10 @@
         <xdr:cNvPr id="198" name="Straight Connector 197">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69001B01-5B52-46F4-993B-89A19AF24BCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69001B01-5B52-46F4-993B-89A19AF24BCD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{369D1F28-3947-490C-81A4-B896790FE187}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{369D1F28-3947-490C-81A4-B896790FE187}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28441,7 +28448,7 @@
           <a:endCxn id="1120" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" st="{4270860B-D8EB-4CE5-A515-344DA33472CD}" end="{8086ABE5-8D50-4E21-95E3-0B3B4DD66B02}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{4270860B-D8EB-4CE5-A515-344DA33472CD}" end="{8086ABE5-8D50-4E21-95E3-0B3B4DD66B02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -28493,10 +28500,10 @@
         <xdr:cNvPr id="1219" name="TextBox 167">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D545E599-9A11-4924-9C47-80CCDDA18EE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D545E599-9A11-4924-9C47-80CCDDA18EE8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{69001B01-5B52-46F4-993B-89A19AF24BCD}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{69001B01-5B52-46F4-993B-89A19AF24BCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28624,10 +28631,10 @@
         <xdr:cNvPr id="242" name="Rounded Rectangle 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4594E48C-A8A0-47AF-9643-82A61A865896}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4594E48C-A8A0-47AF-9643-82A61A865896}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D545E599-9A11-4924-9C47-80CCDDA18EE8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D545E599-9A11-4924-9C47-80CCDDA18EE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28795,10 +28802,10 @@
         <xdr:cNvPr id="335" name="Rectangle 178">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E55F61B-677A-427A-9A8F-F4B2DF9B2E31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E55F61B-677A-427A-9A8F-F4B2DF9B2E31}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4594E48C-A8A0-47AF-9643-82A61A865896}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4594E48C-A8A0-47AF-9643-82A61A865896}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28973,10 +28980,10 @@
         <xdr:cNvPr id="334" name="Rectangle 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB5AFF7B-6C9E-4A07-8A9F-1AEB21C1EC29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5AFF7B-6C9E-4A07-8A9F-1AEB21C1EC29}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8E55F61B-677A-427A-9A8F-F4B2DF9B2E31}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8E55F61B-677A-427A-9A8F-F4B2DF9B2E31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29151,10 +29158,10 @@
         <xdr:cNvPr id="371" name="Rectangle 171">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C2A5052-AAD4-4233-8F53-D8BE87879FE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2A5052-AAD4-4233-8F53-D8BE87879FE7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{FB5AFF7B-6C9E-4A07-8A9F-1AEB21C1EC29}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FB5AFF7B-6C9E-4A07-8A9F-1AEB21C1EC29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29329,10 +29336,10 @@
         <xdr:cNvPr id="332" name="Rectangle 179">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F31602C7-D8EE-43BD-9128-99895AAB41CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31602C7-D8EE-43BD-9128-99895AAB41CE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1C2A5052-AAD4-4233-8F53-D8BE87879FE7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1C2A5052-AAD4-4233-8F53-D8BE87879FE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29507,10 +29514,10 @@
         <xdr:cNvPr id="239" name="Down Arrow 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50715AEE-3F13-4B2F-A8F5-F62D64C34652}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50715AEE-3F13-4B2F-A8F5-F62D64C34652}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F31602C7-D8EE-43BD-9128-99895AAB41CE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F31602C7-D8EE-43BD-9128-99895AAB41CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29669,10 +29676,10 @@
         <xdr:cNvPr id="23" name="Down Arrow 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F153CDE-65B6-4005-86AA-4894722B6AD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F153CDE-65B6-4005-86AA-4894722B6AD6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D17F0FCA-D33F-4F28-BF2F-98B9139475A4}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D17F0FCA-D33F-4F28-BF2F-98B9139475A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29831,10 +29838,10 @@
         <xdr:cNvPr id="978" name="Rectangle 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8AC7494E-8BCF-4A4A-8C1A-7B45C89D9EF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC7494E-8BCF-4A4A-8C1A-7B45C89D9EF1}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{36301B8F-BBBE-44C0-8FAE-030F025C647B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{36301B8F-BBBE-44C0-8FAE-030F025C647B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30009,10 +30016,10 @@
         <xdr:cNvPr id="979" name="Down Arrow 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{154D1C93-7AB2-4680-B976-1A1DD394E132}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154D1C93-7AB2-4680-B976-1A1DD394E132}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B99E360B-A6B7-4677-B839-1983BF6AFACB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B99E360B-A6B7-4677-B839-1983BF6AFACB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30171,10 +30178,10 @@
         <xdr:cNvPr id="222" name="Rectangle 213">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89CC9DF5-8C75-4036-AD49-5C0CB483D711}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CC9DF5-8C75-4036-AD49-5C0CB483D711}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{154D1C93-7AB2-4680-B976-1A1DD394E132}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{154D1C93-7AB2-4680-B976-1A1DD394E132}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30349,10 +30356,10 @@
         <xdr:cNvPr id="370" name="Down Arrow 214">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA4F09C5-9601-43CD-9F81-D88CEA1ED16C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4F09C5-9601-43CD-9F81-D88CEA1ED16C}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{89CC9DF5-8C75-4036-AD49-5C0CB483D711}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{89CC9DF5-8C75-4036-AD49-5C0CB483D711}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30511,10 +30518,10 @@
         <xdr:cNvPr id="1069" name="Down Arrow 215">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2063FBA-A5C1-4380-90B9-32822F7FA01B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2063FBA-A5C1-4380-90B9-32822F7FA01B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AA4F09C5-9601-43CD-9F81-D88CEA1ED16C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AA4F09C5-9601-43CD-9F81-D88CEA1ED16C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30673,10 +30680,10 @@
         <xdr:cNvPr id="315" name="Down Arrow 314">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{431D2BFC-C7BE-40DB-B643-F23A9E5F32CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431D2BFC-C7BE-40DB-B643-F23A9E5F32CF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D5C8CACE-3709-4D41-BE37-8457DF7D1BB8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D5C8CACE-3709-4D41-BE37-8457DF7D1BB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30835,10 +30842,10 @@
         <xdr:cNvPr id="26" name="Rounded Rectangle 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42A7CD64-ACF0-4F92-80DE-66AF5CD3FD5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A7CD64-ACF0-4F92-80DE-66AF5CD3FD5B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4182348C-D180-4F02-9DC8-F7A99707F285}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4182348C-D180-4F02-9DC8-F7A99707F285}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31006,10 +31013,10 @@
         <xdr:cNvPr id="35" name="Rectangle 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2B0A413-657C-43C6-ABC2-53D9A02C760B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B0A413-657C-43C6-ABC2-53D9A02C760B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{42A7CD64-ACF0-4F92-80DE-66AF5CD3FD5B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{42A7CD64-ACF0-4F92-80DE-66AF5CD3FD5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31184,10 +31191,10 @@
         <xdr:cNvPr id="136" name="Rectangle 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44047026-DAB2-4856-908D-E1E13B02C591}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44047026-DAB2-4856-908D-E1E13B02C591}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C2B0A413-657C-43C6-ABC2-53D9A02C760B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C2B0A413-657C-43C6-ABC2-53D9A02C760B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31362,10 +31369,10 @@
         <xdr:cNvPr id="46" name="Rectangle 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{819BE950-2739-4047-9985-5489AEB8050F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819BE950-2739-4047-9985-5489AEB8050F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{44047026-DAB2-4856-908D-E1E13B02C591}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{44047026-DAB2-4856-908D-E1E13B02C591}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31540,10 +31547,10 @@
         <xdr:cNvPr id="1086" name="Rectangle 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74E2473B-0AA9-4F74-8BC7-CE8793570BD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E2473B-0AA9-4F74-8BC7-CE8793570BD2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{819BE950-2739-4047-9985-5489AEB8050F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{819BE950-2739-4047-9985-5489AEB8050F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31718,10 +31725,10 @@
         <xdr:cNvPr id="62" name="Down Arrow 204">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F88A183C-1268-4CAE-B633-FCB32478F617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88A183C-1268-4CAE-B633-FCB32478F617}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{3003C76B-8B68-43E6-B7E4-CB98ACFC0E5E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3003C76B-8B68-43E6-B7E4-CB98ACFC0E5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31880,10 +31887,10 @@
         <xdr:cNvPr id="61" name="Down Arrow 205">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF332DB3-DD3B-42EB-8ECF-FF9ADCAA269D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF332DB3-DD3B-42EB-8ECF-FF9ADCAA269D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F88A183C-1268-4CAE-B633-FCB32478F617}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F88A183C-1268-4CAE-B633-FCB32478F617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32042,10 +32049,10 @@
         <xdr:cNvPr id="1085" name="Down Arrow 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACFEBDAD-3061-4880-B712-7F19C36AD84E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFEBDAD-3061-4880-B712-7F19C36AD84E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{CF332DB3-DD3B-42EB-8ECF-FF9ADCAA269D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CF332DB3-DD3B-42EB-8ECF-FF9ADCAA269D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32204,10 +32211,10 @@
         <xdr:cNvPr id="128" name="Down Arrow 210">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{980D3B18-169A-4A37-8616-0AB1B52BFCA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980D3B18-169A-4A37-8616-0AB1B52BFCA1}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{038535E2-12D7-41D5-B575-62DB53BC7B5D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{038535E2-12D7-41D5-B575-62DB53BC7B5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32366,10 +32373,10 @@
         <xdr:cNvPr id="1068" name="Rectangle 211">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CB27272-23E1-4630-8B81-FC433985FF59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB27272-23E1-4630-8B81-FC433985FF59}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{980D3B18-169A-4A37-8616-0AB1B52BFCA1}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{980D3B18-169A-4A37-8616-0AB1B52BFCA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32544,10 +32551,10 @@
         <xdr:cNvPr id="1079" name="Rectangle 212">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B616C3A-BC14-4C10-B0A1-740146E82339}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B616C3A-BC14-4C10-B0A1-740146E82339}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8CB27272-23E1-4630-8B81-FC433985FF59}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8CB27272-23E1-4630-8B81-FC433985FF59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32722,10 +32729,10 @@
         <xdr:cNvPr id="1082" name="Rectangle 213">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D942F34-4A03-46F4-81CC-4A1C6B29BA8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D942F34-4A03-46F4-81CC-4A1C6B29BA8B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8B616C3A-BC14-4C10-B0A1-740146E82339}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8B616C3A-BC14-4C10-B0A1-740146E82339}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32900,10 +32907,10 @@
         <xdr:cNvPr id="293" name="Rectangle 216">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F185995-C371-4E64-85CE-43A9B4EBA267}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F185995-C371-4E64-85CE-43A9B4EBA267}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2D942F34-4A03-46F4-81CC-4A1C6B29BA8B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2D942F34-4A03-46F4-81CC-4A1C6B29BA8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33060,10 +33067,10 @@
         <xdr:cNvPr id="1294" name="Rectangle 215">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79FA75E3-1591-455E-AFE3-0641C8646924}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FA75E3-1591-455E-AFE3-0641C8646924}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8F185995-C371-4E64-85CE-43A9B4EBA267}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8F185995-C371-4E64-85CE-43A9B4EBA267}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33238,10 +33245,10 @@
         <xdr:cNvPr id="1295" name="Rectangle 216">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83D6B7F7-91E0-4846-A4D9-F3B47220ECB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D6B7F7-91E0-4846-A4D9-F3B47220ECB8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{79FA75E3-1591-455E-AFE3-0641C8646924}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{79FA75E3-1591-455E-AFE3-0641C8646924}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33416,10 +33423,10 @@
         <xdr:cNvPr id="1303" name="Down Arrow 217">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71D76C24-06C5-4925-974D-20F53071B5A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D76C24-06C5-4925-974D-20F53071B5A2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{83D6B7F7-91E0-4846-A4D9-F3B47220ECB8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{83D6B7F7-91E0-4846-A4D9-F3B47220ECB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33585,10 +33592,10 @@
         <xdr:cNvPr id="1305" name="Down Arrow 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CA66F36-79E7-4129-B7FE-1EBADEF298D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA66F36-79E7-4129-B7FE-1EBADEF298D8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{71D76C24-06C5-4925-974D-20F53071B5A2}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{71D76C24-06C5-4925-974D-20F53071B5A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33754,10 +33761,10 @@
         <xdr:cNvPr id="1306" name="Down Arrow 219">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E23C5797-1079-4DCA-9FC5-9DB403F42553}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23C5797-1079-4DCA-9FC5-9DB403F42553}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{4CA66F36-79E7-4129-B7FE-1EBADEF298D8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4CA66F36-79E7-4129-B7FE-1EBADEF298D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33928,7 +33935,7 @@
         <xdr:cNvPr id="35" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{479FFE2B-F33D-6227-32BF-B9F776D7A6C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479FFE2B-F33D-6227-32BF-B9F776D7A6C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34000,10 +34007,10 @@
         <xdr:cNvPr id="38" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4677F81-B478-4443-A5C2-AECD6ED62659}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4677F81-B478-4443-A5C2-AECD6ED62659}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{479FFE2B-F33D-6227-32BF-B9F776D7A6C3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{479FFE2B-F33D-6227-32BF-B9F776D7A6C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34169,10 +34176,10 @@
         <xdr:cNvPr id="39" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42509E24-CDF7-423A-A405-DB5E689F5D21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42509E24-CDF7-423A-A405-DB5E689F5D21}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{E4677F81-B478-4443-A5C2-AECD6ED62659}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E4677F81-B478-4443-A5C2-AECD6ED62659}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34338,10 +34345,10 @@
         <xdr:cNvPr id="40" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F87CC526-F963-43C2-B20B-5414A7DE105F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F87CC526-F963-43C2-B20B-5414A7DE105F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{42509E24-CDF7-423A-A405-DB5E689F5D21}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{42509E24-CDF7-423A-A405-DB5E689F5D21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34507,10 +34514,10 @@
         <xdr:cNvPr id="41" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C1EB1BE-C19E-431F-84D1-E017992A679D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C1EB1BE-C19E-431F-84D1-E017992A679D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F87CC526-F963-43C2-B20B-5414A7DE105F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F87CC526-F963-43C2-B20B-5414A7DE105F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34676,10 +34683,10 @@
         <xdr:cNvPr id="42" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32A0D583-11A7-4319-8C7F-FBFCE78815FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A0D583-11A7-4319-8C7F-FBFCE78815FB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5C1EB1BE-C19E-431F-84D1-E017992A679D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5C1EB1BE-C19E-431F-84D1-E017992A679D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34845,10 +34852,10 @@
         <xdr:cNvPr id="43" name="Oval 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D36A8924-146B-42B2-8059-5E3A4577BD14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D36A8924-146B-42B2-8059-5E3A4577BD14}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{32A0D583-11A7-4319-8C7F-FBFCE78815FB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{32A0D583-11A7-4319-8C7F-FBFCE78815FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35014,10 +35021,10 @@
         <xdr:cNvPr id="46" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AD6F499-E86D-4605-8A43-F45BAEBA2F3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD6F499-E86D-4605-8A43-F45BAEBA2F3D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D36A8924-146B-42B2-8059-5E3A4577BD14}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D36A8924-146B-42B2-8059-5E3A4577BD14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35183,10 +35190,10 @@
         <xdr:cNvPr id="45" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8658C146-C82C-414E-8750-F88E17A3FF0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8658C146-C82C-414E-8750-F88E17A3FF0E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{7AD6F499-E86D-4605-8A43-F45BAEBA2F3D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7AD6F499-E86D-4605-8A43-F45BAEBA2F3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35352,10 +35359,10 @@
         <xdr:cNvPr id="44" name="Oval 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D479C09-2060-48FE-AEBD-7D6905B535DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D479C09-2060-48FE-AEBD-7D6905B535DF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8658C146-C82C-414E-8750-F88E17A3FF0E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8658C146-C82C-414E-8750-F88E17A3FF0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35507,26 +35514,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B18:F52" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="B18:F52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B18:F52" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="B18:F52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="User story id" dataDxfId="8"/>
-    <tableColumn id="2" name="User" dataDxfId="7"/>
-    <tableColumn id="5" name="S.no" dataDxfId="6"/>
-    <tableColumn id="6" name="Action" dataDxfId="5"/>
-    <tableColumn id="3" name="Benefits" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User story id" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="User" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="S.no" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Action" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Benefits" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="G18:I52" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="G18:I52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="G18:I52" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="G18:I52" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Acceptance criteria" dataDxfId="2"/>
-    <tableColumn id="2" name="Assumptions" dataDxfId="1"/>
-    <tableColumn id="3" name="Constraints" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Acceptance criteria" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Assumptions" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Constraints" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -35729,7 +35736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -35932,14 +35939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -36985,33 +36992,33 @@
     </row>
     <row r="160" spans="1:3" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="161" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A161" s="123">
+      <c r="A161" s="103">
         <v>44691</v>
       </c>
-      <c r="B161" s="124"/>
-      <c r="C161" s="125" t="s">
-        <v>495</v>
+      <c r="B161" s="104"/>
+      <c r="C161" s="105" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A162" s="126"/>
+      <c r="A162" s="106"/>
       <c r="B162" s="23"/>
-      <c r="C162" s="127" t="s">
-        <v>496</v>
+      <c r="C162" s="107" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A163" s="126"/>
+      <c r="A163" s="106"/>
       <c r="B163" s="23"/>
-      <c r="C163" s="127" t="s">
-        <v>497</v>
+      <c r="C163" s="107" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A164" s="128"/>
-      <c r="B164" s="129"/>
-      <c r="C164" s="130" t="s">
-        <v>498</v>
+      <c r="A164" s="108"/>
+      <c r="B164" s="109"/>
+      <c r="C164" s="110" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" customHeight="1" thickBot="1"/>
@@ -37021,14 +37028,30 @@
       </c>
       <c r="B166" s="63"/>
       <c r="C166" s="64" t="s">
-        <v>499</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="A167" s="59"/>
       <c r="B167" s="60"/>
       <c r="C167" s="61" t="s">
-        <v>500</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A169" s="102">
+        <v>44746</v>
+      </c>
+      <c r="B169" s="63"/>
+      <c r="C169" s="64" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A170" s="59"/>
+      <c r="B170" s="60"/>
+      <c r="C170" s="61" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -37037,7 +37060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A5:I55"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
@@ -37058,7 +37081,7 @@
   <sheetData>
     <row r="5" spans="1:5">
       <c r="E5" s="8" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -37066,33 +37089,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="8" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="51">
@@ -37100,25 +37123,25 @@
         <v>1</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D19" s="39">
         <v>1</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="38.25">
@@ -37128,19 +37151,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="62.25" customHeight="1">
@@ -37150,19 +37173,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.5" customHeight="1">
@@ -37172,19 +37195,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="38.25" customHeight="1">
@@ -37194,19 +37217,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25.5">
@@ -37216,19 +37239,19 @@
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1">
@@ -37238,13 +37261,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
@@ -37256,19 +37279,19 @@
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="42" customHeight="1">
@@ -37278,17 +37301,17 @@
         <v>9</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="38.25" customHeight="1">
@@ -37298,13 +37321,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
@@ -37324,25 +37347,25 @@
         <v>2</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D30" s="39">
         <v>1</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="51">
@@ -37352,16 +37375,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="I31" s="36"/>
     </row>
@@ -37372,19 +37395,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="31.5" customHeight="1">
@@ -37394,19 +37417,19 @@
         <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="34.5" customHeight="1">
@@ -37416,17 +37439,17 @@
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H34" s="36"/>
       <c r="I34" s="36" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="48" customHeight="1">
@@ -37436,19 +37459,19 @@
         <v>7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="39" customHeight="1">
@@ -37458,19 +37481,19 @@
         <v>8</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="37.5" customHeight="1">
@@ -37480,19 +37503,19 @@
         <v>9</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36.75" customHeight="1">
@@ -37502,13 +37525,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
@@ -37528,25 +37551,25 @@
         <v>3</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D40" s="39">
         <v>1</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="27" customHeight="1">
@@ -37556,17 +37579,17 @@
         <v>2</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="36" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
@@ -37576,19 +37599,19 @@
         <v>3</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30.75" customHeight="1">
@@ -37598,19 +37621,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="36.75" customHeight="1">
@@ -37620,17 +37643,17 @@
         <v>5</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="36" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="39.75" customHeight="1">
@@ -37640,13 +37663,13 @@
         <v>6</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="36"/>
@@ -37666,25 +37689,25 @@
         <v>4</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D47" s="39">
         <v>1</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="30.75" customHeight="1">
@@ -37694,19 +37717,19 @@
         <v>2</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29.25" customHeight="1">
@@ -37716,19 +37739,19 @@
         <v>3</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.5" customHeight="1">
@@ -37738,19 +37761,19 @@
         <v>4</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="32.25" customHeight="1">
@@ -37760,13 +37783,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F51" s="40" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
@@ -37798,7 +37821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:V120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37832,54 +37855,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15">
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
     </row>
     <row r="3" spans="1:11" ht="15">
-      <c r="B3" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
+      <c r="B3" s="120" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="32" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -37888,28 +37911,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E5" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G5">
         <v>9876543567</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="I5" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="J5" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="K5" s="27">
         <v>1</v>
@@ -37921,28 +37944,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D6" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="E6" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F6" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G6">
         <v>9876873567</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="I6" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="J6" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="K6" s="27">
         <v>2</v>
@@ -37953,28 +37976,28 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G7" s="29">
         <v>8975908765</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="K7" s="30">
         <v>1</v>
@@ -37986,108 +38009,108 @@
       <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="105" t="s">
-        <v>343</v>
-      </c>
-      <c r="C10" s="107"/>
-      <c r="E10" s="105" t="s">
-        <v>344</v>
-      </c>
-      <c r="F10" s="107"/>
-      <c r="H10" s="105" t="s">
-        <v>345</v>
-      </c>
-      <c r="I10" s="107"/>
+      <c r="B10" s="111" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="112"/>
+      <c r="E10" s="111" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" s="112"/>
+      <c r="H10" s="111" t="s">
+        <v>353</v>
+      </c>
+      <c r="I10" s="112"/>
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="B11" s="76" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="32" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="26" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="B13" s="28" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
-      <c r="B19" s="105" t="s">
-        <v>357</v>
-      </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="107"/>
+      <c r="B19" s="111" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="112"/>
       <c r="F19" s="31"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="32" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15">
       <c r="B21" s="81" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -38096,12 +38119,12 @@
         <v>37237</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15">
       <c r="B22" s="78" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C22" s="82">
         <v>2</v>
@@ -38110,7 +38133,7 @@
         <v>36903</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -38123,35 +38146,35 @@
       <c r="F25" s="31"/>
     </row>
     <row r="28" spans="2:9" ht="15">
-      <c r="B28" s="114" t="s">
-        <v>364</v>
-      </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
+      <c r="B28" s="117" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="32" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -38159,7 +38182,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -38177,7 +38200,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -38195,7 +38218,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D32" s="29">
         <v>1</v>
@@ -38212,37 +38235,37 @@
       <c r="C35" s="72"/>
     </row>
     <row r="36" spans="2:8" ht="15">
-      <c r="B36" s="114" t="s">
-        <v>370</v>
-      </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="116"/>
+      <c r="B36" s="117" t="s">
+        <v>378</v>
+      </c>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="119"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="32" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -38250,13 +38273,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D38" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E38" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -38271,13 +38294,13 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D39" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E39" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F39">
         <v>2020</v>
@@ -38297,29 +38320,29 @@
       <c r="H40" s="30"/>
     </row>
     <row r="42" spans="2:8" ht="15">
-      <c r="B42" s="109" t="s">
-        <v>379</v>
-      </c>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="117"/>
+      <c r="B42" s="120" t="s">
+        <v>387</v>
+      </c>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="121"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="32" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -38327,10 +38350,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D44" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F44" s="27"/>
     </row>
@@ -38339,10 +38362,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D45" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F45" s="27"/>
     </row>
@@ -38351,52 +38374,52 @@
         <v>3</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="30"/>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="105" t="s">
-        <v>386</v>
-      </c>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="107"/>
+      <c r="B49" s="111" t="s">
+        <v>394</v>
+      </c>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="112"/>
     </row>
     <row r="50" spans="2:22" ht="15">
       <c r="B50" s="89" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C50" s="85" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D50" s="85" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="H50" s="79" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="I50" s="72"/>
-      <c r="K50" s="109" t="s">
+      <c r="K50" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="117"/>
+      <c r="L50" s="121"/>
       <c r="M50" s="72"/>
       <c r="R50" s="72"/>
       <c r="S50" s="72"/>
@@ -38406,19 +38429,19 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="26" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C51" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D51" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E51" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="F51" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="G51" s="80">
         <v>42370</v>
@@ -38427,27 +38450,27 @@
         <v>44562</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L51" s="33" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="26" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C52" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D52" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="E52" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F52" s="86" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="G52" s="80">
         <v>44562</v>
@@ -38456,10 +38479,10 @@
         <v>46023</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -38471,62 +38494,62 @@
       <c r="G53" s="29"/>
       <c r="H53" s="30"/>
       <c r="K53" s="28" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="2:22">
       <c r="F54" s="86"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="105" t="s">
+      <c r="B56" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="107"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="113"/>
+      <c r="I56" s="112"/>
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="32" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="26" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C58" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D58" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="E58" s="80">
         <v>43466</v>
@@ -38541,18 +38564,18 @@
         <v>43466</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="2:22">
       <c r="B59" s="28" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E59" s="90">
         <v>43474</v>
@@ -38567,7 +38590,7 @@
         <v>43831</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="2:22" ht="15">
@@ -38581,156 +38604,156 @@
       <c r="L62" s="72"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="105" t="s">
+      <c r="B66" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="106"/>
-      <c r="D66" s="107"/>
-      <c r="F66" s="105" t="s">
+      <c r="C66" s="113"/>
+      <c r="D66" s="112"/>
+      <c r="F66" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="106"/>
-      <c r="H66" s="107"/>
-      <c r="J66" s="105" t="s">
+      <c r="G66" s="113"/>
+      <c r="H66" s="112"/>
+      <c r="J66" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="107"/>
+      <c r="K66" s="112"/>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="32" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="K67" s="33" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="26" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C68" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="F68" s="93" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="H68" s="94" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="15">
       <c r="B69" s="91" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C69" s="92" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="F69" s="91" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="G69" s="92" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="H69" s="95" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="J69" s="28" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="K69" s="30" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="119" t="s">
-        <v>426</v>
-      </c>
-      <c r="C74" s="120"/>
-      <c r="D74" s="121"/>
-      <c r="F74" s="122" t="s">
-        <v>427</v>
-      </c>
-      <c r="G74" s="122"/>
+      <c r="B74" s="125" t="s">
+        <v>434</v>
+      </c>
+      <c r="C74" s="126"/>
+      <c r="D74" s="127"/>
+      <c r="F74" s="128" t="s">
+        <v>435</v>
+      </c>
+      <c r="G74" s="128"/>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="96" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C75" s="97" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D75" s="98" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="15">
       <c r="B76" s="99" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C76" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D76" s="100" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="F76" s="99" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="G76" s="100" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15">
       <c r="B77" s="26" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C77" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="F77" s="101" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>23</v>
@@ -38738,53 +38761,53 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="26" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C78" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="28" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="111" t="s">
-        <v>437</v>
-      </c>
-      <c r="C84" s="112"/>
-      <c r="D84" s="113"/>
+      <c r="B84" s="114" t="s">
+        <v>445</v>
+      </c>
+      <c r="C84" s="115"/>
+      <c r="D84" s="116"/>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="28" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="C86" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="15">
       <c r="B87" s="72"/>
       <c r="C87" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="E87" s="72"/>
       <c r="F87" s="72"/>
@@ -38793,7 +38816,7 @@
     </row>
     <row r="88" spans="2:9">
       <c r="C88" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="15">
@@ -38803,17 +38826,17 @@
       <c r="B105" s="72"/>
     </row>
     <row r="115" spans="2:3" ht="15">
-      <c r="B115" s="103" t="s">
-        <v>442</v>
-      </c>
-      <c r="C115" s="104"/>
+      <c r="B115" s="129" t="s">
+        <v>450</v>
+      </c>
+      <c r="C115" s="130"/>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="32" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="117" spans="2:3">
@@ -38840,10 +38863,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="F74:G74"/>
     <mergeCell ref="B115:C115"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="F66:H66"/>
@@ -38860,18 +38879,22 @@
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F74:G74"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1"/>
-    <hyperlink ref="H6" r:id="rId2"/>
-    <hyperlink ref="H7" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="V29:Y48"/>
   <sheetViews>
     <sheetView topLeftCell="Y48" workbookViewId="0">
@@ -38882,7 +38905,7 @@
   <sheetData>
     <row r="29" spans="22:22">
       <c r="V29" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="25:25">
@@ -38895,7 +38918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38910,7 +38933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C1:K603"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -38921,28 +38944,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="23.25">
       <c r="J1" s="12" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.25">
       <c r="C4" s="11" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="6" spans="3:10" ht="20.25">
       <c r="D6" s="10" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="20.25">
       <c r="D21" s="10" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="20.25">
       <c r="D33" s="13" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -38950,34 +38973,34 @@
     </row>
     <row r="46" spans="4:8" ht="20.25">
       <c r="D46" s="10" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="20.25">
       <c r="C59" s="11" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="61" spans="3:4" ht="20.25">
       <c r="D61" s="10" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="20.25">
       <c r="D74" s="10" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="85" spans="4:4" ht="20.25">
       <c r="D85" s="10" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="296" spans="3:5" ht="18">
       <c r="C296" s="9" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -38994,7 +39017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39014,10 +39037,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -39027,47 +39050,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -39122,10 +39145,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>4</v>
@@ -39134,31 +39157,31 @@
     <row r="19" spans="1:4">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D20" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -39177,7 +39200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:O79"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -39192,128 +39215,128 @@
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
       <c r="L3" s="10" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="O9" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B11" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B13" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B15" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B17" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="O17" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B19" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B21" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B23" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B25" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="O25" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="20" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="20" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="20" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25428"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25502"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4CF21D4-168D-488C-89B0-3AD436164BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_2CC011277348311CED96CC412A217BE2EB33E769" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E04DD7AC-935E-4E98-816B-9BEE86FAA51B}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="506">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -623,6 +623,15 @@
   </si>
   <si>
     <t>For download and share profile refer how to write word file in C#</t>
+  </si>
+  <si>
+    <t>For Share profile share the link of view profile page</t>
+  </si>
+  <si>
+    <t>Discussed on accordian function in wizard method and usability criteria</t>
+  </si>
+  <si>
+    <t>Complete the profile search,create and view within next customer meeting</t>
   </si>
   <si>
     <t>Team Genesis - Profile Management Project</t>
@@ -2506,13 +2515,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2533,19 +2557,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2558,12 +2573,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -35943,10 +35952,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="B166" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -37052,6 +37061,36 @@
       <c r="B170" s="60"/>
       <c r="C170" s="61" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A172" s="103">
+        <v>44747</v>
+      </c>
+      <c r="B172" s="104"/>
+      <c r="C172" s="105" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A173" s="106"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="107" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A174" s="106"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="107" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A175" s="108"/>
+      <c r="B175" s="109"/>
+      <c r="C175" s="110" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -37081,7 +37120,7 @@
   <sheetData>
     <row r="5" spans="1:5">
       <c r="E5" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -37089,33 +37128,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="51">
@@ -37123,25 +37162,25 @@
         <v>1</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D19" s="39">
         <v>1</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="38.25">
@@ -37151,19 +37190,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="62.25" customHeight="1">
@@ -37173,19 +37212,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.5" customHeight="1">
@@ -37195,19 +37234,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="38.25" customHeight="1">
@@ -37217,19 +37256,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25.5">
@@ -37239,19 +37278,19 @@
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1">
@@ -37261,13 +37300,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
@@ -37279,19 +37318,19 @@
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="42" customHeight="1">
@@ -37301,17 +37340,17 @@
         <v>9</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="38.25" customHeight="1">
@@ -37321,13 +37360,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
@@ -37347,25 +37386,25 @@
         <v>2</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D30" s="39">
         <v>1</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="51">
@@ -37375,16 +37414,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I31" s="36"/>
     </row>
@@ -37395,19 +37434,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="31.5" customHeight="1">
@@ -37417,19 +37456,19 @@
         <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="34.5" customHeight="1">
@@ -37439,17 +37478,17 @@
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H34" s="36"/>
       <c r="I34" s="36" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="48" customHeight="1">
@@ -37459,19 +37498,19 @@
         <v>7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="39" customHeight="1">
@@ -37481,19 +37520,19 @@
         <v>8</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="37.5" customHeight="1">
@@ -37503,19 +37542,19 @@
         <v>9</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36.75" customHeight="1">
@@ -37525,13 +37564,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
@@ -37551,25 +37590,25 @@
         <v>3</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D40" s="39">
         <v>1</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="27" customHeight="1">
@@ -37579,17 +37618,17 @@
         <v>2</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="36" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
@@ -37599,19 +37638,19 @@
         <v>3</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30.75" customHeight="1">
@@ -37621,19 +37660,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="36.75" customHeight="1">
@@ -37643,17 +37682,17 @@
         <v>5</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="36" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="39.75" customHeight="1">
@@ -37663,13 +37702,13 @@
         <v>6</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="36"/>
@@ -37689,25 +37728,25 @@
         <v>4</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D47" s="39">
         <v>1</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="30.75" customHeight="1">
@@ -37717,19 +37756,19 @@
         <v>2</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29.25" customHeight="1">
@@ -37739,19 +37778,19 @@
         <v>3</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.5" customHeight="1">
@@ -37761,19 +37800,19 @@
         <v>4</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="32.25" customHeight="1">
@@ -37783,13 +37822,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F51" s="40" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
@@ -37855,54 +37894,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15">
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="1:11" ht="15">
-      <c r="B3" s="120" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
+      <c r="B3" s="117" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="32" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -37911,28 +37950,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G5">
         <v>9876543567</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="J5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K5" s="27">
         <v>1</v>
@@ -37944,28 +37983,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E6" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G6">
         <v>9876873567</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="I6" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="J6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K6" s="27">
         <v>2</v>
@@ -37976,28 +38015,28 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G7" s="29">
         <v>8975908765</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K7" s="30">
         <v>1</v>
@@ -38009,108 +38048,108 @@
       <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="111" t="s">
-        <v>351</v>
-      </c>
-      <c r="C10" s="112"/>
-      <c r="E10" s="111" t="s">
-        <v>352</v>
-      </c>
-      <c r="F10" s="112"/>
-      <c r="H10" s="111" t="s">
-        <v>353</v>
-      </c>
-      <c r="I10" s="112"/>
+      <c r="B10" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="115"/>
+      <c r="E10" s="113" t="s">
+        <v>355</v>
+      </c>
+      <c r="F10" s="115"/>
+      <c r="H10" s="113" t="s">
+        <v>356</v>
+      </c>
+      <c r="I10" s="115"/>
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="B11" s="76" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="32" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="26" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="B13" s="28" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
-      <c r="B19" s="111" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="112"/>
+      <c r="B19" s="113" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="115"/>
       <c r="F19" s="31"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="32" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15">
       <c r="B21" s="81" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -38119,12 +38158,12 @@
         <v>37237</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15">
       <c r="B22" s="78" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C22" s="82">
         <v>2</v>
@@ -38133,7 +38172,7 @@
         <v>36903</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -38146,35 +38185,35 @@
       <c r="F25" s="31"/>
     </row>
     <row r="28" spans="2:9" ht="15">
-      <c r="B28" s="117" t="s">
-        <v>372</v>
-      </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
+      <c r="B28" s="122" t="s">
+        <v>375</v>
+      </c>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="32" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -38182,7 +38221,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -38200,7 +38239,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -38218,7 +38257,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D32" s="29">
         <v>1</v>
@@ -38235,37 +38274,37 @@
       <c r="C35" s="72"/>
     </row>
     <row r="36" spans="2:8" ht="15">
-      <c r="B36" s="117" t="s">
-        <v>378</v>
-      </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="119"/>
+      <c r="B36" s="122" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="124"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="32" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D37" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="H37" s="33" t="s">
         <v>380</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -38273,13 +38312,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D38" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E38" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -38294,13 +38333,13 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D39" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E39" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F39">
         <v>2020</v>
@@ -38320,29 +38359,29 @@
       <c r="H40" s="30"/>
     </row>
     <row r="42" spans="2:8" ht="15">
-      <c r="B42" s="120" t="s">
-        <v>387</v>
-      </c>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="121"/>
+      <c r="B42" s="117" t="s">
+        <v>390</v>
+      </c>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="125"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="32" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -38350,10 +38389,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D44" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F44" s="27"/>
     </row>
@@ -38362,10 +38401,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D45" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F45" s="27"/>
     </row>
@@ -38374,52 +38413,52 @@
         <v>3</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="30"/>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="111" t="s">
-        <v>394</v>
-      </c>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="112"/>
+      <c r="B49" s="113" t="s">
+        <v>397</v>
+      </c>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="115"/>
     </row>
     <row r="50" spans="2:22" ht="15">
       <c r="B50" s="89" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C50" s="85" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D50" s="85" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H50" s="79" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="I50" s="72"/>
-      <c r="K50" s="120" t="s">
+      <c r="K50" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="121"/>
+      <c r="L50" s="125"/>
       <c r="M50" s="72"/>
       <c r="R50" s="72"/>
       <c r="S50" s="72"/>
@@ -38429,19 +38468,19 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="26" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C51" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D51" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E51" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F51" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G51" s="80">
         <v>42370</v>
@@ -38450,27 +38489,27 @@
         <v>44562</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L51" s="33" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="26" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C52" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D52" t="s">
+        <v>411</v>
+      </c>
+      <c r="E52" t="s">
+        <v>412</v>
+      </c>
+      <c r="F52" s="86" t="s">
         <v>408</v>
-      </c>
-      <c r="E52" t="s">
-        <v>409</v>
-      </c>
-      <c r="F52" s="86" t="s">
-        <v>405</v>
       </c>
       <c r="G52" s="80">
         <v>44562</v>
@@ -38479,10 +38518,10 @@
         <v>46023</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -38494,62 +38533,62 @@
       <c r="G53" s="29"/>
       <c r="H53" s="30"/>
       <c r="K53" s="28" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="2:22">
       <c r="F54" s="86"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="111" t="s">
+      <c r="B56" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="113"/>
-      <c r="H56" s="113"/>
-      <c r="I56" s="112"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="115"/>
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="32" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="26" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C58" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D58" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E58" s="80">
         <v>43466</v>
@@ -38564,18 +38603,18 @@
         <v>43466</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59" spans="2:22">
       <c r="B59" s="28" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E59" s="90">
         <v>43474</v>
@@ -38590,7 +38629,7 @@
         <v>43831</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="2:22" ht="15">
@@ -38604,156 +38643,156 @@
       <c r="L62" s="72"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="111" t="s">
+      <c r="B66" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="113"/>
-      <c r="D66" s="112"/>
-      <c r="F66" s="111" t="s">
+      <c r="C66" s="114"/>
+      <c r="D66" s="115"/>
+      <c r="F66" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="113"/>
-      <c r="H66" s="112"/>
-      <c r="J66" s="111" t="s">
+      <c r="G66" s="114"/>
+      <c r="H66" s="115"/>
+      <c r="J66" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="112"/>
+      <c r="K66" s="115"/>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="32" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K67" s="33" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="26" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C68" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F68" s="93" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H68" s="94" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="15">
       <c r="B69" s="91" t="s">
+        <v>433</v>
+      </c>
+      <c r="C69" s="92" t="s">
+        <v>372</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="F69" s="91" t="s">
+        <v>434</v>
+      </c>
+      <c r="G69" s="92" t="s">
         <v>430</v>
       </c>
-      <c r="C69" s="92" t="s">
-        <v>369</v>
-      </c>
-      <c r="D69" s="30" t="s">
+      <c r="H69" s="95" t="s">
         <v>431</v>
       </c>
-      <c r="F69" s="91" t="s">
-        <v>431</v>
-      </c>
-      <c r="G69" s="92" t="s">
-        <v>427</v>
-      </c>
-      <c r="H69" s="95" t="s">
-        <v>428</v>
-      </c>
       <c r="J69" s="28" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K69" s="30" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="125" t="s">
-        <v>434</v>
-      </c>
-      <c r="C74" s="126"/>
-      <c r="D74" s="127"/>
-      <c r="F74" s="128" t="s">
-        <v>435</v>
-      </c>
-      <c r="G74" s="128"/>
+      <c r="B74" s="127" t="s">
+        <v>437</v>
+      </c>
+      <c r="C74" s="128"/>
+      <c r="D74" s="129"/>
+      <c r="F74" s="130" t="s">
+        <v>438</v>
+      </c>
+      <c r="G74" s="130"/>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="96" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C75" s="97" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D75" s="98" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="15">
       <c r="B76" s="99" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C76" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D76" s="100" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F76" s="99" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G76" s="100" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15">
       <c r="B77" s="26" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C77" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F77" s="101" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>23</v>
@@ -38761,53 +38800,53 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="26" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C78" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="28" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="114" t="s">
-        <v>445</v>
-      </c>
-      <c r="C84" s="115"/>
-      <c r="D84" s="116"/>
+      <c r="B84" s="119" t="s">
+        <v>448</v>
+      </c>
+      <c r="C84" s="120"/>
+      <c r="D84" s="121"/>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="28" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="C86" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="15">
       <c r="B87" s="72"/>
       <c r="C87" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E87" s="72"/>
       <c r="F87" s="72"/>
@@ -38816,7 +38855,7 @@
     </row>
     <row r="88" spans="2:9">
       <c r="C88" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="15">
@@ -38826,17 +38865,17 @@
       <c r="B105" s="72"/>
     </row>
     <row r="115" spans="2:3" ht="15">
-      <c r="B115" s="129" t="s">
-        <v>450</v>
-      </c>
-      <c r="C115" s="130"/>
+      <c r="B115" s="111" t="s">
+        <v>453</v>
+      </c>
+      <c r="C115" s="112"/>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="32" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="117" spans="2:3">
@@ -38863,6 +38902,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F74:G74"/>
     <mergeCell ref="B115:C115"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="F66:H66"/>
@@ -38879,10 +38922,6 @@
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="F74:G74"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -38905,7 +38944,7 @@
   <sheetData>
     <row r="29" spans="22:22">
       <c r="V29" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="25:25">
@@ -38944,28 +38983,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="23.25">
       <c r="J1" s="12" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.25">
       <c r="C4" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="6" spans="3:10" ht="20.25">
       <c r="D6" s="10" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="20.25">
       <c r="D21" s="10" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="20.25">
       <c r="D33" s="13" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -38973,34 +39012,34 @@
     </row>
     <row r="46" spans="4:8" ht="20.25">
       <c r="D46" s="10" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="20.25">
       <c r="C59" s="11" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="61" spans="3:4" ht="20.25">
       <c r="D61" s="10" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="20.25">
       <c r="D74" s="10" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="85" spans="4:4" ht="20.25">
       <c r="D85" s="10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="296" spans="3:5" ht="18">
       <c r="C296" s="9" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -39037,10 +39076,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -39050,47 +39089,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -39145,10 +39184,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>4</v>
@@ -39157,31 +39196,31 @@
     <row r="19" spans="1:4">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D20" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -39215,128 +39254,128 @@
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
       <c r="L3" s="10" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B9" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O9" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B11" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B13" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B15" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B17" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="O17" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B19" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B21" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B23" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B25" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="O25" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="20" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="20" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="20" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25502"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_2CC011277348311CED96CC412A217BE2EB33E769" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E04DD7AC-935E-4E98-816B-9BEE86FAA51B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E822DB-8253-4CCE-8CA9-87AFA033A304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="508">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -632,6 +632,12 @@
   </si>
   <si>
     <t>Complete the profile search,create and view within next customer meeting</t>
+  </si>
+  <si>
+    <t>To complete the functionality and testing within this week</t>
+  </si>
+  <si>
+    <t>Sonar cube testing to be done by Gugan</t>
   </si>
   <si>
     <t>Team Genesis - Profile Management Project</t>
@@ -2515,6 +2521,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2533,12 +2569,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2548,31 +2578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -35952,10 +35958,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B166" workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+    <sheetView tabSelected="1" topLeftCell="B167" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -37092,6 +37098,27 @@
       <c r="C175" s="110" t="s">
         <v>191</v>
       </c>
+    </row>
+    <row r="177" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A177" s="103">
+        <v>44748</v>
+      </c>
+      <c r="B177" s="104"/>
+      <c r="C177" s="105" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A178" s="106"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="107" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A179" s="106"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -37120,7 +37147,7 @@
   <sheetData>
     <row r="5" spans="1:5">
       <c r="E5" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -37128,33 +37155,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="51">
@@ -37162,25 +37189,25 @@
         <v>1</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D19" s="39">
         <v>1</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="38.25">
@@ -37190,19 +37217,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="62.25" customHeight="1">
@@ -37212,19 +37239,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.5" customHeight="1">
@@ -37234,19 +37261,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="38.25" customHeight="1">
@@ -37256,19 +37283,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25.5">
@@ -37278,19 +37305,19 @@
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1">
@@ -37300,13 +37327,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
@@ -37318,19 +37345,19 @@
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="42" customHeight="1">
@@ -37340,17 +37367,17 @@
         <v>9</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="38.25" customHeight="1">
@@ -37360,13 +37387,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
@@ -37386,25 +37413,25 @@
         <v>2</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D30" s="39">
         <v>1</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="51">
@@ -37414,16 +37441,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I31" s="36"/>
     </row>
@@ -37434,19 +37461,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="31.5" customHeight="1">
@@ -37456,19 +37483,19 @@
         <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="34.5" customHeight="1">
@@ -37478,17 +37505,17 @@
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H34" s="36"/>
       <c r="I34" s="36" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="48" customHeight="1">
@@ -37498,19 +37525,19 @@
         <v>7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="39" customHeight="1">
@@ -37520,19 +37547,19 @@
         <v>8</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="37.5" customHeight="1">
@@ -37542,19 +37569,19 @@
         <v>9</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36.75" customHeight="1">
@@ -37564,13 +37591,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
@@ -37590,25 +37617,25 @@
         <v>3</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D40" s="39">
         <v>1</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="27" customHeight="1">
@@ -37618,17 +37645,17 @@
         <v>2</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="36" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
@@ -37638,19 +37665,19 @@
         <v>3</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30.75" customHeight="1">
@@ -37660,19 +37687,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="36.75" customHeight="1">
@@ -37682,17 +37709,17 @@
         <v>5</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="36" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="39.75" customHeight="1">
@@ -37702,13 +37729,13 @@
         <v>6</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="36"/>
@@ -37728,25 +37755,25 @@
         <v>4</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D47" s="39">
         <v>1</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="30.75" customHeight="1">
@@ -37756,19 +37783,19 @@
         <v>2</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29.25" customHeight="1">
@@ -37778,19 +37805,19 @@
         <v>3</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.5" customHeight="1">
@@ -37800,19 +37827,19 @@
         <v>4</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="32.25" customHeight="1">
@@ -37822,13 +37849,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F51" s="40" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
@@ -37894,54 +37921,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15">
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
     </row>
     <row r="3" spans="1:11" ht="15">
-      <c r="B3" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
+      <c r="B3" s="114" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="32" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -37950,28 +37977,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G5">
         <v>9876543567</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K5" s="27">
         <v>1</v>
@@ -37983,28 +38010,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G6">
         <v>9876873567</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K6" s="27">
         <v>2</v>
@@ -38015,28 +38042,28 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G7" s="29">
         <v>8975908765</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K7" s="30">
         <v>1</v>
@@ -38048,108 +38075,108 @@
       <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="113" t="s">
-        <v>354</v>
-      </c>
-      <c r="C10" s="115"/>
-      <c r="E10" s="113" t="s">
-        <v>355</v>
-      </c>
-      <c r="F10" s="115"/>
-      <c r="H10" s="113" t="s">
+      <c r="B10" s="123" t="s">
         <v>356</v>
       </c>
-      <c r="I10" s="115"/>
+      <c r="C10" s="125"/>
+      <c r="E10" s="123" t="s">
+        <v>357</v>
+      </c>
+      <c r="F10" s="125"/>
+      <c r="H10" s="123" t="s">
+        <v>358</v>
+      </c>
+      <c r="I10" s="125"/>
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="B11" s="76" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="32" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="26" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="B13" s="28" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
-      <c r="B19" s="113" t="s">
-        <v>368</v>
-      </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="115"/>
+      <c r="B19" s="123" t="s">
+        <v>370</v>
+      </c>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
       <c r="F19" s="31"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15">
       <c r="B21" s="81" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -38158,12 +38185,12 @@
         <v>37237</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15">
       <c r="B22" s="78" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C22" s="82">
         <v>2</v>
@@ -38172,7 +38199,7 @@
         <v>36903</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -38185,35 +38212,35 @@
       <c r="F25" s="31"/>
     </row>
     <row r="28" spans="2:9" ht="15">
-      <c r="B28" s="122" t="s">
-        <v>375</v>
-      </c>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
+      <c r="B28" s="111" t="s">
+        <v>377</v>
+      </c>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="32" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -38221,7 +38248,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -38239,7 +38266,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -38257,7 +38284,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D32" s="29">
         <v>1</v>
@@ -38274,37 +38301,37 @@
       <c r="C35" s="72"/>
     </row>
     <row r="36" spans="2:8" ht="15">
-      <c r="B36" s="122" t="s">
-        <v>381</v>
-      </c>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="124"/>
+      <c r="B36" s="111" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="113"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="H37" s="33" t="s">
         <v>382</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -38312,13 +38339,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D38" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E38" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -38333,13 +38360,13 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D39" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E39" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F39">
         <v>2020</v>
@@ -38359,29 +38386,29 @@
       <c r="H40" s="30"/>
     </row>
     <row r="42" spans="2:8" ht="15">
-      <c r="B42" s="117" t="s">
-        <v>390</v>
-      </c>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="125"/>
+      <c r="B42" s="114" t="s">
+        <v>392</v>
+      </c>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="116"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="32" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -38389,10 +38416,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D44" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F44" s="27"/>
     </row>
@@ -38401,10 +38428,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D45" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F45" s="27"/>
     </row>
@@ -38413,52 +38440,52 @@
         <v>3</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="30"/>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="113" t="s">
-        <v>397</v>
-      </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="115"/>
+      <c r="B49" s="123" t="s">
+        <v>399</v>
+      </c>
+      <c r="C49" s="124"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="125"/>
     </row>
     <row r="50" spans="2:22" ht="15">
       <c r="B50" s="89" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C50" s="85" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D50" s="85" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H50" s="79" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I50" s="72"/>
-      <c r="K50" s="117" t="s">
+      <c r="K50" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="125"/>
+      <c r="L50" s="116"/>
       <c r="M50" s="72"/>
       <c r="R50" s="72"/>
       <c r="S50" s="72"/>
@@ -38468,19 +38495,19 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="26" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C51" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D51" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E51" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F51" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G51" s="80">
         <v>42370</v>
@@ -38489,27 +38516,27 @@
         <v>44562</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L51" s="33" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="26" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C52" t="s">
+        <v>412</v>
+      </c>
+      <c r="D52" t="s">
+        <v>413</v>
+      </c>
+      <c r="E52" t="s">
+        <v>414</v>
+      </c>
+      <c r="F52" s="86" t="s">
         <v>410</v>
-      </c>
-      <c r="D52" t="s">
-        <v>411</v>
-      </c>
-      <c r="E52" t="s">
-        <v>412</v>
-      </c>
-      <c r="F52" s="86" t="s">
-        <v>408</v>
       </c>
       <c r="G52" s="80">
         <v>44562</v>
@@ -38518,10 +38545,10 @@
         <v>46023</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -38533,62 +38560,62 @@
       <c r="G53" s="29"/>
       <c r="H53" s="30"/>
       <c r="K53" s="28" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="2:22">
       <c r="F54" s="86"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="113" t="s">
+      <c r="B56" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="115"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="125"/>
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="32" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C58" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D58" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E58" s="80">
         <v>43466</v>
@@ -38603,18 +38630,18 @@
         <v>43466</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="2:22">
       <c r="B59" s="28" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E59" s="90">
         <v>43474</v>
@@ -38629,7 +38656,7 @@
         <v>43831</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="2:22" ht="15">
@@ -38643,156 +38670,156 @@
       <c r="L62" s="72"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="113" t="s">
+      <c r="B66" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="114"/>
-      <c r="D66" s="115"/>
-      <c r="F66" s="113" t="s">
+      <c r="C66" s="124"/>
+      <c r="D66" s="125"/>
+      <c r="F66" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="114"/>
-      <c r="H66" s="115"/>
-      <c r="J66" s="113" t="s">
+      <c r="G66" s="124"/>
+      <c r="H66" s="125"/>
+      <c r="J66" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="115"/>
+      <c r="K66" s="125"/>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="32" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K67" s="33" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="26" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C68" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F68" s="93" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H68" s="94" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="15">
       <c r="B69" s="91" t="s">
+        <v>435</v>
+      </c>
+      <c r="C69" s="92" t="s">
+        <v>374</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="F69" s="91" t="s">
+        <v>436</v>
+      </c>
+      <c r="G69" s="92" t="s">
+        <v>432</v>
+      </c>
+      <c r="H69" s="95" t="s">
         <v>433</v>
       </c>
-      <c r="C69" s="92" t="s">
-        <v>372</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="F69" s="91" t="s">
-        <v>434</v>
-      </c>
-      <c r="G69" s="92" t="s">
-        <v>430</v>
-      </c>
-      <c r="H69" s="95" t="s">
-        <v>431</v>
-      </c>
       <c r="J69" s="28" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K69" s="30" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="127" t="s">
-        <v>437</v>
-      </c>
-      <c r="C74" s="128"/>
-      <c r="D74" s="129"/>
-      <c r="F74" s="130" t="s">
-        <v>438</v>
-      </c>
-      <c r="G74" s="130"/>
+      <c r="B74" s="117" t="s">
+        <v>439</v>
+      </c>
+      <c r="C74" s="118"/>
+      <c r="D74" s="119"/>
+      <c r="F74" s="120" t="s">
+        <v>440</v>
+      </c>
+      <c r="G74" s="120"/>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="96" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C75" s="97" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D75" s="98" t="s">
+        <v>442</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="G75" s="15" t="s">
         <v>440</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="15">
       <c r="B76" s="99" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C76" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D76" s="100" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F76" s="99" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G76" s="100" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15">
       <c r="B77" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C77" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F77" s="101" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>23</v>
@@ -38800,53 +38827,53 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="26" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C78" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="28" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="119" t="s">
-        <v>448</v>
-      </c>
-      <c r="C84" s="120"/>
-      <c r="D84" s="121"/>
+      <c r="B84" s="127" t="s">
+        <v>450</v>
+      </c>
+      <c r="C84" s="128"/>
+      <c r="D84" s="129"/>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="28" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="C86" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="15">
       <c r="B87" s="72"/>
       <c r="C87" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E87" s="72"/>
       <c r="F87" s="72"/>
@@ -38855,7 +38882,7 @@
     </row>
     <row r="88" spans="2:9">
       <c r="C88" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="15">
@@ -38865,17 +38892,17 @@
       <c r="B105" s="72"/>
     </row>
     <row r="115" spans="2:3" ht="15">
-      <c r="B115" s="111" t="s">
-        <v>453</v>
-      </c>
-      <c r="C115" s="112"/>
+      <c r="B115" s="121" t="s">
+        <v>455</v>
+      </c>
+      <c r="C115" s="122"/>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="32" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" spans="2:3">
@@ -38902,18 +38929,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="J66:K66"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B49:H49"/>
@@ -38922,6 +38937,18 @@
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="F66:H66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -38944,7 +38971,7 @@
   <sheetData>
     <row r="29" spans="22:22">
       <c r="V29" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="25:25">
@@ -38983,28 +39010,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="23.25">
       <c r="J1" s="12" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.25">
       <c r="C4" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="6" spans="3:10" ht="20.25">
       <c r="D6" s="10" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="20.25">
       <c r="D21" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="20.25">
       <c r="D33" s="13" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -39012,34 +39039,34 @@
     </row>
     <row r="46" spans="4:8" ht="20.25">
       <c r="D46" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="20.25">
       <c r="C59" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="61" spans="3:4" ht="20.25">
       <c r="D61" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="20.25">
       <c r="D74" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="85" spans="4:4" ht="20.25">
       <c r="D85" s="10" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="296" spans="3:5" ht="18">
       <c r="C296" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -39076,10 +39103,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -39089,47 +39116,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -39184,10 +39211,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>4</v>
@@ -39196,31 +39223,31 @@
     <row r="19" spans="1:4">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D20" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -39254,128 +39281,128 @@
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
       <c r="L3" s="10" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B9" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B11" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B13" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B15" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B17" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="O17" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B19" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B21" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B23" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B25" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O25" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="20" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="20" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="20" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25502"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E822DB-8253-4CCE-8CA9-87AFA033A304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBB93933-D507-4536-BF5C-9ACF9A962096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="511">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -638,6 +638,15 @@
   </si>
   <si>
     <t>Sonar cube testing to be done by Gugan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold Sonar cube testing for now </t>
+  </si>
+  <si>
+    <t>Alignment  and font in the Profile view Page</t>
+  </si>
+  <si>
+    <t>Track the Project Process in Excel sheet</t>
   </si>
   <si>
     <t>Team Genesis - Profile Management Project</t>
@@ -2297,7 +2306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2521,6 +2530,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2533,10 +2560,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2557,29 +2590,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -35958,10 +35982,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B167" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -37119,6 +37143,29 @@
       <c r="A179" s="106"/>
       <c r="B179" s="23"/>
       <c r="C179" s="107"/>
+    </row>
+    <row r="181" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A181" s="102">
+        <v>44749</v>
+      </c>
+      <c r="B181" s="131"/>
+      <c r="C181" s="132" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A182" s="93"/>
+      <c r="B182" s="133"/>
+      <c r="C182" s="94" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A183" s="134"/>
+      <c r="B183" s="135"/>
+      <c r="C183" s="95" t="s">
+        <v>203</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -37147,7 +37194,7 @@
   <sheetData>
     <row r="5" spans="1:5">
       <c r="E5" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -37155,33 +37202,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="39" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="51">
@@ -37189,25 +37236,25 @@
         <v>1</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D19" s="39">
         <v>1</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="38.25">
@@ -37217,19 +37264,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="62.25" customHeight="1">
@@ -37239,19 +37286,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="37.5" customHeight="1">
@@ -37261,19 +37308,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="38.25" customHeight="1">
@@ -37283,19 +37330,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="25.5">
@@ -37305,19 +37352,19 @@
         <v>6</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1">
@@ -37327,13 +37374,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
@@ -37345,19 +37392,19 @@
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="42" customHeight="1">
@@ -37367,17 +37414,17 @@
         <v>9</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="38.25" customHeight="1">
@@ -37387,13 +37434,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
@@ -37413,25 +37460,25 @@
         <v>2</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D30" s="39">
         <v>1</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="51">
@@ -37441,16 +37488,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I31" s="36"/>
     </row>
@@ -37461,19 +37508,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="31.5" customHeight="1">
@@ -37483,19 +37530,19 @@
         <v>4</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="34.5" customHeight="1">
@@ -37505,17 +37552,17 @@
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H34" s="36"/>
       <c r="I34" s="36" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="48" customHeight="1">
@@ -37525,19 +37572,19 @@
         <v>7</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="39" customHeight="1">
@@ -37547,19 +37594,19 @@
         <v>8</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="37.5" customHeight="1">
@@ -37569,19 +37616,19 @@
         <v>9</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36.75" customHeight="1">
@@ -37591,13 +37638,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
@@ -37617,25 +37664,25 @@
         <v>3</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D40" s="39">
         <v>1</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="27" customHeight="1">
@@ -37645,17 +37692,17 @@
         <v>2</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="36" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
@@ -37665,19 +37712,19 @@
         <v>3</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30.75" customHeight="1">
@@ -37687,19 +37734,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="36.75" customHeight="1">
@@ -37709,17 +37756,17 @@
         <v>5</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="36" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="39.75" customHeight="1">
@@ -37729,13 +37776,13 @@
         <v>6</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="36"/>
@@ -37755,25 +37802,25 @@
         <v>4</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D47" s="39">
         <v>1</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="30.75" customHeight="1">
@@ -37783,19 +37830,19 @@
         <v>2</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="29.25" customHeight="1">
@@ -37805,19 +37852,19 @@
         <v>3</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.5" customHeight="1">
@@ -37827,19 +37874,19 @@
         <v>4</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="32.25" customHeight="1">
@@ -37849,13 +37896,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F51" s="40" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
@@ -37921,54 +37968,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15">
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
     </row>
     <row r="3" spans="1:11" ht="15">
-      <c r="B3" s="114" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
+      <c r="B3" s="120" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="32" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -37977,28 +38024,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G5">
         <v>9876543567</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="J5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K5" s="27">
         <v>1</v>
@@ -38010,28 +38057,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D6" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F6" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G6">
         <v>9876873567</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I6" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J6" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K6" s="27">
         <v>2</v>
@@ -38042,28 +38089,28 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G7" s="29">
         <v>8975908765</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K7" s="30">
         <v>1</v>
@@ -38075,108 +38122,108 @@
       <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="123" t="s">
-        <v>356</v>
-      </c>
-      <c r="C10" s="125"/>
-      <c r="E10" s="123" t="s">
-        <v>357</v>
-      </c>
-      <c r="F10" s="125"/>
-      <c r="H10" s="123" t="s">
-        <v>358</v>
-      </c>
-      <c r="I10" s="125"/>
+      <c r="B10" s="111" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="112"/>
+      <c r="E10" s="111" t="s">
+        <v>360</v>
+      </c>
+      <c r="F10" s="112"/>
+      <c r="H10" s="111" t="s">
+        <v>361</v>
+      </c>
+      <c r="I10" s="112"/>
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="B11" s="76" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="32" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="26" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="B13" s="28" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15">
-      <c r="B19" s="123" t="s">
-        <v>370</v>
-      </c>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="125"/>
+      <c r="B19" s="111" t="s">
+        <v>373</v>
+      </c>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="112"/>
       <c r="F19" s="31"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="32" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15">
       <c r="B21" s="81" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -38185,12 +38232,12 @@
         <v>37237</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15">
       <c r="B22" s="78" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C22" s="82">
         <v>2</v>
@@ -38199,7 +38246,7 @@
         <v>36903</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -38212,35 +38259,35 @@
       <c r="F25" s="31"/>
     </row>
     <row r="28" spans="2:9" ht="15">
-      <c r="B28" s="111" t="s">
-        <v>377</v>
-      </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
+      <c r="B28" s="117" t="s">
+        <v>380</v>
+      </c>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="32" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -38248,7 +38295,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -38266,7 +38313,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -38284,7 +38331,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D32" s="29">
         <v>1</v>
@@ -38301,37 +38348,37 @@
       <c r="C35" s="72"/>
     </row>
     <row r="36" spans="2:8" ht="15">
-      <c r="B36" s="111" t="s">
-        <v>383</v>
-      </c>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="113"/>
+      <c r="B36" s="117" t="s">
+        <v>386</v>
+      </c>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="119"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="32" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D37" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="H37" s="33" t="s">
         <v>385</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>388</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -38339,13 +38386,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D38" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E38" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -38360,13 +38407,13 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D39" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E39" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F39">
         <v>2020</v>
@@ -38386,29 +38433,29 @@
       <c r="H40" s="30"/>
     </row>
     <row r="42" spans="2:8" ht="15">
-      <c r="B42" s="114" t="s">
-        <v>392</v>
-      </c>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="116"/>
+      <c r="B42" s="120" t="s">
+        <v>395</v>
+      </c>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="121"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="32" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -38416,10 +38463,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D44" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F44" s="27"/>
     </row>
@@ -38428,10 +38475,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D45" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F45" s="27"/>
     </row>
@@ -38440,52 +38487,52 @@
         <v>3</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="30"/>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="123" t="s">
-        <v>399</v>
-      </c>
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="125"/>
+      <c r="B49" s="111" t="s">
+        <v>402</v>
+      </c>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="112"/>
     </row>
     <row r="50" spans="2:22" ht="15">
       <c r="B50" s="89" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C50" s="85" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D50" s="85" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H50" s="79" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="I50" s="72"/>
-      <c r="K50" s="114" t="s">
+      <c r="K50" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="116"/>
+      <c r="L50" s="121"/>
       <c r="M50" s="72"/>
       <c r="R50" s="72"/>
       <c r="S50" s="72"/>
@@ -38495,19 +38542,19 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="26" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C51" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D51" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E51" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F51" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G51" s="80">
         <v>42370</v>
@@ -38516,27 +38563,27 @@
         <v>44562</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L51" s="33" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="26" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C52" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D52" t="s">
+        <v>416</v>
+      </c>
+      <c r="E52" t="s">
+        <v>417</v>
+      </c>
+      <c r="F52" s="86" t="s">
         <v>413</v>
-      </c>
-      <c r="E52" t="s">
-        <v>414</v>
-      </c>
-      <c r="F52" s="86" t="s">
-        <v>410</v>
       </c>
       <c r="G52" s="80">
         <v>44562</v>
@@ -38545,10 +38592,10 @@
         <v>46023</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -38560,62 +38607,62 @@
       <c r="G53" s="29"/>
       <c r="H53" s="30"/>
       <c r="K53" s="28" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="2:22">
       <c r="F54" s="86"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="123" t="s">
+      <c r="B56" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="124"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="125"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="113"/>
+      <c r="I56" s="112"/>
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="32" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="26" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C58" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D58" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E58" s="80">
         <v>43466</v>
@@ -38630,18 +38677,18 @@
         <v>43466</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="2:22">
       <c r="B59" s="28" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E59" s="90">
         <v>43474</v>
@@ -38656,7 +38703,7 @@
         <v>43831</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="2:22" ht="15">
@@ -38670,156 +38717,156 @@
       <c r="L62" s="72"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="123" t="s">
+      <c r="B66" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="124"/>
-      <c r="D66" s="125"/>
-      <c r="F66" s="123" t="s">
+      <c r="C66" s="113"/>
+      <c r="D66" s="112"/>
+      <c r="F66" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="124"/>
-      <c r="H66" s="125"/>
-      <c r="J66" s="123" t="s">
+      <c r="G66" s="113"/>
+      <c r="H66" s="112"/>
+      <c r="J66" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="125"/>
+      <c r="K66" s="112"/>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="32" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K67" s="33" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="26" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C68" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F68" s="93" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H68" s="94" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K68" s="27" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="15">
       <c r="B69" s="91" t="s">
+        <v>438</v>
+      </c>
+      <c r="C69" s="92" t="s">
+        <v>377</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="F69" s="91" t="s">
+        <v>439</v>
+      </c>
+      <c r="G69" s="92" t="s">
         <v>435</v>
       </c>
-      <c r="C69" s="92" t="s">
-        <v>374</v>
-      </c>
-      <c r="D69" s="30" t="s">
+      <c r="H69" s="95" t="s">
         <v>436</v>
       </c>
-      <c r="F69" s="91" t="s">
-        <v>436</v>
-      </c>
-      <c r="G69" s="92" t="s">
-        <v>432</v>
-      </c>
-      <c r="H69" s="95" t="s">
-        <v>433</v>
-      </c>
       <c r="J69" s="28" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K69" s="30" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="117" t="s">
-        <v>439</v>
-      </c>
-      <c r="C74" s="118"/>
-      <c r="D74" s="119"/>
-      <c r="F74" s="120" t="s">
-        <v>440</v>
-      </c>
-      <c r="G74" s="120"/>
+      <c r="B74" s="125" t="s">
+        <v>442</v>
+      </c>
+      <c r="C74" s="126"/>
+      <c r="D74" s="127"/>
+      <c r="F74" s="128" t="s">
+        <v>443</v>
+      </c>
+      <c r="G74" s="128"/>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="96" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C75" s="97" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D75" s="98" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="15">
       <c r="B76" s="99" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C76" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D76" s="100" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F76" s="99" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G76" s="100" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15">
       <c r="B77" s="26" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C77" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F77" s="101" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>23</v>
@@ -38827,53 +38874,53 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="26" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C78" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="28" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="127" t="s">
-        <v>450</v>
-      </c>
-      <c r="C84" s="128"/>
-      <c r="D84" s="129"/>
+      <c r="B84" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="C84" s="115"/>
+      <c r="D84" s="116"/>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="28" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="C86" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="15">
       <c r="B87" s="72"/>
       <c r="C87" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E87" s="72"/>
       <c r="F87" s="72"/>
@@ -38882,7 +38929,7 @@
     </row>
     <row r="88" spans="2:9">
       <c r="C88" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="15">
@@ -38892,17 +38939,17 @@
       <c r="B105" s="72"/>
     </row>
     <row r="115" spans="2:3" ht="15">
-      <c r="B115" s="121" t="s">
-        <v>455</v>
-      </c>
-      <c r="C115" s="122"/>
+      <c r="B115" s="129" t="s">
+        <v>458</v>
+      </c>
+      <c r="C115" s="130"/>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="32" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="117" spans="2:3">
@@ -38929,6 +38976,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="J66:K66"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B49:H49"/>
@@ -38937,18 +38992,10 @@
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="F74:G74"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="F66:H66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -38971,7 +39018,7 @@
   <sheetData>
     <row r="29" spans="22:22">
       <c r="V29" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="25:25">
@@ -39010,28 +39057,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="23.25">
       <c r="J1" s="12" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.25">
       <c r="C4" s="11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="6" spans="3:10" ht="20.25">
       <c r="D6" s="10" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="20.25">
       <c r="D21" s="10" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="4:8" ht="20.25">
       <c r="D33" s="13" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -39039,34 +39086,34 @@
     </row>
     <row r="46" spans="4:8" ht="20.25">
       <c r="D46" s="10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="20.25">
       <c r="C59" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="61" spans="3:4" ht="20.25">
       <c r="D61" s="10" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="20.25">
       <c r="D74" s="10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E74" s="10"/>
     </row>
     <row r="85" spans="4:4" ht="20.25">
       <c r="D85" s="10" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="296" spans="3:5" ht="18">
       <c r="C296" s="9" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -39103,10 +39150,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -39116,47 +39163,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -39211,10 +39258,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>4</v>
@@ -39223,31 +39270,31 @@
     <row r="19" spans="1:4">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D20" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -39281,128 +39328,128 @@
   <sheetData>
     <row r="3" spans="1:15" ht="20.25">
       <c r="L3" s="10" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B9" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="O9" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B11" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B13" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B15" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B17" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="O17" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B19" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B21" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B23" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B25" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="O25" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="O32" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="15:15">
       <c r="O39" s="20" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="20" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" s="20" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/User story_Team genesis.xlsx
+++ b/Requirements/User story_Team genesis.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25518"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBB93933-D507-4536-BF5C-9ACF9A962096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{513CC24D-DB59-426E-AB81-986A2B57E95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="596">
   <si>
     <t>Modules and Attributes</t>
   </si>
@@ -1073,145 +1073,448 @@
     <t>As a HR partner, I should be able to logout the system(reused)</t>
   </si>
   <si>
-    <t>User_id</t>
-  </si>
-  <si>
-    <t>Organisation_id</t>
-  </si>
-  <si>
-    <t>Role_id</t>
-  </si>
-  <si>
-    <t>User_Name</t>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>CountryCodeId</t>
   </si>
   <si>
     <t>MobileNumber</t>
   </si>
   <si>
-    <t>MailAddress</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>RP_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR01      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R01       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brindha   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brindham  </t>
-  </si>
-  <si>
-    <t>br@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female    </t>
-  </si>
-  <si>
-    <t>**********</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR02      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R02       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ram       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramk      </t>
-  </si>
-  <si>
-    <t>ra@gmail.com</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sita      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sitam     </t>
-  </si>
-  <si>
-    <t>sita@gmail.com</t>
-  </si>
-  <si>
-    <t>Reporting_Person</t>
-  </si>
-  <si>
-    <t>Organisation</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>RP_name</t>
-  </si>
-  <si>
-    <t>Organisation_name</t>
-  </si>
-  <si>
-    <t>Role_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RP01      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RP02      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaya      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSE       </t>
-  </si>
-  <si>
-    <t>Personal_Details</t>
-  </si>
-  <si>
-    <t>Profile_id</t>
-  </si>
-  <si>
-    <t>DOB</t>
+    <t>DesignationId</t>
+  </si>
+  <si>
+    <t>ReportingPersonUsername</t>
+  </si>
+  <si>
+    <t>OrganisationId</t>
+  </si>
+  <si>
+    <t>GenderId</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>CreatedOn</t>
+  </si>
+  <si>
+    <t>UpdatedBy</t>
+  </si>
+  <si>
+    <t>UpdatedOn</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>Chitrarasu</t>
+  </si>
+  <si>
+    <t>chittu123@gmail.com</t>
+  </si>
+  <si>
+    <t>Chittu@25</t>
+  </si>
+  <si>
+    <t>Chitra@2321</t>
+  </si>
+  <si>
+    <t>Jaya19</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Gugan</t>
+  </si>
+  <si>
+    <t>guganrb@gmail.com</t>
+  </si>
+  <si>
+    <t>gugan@45</t>
+  </si>
+  <si>
+    <t>Gugan45@1924</t>
+  </si>
+  <si>
+    <t>Savitha25</t>
+  </si>
+  <si>
+    <t>Harini</t>
+  </si>
+  <si>
+    <t>harinir@gmail.com</t>
+  </si>
+  <si>
+    <t>harini@22</t>
+  </si>
+  <si>
+    <t>harini@2626</t>
+  </si>
+  <si>
+    <t>snigdha30</t>
+  </si>
+  <si>
+    <t>Kishore</t>
+  </si>
+  <si>
+    <t>kishore45@gmail.com</t>
+  </si>
+  <si>
+    <t>kishore@65</t>
+  </si>
+  <si>
+    <t>kishore@6754</t>
+  </si>
+  <si>
+    <t>Brindha</t>
+  </si>
+  <si>
+    <t>brindham@gmail.com</t>
+  </si>
+  <si>
+    <t>Brindha@77</t>
+  </si>
+  <si>
+    <t>brindha@1234</t>
+  </si>
+  <si>
+    <t>TestUser</t>
+  </si>
+  <si>
+    <t>testuser@gmail.com</t>
+  </si>
+  <si>
+    <t>test.user</t>
+  </si>
+  <si>
+    <t>8SXPE/yqAh1+3/1Lpy011chfjhPa9wCMfrYG2xlGmL8=</t>
+  </si>
+  <si>
+    <t>jayaethiraj</t>
+  </si>
+  <si>
+    <t>Nathish</t>
+  </si>
+  <si>
+    <t>nathish@gmail.com</t>
+  </si>
+  <si>
+    <t>nathish.kumar</t>
+  </si>
+  <si>
+    <t>BVGaa/FWTbhVPdTFDt3iF8qB4Nkz6qj5BBI7yyWMiPg=</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>sadik@gmail.com</t>
+  </si>
+  <si>
+    <t>kumar.raj</t>
+  </si>
+  <si>
+    <t>Jayaethiraj</t>
+  </si>
+  <si>
+    <t>saikishore</t>
+  </si>
+  <si>
+    <t>vinay</t>
+  </si>
+  <si>
+    <t>vinay@gmail.com</t>
+  </si>
+  <si>
+    <t>Vinay.kumar</t>
+  </si>
+  <si>
+    <t>ProfileId</t>
+  </si>
+  <si>
+    <t>ProfileStatusId</t>
+  </si>
+  <si>
+    <t>ProfileStatusName</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Declined</t>
+  </si>
+  <si>
+    <t>TechnologyId</t>
+  </si>
+  <si>
+    <t>TechnologyName</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>DotNet</t>
+  </si>
+  <si>
+    <t>Lamp</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Sql</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>EBA</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>SocialMedia_Id</t>
+  </si>
+  <si>
+    <t>SocialMedia_Name</t>
+  </si>
+  <si>
+    <t>SocialMedia_Link</t>
+  </si>
+  <si>
+    <t>PersonalDetailsId</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>www.linkedin.com</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>www.telegram.com</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>www.facebook.com</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>www.twitter.com</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>www.instagram.com</t>
+  </si>
+  <si>
+    <t>SkillId</t>
+  </si>
+  <si>
+    <t>DomainId</t>
+  </si>
+  <si>
+    <t>ProjectId</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>ProjectDescription</t>
+  </si>
+  <si>
+    <t>StartingMonth</t>
+  </si>
+  <si>
+    <t>StartingYear</t>
+  </si>
+  <si>
+    <t>EndingMonth</t>
+  </si>
+  <si>
+    <t>EndingYear</t>
+  </si>
+  <si>
+    <t>ToolsUsed</t>
+  </si>
+  <si>
+    <t>PMS</t>
+  </si>
+  <si>
+    <t>Create a Profile</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Figma</t>
+  </si>
+  <si>
+    <t>TMS</t>
+  </si>
+  <si>
+    <t>Monitor the Trainee</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>Balsamic</t>
+  </si>
+  <si>
+    <t>IMS</t>
+  </si>
+  <si>
+    <t>Interview process</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>JIRA</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>Award Distribution</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>QMS</t>
+  </si>
+  <si>
+    <t>Query Management</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
   </si>
   <si>
     <t>Nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">PR01      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indian    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR02      </t>
-  </si>
-  <si>
-    <t>User_Language</t>
-  </si>
-  <si>
-    <t>Language_id</t>
+    <t>DateOfJoining</t>
+  </si>
+  <si>
+    <t>base64header</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>My description</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>to work a good professional</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,</t>
+  </si>
+  <si>
+    <t>0x</t>
+  </si>
+  <si>
+    <t>Next generation intelligent information management platform that improves business performance by helping people find and use information more effectively. Unlike traditional enterprise content management (ECM) systems or content services platforms, it unifies systems, data and content across the organization without</t>
+  </si>
+  <si>
+    <t>OrganisationName</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>UI/UX</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>LanguageId</t>
+  </si>
+  <si>
+    <t>LanguageName</t>
   </si>
   <si>
     <t>Read</t>
@@ -1223,64 +1526,49 @@
     <t>Speak</t>
   </si>
   <si>
-    <t>isactive</t>
-  </si>
-  <si>
-    <t>Breakdown</t>
-  </si>
-  <si>
-    <t>Breakdown_id</t>
-  </si>
-  <si>
-    <t>Starting_month</t>
-  </si>
-  <si>
-    <t>Ending_month</t>
-  </si>
-  <si>
-    <t>Starting_year</t>
-  </si>
-  <si>
-    <t>Ending_year</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>Social_Media</t>
-  </si>
-  <si>
-    <t>Social_Media_id</t>
-  </si>
-  <si>
-    <t>Social_Media_Name</t>
-  </si>
-  <si>
-    <t>Social_Media_Link</t>
-  </si>
-  <si>
-    <t>Linkedin</t>
-  </si>
-  <si>
-    <t>Twitter</t>
-  </si>
-  <si>
-    <t>Telegram</t>
-  </si>
-  <si>
-    <t>Education_Details</t>
-  </si>
-  <si>
-    <t>Education_id</t>
-  </si>
-  <si>
-    <t>College_id</t>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>Malayalam</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>GenderName</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>EducationId</t>
   </si>
   <si>
     <t>Degree</t>
@@ -1289,166 +1577,160 @@
     <t>Course</t>
   </si>
   <si>
-    <t>Starting_Year</t>
-  </si>
-  <si>
-    <t>Ending_Year</t>
-  </si>
-  <si>
-    <t>PR01</t>
-  </si>
-  <si>
-    <t>ED01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C01       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE       </t>
-  </si>
-  <si>
-    <t>College_Name</t>
-  </si>
-  <si>
-    <t>ED02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C02       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIT       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKCT      </t>
-  </si>
-  <si>
-    <t>Project_id</t>
-  </si>
-  <si>
-    <t>Project_name</t>
-  </si>
-  <si>
-    <t>Starting_Month</t>
-  </si>
-  <si>
-    <t>Ending_Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P012      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big data  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">P017      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haddop    </t>
-  </si>
-  <si>
-    <t>Skill_id</t>
-  </si>
-  <si>
-    <t>Domain_id</t>
-  </si>
-  <si>
-    <t>Technology_id</t>
-  </si>
-  <si>
-    <t>Domain_name</t>
-  </si>
-  <si>
-    <t>Technology_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S01       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D01       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE01      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S02       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D02       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE02      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java      </t>
-  </si>
-  <si>
-    <t>Achievements</t>
-  </si>
-  <si>
-    <t>AchievementType</t>
-  </si>
-  <si>
-    <t>AchievementsId</t>
+    <t>CollegeId</t>
+  </si>
+  <si>
+    <t>Starting</t>
+  </si>
+  <si>
+    <t>Ending</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>BTech</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Bsc</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MTech</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>DomainName</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>DesignationName</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>SLO</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>CountryCodeName</t>
+  </si>
+  <si>
+    <t>CollegeName</t>
+  </si>
+  <si>
+    <t>SKCET</t>
+  </si>
+  <si>
+    <t>SKCT</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>PSNA</t>
+  </si>
+  <si>
+    <t>CIT</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Kumaraguru</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>GCT</t>
+  </si>
+  <si>
+    <t>BreakDuration_Id</t>
+  </si>
+  <si>
+    <t>StartingDuration</t>
+  </si>
+  <si>
+    <t>EndingDuration</t>
   </si>
   <si>
     <t>AchievementTypeId</t>
   </si>
   <si>
-    <t>AC01</t>
-  </si>
-  <si>
-    <t>ACT01</t>
+    <t>AchievementTypeName</t>
   </si>
   <si>
     <t>Awards</t>
   </si>
   <si>
-    <t>AC02</t>
-  </si>
-  <si>
-    <t>ACT02</t>
-  </si>
-  <si>
-    <t>AC03</t>
-  </si>
-  <si>
-    <t>AC04</t>
-  </si>
-  <si>
-    <t>ProfileHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProfileHistoryId </t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>PR02</t>
-  </si>
-  <si>
-    <t>PR03</t>
-  </si>
-  <si>
-    <t>User_Profile_History</t>
-  </si>
-  <si>
-    <t>Profile_history_id</t>
-  </si>
-  <si>
-    <t>File_location</t>
+    <t>Certificates</t>
+  </si>
+  <si>
+    <t>AchievementId</t>
+  </si>
+  <si>
+    <t>AchievementImage</t>
+  </si>
+  <si>
+    <t>0xFFD8FFE000104A46494600010100000100010000FFDB0084000303030303030404040405050505050707060607070B08090809080B110B0C0B0B0C0B110F120F0E0F120F1B151313151B1F1A191A1F26222226302D303E3E54010303030303030404040405050505050707060607070B08090809080B110B0C0B0B0C0B110F120F0E0F120F1B151313151B1F1A191A1F26222226302D303E3E54FFC2001108015001A103012200021101031101FFC4001D000101000202030100000000000000000000010408020703050609FFDA0008010100000000FD408B016000B000002C58B978254A4B2CB0B0128B01516525472CCC0AB0160030BADBE73D5E0BD87D9F6B5A000B162E6E0D580B00626AA741F82897EBB6CBB6000162C5CCC12A5259658783457AE2CB2A58D91DA6A2A2CA4A8E599835602C071D68D601601C768B65E80162C5CCC15B2509427E7AFC912CA949ECBF483CE940251733056C94250F53F9B7C89654A26FEFDE2500945CDC0AB01603AEB4302C00DCAEEDA00B162E6E015292CB2C74CE97459654B2C6D6EC4F254594951CB3306AC0581C7A1750C2C00D9DD9AA00B162E6605580B02745E9E05801B45B2B40162C5CCC22A5259658F8BFCFB2CB2A5964DC3EF5AA8B292A2E6E0AD9284A13F36FD612CA9471DF3EC5E52804A2E660AD9284A1D7FA0E2595289F79BFA94025173304A94965963E77F3A2ACB2A5963B4F792AA2CA4A8B9B815602C03F397D08B00365B686802C58B9B835602C078F4FBA3058038EF6F6650058B173304A94965962752E912CB2A5967BFF00D15F2151652545CDC1AB0160134D7A48B009BCDDA5400B162E660AD9284A12F5F683D9654A7DCEFEF22500945CCC15B2509425F1FE737A49654ABB1BB53494025173306AC05801D03A8AB00FD2ACE000B162E6E015292CB2C2CEA6D219654B33FF00493CA1516525472CCC1AB016009A89D06B00DCBEECA002C58B99815602C038FC1E8F7A658076B6E5FB6A0058B173704A9496596275A68E6359654B2CEC1DE4F6654594951CB33056C942527ABD6BD73F1D4B2A50FABDBCECDE740251733056C94257A9E8CD72F9CA25952847666C0F726400945CCC12A5259D69D0BD27E02C59654B2C09EDFBE3BF3EBACA4A8E599815607ABE89E83F8CA00B000076877DF7379AD8B173706AC3AABA13A7BC00016000071F75DD5B03F6A58B998254E83D432CB2C2C59654B2C05458F36FA7DF545CDC1AB1A55D3858002C00000DA1D9758B9982B64FCF1F961284A259528094076D6EDF31733056CF59F9B344A1289654A0250197FA51E5173306ACEB5D1116000B000001BE5D8D62E660966BF6A492CB2C2C59654B2C054595369B64AC72CCC1AB35CF54B9458965854E52A596452A0B26C4ED7738B9BEBEACEABE99E7273E3C679385E273BC3C9C6838F173A388E4E1DA3DCFCE2E6E095204A1289654A025007245CCC5E36C94250944B2A5012804A2E5FF00FFC40014010100000000000000000000000000000000FFDA000A020210031000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000003FFC4004110000102030308050906060300000000000102030004110516910612132130315053404151526122323342627181A1C114237282B1D12434436364A2607392FFDA0008010100013F02AC54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C54C6BFF008638E34C8AB8E2503C4C396CD9CDFF0050ABF0A60E50C9F536E9C045E26BAA5D7FFA8BC7FE2FFBC5E3FF0017FDE13944CFAD2EB1EE54336D483C699E507DB1F58AD4546EE16B5A1A415AD59A94EF313B6F3AB2512DE427BFEB185294B35512A3DA7612B3D3326AAB6AD5D693E69891B5A5E6E893F76E774F5FBB84A949424A9468948A93168DA0B9E77AC369F353F53B4B32D920A59993AB7073F7E11941364664B27AC672FE836D614F957F0AE1EAFBB3E03AB83CFBDF689C79CED5EAF70DB32E961D43A37A1558490A008DC45782BEBD130EB9DD428F40B31CD2D9F2EAF62986AE0B6B2B32CD98F100627A0580AAC853BAEABF7E0B6F288B3E9DE7123A064E1FB9981FDC1FA705CA1FE51AFF00B7E9D0327374CFE4E0B9409AC920F63A3E63A064E0F22655ED247CB82DA2CE9E45F47B151F0D7D0327D349252A9E73A7E5C19E6F42F38DF75446DEC96F47674B8ED4E763C16D52459B314EEFD7A04838E9B4254E71273C0F87059B6F4D28F37DE6CF40B15BD25A2D9EE052B834D35F679975AEEACEDF271BD730EFE14FD7835BED66CE25CEA711F31AB6F6433A1B3DAAEF50CF3F9B835B32A6624C948AADB39C3DDD7B6959754DCC36C8F5BCEF04F5C0000A0EAE0F6C59C2555A66FD1ACEEEC3B5B32CE122D9CED6EAFCF3F4E116A37A5907C76273B0DA598D69A7D84F62B38FE5E12405020EE2286265854B3CB695EA9F96CF27A59456E4C91E4D3313E3DBC2B2819499643B419C95815F03B2DF41DA61B6D0CA0210901291A80E156D849B3D5550073814F8D364D0ABAD8F6D3FAC020EB06A3856503F9F328647F4D3AFDEAD9D82FE924B47D6D2A9F03BB84CD5A52926E250E9554F5015A7BE261D330FB8E9F5D44ECEC69A44ACD1D22B350B4509FD2197D9986F48D28293DBC1ED0B4DA9114F39D23527B3DF0B5ADD595ACE72946A4ED6CF9F548BD5DE8579C9FAC34EB6F202DB50524F5F0475E69846738B4A478C4E5BCA57912A0A7FB877FC2092A3526A4EDE5275F925E73477EF49DC624ED6959BD55D1B9DD57D0F0179E6A5D39CEB8103C6263281A4EA976CACF795BA2666DF9C733DD554EE1D83A1CADAD392A3342B3D3DD56B897B764DDA072AD1F1D63184A82C67248503D63A64C5AD232FAB499EAEEA35C4C5BD36E8A340343C35AA14B52CE7294547B4EBE8ECCC3F2EAAB4B28F744BE50B828261B0AF693A8E112F3D2B35E89D04F74EA3D1DE7D9974D5E71281E3131940D27530D95FB4AD430899B426E6BD23A69DD1A874D97B5E765F567E913DD5EB897B7651ED4E5593E3AC4254958CE4A828768D7D0A6AD8939539B52E2FB13D5F187EDE9D775379AD0F0DF8C2D6B71454B2544EF2780B330FCB2AAD38A47BA18CA0793A9F4058ED1A8C4ACFCACE7A25F95DC3A8EDEDD9D532DA5841A1735AFF000F0604A48293423718B366FED92A95ABCF150AF78DB5BABCEB408EE212383E4E39E4CC37E215F4DB4F39A69C7D7DAE1E0F623BA3B4123A9C494FEDB5757A269C5F7504C6FE0EDB85A710E0F5140E100D402371DA5AEBD1D9CF7B544E3C26C97B4D20C9EB48CD3F9769944A3F66653DAE1F90E1393AF790FB5D84287C769947E865FF001ABF4E13939E9A67F027F5DA5A920E4FA1A4A1694E6A89D717766B9ED6062EECCF3DAC0C5DD99E7B5818BBB33CF6B031776679ED6062EECCF3DAC0C5DD99E7B5818BBB35CF6B031776679ED6062EECCF3DAC0C5DD99E7B5818BBB35CF6B0317766B9ED6062EECD73DAC0C5DD99E7B5818BBB33CF6B031776679ED6062EECCF3DAC0C5DD99E7B5818BBB33CF6B031776679ED6062EECCF3DAC0C5DD99E7B5818BBB33CF6B031776679ED6062EECCF3DAC0C5DD9AE7B5818BBB35CF6B031776679ED6062EECCF3DAC0C5DD99E7B5818BBB33CF6B031776679ED6062EECCF3DAC0C5DD99E7B5818BBB33CF6B031776679ED6062EECCF3DAC0C5DD99E7B5818BBB35CF6B03165598EC82DD52D68567A40D5E1C729C57FFC4002A100001030204050403010000000000000001001131516110214041203071819150A1B1F0C1D1F1E1FFDA0008010100013F2124F2AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B8AE2B88170CF033A97D5091819D29CF4D25933FB87E590C9C3F9D0FE937EBFA4DFA7E916DD8828508B581E192000202504660A7D2891819D18E704E5D9504777B1444678DC73EFC87D3EB5D85DDDA645769448C0CE8823CC150005971DBEE6E7970C5575A522DFBA19E8C48C0CE88015073B334848224FA6DA3123033A101C81545DB883C51CEC9F42F150B483A1CF4424606743FC43021CE6755C001F5D1424606742F8FF14D010CD883BFFAD1091819D09586E9EE7F0B7E79339191D5468448C0CE84F41502FF00968848C0CE84FF00DBC683C137968848C0CE87219CBBACA9CF9FD7E1A806D1091819D0B0391832A3439FD58F3EB61BCAFA2123033A124CDA3B107D01D9294BB363A68848C0CE86BD31EA03A1CFA2077C37E7442460674396F1BA292DA76DB9F9A2CFCB442460674251448C917EEB9C6BB09451418AEA93E8848C0CE88CC18B1D83CE1932CD4248480C00002C344242C919D16E82B649AFCFC1E6740E4E40551B8836676B7A68C48C0CE8EBB8C3BDF98FE0CBB06643462460674799191D03920FCC4A05F61E5B0401ED4EE4348246067499DF9BBE8F299D401E4A6C6200C869048C0CE903E241899480E55CE5327448220E9048C0CE9046193FE57C72C0E247BCD2048C0CE8CFD427392527B3CAC72CAE12C7546648489659951B67A3123033A283F2CEADE94612E0773CD34CF97FC4B850B400FB3A2121648CE82E4ECA7A0DD0D3E423A3647A510E492E49BF3CB32354EB0424185627E45989D0091819E775728CCF41250E3D007C64A13184180181403462C08ECBB194D20FFA410AC02238E7091819E5B129F4997757308E2B7FC828DCA32425EFA77D5AEC8F51BA2004DFFCC26B70FF0004F3048C0CF268489EC4F409F4A36FF409CDE9FF00246B3774DB90FF000194D4337E9210D957759EC9F902460678A51A00AA6C5747AE83BF9148448393DCFA0BC31BB99FB26AFA77ECBCE8FAA78C48C0CF135FD120901B7751E8A7E85383262887C1C67E4EFC42460678862F71F9FCFA380EE00DD08FD38848C0CF08CC80B35DFDA8C87A38CC9F74CA0CF8448C0CF0FF0037B09E477CFD1E463C89D08C9C008363C2246067845561E6FA44A7B247B4E1123033C2107071FA5FD25E27FCD4FC70891819E1FA2A3D27EAEAE1123033C26A098224BB8B71C18E38E38E7FA10C18E18C10418E38638E38E38E38E30418E38E38E38638638C00E2820272713BF0891819E2609826098260982609826098260982609826098260982609826098260982609826098260982609826098260982609826098710918124C6898D131A26344C6898D131A26344C6898D131A26344C6898D131A26344C6898D131A26344C6898D131A26344C6898D131A26344C6898D131A26344C6898D131A26344C6898D131A26344C6898D131A26344C6898D131A26344C6898D1005C6587FFFC4002710000201040104030101010101000000000001111021314191205181D16171A1B1C1F030E1FFDA0008010100013F105D926C960E4A4AA9272526E52506E1FC343FA45D0492E028360B0AA12A84AA1380AA13F87A8924E02FA8924941B149FD342D7C945FB99FECD1DE8ABDE9BA2367AA7B1743C0A8DAEE4DA4832689AEF4EC2A7AEB7D7AA7BA7E847933DF6689CD156734DD11B3D53D8AB24B12C92995F14EE3E84D442FE601D44461C21FEB174E4BD415F83B7CC6FDF81C6BBE3E0E5218172CB829428AACBC90EE9AB33442A7AEB7D7AA7BA771B4419FECD1DE8ABDE9BA2367AA7B155A6F38D45FD7D90BD1DC65FE9C4CE009B779917DDC62E8B7614AE599FF00635FB421D495F78DF061C5E69EBADF5EA9EE9FA11633E726B677C9C8BC9C9C9DF2726F6722F26F67383939C8BC9C8EC185C659B2EF37DECFC5BFC884AF02F26B63F272722F2722F2722964369A69A8B434E534F4D7724C4F0DEEBC77FE03244D5D42BA39C1C9AD9C9C9C9B591F93937B3939393935B35B39C9C9F2328B119FD9A2D7A2ADAF4DD11B3D53D8876D9125510DA9BDFDA3C08D0EAA8AB6DFCAE48A63CAC22FE390BADF5EA9EE9FA1122DFF0064588C9024410464822E40911723F8411FD1213DF9038BC6DFE1A206AC244586848812204882302433780DFC3DD79438E4D8A9CCA6041041041034410410409116208FE902722A3DFF0064D89C92264924E4926E48993727F8493FD1314D9C73AD81ECAF2F6C91BB099361B13244C913249C098D161BD7F6C4F1C12C6DFC2492492491B249249244C9B124FF00491B9112C8CFECD16BD156D7A6E88D9EA9EC440B29AB8EEA0B38A3C08D0EAA8A96B085943FC9107DA85DE42C753EBD53DD3F42A67CE4D6CEF93917939393BE4E4DECE45E4DECE707273930B63B18F0C4BFB8B771C8F1B17935B1F9393917939179393B645E489EF81A7AD6D76034A35B39393936B23F2726F6727272726B66B6739393E46511F667FB3477A2AF7A6E88D9EA9EC781A977BFF2F57811A1D55153B08F45DA537E14A1753EBD53DD3F422119EDB344668AB19A6E88D9EA9EC8942098996EC05AC51E04687554548C08C19D67C134BF452D63A9F5EA9EE9FA11633FD9A3BD157BD37446CF54F6215FE41CDFC13504DD1E0468755454EC21A56256453976C158EA7D7AA7BA7E84499F193477A2AF7A6E88D9EA9EC42B12D35F57665E08311CA4724E8F02343AAA2A7610ED7B086D66F4ECDB6BB8159753EBD53DD3F4224CF8C9A3BD157BD37446CF54F621CA463BB17E2AF02343AAA2A7610EEA040BC94B88693886888EA7D7AA7BA7C0CAA67FB3477A2AF7A6E88D9EA9EC4465743B617F50F293C4AA3C08D0EAA8A9D85477F8F4C3FA563A9F5EA9EE9FA1533DF6689CD156734DD11B3D53D88576ED64F879174447FCCA5B8747811A1D551527022E25A6C7F59272BA9F5EA9EE9DC6D533FD9A3BD157BD37446CF54F6222D431E857651D11E0468755454EC22094B04B7643F626117FF350BA9F5EA9EE9FA1533E726B677C9C8BC9C9C9DF2726F6722F26F67383939C8BC8D1B0CAC9E03C5C5787DC78D8BC9AD8FC9C9C8BC9C8BC9C9DB3472489D1F259F1161BFBB6B2212E0E4D6CE4E4E4DAC8